--- a/行业/食品饮料/调味品/调味品.xlsx
+++ b/行业/食品饮料/调味品/调味品.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>定性问题</t>
   </si>
@@ -277,6 +277,51 @@
   </si>
   <si>
     <t>仲景食品</t>
+  </si>
+  <si>
+    <t>恒顺醋业</t>
+  </si>
+  <si>
+    <t>雪天盐业</t>
+  </si>
+  <si>
+    <t>安记食品</t>
+  </si>
+  <si>
+    <t>日辰股份</t>
+  </si>
+  <si>
+    <t>朱老六</t>
+  </si>
+  <si>
+    <t>佳隆股份</t>
+  </si>
+  <si>
+    <t>莲花控股</t>
+  </si>
+  <si>
+    <t>太太乐</t>
+  </si>
+  <si>
+    <t>涪陵榨菜</t>
+  </si>
+  <si>
+    <t>安琪酵母</t>
+  </si>
+  <si>
+    <t>中国粮油控股</t>
+  </si>
+  <si>
+    <t>五得利面粉</t>
+  </si>
+  <si>
+    <t>金龙鱼</t>
+  </si>
+  <si>
+    <t>鲁花</t>
+  </si>
+  <si>
+    <t>福临门</t>
   </si>
   <si>
     <t>货币资金同比增长率</t>
@@ -881,7 +926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -993,33 +1038,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1151,7 +1169,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,34 +1181,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,26 +1450,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1462,40 +1462,22 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1510,17 +1492,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1532,88 +1505,52 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2205,18 +2142,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG85"/>
+  <dimension ref="A1:AG221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E87" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
+    <col min="1" max="1" width="12.7692307692308" customWidth="1"/>
     <col min="2" max="2" width="9.23076923076923" style="16"/>
     <col min="3" max="3" width="13.1442307692308" style="16" customWidth="1"/>
     <col min="4" max="4" width="10.3076923076923" style="16" customWidth="1"/>
@@ -2250,152 +2188,152 @@
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="29" customHeight="1" spans="1:33">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="67" t="s">
+      <c r="V1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="72" t="s">
+      <c r="X1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="Y1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="52" t="s">
+      <c r="Z1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="52" t="s">
+      <c r="AA1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="80" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="52" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="92" t="s">
+      <c r="AD1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="93" t="s">
+      <c r="AE1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="94" t="s">
+      <c r="AF1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AG1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="1" spans="1:33">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="30"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="53"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>2023</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="1">
         <v>2014</v>
       </c>
       <c r="E3" s="30">
@@ -2467,40 +2405,40 @@
       <c r="W3" s="13">
         <v>24559312356.59</v>
       </c>
-      <c r="X3" s="74">
+      <c r="X3" s="62">
         <v>5560600544</v>
       </c>
-      <c r="Y3" s="82">
+      <c r="Y3" s="67">
         <v>5560600544</v>
       </c>
-      <c r="Z3" s="83" t="s">
+      <c r="Z3" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="85"/>
+      <c r="AB3" s="69"/>
       <c r="AC3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="85" t="s">
+      <c r="AD3" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="97" t="s">
+      <c r="AE3" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="108" t="s">
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="57"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2022</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="30">
         <f>(S4+T4)/(R4+负债表!F4)</f>
         <v>0.229272601353489</v>
@@ -2570,30 +2508,30 @@
       <c r="W4" s="13">
         <v>25609651543.29</v>
       </c>
-      <c r="X4" s="75">
+      <c r="X4" s="63">
         <v>4633833787</v>
       </c>
-      <c r="Y4" s="82">
+      <c r="Y4" s="67">
         <v>4633833787</v>
       </c>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="87"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
       <c r="AC4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="109"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="70"/>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="57"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2021</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="30">
         <f>(S5+T5)/(R5+负债表!F5)</f>
         <v>0.282830271598412</v>
@@ -2663,30 +2601,30 @@
       <c r="W5" s="13">
         <v>25004031043.49</v>
       </c>
-      <c r="X5" s="75">
+      <c r="X5" s="63">
         <v>4212576170</v>
       </c>
-      <c r="Y5" s="82">
+      <c r="Y5" s="67">
         <v>4212576170</v>
       </c>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="87"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
       <c r="AC5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="109"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="70"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="57"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="30">
         <f>(S6+T6)/(R6+负债表!F6)</f>
         <v>0.316621502214016</v>
@@ -2756,30 +2694,30 @@
       <c r="W6" s="13">
         <v>22791873936.49</v>
       </c>
-      <c r="X6" s="75">
+      <c r="X6" s="63">
         <v>3240443208</v>
       </c>
-      <c r="Y6" s="82">
+      <c r="Y6" s="67">
         <v>3240443208</v>
       </c>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="87"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
       <c r="AC6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="109"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="70"/>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="57"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>2019</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="30">
         <f>(S7+T7)/(R7+负债表!F7)</f>
         <v>0.322394621111401</v>
@@ -2804,7 +2742,7 @@
         <f>(负债表!F7)/P7</f>
         <v>0.00079179480499652</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="54">
         <f t="shared" si="3"/>
         <v>0.226618472154364</v>
       </c>
@@ -2849,28 +2787,28 @@
       <c r="W7" s="13">
         <v>19796889800.07</v>
       </c>
-      <c r="X7" s="75">
+      <c r="X7" s="63">
         <v>2700369340</v>
       </c>
-      <c r="Y7" s="82">
+      <c r="Y7" s="67">
         <v>2700369340</v>
       </c>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="87"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
       <c r="AC7" s="28"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="109"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="70"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="57"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>2018</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="30">
         <f>(S8+T8)/(R8+负债表!F8)</f>
         <v>0.314024228199126</v>
@@ -2891,11 +2829,11 @@
         <f t="shared" si="8"/>
         <v>0.31056534390678</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="55">
         <f>(负债表!F8)/P8</f>
         <v>0.000973004638934144</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="54">
         <f t="shared" si="3"/>
         <v>0.236500047209247</v>
       </c>
@@ -2940,30 +2878,30 @@
       <c r="W8" s="13">
         <v>17034475127.23</v>
       </c>
-      <c r="X8" s="75">
+      <c r="X8" s="63">
         <v>2700369340</v>
       </c>
-      <c r="Y8" s="82">
+      <c r="Y8" s="67">
         <v>2696886700</v>
       </c>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="87"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="109"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="70"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="57"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>2017</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="30">
         <f>(S9+T9)/(R9+负债表!F9)</f>
         <v>0.300243011642522</v>
@@ -2984,11 +2922,11 @@
         <f t="shared" si="8"/>
         <v>0.279862592937587</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="28">
         <f>(负债表!F9)/P9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="54">
         <f t="shared" si="3"/>
         <v>0.242107765186688</v>
       </c>
@@ -3018,10 +2956,10 @@
       <c r="R9" s="12">
         <v>11764173507.61</v>
       </c>
-      <c r="S9" s="69">
+      <c r="S9" s="58">
         <v>3531478779.33</v>
       </c>
-      <c r="T9" s="70">
+      <c r="T9" s="12">
         <v>632104.08</v>
       </c>
       <c r="U9" s="45">
@@ -3030,33 +2968,33 @@
       <c r="V9" s="13">
         <v>4720977581.77</v>
       </c>
-      <c r="W9" s="76">
+      <c r="W9" s="64">
         <v>14584310896.6</v>
       </c>
-      <c r="X9" s="75">
+      <c r="X9" s="63">
         <v>2701206700</v>
       </c>
-      <c r="Y9" s="74">
+      <c r="Y9" s="62">
         <v>2696886700</v>
       </c>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="87"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
       <c r="AC9" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="109"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="70"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="57"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>2016</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="30">
         <f>(S10+T10)/(R10+负债表!F10)</f>
         <v>0.283922451698562</v>
@@ -3077,7 +3015,7 @@
         <f t="shared" si="8"/>
         <v>0.256233500647508</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="28">
         <f>(负债表!F10)/P10</f>
         <v>0</v>
       </c>
@@ -3114,7 +3052,7 @@
       <c r="S10" s="12">
         <v>2843133968.17</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="57">
         <v>0</v>
       </c>
       <c r="U10" s="45">
@@ -3126,30 +3064,30 @@
       <c r="W10" s="13">
         <v>12458558940.81</v>
       </c>
-      <c r="X10" s="75">
+      <c r="X10" s="63">
         <v>2704950700</v>
       </c>
-      <c r="Y10" s="77">
+      <c r="Y10" s="65">
         <v>271746700</v>
       </c>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="87"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
       <c r="AC10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="109"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="70"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="57"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>2015</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="30">
         <f>(S11+T11)/(R11+负债表!F11)</f>
         <v>0.286778236485815</v>
@@ -3170,7 +3108,7 @@
         <f t="shared" si="8"/>
         <v>0.238900339649918</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="28">
         <f>(负债表!F11)/P11</f>
         <v>0</v>
       </c>
@@ -3204,10 +3142,10 @@
       <c r="R11" s="12">
         <v>8751125601.73</v>
       </c>
-      <c r="S11" s="71">
+      <c r="S11" s="59">
         <v>2509632367.33</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="13">
         <v>0</v>
       </c>
       <c r="U11" s="45">
@@ -3219,30 +3157,30 @@
       <c r="W11" s="13">
         <v>11294380030.09</v>
       </c>
-      <c r="X11" s="75">
+      <c r="X11" s="63">
         <v>2706246000</v>
       </c>
-      <c r="Y11" s="74">
+      <c r="Y11" s="62">
         <v>269460000</v>
       </c>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="87"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
       <c r="AC11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="109"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="70"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="57"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>2014</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="30">
         <f>(S12+T12)/(R12+负债表!F12)</f>
         <v>0.279103975335185</v>
@@ -3263,7 +3201,7 @@
         <f t="shared" si="8"/>
         <v>0.31931750503582</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="28">
         <f>(负债表!F12)/P12</f>
         <v>0</v>
       </c>
@@ -3297,10 +3235,10 @@
       <c r="R12" s="12">
         <v>7487912155.39</v>
       </c>
-      <c r="S12" s="71">
+      <c r="S12" s="59">
         <v>2089906049.53</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="13">
         <v>0</v>
       </c>
       <c r="U12" s="45">
@@ -3312,30 +3250,30 @@
       <c r="W12" s="13">
         <v>9817189662.62</v>
       </c>
-      <c r="X12" s="75">
+      <c r="X12" s="63">
         <v>1503580000</v>
       </c>
-      <c r="Y12" s="74">
+      <c r="Y12" s="62">
         <v>149700000</v>
       </c>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="87"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
       <c r="AC12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="109"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="70"/>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="57"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>2013</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="30">
         <f>(S13+T13)/(R13+负债表!F13)</f>
         <v>0.410382890750542</v>
@@ -3356,7 +3294,7 @@
         <f t="shared" si="8"/>
         <v>0.417678190862682</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="28">
         <f>(负债表!F13)/P13</f>
         <v>0</v>
       </c>
@@ -3390,7 +3328,7 @@
       <c r="R13" s="12">
         <v>3914438998.01</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="59">
         <v>1606418791.67</v>
       </c>
       <c r="T13" s="13">
@@ -3405,29 +3343,29 @@
       <c r="W13" s="13">
         <v>8401589320.86</v>
       </c>
-      <c r="X13" s="75">
+      <c r="X13" s="63">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="Y13" s="77">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="87"/>
+      <c r="Y13" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
       <c r="AC13" s="28"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="109"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="70"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="57"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>2012</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="30">
         <f>(S14+T14)/(R14+负债表!F14)</f>
         <v>0.330033006657443</v>
@@ -3448,7 +3386,7 @@
         <f t="shared" si="8"/>
         <v>0.401177553541935</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="28">
         <f>(负债表!F14)/P14</f>
         <v>0</v>
       </c>
@@ -3479,7 +3417,7 @@
       <c r="R14" s="11">
         <v>3658927527.25</v>
       </c>
-      <c r="S14" s="71">
+      <c r="S14" s="59">
         <v>1207566852.96</v>
       </c>
       <c r="T14" s="13">
@@ -3488,41 +3426,41 @@
       <c r="U14" s="45">
         <v>282068894.05</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="57">
         <v>2171135232.51</v>
       </c>
       <c r="W14" s="13">
         <v>7069591619.67</v>
       </c>
-      <c r="X14" s="75">
+      <c r="X14" s="63">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="Y14" s="77">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="87"/>
+      <c r="Y14" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
       <c r="AC14" s="28"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="109"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="70"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="57"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>2011</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="62"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="31">
         <f t="shared" si="3"/>
         <v>0.173794144238016</v>
@@ -3543,7 +3481,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="71">
+      <c r="S15" s="59">
         <v>955684713.08</v>
       </c>
       <c r="T15" s="13"/>
@@ -3552,30 +3490,30 @@
       <c r="W15" s="36">
         <v>6090560144.37</v>
       </c>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="87"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
       <c r="AC15" s="28"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="109"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="70"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="58"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>2010</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="30"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -3584,7 +3522,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="71">
+      <c r="S16" s="59">
         <v>814184256.9</v>
       </c>
       <c r="T16" s="13"/>
@@ -3593,28 +3531,28 @@
       <c r="W16" s="36">
         <v>5515507551.31</v>
       </c>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="87"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
       <c r="AC16" s="28"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="109"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="70"/>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="1">
         <v>2023</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="52" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="30"/>
@@ -3634,7 +3572,7 @@
         <f>Q17/P17</f>
         <v>0.225982881581961</v>
       </c>
-      <c r="J17" s="64"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="31">
         <f>(S17-S18)/S18</f>
         <v>-4.13225929112134</v>
@@ -3674,36 +3612,37 @@
       <c r="V17" s="13">
         <v>841908805.69</v>
       </c>
-      <c r="W17" s="22">
+      <c r="W17" s="57">
         <v>5139091906.63</v>
       </c>
-      <c r="X17" s="74">
+      <c r="X17" s="62">
         <v>785375950</v>
       </c>
-      <c r="Y17" s="74">
+      <c r="Y17" s="62">
         <v>785375950</v>
       </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="88" t="s">
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="AD17" s="100" t="s">
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="AE17" s="100" t="s">
+      <c r="AE17" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="109"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="70"/>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="57"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30">
         <f t="shared" si="10"/>
@@ -3721,7 +3660,7 @@
         <f>Q18/P18</f>
         <v>0.443254585786438</v>
       </c>
-      <c r="J18" s="64"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="31">
         <f t="shared" ref="K18:K27" si="12">(S18-S19)/S19</f>
         <v>-1.70715132355257</v>
@@ -3749,7 +3688,7 @@
       <c r="R18" s="12">
         <v>3464836366.55</v>
       </c>
-      <c r="S18" s="71">
+      <c r="S18" s="59">
         <v>-554562529.62</v>
       </c>
       <c r="T18" s="13">
@@ -3761,31 +3700,31 @@
       <c r="V18" s="13">
         <v>677654835.65</v>
       </c>
-      <c r="W18" s="78">
+      <c r="W18" s="13">
         <v>5341040998.68</v>
       </c>
-      <c r="X18" s="74">
+      <c r="X18" s="62">
         <v>785375950</v>
       </c>
-      <c r="Y18" s="74">
+      <c r="Y18" s="62">
         <v>785375950</v>
       </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="87"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
       <c r="AC18" s="28"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="109"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="70"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="57"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>2021</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30">
         <f t="shared" si="10"/>
@@ -3803,7 +3742,7 @@
         <f t="shared" ref="I19:I28" si="16">Q19/P19</f>
         <v>0.281747436919482</v>
       </c>
-      <c r="J19" s="62"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="31">
         <f t="shared" si="12"/>
         <v>-0.192666937239026</v>
@@ -3831,7 +3770,7 @@
       <c r="R19" s="12">
         <v>4250369296.86</v>
       </c>
-      <c r="S19" s="71">
+      <c r="S19" s="59">
         <v>784220450.63</v>
       </c>
       <c r="T19" s="13">
@@ -3843,31 +3782,31 @@
       <c r="V19" s="13">
         <v>1212493363.66</v>
       </c>
-      <c r="W19" s="78">
+      <c r="W19" s="13">
         <v>5115649704.3</v>
       </c>
-      <c r="X19" s="74">
+      <c r="X19" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y19" s="74">
+      <c r="Y19" s="62">
         <v>796637194</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="87"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
       <c r="AC19" s="28"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="109"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="70"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="57"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30">
         <f t="shared" si="10"/>
@@ -3885,7 +3824,7 @@
         <f t="shared" si="16"/>
         <v>0.250383470044278</v>
       </c>
-      <c r="J20" s="62"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="35">
         <f t="shared" si="12"/>
         <v>0.227517922860407</v>
@@ -3913,7 +3852,7 @@
       <c r="R20" s="12">
         <v>4991639172.49</v>
       </c>
-      <c r="S20" s="71">
+      <c r="S20" s="59">
         <v>971371651.68</v>
       </c>
       <c r="T20" s="13">
@@ -3925,31 +3864,31 @@
       <c r="V20" s="13">
         <v>1000999170.24</v>
       </c>
-      <c r="W20" s="78">
+      <c r="W20" s="13">
         <v>5123374813.83</v>
       </c>
-      <c r="X20" s="74">
+      <c r="X20" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y20" s="74">
+      <c r="Y20" s="62">
         <v>796637194</v>
       </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="87"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
       <c r="AC20" s="28"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="109"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="70"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="57"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>2019</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30">
         <f t="shared" si="10"/>
@@ -3967,7 +3906,7 @@
         <f t="shared" si="16"/>
         <v>0.286867510025872</v>
       </c>
-      <c r="J21" s="62"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="31">
         <f t="shared" si="12"/>
         <v>0.161605538848774</v>
@@ -3995,7 +3934,7 @@
       <c r="R21" s="12">
         <v>4245796115.38</v>
       </c>
-      <c r="S21" s="71">
+      <c r="S21" s="59">
         <v>791329913.47</v>
       </c>
       <c r="T21" s="13">
@@ -4007,31 +3946,31 @@
       <c r="V21" s="13">
         <v>1058869197.81</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="13">
         <v>4674844437.35</v>
       </c>
-      <c r="X21" s="74">
+      <c r="X21" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y21" s="74">
+      <c r="Y21" s="62">
         <v>796637194</v>
       </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="87"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
       <c r="AC21" s="28"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="109"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="70"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="57"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>2018</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30">
         <f t="shared" si="10"/>
@@ -4049,7 +3988,7 @@
         <f t="shared" si="16"/>
         <v>0.340239814359238</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="35">
         <f t="shared" si="12"/>
         <v>0.332092262949975</v>
@@ -4077,7 +4016,7 @@
       <c r="R22" s="12">
         <v>3947798751.9</v>
       </c>
-      <c r="S22" s="71">
+      <c r="S22" s="59">
         <v>681238068.35</v>
       </c>
       <c r="T22" s="13">
@@ -4089,31 +4028,31 @@
       <c r="V22" s="13">
         <v>723569594.03</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="13">
         <v>4166464950.31</v>
       </c>
-      <c r="X22" s="74">
+      <c r="X22" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y22" s="74">
+      <c r="Y22" s="62">
         <v>796637194</v>
       </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="87"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
       <c r="AC22" s="28"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="109"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="70"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="57"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>2017</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30">
         <f t="shared" si="10"/>
@@ -4131,7 +4070,7 @@
         <f t="shared" si="16"/>
         <v>0.349611711070378</v>
       </c>
-      <c r="J23" s="64"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="35">
         <f t="shared" si="12"/>
         <v>0.246525457918945</v>
@@ -4159,7 +4098,7 @@
       <c r="R23" s="12">
         <v>3450155650.06</v>
       </c>
-      <c r="S23" s="71">
+      <c r="S23" s="59">
         <v>511404568.06</v>
       </c>
       <c r="T23" s="13">
@@ -4171,31 +4110,31 @@
       <c r="V23" s="13">
         <v>650615659.55</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="13">
         <v>3609371700.99</v>
       </c>
-      <c r="X23" s="74">
+      <c r="X23" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y23" s="74">
+      <c r="Y23" s="62">
         <v>796637194</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="87"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
       <c r="AC23" s="28"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="109"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="70"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="57"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>2016</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30">
         <f t="shared" si="10"/>
@@ -4213,7 +4152,7 @@
         <f t="shared" si="16"/>
         <v>0.370965480070186</v>
       </c>
-      <c r="J24" s="64"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="35">
         <f t="shared" si="12"/>
         <v>0.496971412499224</v>
@@ -4241,7 +4180,7 @@
       <c r="R24" s="12">
         <v>3089104604.76</v>
       </c>
-      <c r="S24" s="71">
+      <c r="S24" s="59">
         <v>410264038.18</v>
       </c>
       <c r="T24" s="13">
@@ -4253,31 +4192,31 @@
       <c r="V24" s="13">
         <v>676669245.06</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="13">
         <v>3157988862.51</v>
       </c>
-      <c r="X24" s="74">
+      <c r="X24" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y24" s="74">
+      <c r="Y24" s="62">
         <v>796637194</v>
       </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="87"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
       <c r="AC24" s="28"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="109"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="70"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="57"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>2015</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30">
         <f t="shared" si="10"/>
@@ -4295,7 +4234,7 @@
         <f t="shared" si="16"/>
         <v>0.381269762551473</v>
       </c>
-      <c r="J25" s="64"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="31">
         <f t="shared" si="12"/>
         <v>-0.0634488224879556</v>
@@ -4323,7 +4262,7 @@
       <c r="R25" s="12">
         <v>2798588123.5</v>
       </c>
-      <c r="S25" s="71">
+      <c r="S25" s="59">
         <v>274062707.38</v>
       </c>
       <c r="T25" s="13">
@@ -4335,31 +4274,31 @@
       <c r="V25" s="13">
         <v>393949066.09</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="13">
         <v>2758585298.86</v>
       </c>
-      <c r="X25" s="74">
+      <c r="X25" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y25" s="74">
+      <c r="Y25" s="62">
         <v>796637194</v>
       </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="87"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
       <c r="AC25" s="28"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="109"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="70"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="57"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>2014</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30">
         <f t="shared" si="10"/>
@@ -4377,7 +4316,7 @@
         <f t="shared" si="16"/>
         <v>0.35635460067491</v>
       </c>
-      <c r="J26" s="64"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="35">
         <f t="shared" si="12"/>
         <v>0.328006614094497</v>
@@ -4405,7 +4344,7 @@
       <c r="R26" s="12">
         <v>2612537101.13</v>
       </c>
-      <c r="S26" s="71">
+      <c r="S26" s="59">
         <v>292629718.44</v>
       </c>
       <c r="T26" s="13">
@@ -4417,31 +4356,31 @@
       <c r="V26" s="13">
         <v>334963620.08</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="13">
         <v>2641896888.88</v>
       </c>
-      <c r="X26" s="74">
+      <c r="X26" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y26" s="74">
+      <c r="Y26" s="62">
         <v>796637194</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="87"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
       <c r="AC26" s="28"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="109"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="70"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="57"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>2013</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30">
         <f t="shared" si="10"/>
@@ -4459,7 +4398,7 @@
         <f t="shared" si="16"/>
         <v>0.354778424853162</v>
       </c>
-      <c r="J27" s="64"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="35">
         <f t="shared" si="12"/>
         <v>0.800068850009729</v>
@@ -4487,7 +4426,7 @@
       <c r="R27" s="12">
         <v>2384818024.28</v>
       </c>
-      <c r="S27" s="71">
+      <c r="S27" s="59">
         <v>220352606.18</v>
       </c>
       <c r="T27" s="13">
@@ -4499,31 +4438,31 @@
       <c r="V27" s="13">
         <v>135067181.02</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="13">
         <v>2318190695.54</v>
       </c>
-      <c r="X27" s="74">
+      <c r="X27" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y27" s="74">
+      <c r="Y27" s="62">
         <v>796637194</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="87"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
       <c r="AC27" s="28"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="109"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="70"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="57"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>2012</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30">
         <f t="shared" si="10"/>
@@ -4541,7 +4480,7 @@
         <f t="shared" si="16"/>
         <v>0.373534101066837</v>
       </c>
-      <c r="J28" s="64"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -4557,7 +4496,7 @@
       <c r="R28" s="12">
         <v>2189553863.83</v>
       </c>
-      <c r="S28" s="71">
+      <c r="S28" s="59">
         <v>122413432.23</v>
       </c>
       <c r="T28" s="13">
@@ -4569,37 +4508,37 @@
       <c r="V28" s="13">
         <v>242084618.48</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="13">
         <v>1754338281.65</v>
       </c>
-      <c r="X28" s="74">
+      <c r="X28" s="62">
         <v>796637194</v>
       </c>
-      <c r="Y28" s="74">
+      <c r="Y28" s="62">
         <v>796637194</v>
       </c>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="87"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
       <c r="AC28" s="28"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="109"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="70"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="57"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>2011</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="63"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="30"/>
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
@@ -4613,30 +4552,30 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="87"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
       <c r="AC29" s="28"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="109"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="70"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="58"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>2010</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="30"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -4650,28 +4589,28 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="87"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
       <c r="AC30" s="28"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="109"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="70"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="1">
         <v>2023</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="1">
         <v>1996</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="1">
         <v>2016</v>
       </c>
       <c r="E31" s="30"/>
@@ -4691,7 +4630,7 @@
         <f>Q31/P31</f>
         <v>0.144202436732955</v>
       </c>
-      <c r="J31" s="62"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="35">
         <f>(S31-S32)/S32</f>
         <v>0.542210500449144</v>
@@ -4709,17 +4648,17 @@
         <v>0.0645826251064263</v>
       </c>
       <c r="O31" s="28"/>
-      <c r="P31" s="22">
+      <c r="P31" s="57">
         <v>4267793815.23</v>
       </c>
       <c r="Q31" s="11">
         <f>P31-R31</f>
         <v>615426267.63</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="57">
         <v>3652367547.6</v>
       </c>
-      <c r="S31" s="22">
+      <c r="S31" s="57">
         <v>530447940.83</v>
       </c>
       <c r="T31" s="13">
@@ -4731,34 +4670,35 @@
       <c r="V31" s="13">
         <v>470030322.18</v>
       </c>
-      <c r="W31" s="22">
+      <c r="W31" s="57">
         <v>3206797965.72</v>
       </c>
-      <c r="X31" s="77">
+      <c r="X31" s="65">
         <v>1027821086</v>
       </c>
-      <c r="Y31" s="77">
+      <c r="Y31" s="65">
         <v>958538590</v>
       </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="89"/>
-      <c r="AD31" s="101" t="s">
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="AE31" s="102" t="s">
+      <c r="AE31" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="109"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="70"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="A32" s="57"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>2022</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30">
         <f>(S32+T32)/P32</f>
@@ -4776,7 +4716,7 @@
         <f>Q32/P32</f>
         <v>0.258094344897165</v>
       </c>
-      <c r="J32" s="62"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="35">
         <f t="shared" ref="K32:K40" si="20">(S32-S33)/S33</f>
         <v>0.553525427321262</v>
@@ -4816,31 +4756,31 @@
       <c r="V32" s="13">
         <v>773383847.4</v>
       </c>
-      <c r="W32" s="78">
+      <c r="W32" s="13">
         <v>2436471672.19</v>
       </c>
-      <c r="X32" s="77">
+      <c r="X32" s="65">
         <v>965468590</v>
       </c>
-      <c r="Y32" s="77">
+      <c r="Y32" s="65">
         <v>958538590</v>
       </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="90"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
       <c r="AC32" s="28"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="109"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="70"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="A33" s="57"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30">
         <f t="shared" ref="F33:F41" si="22">(S33+T33)/P33</f>
@@ -4858,7 +4798,7 @@
         <f t="shared" ref="I33:I41" si="25">Q33/P33</f>
         <v>0.134950903282766</v>
       </c>
-      <c r="J33" s="62"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="31">
         <f t="shared" si="20"/>
         <v>0.0758040630428128</v>
@@ -4898,31 +4838,31 @@
       <c r="V33" s="13">
         <v>178187852.39</v>
       </c>
-      <c r="W33" s="78">
+      <c r="W33" s="13">
         <v>1925286294.09</v>
       </c>
-      <c r="X33" s="77">
+      <c r="X33" s="65">
         <v>798782158</v>
       </c>
-      <c r="Y33" s="77">
+      <c r="Y33" s="65">
         <v>794566246</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="90"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
       <c r="AC33" s="28"/>
-      <c r="AD33" s="90"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="109"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="70"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="A34" s="57"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>2020</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30">
         <f t="shared" si="22"/>
@@ -4940,7 +4880,7 @@
         <f t="shared" si="25"/>
         <v>0.131587242538234</v>
       </c>
-      <c r="J34" s="62"/>
+      <c r="J34" s="28"/>
       <c r="K34" s="31">
         <f t="shared" si="20"/>
         <v>0.038067685806363</v>
@@ -4980,31 +4920,31 @@
       <c r="V34" s="13">
         <v>378030105.44</v>
       </c>
-      <c r="W34" s="78">
+      <c r="W34" s="13">
         <v>1693273982.03</v>
       </c>
-      <c r="X34" s="77">
+      <c r="X34" s="65">
         <v>665675318</v>
       </c>
-      <c r="Y34" s="77">
+      <c r="Y34" s="65">
         <v>659771876</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="86"/>
-      <c r="AB34" s="90"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
       <c r="AC34" s="28"/>
-      <c r="AD34" s="90"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="109"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="70"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="A35" s="57"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30">
         <f t="shared" si="22"/>
@@ -5022,7 +4962,7 @@
         <f t="shared" si="25"/>
         <v>0.225260853007811</v>
       </c>
-      <c r="J35" s="62"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="31">
         <f t="shared" si="20"/>
         <v>-0.17402301476168</v>
@@ -5062,31 +5002,31 @@
       <c r="V35" s="13">
         <v>191991964.23</v>
       </c>
-      <c r="W35" s="78">
+      <c r="W35" s="13">
         <v>1355147203.67</v>
       </c>
-      <c r="X35" s="77">
+      <c r="X35" s="65">
         <v>465850722</v>
       </c>
-      <c r="Y35" s="77">
+      <c r="Y35" s="65">
         <v>459810506</v>
       </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="90"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="70"/>
       <c r="AC35" s="28"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="103"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="109"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="70"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="A36" s="57"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>2018</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30">
         <f t="shared" si="22"/>
@@ -5100,11 +5040,11 @@
         <f t="shared" si="24"/>
         <v>0.124290923391616</v>
       </c>
-      <c r="I36" s="65">
+      <c r="I36" s="55">
         <f t="shared" si="25"/>
         <v>0.323453266079702</v>
       </c>
-      <c r="J36" s="66"/>
+      <c r="J36" s="56"/>
       <c r="K36" s="35">
         <f t="shared" si="20"/>
         <v>0.666142883870169</v>
@@ -5144,31 +5084,31 @@
       <c r="V36" s="13">
         <v>243412728.61</v>
       </c>
-      <c r="W36" s="78">
+      <c r="W36" s="13">
         <v>1065445794.48</v>
       </c>
-      <c r="X36" s="77">
+      <c r="X36" s="65">
         <v>326202714</v>
       </c>
-      <c r="Y36" s="77">
+      <c r="Y36" s="65">
         <v>134964546</v>
       </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="86"/>
-      <c r="AB36" s="90"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
       <c r="AC36" s="28"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="103"/>
-      <c r="AF36" s="99"/>
-      <c r="AG36" s="109"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="70"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="A37" s="57"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>2017</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30">
         <f t="shared" si="22"/>
@@ -5186,7 +5126,7 @@
         <f t="shared" si="25"/>
         <v>0.111309125008419</v>
       </c>
-      <c r="J37" s="62"/>
+      <c r="J37" s="28"/>
       <c r="K37" s="35">
         <f t="shared" si="20"/>
         <v>0.439319600747544</v>
@@ -5226,31 +5166,31 @@
       <c r="V37" s="13">
         <v>174843670.03</v>
       </c>
-      <c r="W37" s="78">
+      <c r="W37" s="13">
         <v>948167111.51</v>
       </c>
-      <c r="X37" s="77">
+      <c r="X37" s="65">
         <v>325985200</v>
       </c>
-      <c r="Y37" s="77">
+      <c r="Y37" s="65">
         <v>133190272</v>
       </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="90"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
       <c r="AC37" s="28"/>
-      <c r="AD37" s="90"/>
-      <c r="AE37" s="103"/>
-      <c r="AF37" s="99"/>
-      <c r="AG37" s="109"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="70"/>
     </row>
     <row r="38" spans="1:33">
-      <c r="A38" s="57"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>2016</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30">
         <f t="shared" si="22"/>
@@ -5268,7 +5208,7 @@
         <f t="shared" si="25"/>
         <v>0.132697880913633</v>
       </c>
-      <c r="J38" s="62"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="35">
         <f t="shared" si="20"/>
         <v>0.504387235419186</v>
@@ -5296,7 +5236,7 @@
       <c r="R38" s="12">
         <v>890420754.13</v>
       </c>
-      <c r="S38" s="71">
+      <c r="S38" s="59">
         <v>100088565.58</v>
       </c>
       <c r="T38" s="13">
@@ -5308,31 +5248,31 @@
       <c r="V38" s="13">
         <v>69492005.89</v>
       </c>
-      <c r="W38" s="78">
+      <c r="W38" s="13">
         <v>770860990.83</v>
       </c>
-      <c r="X38" s="77">
+      <c r="X38" s="65">
         <v>160000000</v>
       </c>
-      <c r="Y38" s="77">
+      <c r="Y38" s="65">
         <v>40000000</v>
       </c>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="86"/>
-      <c r="AB38" s="90"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
       <c r="AC38" s="28"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="103"/>
-      <c r="AF38" s="99"/>
-      <c r="AG38" s="109"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="70"/>
     </row>
     <row r="39" spans="1:33">
-      <c r="A39" s="57"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>2015</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30">
         <f t="shared" si="22"/>
@@ -5350,7 +5290,7 @@
         <f t="shared" si="25"/>
         <v>0.35439373871199</v>
       </c>
-      <c r="J39" s="64"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="35">
         <f t="shared" si="20"/>
         <v>0.256007377514907</v>
@@ -5375,7 +5315,7 @@
       <c r="R39" s="12">
         <v>467498088.49</v>
       </c>
-      <c r="S39" s="71">
+      <c r="S39" s="59">
         <v>66531118.6</v>
       </c>
       <c r="T39" s="13">
@@ -5391,28 +5331,28 @@
       <c r="W39" s="13">
         <v>623585955.63</v>
       </c>
-      <c r="X39" s="77">
+      <c r="X39" s="65">
         <v>120000000</v>
       </c>
-      <c r="Y39" s="77">
+      <c r="Y39" s="65">
         <v>0</v>
       </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="86"/>
-      <c r="AB39" s="90"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
       <c r="AC39" s="28"/>
-      <c r="AD39" s="90"/>
-      <c r="AE39" s="103"/>
-      <c r="AF39" s="99"/>
-      <c r="AG39" s="109"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="70"/>
     </row>
     <row r="40" spans="1:33">
-      <c r="A40" s="57"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>2014</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30">
         <f t="shared" si="22"/>
@@ -5430,7 +5370,7 @@
         <f t="shared" si="25"/>
         <v>0.382219951042547</v>
       </c>
-      <c r="J40" s="64"/>
+      <c r="J40" s="28"/>
       <c r="K40" s="31">
         <f t="shared" si="20"/>
         <v>-0.248319190709499</v>
@@ -5455,7 +5395,7 @@
       <c r="R40" s="45">
         <v>400966969.89</v>
       </c>
-      <c r="S40" s="71">
+      <c r="S40" s="59">
         <v>52970324.69</v>
       </c>
       <c r="T40" s="13">
@@ -5471,24 +5411,24 @@
       <c r="W40" s="13">
         <v>650775844.37</v>
       </c>
-      <c r="X40" s="77"/>
-      <c r="Y40" s="77"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="86"/>
-      <c r="AB40" s="90"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
       <c r="AC40" s="28"/>
-      <c r="AD40" s="90"/>
-      <c r="AE40" s="103"/>
-      <c r="AF40" s="99"/>
-      <c r="AG40" s="109"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="70"/>
     </row>
     <row r="41" spans="1:33">
-      <c r="A41" s="57"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>2013</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30">
         <f t="shared" si="22"/>
@@ -5506,7 +5446,7 @@
         <f t="shared" si="25"/>
         <v>0.30242869917021</v>
       </c>
-      <c r="J41" s="64"/>
+      <c r="J41" s="28"/>
       <c r="K41" s="30"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
@@ -5522,7 +5462,7 @@
       <c r="R41" s="45">
         <v>361196645.2</v>
       </c>
-      <c r="S41" s="71">
+      <c r="S41" s="59">
         <v>70469172.6</v>
       </c>
       <c r="T41" s="13">
@@ -5535,33 +5475,33 @@
       <c r="V41" s="13">
         <v>90132165.69</v>
       </c>
-      <c r="W41" s="19">
+      <c r="W41" s="13">
         <v>612649198.93</v>
       </c>
-      <c r="X41" s="77"/>
-      <c r="Y41" s="77"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="86"/>
-      <c r="AB41" s="90"/>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="70"/>
       <c r="AC41" s="28"/>
-      <c r="AD41" s="90"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="99"/>
-      <c r="AG41" s="109"/>
+      <c r="AD41" s="70"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="70"/>
     </row>
     <row r="42" spans="1:33">
-      <c r="A42" s="57"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>2012</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="63"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="30"/>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
@@ -5575,30 +5515,30 @@
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="77"/>
-      <c r="Y42" s="77"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="90"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
       <c r="AC42" s="28"/>
-      <c r="AD42" s="90"/>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="99"/>
-      <c r="AG42" s="109"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="73"/>
+      <c r="AG42" s="70"/>
     </row>
     <row r="43" spans="1:33">
-      <c r="A43" s="57"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>2011</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="63"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="30"/>
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
@@ -5612,30 +5552,30 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="86"/>
-      <c r="AB43" s="90"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
       <c r="AC43" s="28"/>
-      <c r="AD43" s="90"/>
-      <c r="AE43" s="103"/>
-      <c r="AF43" s="99"/>
-      <c r="AG43" s="109"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="70"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="A44" s="58"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>2010</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="63"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="30"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
@@ -5649,28 +5589,28 @@
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
       <c r="W44" s="2"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="86"/>
-      <c r="AB44" s="91"/>
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="70"/>
       <c r="AC44" s="28"/>
-      <c r="AD44" s="91"/>
-      <c r="AE44" s="104"/>
-      <c r="AF44" s="99"/>
-      <c r="AG44" s="109"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="70"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="1">
         <v>2023</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="1">
         <v>2005</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="1">
         <v>2016</v>
       </c>
       <c r="E45" s="30">
@@ -5693,7 +5633,7 @@
         <f>Q45/P45</f>
         <v>0.15939183785514</v>
       </c>
-      <c r="J45" s="62"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="31">
         <f>(S45-S46)/S46</f>
         <v>0.111572992673894</v>
@@ -5743,26 +5683,26 @@
         <f>6147573*1000</f>
         <v>6147573000</v>
       </c>
-      <c r="X45" s="77">
+      <c r="X45" s="65">
         <v>1036700000</v>
       </c>
-      <c r="Y45" s="77"/>
+      <c r="Y45" s="65"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="89"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
       <c r="AC45" s="28"/>
-      <c r="AD45" s="105"/>
-      <c r="AE45" s="106"/>
-      <c r="AF45" s="99"/>
-      <c r="AG45" s="109"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="70"/>
     </row>
     <row r="46" spans="1:33">
-      <c r="A46" s="57"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>2022</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="30">
         <f>(S46+T46)/(R46+负债表!F46)</f>
         <v>0.181141325993422</v>
@@ -5783,7 +5723,7 @@
         <f t="shared" ref="I46:I56" si="31">Q46/P46</f>
         <v>0.182709145418914</v>
       </c>
-      <c r="J46" s="62"/>
+      <c r="J46" s="28"/>
       <c r="K46" s="31">
         <f t="shared" ref="K46:K56" si="32">(S46-S47)/S47</f>
         <v>-0.0484782971200815</v>
@@ -5833,26 +5773,26 @@
         <f>6147011*1000</f>
         <v>6147011000</v>
       </c>
-      <c r="X46" s="77">
+      <c r="X46" s="65">
         <v>1046900000</v>
       </c>
-      <c r="Y46" s="77"/>
+      <c r="Y46" s="65"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="86"/>
-      <c r="AB46" s="90"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
       <c r="AC46" s="28"/>
-      <c r="AD46" s="106"/>
-      <c r="AE46" s="106"/>
-      <c r="AF46" s="99"/>
-      <c r="AG46" s="109"/>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="71"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="70"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="A47" s="57"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="30">
         <f>(S47+T47)/(R47+负债表!F47)</f>
         <v>0.210048540475708</v>
@@ -5873,7 +5813,7 @@
         <f t="shared" si="31"/>
         <v>0.179086519730562</v>
       </c>
-      <c r="J47" s="62"/>
+      <c r="J47" s="28"/>
       <c r="K47" s="31">
         <f t="shared" si="32"/>
         <v>-0.127486999687647</v>
@@ -5923,26 +5863,26 @@
         <f>5942617*1000</f>
         <v>5942617000</v>
       </c>
-      <c r="X47" s="77">
+      <c r="X47" s="65">
         <v>1046900000</v>
       </c>
-      <c r="Y47" s="77"/>
+      <c r="Y47" s="65"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="86"/>
-      <c r="AB47" s="90"/>
+      <c r="AA47" s="70"/>
+      <c r="AB47" s="70"/>
       <c r="AC47" s="28"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-      <c r="AF47" s="99"/>
-      <c r="AG47" s="109"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="70"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="A48" s="57"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>2020</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="30">
         <f>(S48+T48)/(R48+负债表!F48)</f>
         <v>0.280302721976146</v>
@@ -5963,7 +5903,7 @@
         <f t="shared" si="31"/>
         <v>0.180472759994906</v>
       </c>
-      <c r="J48" s="62"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="35">
         <f t="shared" si="32"/>
         <v>0.236295369211514</v>
@@ -6013,24 +5953,24 @@
         <f>5360021*1000</f>
         <v>5360021000</v>
       </c>
-      <c r="X48" s="77"/>
-      <c r="Y48" s="77"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="86"/>
-      <c r="AB48" s="90"/>
+      <c r="AA48" s="70"/>
+      <c r="AB48" s="70"/>
       <c r="AC48" s="28"/>
-      <c r="AD48" s="106"/>
-      <c r="AE48" s="106"/>
-      <c r="AF48" s="99"/>
-      <c r="AG48" s="109"/>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="70"/>
     </row>
     <row r="49" spans="1:33">
-      <c r="A49" s="57"/>
+      <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>2019</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="30">
         <f>(S49+U49)/(R49+负债表!F49)</f>
         <v>0.400865495884203</v>
@@ -6051,7 +5991,7 @@
         <f t="shared" si="31"/>
         <v>0.176222185786311</v>
       </c>
-      <c r="J49" s="62"/>
+      <c r="J49" s="28"/>
       <c r="K49" s="35">
         <f t="shared" si="32"/>
         <v>0.450993239691625</v>
@@ -6100,24 +6040,24 @@
         <f>4282488*1000</f>
         <v>4282488000</v>
       </c>
-      <c r="X49" s="77"/>
-      <c r="Y49" s="77"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="65"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="86"/>
-      <c r="AB49" s="90"/>
+      <c r="AA49" s="70"/>
+      <c r="AB49" s="70"/>
       <c r="AC49" s="28"/>
-      <c r="AD49" s="106"/>
-      <c r="AE49" s="106"/>
-      <c r="AF49" s="99"/>
-      <c r="AG49" s="109"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="73"/>
+      <c r="AG49" s="70"/>
     </row>
     <row r="50" spans="1:33">
-      <c r="A50" s="57"/>
+      <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>2018</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="30">
         <f>(S50+U50)/(R50+负债表!F50)</f>
         <v>0.358137706088235</v>
@@ -6138,7 +6078,7 @@
         <f t="shared" si="31"/>
         <v>0.171531807579003</v>
       </c>
-      <c r="J50" s="62"/>
+      <c r="J50" s="28"/>
       <c r="K50" s="35">
         <f t="shared" si="32"/>
         <v>1.09852541269294</v>
@@ -6187,24 +6127,24 @@
         <f>2681373*1000</f>
         <v>2681373000</v>
       </c>
-      <c r="X50" s="77"/>
-      <c r="Y50" s="77"/>
+      <c r="X50" s="65"/>
+      <c r="Y50" s="65"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="86"/>
-      <c r="AB50" s="90"/>
+      <c r="AA50" s="70"/>
+      <c r="AB50" s="70"/>
       <c r="AC50" s="28"/>
-      <c r="AD50" s="106"/>
-      <c r="AE50" s="106"/>
-      <c r="AF50" s="99"/>
-      <c r="AG50" s="109"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="70"/>
     </row>
     <row r="51" spans="1:33">
-      <c r="A51" s="57"/>
+      <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>2017</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="30">
         <f>(S51+T51)/(R51+负债表!F51)</f>
         <v>0.173388524042558</v>
@@ -6225,7 +6165,7 @@
         <f t="shared" si="31"/>
         <v>0.166537609364302</v>
       </c>
-      <c r="J51" s="62"/>
+      <c r="J51" s="28"/>
       <c r="K51" s="35">
         <f t="shared" si="32"/>
         <v>0.398296915167095</v>
@@ -6274,24 +6214,24 @@
         <f>1646221*1000</f>
         <v>1646221000</v>
       </c>
-      <c r="X51" s="77"/>
-      <c r="Y51" s="77"/>
+      <c r="X51" s="65"/>
+      <c r="Y51" s="65"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="86"/>
-      <c r="AB51" s="90"/>
+      <c r="AA51" s="70"/>
+      <c r="AB51" s="70"/>
       <c r="AC51" s="28"/>
-      <c r="AD51" s="106"/>
-      <c r="AE51" s="106"/>
-      <c r="AF51" s="99"/>
-      <c r="AG51" s="109"/>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="71"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="70"/>
     </row>
     <row r="52" spans="1:33">
-      <c r="A52" s="57"/>
+      <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>2016</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="30">
         <f>(S52+T52)/(R52+负债表!F52)</f>
         <v>0.147464273162719</v>
@@ -6312,7 +6252,7 @@
         <f t="shared" si="31"/>
         <v>0.11060248681924</v>
       </c>
-      <c r="J52" s="62"/>
+      <c r="J52" s="28"/>
       <c r="K52" s="35">
         <f t="shared" si="32"/>
         <v>0.49919307570636</v>
@@ -6361,24 +6301,24 @@
         <f>1088014*1000</f>
         <v>1088014000</v>
       </c>
-      <c r="X52" s="77"/>
-      <c r="Y52" s="77"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="86"/>
-      <c r="AB52" s="90"/>
+      <c r="AA52" s="70"/>
+      <c r="AB52" s="70"/>
       <c r="AC52" s="28"/>
-      <c r="AD52" s="106"/>
-      <c r="AE52" s="106"/>
-      <c r="AF52" s="99"/>
-      <c r="AG52" s="109"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="71"/>
+      <c r="AF52" s="73"/>
+      <c r="AG52" s="70"/>
     </row>
     <row r="53" spans="1:33">
-      <c r="A53" s="57"/>
+      <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>2015</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="30">
         <f>(S53+T53)/(R53+负债表!F53)</f>
         <v>0.87756122995406</v>
@@ -6399,7 +6339,7 @@
         <f t="shared" si="31"/>
         <v>0.759191263803015</v>
       </c>
-      <c r="J53" s="62"/>
+      <c r="J53" s="28"/>
       <c r="K53" s="35">
         <f t="shared" si="32"/>
         <v>1.92982827569984</v>
@@ -6448,24 +6388,24 @@
         <f>847339*1000</f>
         <v>847339000</v>
       </c>
-      <c r="X53" s="77"/>
-      <c r="Y53" s="77"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="65"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="86"/>
-      <c r="AB53" s="90"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
       <c r="AC53" s="28"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="106"/>
-      <c r="AF53" s="99"/>
-      <c r="AG53" s="109"/>
+      <c r="AD53" s="71"/>
+      <c r="AE53" s="71"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="70"/>
     </row>
     <row r="54" spans="1:33">
-      <c r="A54" s="57"/>
+      <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>2014</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="30">
         <f>(S54+T54)/(R54+负债表!F54)</f>
         <v>0.929424111242293</v>
@@ -6486,7 +6426,7 @@
         <f t="shared" si="31"/>
         <v>0.839873685832018</v>
       </c>
-      <c r="J54" s="62"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="35">
         <f t="shared" si="32"/>
         <v>0.926667875271936</v>
@@ -6535,24 +6475,24 @@
         <f>498231*1000</f>
         <v>498231000</v>
       </c>
-      <c r="X54" s="77"/>
-      <c r="Y54" s="77"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="86"/>
-      <c r="AB54" s="90"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
       <c r="AC54" s="28"/>
-      <c r="AD54" s="106"/>
-      <c r="AE54" s="106"/>
-      <c r="AF54" s="99"/>
-      <c r="AG54" s="109"/>
+      <c r="AD54" s="71"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="73"/>
+      <c r="AG54" s="70"/>
     </row>
     <row r="55" spans="1:33">
-      <c r="A55" s="58"/>
+      <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>2013</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="30">
         <f>(S55+T55)/(R55+负债表!F55)</f>
         <v>0.585469405084116</v>
@@ -6573,7 +6513,7 @@
         <f t="shared" si="31"/>
         <v>0.832313641035681</v>
       </c>
-      <c r="J55" s="62"/>
+      <c r="J55" s="28"/>
       <c r="K55" s="28"/>
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
@@ -6610,16 +6550,16 @@
         <f>315863*1000</f>
         <v>315863000</v>
       </c>
-      <c r="X55" s="79"/>
-      <c r="Y55" s="77"/>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="65"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="86"/>
-      <c r="AB55" s="91"/>
+      <c r="AA55" s="70"/>
+      <c r="AB55" s="70"/>
       <c r="AC55" s="28"/>
-      <c r="AD55" s="107"/>
-      <c r="AE55" s="106"/>
-      <c r="AF55" s="99"/>
-      <c r="AG55" s="109"/>
+      <c r="AD55" s="71"/>
+      <c r="AE55" s="71"/>
+      <c r="AF55" s="73"/>
+      <c r="AG55" s="70"/>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
@@ -6628,10 +6568,10 @@
       <c r="B56" s="1">
         <v>2023</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="1">
         <v>2019</v>
       </c>
       <c r="E56" s="28">
@@ -6654,7 +6594,7 @@
         <f t="shared" si="31"/>
         <v>0.165378547615757</v>
       </c>
-      <c r="J56" s="62"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="35">
         <f t="shared" si="32"/>
         <v>0.366699981260592</v>
@@ -6697,28 +6637,28 @@
       <c r="W56" s="13">
         <v>3148561102.73</v>
       </c>
-      <c r="X56" s="79">
+      <c r="X56" s="66">
         <v>1065493714</v>
       </c>
-      <c r="Y56" s="77">
+      <c r="Y56" s="65">
         <v>1059111534</v>
       </c>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="86"/>
-      <c r="AB56" s="89"/>
+      <c r="AA56" s="70"/>
+      <c r="AB56" s="70"/>
       <c r="AC56" s="28"/>
-      <c r="AD56" s="105"/>
-      <c r="AE56" s="106"/>
-      <c r="AF56" s="99"/>
-      <c r="AG56" s="109"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="71"/>
+      <c r="AF56" s="73"/>
+      <c r="AG56" s="70"/>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>2022</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="28">
         <f>(S57+T57)/(R57+负债表!F56)</f>
         <v>0.0846289294660696</v>
@@ -6739,7 +6679,7 @@
         <f t="shared" ref="I57:I63" si="40">Q57/P57</f>
         <v>0.165278237088809</v>
       </c>
-      <c r="J57" s="62"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="35">
         <f t="shared" ref="K57:K63" si="41">(S57-S58)/S58</f>
         <v>0.847272571171295</v>
@@ -6782,28 +6722,28 @@
       <c r="W57" s="13">
         <v>2690710152.71</v>
       </c>
-      <c r="X57" s="77">
+      <c r="X57" s="65">
         <v>763054090</v>
       </c>
-      <c r="Y57" s="77">
+      <c r="Y57" s="65">
         <v>754181690</v>
       </c>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="86"/>
-      <c r="AB57" s="90"/>
+      <c r="AA57" s="70"/>
+      <c r="AB57" s="70"/>
       <c r="AC57" s="28"/>
-      <c r="AD57" s="106"/>
-      <c r="AE57" s="106"/>
-      <c r="AF57" s="99"/>
-      <c r="AG57" s="109"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="71"/>
+      <c r="AF57" s="73"/>
+      <c r="AG57" s="70"/>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>2021</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="28">
         <f>(S58+T58)/(R58+负债表!F57)</f>
         <v>0.048548259817474</v>
@@ -6824,7 +6764,7 @@
         <f t="shared" si="40"/>
         <v>0.100793150842843</v>
       </c>
-      <c r="J58" s="62"/>
+      <c r="J58" s="28"/>
       <c r="K58" s="28">
         <f t="shared" si="41"/>
         <v>-0.493822471316296</v>
@@ -6867,28 +6807,28 @@
       <c r="W58" s="13">
         <v>2025535449.58</v>
       </c>
-      <c r="X58" s="77">
+      <c r="X58" s="65">
         <v>754181690</v>
       </c>
-      <c r="Y58" s="77">
+      <c r="Y58" s="65">
         <v>185549690</v>
       </c>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="86"/>
-      <c r="AB58" s="90"/>
+      <c r="AA58" s="70"/>
+      <c r="AB58" s="70"/>
       <c r="AC58" s="28"/>
-      <c r="AD58" s="106"/>
-      <c r="AE58" s="106"/>
-      <c r="AF58" s="99"/>
-      <c r="AG58" s="109"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="71"/>
+      <c r="AF58" s="73"/>
+      <c r="AG58" s="70"/>
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>2020</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="28">
         <f>(S59+T59)/(R59+负债表!F58)</f>
         <v>0.0976688123161366</v>
@@ -6909,7 +6849,7 @@
         <f t="shared" si="40"/>
         <v>0.130612752007751</v>
       </c>
-      <c r="J59" s="62"/>
+      <c r="J59" s="28"/>
       <c r="K59" s="35">
         <f t="shared" si="41"/>
         <v>0.226619416939976</v>
@@ -6952,28 +6892,28 @@
       <c r="W59" s="13">
         <v>2364655862.43</v>
       </c>
-      <c r="X59" s="77">
+      <c r="X59" s="65">
         <v>630444441</v>
       </c>
-      <c r="Y59" s="77">
+      <c r="Y59" s="65">
         <v>125214750</v>
       </c>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="86"/>
-      <c r="AB59" s="90"/>
+      <c r="AA59" s="70"/>
+      <c r="AB59" s="70"/>
       <c r="AC59" s="28"/>
-      <c r="AD59" s="106"/>
-      <c r="AE59" s="106"/>
-      <c r="AF59" s="99"/>
-      <c r="AG59" s="109"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="73"/>
+      <c r="AG59" s="70"/>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>2019</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="28">
         <f>(S60+T60)/(R60+负债表!F59)</f>
         <v>0.161229752299337</v>
@@ -6994,7 +6934,7 @@
         <f t="shared" si="40"/>
         <v>0.14022084971037</v>
       </c>
-      <c r="J60" s="62"/>
+      <c r="J60" s="28"/>
       <c r="K60" s="28">
         <f t="shared" si="41"/>
         <v>0.113893184008093</v>
@@ -7035,27 +6975,27 @@
       <c r="W60" s="13">
         <v>1727329107.54</v>
       </c>
-      <c r="X60" s="77">
+      <c r="X60" s="65">
         <f>41315.5*10000</f>
         <v>413155000</v>
       </c>
-      <c r="Y60" s="77"/>
+      <c r="Y60" s="65"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="86"/>
-      <c r="AB60" s="90"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
       <c r="AC60" s="28"/>
-      <c r="AD60" s="106"/>
-      <c r="AE60" s="106"/>
-      <c r="AF60" s="99"/>
-      <c r="AG60" s="109"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="73"/>
+      <c r="AG60" s="70"/>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>2018</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="28">
         <f>(S61+T61)/(R61+负债表!F60)</f>
         <v>0.23422240183561</v>
@@ -7076,7 +7016,7 @@
         <f t="shared" si="40"/>
         <v>0.179226892372709</v>
       </c>
-      <c r="J61" s="62"/>
+      <c r="J61" s="28"/>
       <c r="K61" s="35">
         <f t="shared" si="41"/>
         <v>0.450479550269318</v>
@@ -7117,27 +7057,27 @@
       <c r="W61" s="13">
         <v>1412861058.41</v>
       </c>
-      <c r="X61" s="77">
+      <c r="X61" s="65">
         <f>37183.5*10000</f>
         <v>371835000</v>
       </c>
-      <c r="Y61" s="77"/>
+      <c r="Y61" s="65"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="86"/>
-      <c r="AB61" s="90"/>
+      <c r="AA61" s="70"/>
+      <c r="AB61" s="70"/>
       <c r="AC61" s="28"/>
-      <c r="AD61" s="106"/>
-      <c r="AE61" s="106"/>
-      <c r="AF61" s="99"/>
-      <c r="AG61" s="109"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="73"/>
+      <c r="AG61" s="70"/>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>2017</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="28">
         <f>(S62+T62)/(R62+负债表!F61)</f>
         <v>0.19739669059221</v>
@@ -7158,7 +7098,7 @@
         <f t="shared" si="40"/>
         <v>0.219257759788019</v>
       </c>
-      <c r="J62" s="62"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="28">
         <f t="shared" si="41"/>
         <v>-0.0960311781525517</v>
@@ -7186,37 +7126,37 @@
       <c r="R62" s="11">
         <v>931150919.19</v>
       </c>
-      <c r="S62" s="24">
+      <c r="S62" s="60">
         <v>183806109.89</v>
       </c>
       <c r="T62" s="13"/>
       <c r="U62" s="13">
         <v>31104245.35</v>
       </c>
-      <c r="V62" s="24">
+      <c r="V62" s="60">
         <v>224660916.47</v>
       </c>
       <c r="W62" s="13">
         <v>1065816160.04</v>
       </c>
-      <c r="X62" s="77"/>
-      <c r="Y62" s="77"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="86"/>
-      <c r="AB62" s="90"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
       <c r="AC62" s="28"/>
-      <c r="AD62" s="106"/>
-      <c r="AE62" s="106"/>
-      <c r="AF62" s="99"/>
-      <c r="AG62" s="109"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="73"/>
+      <c r="AG62" s="70"/>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>2016</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="28">
         <f>(S63+T63)/(R63+负债表!F62)</f>
         <v>0.215038899190976</v>
@@ -7237,7 +7177,7 @@
         <f t="shared" si="40"/>
         <v>0.178849115702713</v>
       </c>
-      <c r="J63" s="62"/>
+      <c r="J63" s="28"/>
       <c r="K63" s="28" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
@@ -7278,30 +7218,30 @@
       <c r="W63" s="13">
         <v>983899076.21</v>
       </c>
-      <c r="X63" s="77"/>
-      <c r="Y63" s="77"/>
+      <c r="X63" s="65"/>
+      <c r="Y63" s="65"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="86"/>
-      <c r="AB63" s="90"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="70"/>
       <c r="AC63" s="28"/>
-      <c r="AD63" s="106"/>
-      <c r="AE63" s="106"/>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="109"/>
+      <c r="AD63" s="71"/>
+      <c r="AE63" s="71"/>
+      <c r="AF63" s="73"/>
+      <c r="AG63" s="70"/>
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>2015</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="30"/>
       <c r="F64" s="30"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="63"/>
+      <c r="J64" s="6"/>
       <c r="K64" s="30"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
@@ -7315,30 +7255,30 @@
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="13"/>
-      <c r="X64" s="77"/>
-      <c r="Y64" s="77"/>
+      <c r="X64" s="65"/>
+      <c r="Y64" s="65"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="86"/>
-      <c r="AB64" s="90"/>
+      <c r="AA64" s="70"/>
+      <c r="AB64" s="70"/>
       <c r="AC64" s="28"/>
-      <c r="AD64" s="106"/>
-      <c r="AE64" s="106"/>
-      <c r="AF64" s="99"/>
-      <c r="AG64" s="109"/>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="73"/>
+      <c r="AG64" s="70"/>
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>2014</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="30"/>
       <c r="F65" s="30"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="63"/>
+      <c r="J65" s="6"/>
       <c r="K65" s="30"/>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
@@ -7352,16 +7292,16 @@
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="13"/>
-      <c r="X65" s="77"/>
-      <c r="Y65" s="77"/>
+      <c r="X65" s="65"/>
+      <c r="Y65" s="65"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="86"/>
-      <c r="AB65" s="91"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
       <c r="AC65" s="28"/>
-      <c r="AD65" s="107"/>
-      <c r="AE65" s="106"/>
-      <c r="AF65" s="99"/>
-      <c r="AG65" s="109"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="70"/>
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="1" t="s">
@@ -7370,10 +7310,10 @@
       <c r="B66" s="1">
         <v>2023</v>
       </c>
-      <c r="C66" s="55">
+      <c r="C66" s="1">
         <v>2001</v>
       </c>
-      <c r="D66" s="55">
+      <c r="D66" s="1">
         <v>2022</v>
       </c>
       <c r="E66" s="28">
@@ -7396,7 +7336,7 @@
         <f>Q66/P66</f>
         <v>0.211294677695256</v>
       </c>
-      <c r="J66" s="62"/>
+      <c r="J66" s="28"/>
       <c r="K66" s="35">
         <f>(S66-S67)/S67</f>
         <v>0.350291368963823</v>
@@ -7414,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="28"/>
-      <c r="P66" s="110">
+      <c r="P66" s="82">
         <v>1900213941.21</v>
       </c>
       <c r="Q66" s="11">
@@ -7439,30 +7379,30 @@
       <c r="W66" s="45">
         <v>2369000730.8</v>
       </c>
-      <c r="X66" s="77">
+      <c r="X66" s="65">
         <f>40001*10000</f>
         <v>400010000</v>
       </c>
-      <c r="Y66" s="77">
+      <c r="Y66" s="65">
         <f>15881*10000</f>
         <v>158810000</v>
       </c>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="86"/>
-      <c r="AB66" s="89"/>
+      <c r="AA66" s="70"/>
+      <c r="AB66" s="70"/>
       <c r="AC66" s="28"/>
-      <c r="AD66" s="105"/>
-      <c r="AE66" s="105"/>
-      <c r="AF66" s="99"/>
-      <c r="AG66" s="109"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="73"/>
+      <c r="AG66" s="70"/>
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>2022</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="28">
         <f>(S67+T67)/(R67+负债表!F66)</f>
         <v>0.205088776702911</v>
@@ -7483,7 +7423,7 @@
         <f>Q67/P67</f>
         <v>0.252704255380258</v>
       </c>
-      <c r="J67" s="62"/>
+      <c r="J67" s="28"/>
       <c r="K67" s="35">
         <f>(S67-S68)/S68</f>
         <v>0.183299304079798</v>
@@ -7501,7 +7441,7 @@
         <v>0.111138888888889</v>
       </c>
       <c r="O67" s="28"/>
-      <c r="P67" s="110">
+      <c r="P67" s="82">
         <v>1531488328.63</v>
       </c>
       <c r="Q67" s="11">
@@ -7526,30 +7466,30 @@
       <c r="W67" s="45">
         <v>2036783645.71</v>
       </c>
-      <c r="X67" s="77">
+      <c r="X67" s="65">
         <f>40001*10000</f>
         <v>400010000</v>
       </c>
-      <c r="Y67" s="77">
+      <c r="Y67" s="65">
         <f>4001*10000</f>
         <v>40010000</v>
       </c>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="86"/>
-      <c r="AB67" s="90"/>
+      <c r="AA67" s="70"/>
+      <c r="AB67" s="70"/>
       <c r="AC67" s="28"/>
-      <c r="AD67" s="106"/>
-      <c r="AE67" s="106"/>
-      <c r="AF67" s="99"/>
-      <c r="AG67" s="109"/>
+      <c r="AD67" s="71"/>
+      <c r="AE67" s="71"/>
+      <c r="AF67" s="73"/>
+      <c r="AG67" s="70"/>
     </row>
     <row r="68" spans="1:33">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <v>2021</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="28">
         <f>(S68+T68)/(R68+负债表!F67)</f>
         <v>0.29503250319617</v>
@@ -7570,7 +7510,7 @@
         <f>Q68/P68</f>
         <v>0.392821940181835</v>
       </c>
-      <c r="J68" s="62"/>
+      <c r="J68" s="28"/>
       <c r="K68" s="35">
         <f>(S68-S69)/S69</f>
         <v>0.452380788948507</v>
@@ -7588,7 +7528,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O68" s="28"/>
-      <c r="P68" s="110">
+      <c r="P68" s="82">
         <v>1115984885.46</v>
       </c>
       <c r="Q68" s="11">
@@ -7614,30 +7554,30 @@
       <c r="W68" s="45">
         <v>1577708989.53</v>
       </c>
-      <c r="X68" s="77">
+      <c r="X68" s="65">
         <f>36000*10000</f>
         <v>360000000</v>
       </c>
-      <c r="Y68" s="77">
+      <c r="Y68" s="65">
         <f>4001*10000</f>
         <v>40010000</v>
       </c>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="86"/>
-      <c r="AB68" s="90"/>
+      <c r="AA68" s="70"/>
+      <c r="AB68" s="70"/>
       <c r="AC68" s="28"/>
-      <c r="AD68" s="106"/>
-      <c r="AE68" s="106"/>
-      <c r="AF68" s="99"/>
-      <c r="AG68" s="109"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="73"/>
+      <c r="AG68" s="70"/>
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>2020</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="28">
         <f>(S69+T69)/(R69+负债表!F68)</f>
         <v>0.285900905898735</v>
@@ -7658,7 +7598,7 @@
         <f>Q69/P69</f>
         <v>0.413420390809954</v>
       </c>
-      <c r="J69" s="62"/>
+      <c r="J69" s="28"/>
       <c r="K69" s="35">
         <f>(S69-S70)/S70</f>
         <v>0.641237592165881</v>
@@ -7676,7 +7616,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O69" s="28"/>
-      <c r="P69" s="110">
+      <c r="P69" s="82">
         <v>825972668.38</v>
       </c>
       <c r="Q69" s="11">
@@ -7702,24 +7642,24 @@
       <c r="W69" s="45">
         <v>904794976.82</v>
       </c>
-      <c r="X69" s="77"/>
-      <c r="Y69" s="77"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="65"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="86"/>
-      <c r="AB69" s="90"/>
+      <c r="AA69" s="70"/>
+      <c r="AB69" s="70"/>
       <c r="AC69" s="28"/>
-      <c r="AD69" s="106"/>
-      <c r="AE69" s="106"/>
-      <c r="AF69" s="99"/>
-      <c r="AG69" s="109"/>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="71"/>
+      <c r="AF69" s="73"/>
+      <c r="AG69" s="70"/>
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>2019</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="28">
         <f>(S70+T70)/(R70+负债表!F69)</f>
         <v>0.250034200180491</v>
@@ -7740,7 +7680,7 @@
         <f>Q70/P70</f>
         <v>0.452196433408305</v>
       </c>
-      <c r="J70" s="62"/>
+      <c r="J70" s="28"/>
       <c r="K70" s="28" t="e">
         <f>(S70-S71)/S71</f>
         <v>#DIV/0!</v>
@@ -7758,7 +7698,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O70" s="28"/>
-      <c r="P70" s="110">
+      <c r="P70" s="82">
         <v>635137158.37</v>
       </c>
       <c r="Q70" s="11">
@@ -7784,30 +7724,30 @@
       <c r="W70" s="45">
         <v>742945537.12</v>
       </c>
-      <c r="X70" s="77"/>
-      <c r="Y70" s="77"/>
+      <c r="X70" s="65"/>
+      <c r="Y70" s="65"/>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="86"/>
-      <c r="AB70" s="90"/>
+      <c r="AA70" s="70"/>
+      <c r="AB70" s="70"/>
       <c r="AC70" s="28"/>
-      <c r="AD70" s="106"/>
-      <c r="AE70" s="106"/>
-      <c r="AF70" s="99"/>
-      <c r="AG70" s="109"/>
+      <c r="AD70" s="71"/>
+      <c r="AE70" s="71"/>
+      <c r="AF70" s="73"/>
+      <c r="AG70" s="70"/>
     </row>
     <row r="71" spans="1:33">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>2018</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="63"/>
+      <c r="J71" s="6"/>
       <c r="K71" s="30"/>
       <c r="L71" s="28"/>
       <c r="M71" s="28"/>
@@ -7821,30 +7761,30 @@
       <c r="U71" s="13"/>
       <c r="V71" s="13"/>
       <c r="W71" s="2"/>
-      <c r="X71" s="77"/>
-      <c r="Y71" s="77"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="65"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="86"/>
-      <c r="AB71" s="90"/>
+      <c r="AA71" s="70"/>
+      <c r="AB71" s="70"/>
       <c r="AC71" s="28"/>
-      <c r="AD71" s="106"/>
-      <c r="AE71" s="106"/>
-      <c r="AF71" s="99"/>
-      <c r="AG71" s="109"/>
+      <c r="AD71" s="71"/>
+      <c r="AE71" s="71"/>
+      <c r="AF71" s="73"/>
+      <c r="AG71" s="70"/>
     </row>
     <row r="72" spans="1:33">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
         <v>2017</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="63"/>
+      <c r="J72" s="6"/>
       <c r="K72" s="30"/>
       <c r="L72" s="28"/>
       <c r="M72" s="28"/>
@@ -7858,30 +7798,30 @@
       <c r="U72" s="13"/>
       <c r="V72" s="13"/>
       <c r="W72" s="2"/>
-      <c r="X72" s="77"/>
-      <c r="Y72" s="77"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
       <c r="Z72" s="2"/>
-      <c r="AA72" s="86"/>
-      <c r="AB72" s="90"/>
+      <c r="AA72" s="70"/>
+      <c r="AB72" s="70"/>
       <c r="AC72" s="28"/>
-      <c r="AD72" s="106"/>
-      <c r="AE72" s="106"/>
-      <c r="AF72" s="99"/>
-      <c r="AG72" s="109"/>
+      <c r="AD72" s="71"/>
+      <c r="AE72" s="71"/>
+      <c r="AF72" s="73"/>
+      <c r="AG72" s="70"/>
     </row>
     <row r="73" spans="1:33">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>2016</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="63"/>
+      <c r="J73" s="6"/>
       <c r="K73" s="30"/>
       <c r="L73" s="28"/>
       <c r="M73" s="28"/>
@@ -7895,30 +7835,30 @@
       <c r="U73" s="13"/>
       <c r="V73" s="13"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="77"/>
-      <c r="Y73" s="77"/>
+      <c r="X73" s="65"/>
+      <c r="Y73" s="65"/>
       <c r="Z73" s="2"/>
-      <c r="AA73" s="86"/>
-      <c r="AB73" s="90"/>
+      <c r="AA73" s="70"/>
+      <c r="AB73" s="70"/>
       <c r="AC73" s="28"/>
-      <c r="AD73" s="106"/>
-      <c r="AE73" s="106"/>
-      <c r="AF73" s="99"/>
-      <c r="AG73" s="109"/>
+      <c r="AD73" s="71"/>
+      <c r="AE73" s="71"/>
+      <c r="AF73" s="73"/>
+      <c r="AG73" s="70"/>
     </row>
     <row r="74" spans="1:33">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>2015</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="63"/>
+      <c r="J74" s="6"/>
       <c r="K74" s="30"/>
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
@@ -7932,30 +7872,30 @@
       <c r="U74" s="13"/>
       <c r="V74" s="13"/>
       <c r="W74" s="2"/>
-      <c r="X74" s="77"/>
-      <c r="Y74" s="77"/>
+      <c r="X74" s="65"/>
+      <c r="Y74" s="65"/>
       <c r="Z74" s="2"/>
-      <c r="AA74" s="86"/>
-      <c r="AB74" s="90"/>
+      <c r="AA74" s="70"/>
+      <c r="AB74" s="70"/>
       <c r="AC74" s="28"/>
-      <c r="AD74" s="106"/>
-      <c r="AE74" s="106"/>
-      <c r="AF74" s="99"/>
-      <c r="AG74" s="109"/>
+      <c r="AD74" s="71"/>
+      <c r="AE74" s="71"/>
+      <c r="AF74" s="73"/>
+      <c r="AG74" s="70"/>
     </row>
     <row r="75" spans="1:33">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <v>2014</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="63"/>
+      <c r="J75" s="6"/>
       <c r="K75" s="30"/>
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
@@ -7969,16 +7909,16 @@
       <c r="U75" s="13"/>
       <c r="V75" s="13"/>
       <c r="W75" s="2"/>
-      <c r="X75" s="77"/>
-      <c r="Y75" s="77"/>
+      <c r="X75" s="65"/>
+      <c r="Y75" s="65"/>
       <c r="Z75" s="2"/>
-      <c r="AA75" s="86"/>
-      <c r="AB75" s="91"/>
+      <c r="AA75" s="70"/>
+      <c r="AB75" s="70"/>
       <c r="AC75" s="28"/>
-      <c r="AD75" s="107"/>
-      <c r="AE75" s="107"/>
-      <c r="AF75" s="99"/>
-      <c r="AG75" s="109"/>
+      <c r="AD75" s="71"/>
+      <c r="AE75" s="71"/>
+      <c r="AF75" s="73"/>
+      <c r="AG75" s="70"/>
     </row>
     <row r="76" spans="1:33">
       <c r="A76" s="1" t="s">
@@ -7987,10 +7927,10 @@
       <c r="B76" s="1">
         <v>2023</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="1">
         <v>2002</v>
       </c>
-      <c r="D76" s="55">
+      <c r="D76" s="1">
         <v>2020</v>
       </c>
       <c r="E76" s="28">
@@ -8013,7 +7953,7 @@
         <f t="shared" ref="I76:I83" si="49">Q76/P76</f>
         <v>0.115060945074691</v>
       </c>
-      <c r="J76" s="62"/>
+      <c r="J76" s="28"/>
       <c r="K76" s="28">
         <f t="shared" ref="K76:K83" si="50">(S76-S77)/S77</f>
         <v>0.368767216512146</v>
@@ -8031,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="28"/>
-      <c r="P76" s="110">
+      <c r="P76" s="82">
         <v>1895108189.39</v>
       </c>
       <c r="Q76" s="11">
@@ -8056,28 +7996,28 @@
       <c r="W76" s="45">
         <v>994249429.79</v>
       </c>
-      <c r="X76" s="77">
+      <c r="X76" s="65">
         <v>100000000</v>
       </c>
-      <c r="Y76" s="77">
+      <c r="Y76" s="65">
         <v>84644897</v>
       </c>
       <c r="Z76" s="2"/>
-      <c r="AA76" s="86"/>
-      <c r="AB76" s="90"/>
+      <c r="AA76" s="70"/>
+      <c r="AB76" s="70"/>
       <c r="AC76" s="28"/>
-      <c r="AD76" s="106"/>
-      <c r="AE76" s="106"/>
-      <c r="AF76" s="99"/>
-      <c r="AG76" s="109"/>
+      <c r="AD76" s="71"/>
+      <c r="AE76" s="71"/>
+      <c r="AF76" s="73"/>
+      <c r="AG76" s="70"/>
     </row>
     <row r="77" spans="1:33">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <v>2022</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="28">
         <f>(S77+T77)/(R77+负债表!F76)</f>
         <v>0.0792293073483222</v>
@@ -8098,7 +8038,7 @@
         <f t="shared" si="49"/>
         <v>0.118174746607432</v>
       </c>
-      <c r="J77" s="62"/>
+      <c r="J77" s="28"/>
       <c r="K77" s="28">
         <f t="shared" si="50"/>
         <v>0.0624500781842894</v>
@@ -8116,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="28"/>
-      <c r="P77" s="110">
+      <c r="P77" s="82">
         <v>1819827642.74</v>
       </c>
       <c r="Q77" s="11">
@@ -8141,28 +8081,28 @@
       <c r="W77" s="45">
         <v>881654879.35</v>
       </c>
-      <c r="X77" s="77">
+      <c r="X77" s="65">
         <v>100000000</v>
       </c>
-      <c r="Y77" s="77">
+      <c r="Y77" s="65">
         <v>38688750</v>
       </c>
       <c r="Z77" s="2"/>
-      <c r="AA77" s="86"/>
-      <c r="AB77" s="90"/>
+      <c r="AA77" s="70"/>
+      <c r="AB77" s="70"/>
       <c r="AC77" s="28"/>
-      <c r="AD77" s="106"/>
-      <c r="AE77" s="106"/>
-      <c r="AF77" s="99"/>
-      <c r="AG77" s="109"/>
+      <c r="AD77" s="71"/>
+      <c r="AE77" s="71"/>
+      <c r="AF77" s="73"/>
+      <c r="AG77" s="70"/>
     </row>
     <row r="78" spans="1:33">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <v>2021</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="28">
         <f>(S78+T78)/(R78+负债表!F77)</f>
         <v>0.0775945913041197</v>
@@ -8183,7 +8123,7 @@
         <f t="shared" si="49"/>
         <v>0.0964867599291973</v>
       </c>
-      <c r="J78" s="62"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="28">
         <f t="shared" si="50"/>
         <v>-0.0740571132909316</v>
@@ -8201,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="28"/>
-      <c r="P78" s="110">
+      <c r="P78" s="82">
         <v>1694608296.62</v>
       </c>
       <c r="Q78" s="11">
@@ -8226,28 +8166,28 @@
       <c r="W78" s="45">
         <v>806241308.44</v>
       </c>
-      <c r="X78" s="77">
+      <c r="X78" s="65">
         <v>100000000</v>
       </c>
-      <c r="Y78" s="77">
+      <c r="Y78" s="65">
         <v>38688750</v>
       </c>
       <c r="Z78" s="2"/>
-      <c r="AA78" s="86"/>
-      <c r="AB78" s="90"/>
+      <c r="AA78" s="70"/>
+      <c r="AB78" s="70"/>
       <c r="AC78" s="28"/>
-      <c r="AD78" s="106"/>
-      <c r="AE78" s="106"/>
-      <c r="AF78" s="99"/>
-      <c r="AG78" s="109"/>
+      <c r="AD78" s="71"/>
+      <c r="AE78" s="71"/>
+      <c r="AF78" s="73"/>
+      <c r="AG78" s="70"/>
     </row>
     <row r="79" spans="1:33">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <v>2020</v>
       </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="28">
         <f>(S79+T79)/(R79+负债表!F78)</f>
         <v>0.0880118408669267</v>
@@ -8268,7 +8208,7 @@
         <f t="shared" si="49"/>
         <v>0.072301014503902</v>
       </c>
-      <c r="J79" s="62"/>
+      <c r="J79" s="28"/>
       <c r="K79" s="28">
         <f t="shared" si="50"/>
         <v>0.398945613318533</v>
@@ -8286,7 +8226,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O79" s="28"/>
-      <c r="P79" s="110">
+      <c r="P79" s="82">
         <v>1577807677.98</v>
       </c>
       <c r="Q79" s="11">
@@ -8311,28 +8251,28 @@
       <c r="W79" s="45">
         <v>726669232.06</v>
       </c>
-      <c r="X79" s="77">
+      <c r="X79" s="65">
         <v>100000000</v>
       </c>
-      <c r="Y79" s="77">
+      <c r="Y79" s="65">
         <v>23710250</v>
       </c>
       <c r="Z79" s="2"/>
-      <c r="AA79" s="86"/>
-      <c r="AB79" s="90"/>
+      <c r="AA79" s="70"/>
+      <c r="AB79" s="70"/>
       <c r="AC79" s="28"/>
-      <c r="AD79" s="106"/>
-      <c r="AE79" s="106"/>
-      <c r="AF79" s="99"/>
-      <c r="AG79" s="109"/>
+      <c r="AD79" s="71"/>
+      <c r="AE79" s="71"/>
+      <c r="AF79" s="73"/>
+      <c r="AG79" s="70"/>
     </row>
     <row r="80" spans="1:33">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <v>2019</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="28">
         <f>(S80+T80)/(R80+负债表!F79)</f>
         <v>0.20452808394638</v>
@@ -8353,7 +8293,7 @@
         <f t="shared" si="49"/>
         <v>0.218185861625209</v>
       </c>
-      <c r="J80" s="62"/>
+      <c r="J80" s="28"/>
       <c r="K80" s="28">
         <f t="shared" si="50"/>
         <v>0.129112257667516</v>
@@ -8371,7 +8311,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O80" s="28"/>
-      <c r="P80" s="110">
+      <c r="P80" s="82">
         <v>589063543.36</v>
       </c>
       <c r="Q80" s="11">
@@ -8397,24 +8337,24 @@
       <c r="W80" s="45">
         <v>628190864.28</v>
       </c>
-      <c r="X80" s="77"/>
-      <c r="Y80" s="77"/>
+      <c r="X80" s="65"/>
+      <c r="Y80" s="65"/>
       <c r="Z80" s="2"/>
-      <c r="AA80" s="86"/>
-      <c r="AB80" s="90"/>
+      <c r="AA80" s="70"/>
+      <c r="AB80" s="70"/>
       <c r="AC80" s="28"/>
-      <c r="AD80" s="106"/>
-      <c r="AE80" s="106"/>
-      <c r="AF80" s="99"/>
-      <c r="AG80" s="109"/>
+      <c r="AD80" s="71"/>
+      <c r="AE80" s="71"/>
+      <c r="AF80" s="73"/>
+      <c r="AG80" s="70"/>
     </row>
     <row r="81" spans="1:33">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>2018</v>
       </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="28">
         <f>(S81+T81)/(R81+负债表!F80)</f>
         <v>0.181354690138168</v>
@@ -8435,7 +8375,7 @@
         <f t="shared" si="49"/>
         <v>0.297238971033074</v>
       </c>
-      <c r="J81" s="62"/>
+      <c r="J81" s="28"/>
       <c r="K81" s="28">
         <f t="shared" si="50"/>
         <v>0.0253788506174712</v>
@@ -8453,7 +8393,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O81" s="28"/>
-      <c r="P81" s="110">
+      <c r="P81" s="82">
         <v>654105009.63</v>
       </c>
       <c r="Q81" s="11">
@@ -8479,24 +8419,24 @@
       <c r="W81" s="45">
         <v>529610337.25</v>
       </c>
-      <c r="X81" s="77"/>
-      <c r="Y81" s="77"/>
+      <c r="X81" s="65"/>
+      <c r="Y81" s="65"/>
       <c r="Z81" s="2"/>
-      <c r="AA81" s="86"/>
-      <c r="AB81" s="90"/>
+      <c r="AA81" s="70"/>
+      <c r="AB81" s="70"/>
       <c r="AC81" s="28"/>
-      <c r="AD81" s="106"/>
-      <c r="AE81" s="106"/>
-      <c r="AF81" s="99"/>
-      <c r="AG81" s="109"/>
+      <c r="AD81" s="71"/>
+      <c r="AE81" s="71"/>
+      <c r="AF81" s="73"/>
+      <c r="AG81" s="70"/>
     </row>
     <row r="82" spans="1:33">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
         <v>2017</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="28">
         <f>(S82+T82)/(R82+负债表!F81)</f>
         <v>0.214139947647988</v>
@@ -8517,7 +8457,7 @@
         <f t="shared" si="49"/>
         <v>0.379741667588182</v>
       </c>
-      <c r="J82" s="62"/>
+      <c r="J82" s="28"/>
       <c r="K82" s="28" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
@@ -8535,7 +8475,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O82" s="28"/>
-      <c r="P82" s="110">
+      <c r="P82" s="82">
         <v>647599481.7</v>
       </c>
       <c r="Q82" s="11">
@@ -8545,7 +8485,7 @@
       <c r="R82" s="45">
         <v>401678974.59</v>
       </c>
-      <c r="S82" s="24">
+      <c r="S82" s="60">
         <v>78995714.59</v>
       </c>
       <c r="T82" s="13">
@@ -8561,24 +8501,24 @@
       <c r="W82" s="45">
         <v>516736005.74</v>
       </c>
-      <c r="X82" s="77"/>
-      <c r="Y82" s="77"/>
+      <c r="X82" s="65"/>
+      <c r="Y82" s="65"/>
       <c r="Z82" s="2"/>
-      <c r="AA82" s="86"/>
-      <c r="AB82" s="90"/>
+      <c r="AA82" s="70"/>
+      <c r="AB82" s="70"/>
       <c r="AC82" s="28"/>
-      <c r="AD82" s="106"/>
-      <c r="AE82" s="106"/>
-      <c r="AF82" s="99"/>
-      <c r="AG82" s="109"/>
+      <c r="AD82" s="71"/>
+      <c r="AE82" s="71"/>
+      <c r="AF82" s="73"/>
+      <c r="AG82" s="70"/>
     </row>
     <row r="83" spans="1:33">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
         <v>2016</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="28" t="e">
         <f>(S83+T83)/(R83+负债表!F82)</f>
         <v>#DIV/0!</v>
@@ -8599,7 +8539,7 @@
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J83" s="62"/>
+      <c r="J83" s="28"/>
       <c r="K83" s="28" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
@@ -8625,30 +8565,30 @@
       <c r="U83" s="13"/>
       <c r="V83" s="13"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="77"/>
-      <c r="Y83" s="77"/>
+      <c r="X83" s="65"/>
+      <c r="Y83" s="65"/>
       <c r="Z83" s="2"/>
-      <c r="AA83" s="86"/>
-      <c r="AB83" s="90"/>
+      <c r="AA83" s="70"/>
+      <c r="AB83" s="70"/>
       <c r="AC83" s="28"/>
-      <c r="AD83" s="106"/>
-      <c r="AE83" s="106"/>
-      <c r="AF83" s="99"/>
-      <c r="AG83" s="109"/>
+      <c r="AD83" s="71"/>
+      <c r="AE83" s="71"/>
+      <c r="AF83" s="73"/>
+      <c r="AG83" s="70"/>
     </row>
     <row r="84" spans="1:33">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
         <v>2015</v>
       </c>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="63"/>
+      <c r="J84" s="6"/>
       <c r="K84" s="30"/>
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
@@ -8662,30 +8602,30 @@
       <c r="U84" s="13"/>
       <c r="V84" s="13"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="77"/>
-      <c r="Y84" s="77"/>
+      <c r="X84" s="65"/>
+      <c r="Y84" s="65"/>
       <c r="Z84" s="2"/>
-      <c r="AA84" s="86"/>
-      <c r="AB84" s="90"/>
+      <c r="AA84" s="70"/>
+      <c r="AB84" s="70"/>
       <c r="AC84" s="28"/>
-      <c r="AD84" s="106"/>
-      <c r="AE84" s="106"/>
-      <c r="AF84" s="99"/>
-      <c r="AG84" s="109"/>
+      <c r="AD84" s="71"/>
+      <c r="AE84" s="71"/>
+      <c r="AF84" s="73"/>
+      <c r="AG84" s="70"/>
     </row>
     <row r="85" spans="1:33">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
         <v>2014</v>
       </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="63"/>
+      <c r="J85" s="6"/>
       <c r="K85" s="30"/>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
@@ -8699,19 +8639,4585 @@
       <c r="U85" s="13"/>
       <c r="V85" s="13"/>
       <c r="W85" s="2"/>
-      <c r="X85" s="77"/>
-      <c r="Y85" s="77"/>
+      <c r="X85" s="65"/>
+      <c r="Y85" s="65"/>
       <c r="Z85" s="2"/>
-      <c r="AA85" s="86"/>
-      <c r="AB85" s="91"/>
+      <c r="AA85" s="70"/>
+      <c r="AB85" s="70"/>
       <c r="AC85" s="28"/>
-      <c r="AD85" s="107"/>
-      <c r="AE85" s="107"/>
-      <c r="AF85" s="111"/>
-      <c r="AG85" s="112"/>
+      <c r="AD85" s="71"/>
+      <c r="AE85" s="71"/>
+      <c r="AF85" s="73"/>
+      <c r="AG85" s="70"/>
+    </row>
+    <row r="86" spans="1:33">
+      <c r="A86" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
+      <c r="K86" s="80"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="76"/>
+      <c r="Q86" s="76"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="57"/>
+      <c r="U86" s="57"/>
+      <c r="V86" s="57"/>
+      <c r="W86" s="81"/>
+      <c r="X86" s="83"/>
+      <c r="Y86" s="83"/>
+      <c r="Z86" s="81"/>
+      <c r="AA86" s="84"/>
+      <c r="AB86" s="84"/>
+      <c r="AC86" s="74"/>
+      <c r="AD86" s="84"/>
+      <c r="AE86" s="84"/>
+      <c r="AF86" s="84"/>
+      <c r="AG86" s="81"/>
+    </row>
+    <row r="87" spans="1:33">
+      <c r="A87" s="75"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="74"/>
+      <c r="P87" s="76"/>
+      <c r="Q87" s="76"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="57"/>
+      <c r="U87" s="57"/>
+      <c r="V87" s="57"/>
+      <c r="W87" s="81"/>
+      <c r="X87" s="83"/>
+      <c r="Y87" s="83"/>
+      <c r="Z87" s="81"/>
+      <c r="AA87" s="84"/>
+      <c r="AB87" s="84"/>
+      <c r="AC87" s="74"/>
+      <c r="AD87" s="84"/>
+      <c r="AE87" s="84"/>
+      <c r="AF87" s="84"/>
+      <c r="AG87" s="81"/>
+    </row>
+    <row r="88" spans="1:33">
+      <c r="A88" s="75"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="81"/>
+      <c r="K88" s="80"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="76"/>
+      <c r="Q88" s="76"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="57"/>
+      <c r="U88" s="57"/>
+      <c r="V88" s="57"/>
+      <c r="W88" s="81"/>
+      <c r="X88" s="83"/>
+      <c r="Y88" s="83"/>
+      <c r="Z88" s="81"/>
+      <c r="AA88" s="84"/>
+      <c r="AB88" s="84"/>
+      <c r="AC88" s="74"/>
+      <c r="AD88" s="84"/>
+      <c r="AE88" s="84"/>
+      <c r="AF88" s="84"/>
+      <c r="AG88" s="81"/>
+    </row>
+    <row r="89" spans="1:33">
+      <c r="A89" s="75"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="81"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="76"/>
+      <c r="Q89" s="76"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
+      <c r="T89" s="57"/>
+      <c r="U89" s="57"/>
+      <c r="V89" s="57"/>
+      <c r="W89" s="81"/>
+      <c r="X89" s="83"/>
+      <c r="Y89" s="83"/>
+      <c r="Z89" s="81"/>
+      <c r="AA89" s="84"/>
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="74"/>
+      <c r="AD89" s="84"/>
+      <c r="AE89" s="84"/>
+      <c r="AF89" s="84"/>
+      <c r="AG89" s="81"/>
+    </row>
+    <row r="90" spans="1:33">
+      <c r="A90" s="75"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="81"/>
+      <c r="K90" s="80"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="74"/>
+      <c r="P90" s="76"/>
+      <c r="Q90" s="76"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="81"/>
+      <c r="T90" s="57"/>
+      <c r="U90" s="57"/>
+      <c r="V90" s="57"/>
+      <c r="W90" s="81"/>
+      <c r="X90" s="83"/>
+      <c r="Y90" s="83"/>
+      <c r="Z90" s="81"/>
+      <c r="AA90" s="84"/>
+      <c r="AB90" s="84"/>
+      <c r="AC90" s="74"/>
+      <c r="AD90" s="84"/>
+      <c r="AE90" s="84"/>
+      <c r="AF90" s="84"/>
+      <c r="AG90" s="81"/>
+    </row>
+    <row r="91" spans="1:33">
+      <c r="A91" s="75"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="81"/>
+      <c r="K91" s="80"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="76"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="81"/>
+      <c r="S91" s="81"/>
+      <c r="T91" s="57"/>
+      <c r="U91" s="57"/>
+      <c r="V91" s="57"/>
+      <c r="W91" s="81"/>
+      <c r="X91" s="83"/>
+      <c r="Y91" s="83"/>
+      <c r="Z91" s="81"/>
+      <c r="AA91" s="84"/>
+      <c r="AB91" s="84"/>
+      <c r="AC91" s="74"/>
+      <c r="AD91" s="84"/>
+      <c r="AE91" s="84"/>
+      <c r="AF91" s="84"/>
+      <c r="AG91" s="81"/>
+    </row>
+    <row r="92" spans="1:33">
+      <c r="A92" s="75"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="74"/>
+      <c r="P92" s="76"/>
+      <c r="Q92" s="76"/>
+      <c r="R92" s="81"/>
+      <c r="S92" s="81"/>
+      <c r="T92" s="57"/>
+      <c r="U92" s="57"/>
+      <c r="V92" s="57"/>
+      <c r="W92" s="81"/>
+      <c r="X92" s="83"/>
+      <c r="Y92" s="83"/>
+      <c r="Z92" s="81"/>
+      <c r="AA92" s="84"/>
+      <c r="AB92" s="84"/>
+      <c r="AC92" s="74"/>
+      <c r="AD92" s="84"/>
+      <c r="AE92" s="84"/>
+      <c r="AF92" s="84"/>
+      <c r="AG92" s="81"/>
+    </row>
+    <row r="93" spans="1:33">
+      <c r="A93" s="75"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="81"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="74"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="74"/>
+      <c r="P93" s="76"/>
+      <c r="Q93" s="76"/>
+      <c r="R93" s="81"/>
+      <c r="S93" s="81"/>
+      <c r="T93" s="57"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="57"/>
+      <c r="W93" s="81"/>
+      <c r="X93" s="83"/>
+      <c r="Y93" s="83"/>
+      <c r="Z93" s="81"/>
+      <c r="AA93" s="84"/>
+      <c r="AB93" s="84"/>
+      <c r="AC93" s="74"/>
+      <c r="AD93" s="84"/>
+      <c r="AE93" s="84"/>
+      <c r="AF93" s="84"/>
+      <c r="AG93" s="81"/>
+    </row>
+    <row r="94" spans="1:33">
+      <c r="A94" s="75"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="81"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="74"/>
+      <c r="M94" s="74"/>
+      <c r="N94" s="74"/>
+      <c r="O94" s="74"/>
+      <c r="P94" s="76"/>
+      <c r="Q94" s="76"/>
+      <c r="R94" s="81"/>
+      <c r="S94" s="81"/>
+      <c r="T94" s="57"/>
+      <c r="U94" s="57"/>
+      <c r="V94" s="57"/>
+      <c r="W94" s="81"/>
+      <c r="X94" s="83"/>
+      <c r="Y94" s="83"/>
+      <c r="Z94" s="81"/>
+      <c r="AA94" s="84"/>
+      <c r="AB94" s="84"/>
+      <c r="AC94" s="74"/>
+      <c r="AD94" s="84"/>
+      <c r="AE94" s="84"/>
+      <c r="AF94" s="84"/>
+      <c r="AG94" s="81"/>
+    </row>
+    <row r="95" spans="1:33">
+      <c r="A95" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="81"/>
+      <c r="K95" s="80"/>
+      <c r="L95" s="74"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="74"/>
+      <c r="P95" s="76"/>
+      <c r="Q95" s="76"/>
+      <c r="R95" s="81"/>
+      <c r="S95" s="81"/>
+      <c r="T95" s="57"/>
+      <c r="U95" s="57"/>
+      <c r="V95" s="57"/>
+      <c r="W95" s="81"/>
+      <c r="X95" s="83"/>
+      <c r="Y95" s="83"/>
+      <c r="Z95" s="81"/>
+      <c r="AA95" s="84"/>
+      <c r="AB95" s="84"/>
+      <c r="AC95" s="74"/>
+      <c r="AD95" s="84"/>
+      <c r="AE95" s="84"/>
+      <c r="AF95" s="84"/>
+      <c r="AG95" s="81"/>
+    </row>
+    <row r="96" spans="1:33">
+      <c r="A96" s="78"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="81"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="81"/>
+      <c r="K96" s="80"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="74"/>
+      <c r="P96" s="76"/>
+      <c r="Q96" s="76"/>
+      <c r="R96" s="81"/>
+      <c r="S96" s="81"/>
+      <c r="T96" s="57"/>
+      <c r="U96" s="57"/>
+      <c r="V96" s="57"/>
+      <c r="W96" s="81"/>
+      <c r="X96" s="83"/>
+      <c r="Y96" s="83"/>
+      <c r="Z96" s="81"/>
+      <c r="AA96" s="84"/>
+      <c r="AB96" s="84"/>
+      <c r="AC96" s="74"/>
+      <c r="AD96" s="84"/>
+      <c r="AE96" s="84"/>
+      <c r="AF96" s="84"/>
+      <c r="AG96" s="81"/>
+    </row>
+    <row r="97" spans="1:33">
+      <c r="A97" s="78"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="81"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="74"/>
+      <c r="P97" s="76"/>
+      <c r="Q97" s="76"/>
+      <c r="R97" s="81"/>
+      <c r="S97" s="81"/>
+      <c r="T97" s="57"/>
+      <c r="U97" s="57"/>
+      <c r="V97" s="57"/>
+      <c r="W97" s="81"/>
+      <c r="X97" s="83"/>
+      <c r="Y97" s="83"/>
+      <c r="Z97" s="81"/>
+      <c r="AA97" s="84"/>
+      <c r="AB97" s="84"/>
+      <c r="AC97" s="74"/>
+      <c r="AD97" s="84"/>
+      <c r="AE97" s="84"/>
+      <c r="AF97" s="84"/>
+      <c r="AG97" s="81"/>
+    </row>
+    <row r="98" spans="1:33">
+      <c r="A98" s="78"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="81"/>
+      <c r="J98" s="81"/>
+      <c r="K98" s="80"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="74"/>
+      <c r="P98" s="76"/>
+      <c r="Q98" s="76"/>
+      <c r="R98" s="81"/>
+      <c r="S98" s="81"/>
+      <c r="T98" s="57"/>
+      <c r="U98" s="57"/>
+      <c r="V98" s="57"/>
+      <c r="W98" s="81"/>
+      <c r="X98" s="83"/>
+      <c r="Y98" s="83"/>
+      <c r="Z98" s="81"/>
+      <c r="AA98" s="84"/>
+      <c r="AB98" s="84"/>
+      <c r="AC98" s="74"/>
+      <c r="AD98" s="84"/>
+      <c r="AE98" s="84"/>
+      <c r="AF98" s="84"/>
+      <c r="AG98" s="81"/>
+    </row>
+    <row r="99" spans="1:33">
+      <c r="A99" s="78"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="80"/>
+      <c r="L99" s="74"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="74"/>
+      <c r="P99" s="76"/>
+      <c r="Q99" s="76"/>
+      <c r="R99" s="81"/>
+      <c r="S99" s="81"/>
+      <c r="T99" s="57"/>
+      <c r="U99" s="57"/>
+      <c r="V99" s="57"/>
+      <c r="W99" s="81"/>
+      <c r="X99" s="83"/>
+      <c r="Y99" s="83"/>
+      <c r="Z99" s="81"/>
+      <c r="AA99" s="84"/>
+      <c r="AB99" s="84"/>
+      <c r="AC99" s="74"/>
+      <c r="AD99" s="84"/>
+      <c r="AE99" s="84"/>
+      <c r="AF99" s="84"/>
+      <c r="AG99" s="81"/>
+    </row>
+    <row r="100" spans="1:33">
+      <c r="A100" s="78"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="81"/>
+      <c r="I100" s="81"/>
+      <c r="J100" s="81"/>
+      <c r="K100" s="80"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="74"/>
+      <c r="P100" s="76"/>
+      <c r="Q100" s="76"/>
+      <c r="R100" s="81"/>
+      <c r="S100" s="81"/>
+      <c r="T100" s="57"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="57"/>
+      <c r="W100" s="81"/>
+      <c r="X100" s="83"/>
+      <c r="Y100" s="83"/>
+      <c r="Z100" s="81"/>
+      <c r="AA100" s="84"/>
+      <c r="AB100" s="84"/>
+      <c r="AC100" s="74"/>
+      <c r="AD100" s="84"/>
+      <c r="AE100" s="84"/>
+      <c r="AF100" s="84"/>
+      <c r="AG100" s="81"/>
+    </row>
+    <row r="101" spans="1:33">
+      <c r="A101" s="78"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="81"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="81"/>
+      <c r="K101" s="80"/>
+      <c r="L101" s="74"/>
+      <c r="M101" s="74"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="74"/>
+      <c r="P101" s="76"/>
+      <c r="Q101" s="76"/>
+      <c r="R101" s="81"/>
+      <c r="S101" s="81"/>
+      <c r="T101" s="57"/>
+      <c r="U101" s="57"/>
+      <c r="V101" s="57"/>
+      <c r="W101" s="81"/>
+      <c r="X101" s="83"/>
+      <c r="Y101" s="83"/>
+      <c r="Z101" s="81"/>
+      <c r="AA101" s="84"/>
+      <c r="AB101" s="84"/>
+      <c r="AC101" s="74"/>
+      <c r="AD101" s="84"/>
+      <c r="AE101" s="84"/>
+      <c r="AF101" s="84"/>
+      <c r="AG101" s="81"/>
+    </row>
+    <row r="102" spans="1:33">
+      <c r="A102" s="78"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="81"/>
+      <c r="K102" s="80"/>
+      <c r="L102" s="74"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="76"/>
+      <c r="Q102" s="76"/>
+      <c r="R102" s="81"/>
+      <c r="S102" s="81"/>
+      <c r="T102" s="57"/>
+      <c r="U102" s="57"/>
+      <c r="V102" s="57"/>
+      <c r="W102" s="81"/>
+      <c r="X102" s="83"/>
+      <c r="Y102" s="83"/>
+      <c r="Z102" s="81"/>
+      <c r="AA102" s="84"/>
+      <c r="AB102" s="84"/>
+      <c r="AC102" s="74"/>
+      <c r="AD102" s="84"/>
+      <c r="AE102" s="84"/>
+      <c r="AF102" s="84"/>
+      <c r="AG102" s="81"/>
+    </row>
+    <row r="103" spans="1:33">
+      <c r="A103" s="78"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="81"/>
+      <c r="K103" s="80"/>
+      <c r="L103" s="74"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="74"/>
+      <c r="P103" s="76"/>
+      <c r="Q103" s="76"/>
+      <c r="R103" s="81"/>
+      <c r="S103" s="81"/>
+      <c r="T103" s="57"/>
+      <c r="U103" s="57"/>
+      <c r="V103" s="57"/>
+      <c r="W103" s="81"/>
+      <c r="X103" s="83"/>
+      <c r="Y103" s="83"/>
+      <c r="Z103" s="81"/>
+      <c r="AA103" s="84"/>
+      <c r="AB103" s="84"/>
+      <c r="AC103" s="74"/>
+      <c r="AD103" s="84"/>
+      <c r="AE103" s="84"/>
+      <c r="AF103" s="84"/>
+      <c r="AG103" s="81"/>
+    </row>
+    <row r="104" spans="1:33">
+      <c r="A104" s="79"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="81"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="81"/>
+      <c r="K104" s="80"/>
+      <c r="L104" s="74"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="74"/>
+      <c r="P104" s="76"/>
+      <c r="Q104" s="76"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="57"/>
+      <c r="U104" s="57"/>
+      <c r="V104" s="57"/>
+      <c r="W104" s="81"/>
+      <c r="X104" s="83"/>
+      <c r="Y104" s="83"/>
+      <c r="Z104" s="81"/>
+      <c r="AA104" s="84"/>
+      <c r="AB104" s="84"/>
+      <c r="AC104" s="74"/>
+      <c r="AD104" s="84"/>
+      <c r="AE104" s="84"/>
+      <c r="AF104" s="84"/>
+      <c r="AG104" s="81"/>
+    </row>
+    <row r="105" spans="1:33">
+      <c r="A105" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="81"/>
+      <c r="K105" s="80"/>
+      <c r="L105" s="74"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="74"/>
+      <c r="P105" s="76"/>
+      <c r="Q105" s="76"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="57"/>
+      <c r="U105" s="57"/>
+      <c r="V105" s="57"/>
+      <c r="W105" s="81"/>
+      <c r="X105" s="83"/>
+      <c r="Y105" s="83"/>
+      <c r="Z105" s="81"/>
+      <c r="AA105" s="84"/>
+      <c r="AB105" s="84"/>
+      <c r="AC105" s="74"/>
+      <c r="AD105" s="84"/>
+      <c r="AE105" s="84"/>
+      <c r="AF105" s="84"/>
+      <c r="AG105" s="81"/>
+    </row>
+    <row r="106" spans="1:33">
+      <c r="A106" s="75"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="K106" s="80"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="74"/>
+      <c r="P106" s="76"/>
+      <c r="Q106" s="76"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
+      <c r="T106" s="57"/>
+      <c r="U106" s="57"/>
+      <c r="V106" s="57"/>
+      <c r="W106" s="81"/>
+      <c r="X106" s="83"/>
+      <c r="Y106" s="83"/>
+      <c r="Z106" s="81"/>
+      <c r="AA106" s="84"/>
+      <c r="AB106" s="84"/>
+      <c r="AC106" s="74"/>
+      <c r="AD106" s="84"/>
+      <c r="AE106" s="84"/>
+      <c r="AF106" s="84"/>
+      <c r="AG106" s="81"/>
+    </row>
+    <row r="107" spans="1:33">
+      <c r="A107" s="75"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="81"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="81"/>
+      <c r="K107" s="80"/>
+      <c r="L107" s="74"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
+      <c r="O107" s="74"/>
+      <c r="P107" s="76"/>
+      <c r="Q107" s="76"/>
+      <c r="R107" s="81"/>
+      <c r="S107" s="81"/>
+      <c r="T107" s="57"/>
+      <c r="U107" s="57"/>
+      <c r="V107" s="57"/>
+      <c r="W107" s="81"/>
+      <c r="X107" s="83"/>
+      <c r="Y107" s="83"/>
+      <c r="Z107" s="81"/>
+      <c r="AA107" s="84"/>
+      <c r="AB107" s="84"/>
+      <c r="AC107" s="74"/>
+      <c r="AD107" s="84"/>
+      <c r="AE107" s="84"/>
+      <c r="AF107" s="84"/>
+      <c r="AG107" s="81"/>
+    </row>
+    <row r="108" spans="1:33">
+      <c r="A108" s="75"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="81"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="81"/>
+      <c r="K108" s="80"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="74"/>
+      <c r="P108" s="76"/>
+      <c r="Q108" s="76"/>
+      <c r="R108" s="81"/>
+      <c r="S108" s="81"/>
+      <c r="T108" s="57"/>
+      <c r="U108" s="57"/>
+      <c r="V108" s="57"/>
+      <c r="W108" s="81"/>
+      <c r="X108" s="83"/>
+      <c r="Y108" s="83"/>
+      <c r="Z108" s="81"/>
+      <c r="AA108" s="84"/>
+      <c r="AB108" s="84"/>
+      <c r="AC108" s="74"/>
+      <c r="AD108" s="84"/>
+      <c r="AE108" s="84"/>
+      <c r="AF108" s="84"/>
+      <c r="AG108" s="81"/>
+    </row>
+    <row r="109" spans="1:33">
+      <c r="A109" s="75"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="81"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="81"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="76"/>
+      <c r="Q109" s="76"/>
+      <c r="R109" s="81"/>
+      <c r="S109" s="81"/>
+      <c r="T109" s="57"/>
+      <c r="U109" s="57"/>
+      <c r="V109" s="57"/>
+      <c r="W109" s="81"/>
+      <c r="X109" s="83"/>
+      <c r="Y109" s="83"/>
+      <c r="Z109" s="81"/>
+      <c r="AA109" s="84"/>
+      <c r="AB109" s="84"/>
+      <c r="AC109" s="74"/>
+      <c r="AD109" s="84"/>
+      <c r="AE109" s="84"/>
+      <c r="AF109" s="84"/>
+      <c r="AG109" s="81"/>
+    </row>
+    <row r="110" spans="1:33">
+      <c r="A110" s="75"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="80"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="81"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="81"/>
+      <c r="K110" s="80"/>
+      <c r="L110" s="74"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
+      <c r="O110" s="74"/>
+      <c r="P110" s="76"/>
+      <c r="Q110" s="76"/>
+      <c r="R110" s="81"/>
+      <c r="S110" s="81"/>
+      <c r="T110" s="57"/>
+      <c r="U110" s="57"/>
+      <c r="V110" s="57"/>
+      <c r="W110" s="81"/>
+      <c r="X110" s="83"/>
+      <c r="Y110" s="83"/>
+      <c r="Z110" s="81"/>
+      <c r="AA110" s="84"/>
+      <c r="AB110" s="84"/>
+      <c r="AC110" s="74"/>
+      <c r="AD110" s="84"/>
+      <c r="AE110" s="84"/>
+      <c r="AF110" s="84"/>
+      <c r="AG110" s="81"/>
+    </row>
+    <row r="111" spans="1:33">
+      <c r="A111" s="75"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="81"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="81"/>
+      <c r="K111" s="80"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+      <c r="O111" s="74"/>
+      <c r="P111" s="76"/>
+      <c r="Q111" s="76"/>
+      <c r="R111" s="81"/>
+      <c r="S111" s="81"/>
+      <c r="T111" s="57"/>
+      <c r="U111" s="57"/>
+      <c r="V111" s="57"/>
+      <c r="W111" s="81"/>
+      <c r="X111" s="83"/>
+      <c r="Y111" s="83"/>
+      <c r="Z111" s="81"/>
+      <c r="AA111" s="84"/>
+      <c r="AB111" s="84"/>
+      <c r="AC111" s="74"/>
+      <c r="AD111" s="84"/>
+      <c r="AE111" s="84"/>
+      <c r="AF111" s="84"/>
+      <c r="AG111" s="81"/>
+    </row>
+    <row r="112" spans="1:33">
+      <c r="A112" s="75"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
+      <c r="O112" s="74"/>
+      <c r="P112" s="76"/>
+      <c r="Q112" s="76"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="57"/>
+      <c r="U112" s="57"/>
+      <c r="V112" s="57"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="83"/>
+      <c r="Y112" s="83"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="84"/>
+      <c r="AB112" s="84"/>
+      <c r="AC112" s="74"/>
+      <c r="AD112" s="84"/>
+      <c r="AE112" s="84"/>
+      <c r="AF112" s="84"/>
+      <c r="AG112" s="81"/>
+    </row>
+    <row r="113" spans="1:33">
+      <c r="A113" s="75"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="81"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="81"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="74"/>
+      <c r="M113" s="74"/>
+      <c r="N113" s="74"/>
+      <c r="O113" s="74"/>
+      <c r="P113" s="76"/>
+      <c r="Q113" s="76"/>
+      <c r="R113" s="81"/>
+      <c r="S113" s="81"/>
+      <c r="T113" s="57"/>
+      <c r="U113" s="57"/>
+      <c r="V113" s="57"/>
+      <c r="W113" s="81"/>
+      <c r="X113" s="83"/>
+      <c r="Y113" s="83"/>
+      <c r="Z113" s="81"/>
+      <c r="AA113" s="84"/>
+      <c r="AB113" s="84"/>
+      <c r="AC113" s="74"/>
+      <c r="AD113" s="84"/>
+      <c r="AE113" s="84"/>
+      <c r="AF113" s="84"/>
+      <c r="AG113" s="81"/>
+    </row>
+    <row r="114" spans="1:33">
+      <c r="A114" s="75"/>
+      <c r="B114" s="76"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="81"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="81"/>
+      <c r="K114" s="80"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="81"/>
+      <c r="S114" s="81"/>
+      <c r="T114" s="57"/>
+      <c r="U114" s="57"/>
+      <c r="V114" s="57"/>
+      <c r="W114" s="81"/>
+      <c r="X114" s="83"/>
+      <c r="Y114" s="83"/>
+      <c r="Z114" s="81"/>
+      <c r="AA114" s="84"/>
+      <c r="AB114" s="84"/>
+      <c r="AC114" s="74"/>
+      <c r="AD114" s="84"/>
+      <c r="AE114" s="84"/>
+      <c r="AF114" s="84"/>
+      <c r="AG114" s="81"/>
+    </row>
+    <row r="115" spans="1:33">
+      <c r="A115" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="81"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="81"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+      <c r="O115" s="74"/>
+      <c r="P115" s="76"/>
+      <c r="Q115" s="76"/>
+      <c r="R115" s="81"/>
+      <c r="S115" s="81"/>
+      <c r="T115" s="57"/>
+      <c r="U115" s="57"/>
+      <c r="V115" s="57"/>
+      <c r="W115" s="81"/>
+      <c r="X115" s="83"/>
+      <c r="Y115" s="83"/>
+      <c r="Z115" s="81"/>
+      <c r="AA115" s="84"/>
+      <c r="AB115" s="84"/>
+      <c r="AC115" s="74"/>
+      <c r="AD115" s="84"/>
+      <c r="AE115" s="84"/>
+      <c r="AF115" s="84"/>
+      <c r="AG115" s="81"/>
+    </row>
+    <row r="116" spans="1:33">
+      <c r="A116" s="75"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="80"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="81"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="81"/>
+      <c r="K116" s="80"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="76"/>
+      <c r="Q116" s="76"/>
+      <c r="R116" s="81"/>
+      <c r="S116" s="81"/>
+      <c r="T116" s="57"/>
+      <c r="U116" s="57"/>
+      <c r="V116" s="57"/>
+      <c r="W116" s="81"/>
+      <c r="X116" s="83"/>
+      <c r="Y116" s="83"/>
+      <c r="Z116" s="81"/>
+      <c r="AA116" s="84"/>
+      <c r="AB116" s="84"/>
+      <c r="AC116" s="74"/>
+      <c r="AD116" s="84"/>
+      <c r="AE116" s="84"/>
+      <c r="AF116" s="84"/>
+      <c r="AG116" s="81"/>
+    </row>
+    <row r="117" spans="1:33">
+      <c r="A117" s="75"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="80"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="81"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="81"/>
+      <c r="K117" s="80"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="74"/>
+      <c r="P117" s="76"/>
+      <c r="Q117" s="76"/>
+      <c r="R117" s="81"/>
+      <c r="S117" s="81"/>
+      <c r="T117" s="57"/>
+      <c r="U117" s="57"/>
+      <c r="V117" s="57"/>
+      <c r="W117" s="81"/>
+      <c r="X117" s="83"/>
+      <c r="Y117" s="83"/>
+      <c r="Z117" s="81"/>
+      <c r="AA117" s="84"/>
+      <c r="AB117" s="84"/>
+      <c r="AC117" s="74"/>
+      <c r="AD117" s="84"/>
+      <c r="AE117" s="84"/>
+      <c r="AF117" s="84"/>
+      <c r="AG117" s="81"/>
+    </row>
+    <row r="118" spans="1:33">
+      <c r="A118" s="75"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="81"/>
+      <c r="K118" s="80"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="74"/>
+      <c r="P118" s="76"/>
+      <c r="Q118" s="76"/>
+      <c r="R118" s="81"/>
+      <c r="S118" s="81"/>
+      <c r="T118" s="57"/>
+      <c r="U118" s="57"/>
+      <c r="V118" s="57"/>
+      <c r="W118" s="81"/>
+      <c r="X118" s="83"/>
+      <c r="Y118" s="83"/>
+      <c r="Z118" s="81"/>
+      <c r="AA118" s="84"/>
+      <c r="AB118" s="84"/>
+      <c r="AC118" s="74"/>
+      <c r="AD118" s="84"/>
+      <c r="AE118" s="84"/>
+      <c r="AF118" s="84"/>
+      <c r="AG118" s="81"/>
+    </row>
+    <row r="119" spans="1:33">
+      <c r="A119" s="75"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="80"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="81"/>
+      <c r="I119" s="81"/>
+      <c r="J119" s="81"/>
+      <c r="K119" s="80"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="74"/>
+      <c r="P119" s="76"/>
+      <c r="Q119" s="76"/>
+      <c r="R119" s="81"/>
+      <c r="S119" s="81"/>
+      <c r="T119" s="57"/>
+      <c r="U119" s="57"/>
+      <c r="V119" s="57"/>
+      <c r="W119" s="81"/>
+      <c r="X119" s="83"/>
+      <c r="Y119" s="83"/>
+      <c r="Z119" s="81"/>
+      <c r="AA119" s="84"/>
+      <c r="AB119" s="84"/>
+      <c r="AC119" s="74"/>
+      <c r="AD119" s="84"/>
+      <c r="AE119" s="84"/>
+      <c r="AF119" s="84"/>
+      <c r="AG119" s="81"/>
+    </row>
+    <row r="120" spans="1:33">
+      <c r="A120" s="75"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="80"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="81"/>
+      <c r="I120" s="81"/>
+      <c r="J120" s="81"/>
+      <c r="K120" s="80"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="74"/>
+      <c r="P120" s="76"/>
+      <c r="Q120" s="76"/>
+      <c r="R120" s="81"/>
+      <c r="S120" s="81"/>
+      <c r="T120" s="57"/>
+      <c r="U120" s="57"/>
+      <c r="V120" s="57"/>
+      <c r="W120" s="81"/>
+      <c r="X120" s="83"/>
+      <c r="Y120" s="83"/>
+      <c r="Z120" s="81"/>
+      <c r="AA120" s="84"/>
+      <c r="AB120" s="84"/>
+      <c r="AC120" s="74"/>
+      <c r="AD120" s="84"/>
+      <c r="AE120" s="84"/>
+      <c r="AF120" s="84"/>
+      <c r="AG120" s="81"/>
+    </row>
+    <row r="121" spans="1:33">
+      <c r="A121" s="75"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="80"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="81"/>
+      <c r="I121" s="81"/>
+      <c r="J121" s="81"/>
+      <c r="K121" s="80"/>
+      <c r="L121" s="74"/>
+      <c r="M121" s="74"/>
+      <c r="N121" s="74"/>
+      <c r="O121" s="74"/>
+      <c r="P121" s="76"/>
+      <c r="Q121" s="76"/>
+      <c r="R121" s="81"/>
+      <c r="S121" s="81"/>
+      <c r="T121" s="57"/>
+      <c r="U121" s="57"/>
+      <c r="V121" s="57"/>
+      <c r="W121" s="81"/>
+      <c r="X121" s="83"/>
+      <c r="Y121" s="83"/>
+      <c r="Z121" s="81"/>
+      <c r="AA121" s="84"/>
+      <c r="AB121" s="84"/>
+      <c r="AC121" s="74"/>
+      <c r="AD121" s="84"/>
+      <c r="AE121" s="84"/>
+      <c r="AF121" s="84"/>
+      <c r="AG121" s="81"/>
+    </row>
+    <row r="122" spans="1:33">
+      <c r="A122" s="75"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="81"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="81"/>
+      <c r="K122" s="80"/>
+      <c r="L122" s="74"/>
+      <c r="M122" s="74"/>
+      <c r="N122" s="74"/>
+      <c r="O122" s="74"/>
+      <c r="P122" s="76"/>
+      <c r="Q122" s="76"/>
+      <c r="R122" s="81"/>
+      <c r="S122" s="81"/>
+      <c r="T122" s="57"/>
+      <c r="U122" s="57"/>
+      <c r="V122" s="57"/>
+      <c r="W122" s="81"/>
+      <c r="X122" s="83"/>
+      <c r="Y122" s="83"/>
+      <c r="Z122" s="81"/>
+      <c r="AA122" s="84"/>
+      <c r="AB122" s="84"/>
+      <c r="AC122" s="74"/>
+      <c r="AD122" s="84"/>
+      <c r="AE122" s="84"/>
+      <c r="AF122" s="84"/>
+      <c r="AG122" s="81"/>
+    </row>
+    <row r="123" spans="1:33">
+      <c r="A123" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="80"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="81"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="81"/>
+      <c r="K123" s="80"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="76"/>
+      <c r="Q123" s="76"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
+      <c r="T123" s="57"/>
+      <c r="U123" s="57"/>
+      <c r="V123" s="57"/>
+      <c r="W123" s="81"/>
+      <c r="X123" s="83"/>
+      <c r="Y123" s="83"/>
+      <c r="Z123" s="81"/>
+      <c r="AA123" s="84"/>
+      <c r="AB123" s="84"/>
+      <c r="AC123" s="74"/>
+      <c r="AD123" s="84"/>
+      <c r="AE123" s="84"/>
+      <c r="AF123" s="84"/>
+      <c r="AG123" s="81"/>
+    </row>
+    <row r="124" spans="1:33">
+      <c r="A124" s="75"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="80"/>
+      <c r="F124" s="80"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="81"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="81"/>
+      <c r="K124" s="80"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="76"/>
+      <c r="Q124" s="76"/>
+      <c r="R124" s="81"/>
+      <c r="S124" s="81"/>
+      <c r="T124" s="57"/>
+      <c r="U124" s="57"/>
+      <c r="V124" s="57"/>
+      <c r="W124" s="81"/>
+      <c r="X124" s="83"/>
+      <c r="Y124" s="83"/>
+      <c r="Z124" s="81"/>
+      <c r="AA124" s="84"/>
+      <c r="AB124" s="84"/>
+      <c r="AC124" s="74"/>
+      <c r="AD124" s="84"/>
+      <c r="AE124" s="84"/>
+      <c r="AF124" s="84"/>
+      <c r="AG124" s="81"/>
+    </row>
+    <row r="125" spans="1:33">
+      <c r="A125" s="75"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="76"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="80"/>
+      <c r="F125" s="80"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="81"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="81"/>
+      <c r="K125" s="80"/>
+      <c r="L125" s="74"/>
+      <c r="M125" s="74"/>
+      <c r="N125" s="74"/>
+      <c r="O125" s="74"/>
+      <c r="P125" s="76"/>
+      <c r="Q125" s="76"/>
+      <c r="R125" s="81"/>
+      <c r="S125" s="81"/>
+      <c r="T125" s="57"/>
+      <c r="U125" s="57"/>
+      <c r="V125" s="57"/>
+      <c r="W125" s="81"/>
+      <c r="X125" s="83"/>
+      <c r="Y125" s="83"/>
+      <c r="Z125" s="81"/>
+      <c r="AA125" s="84"/>
+      <c r="AB125" s="84"/>
+      <c r="AC125" s="74"/>
+      <c r="AD125" s="84"/>
+      <c r="AE125" s="84"/>
+      <c r="AF125" s="84"/>
+      <c r="AG125" s="81"/>
+    </row>
+    <row r="126" spans="1:33">
+      <c r="A126" s="75"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="80"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="81"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="81"/>
+      <c r="K126" s="80"/>
+      <c r="L126" s="74"/>
+      <c r="M126" s="74"/>
+      <c r="N126" s="74"/>
+      <c r="O126" s="74"/>
+      <c r="P126" s="76"/>
+      <c r="Q126" s="76"/>
+      <c r="R126" s="81"/>
+      <c r="S126" s="81"/>
+      <c r="T126" s="57"/>
+      <c r="U126" s="57"/>
+      <c r="V126" s="57"/>
+      <c r="W126" s="81"/>
+      <c r="X126" s="83"/>
+      <c r="Y126" s="83"/>
+      <c r="Z126" s="81"/>
+      <c r="AA126" s="84"/>
+      <c r="AB126" s="84"/>
+      <c r="AC126" s="74"/>
+      <c r="AD126" s="84"/>
+      <c r="AE126" s="84"/>
+      <c r="AF126" s="84"/>
+      <c r="AG126" s="81"/>
+    </row>
+    <row r="127" spans="1:33">
+      <c r="A127" s="75"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="76"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="81"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="81"/>
+      <c r="K127" s="80"/>
+      <c r="L127" s="74"/>
+      <c r="M127" s="74"/>
+      <c r="N127" s="74"/>
+      <c r="O127" s="74"/>
+      <c r="P127" s="76"/>
+      <c r="Q127" s="76"/>
+      <c r="R127" s="81"/>
+      <c r="S127" s="81"/>
+      <c r="T127" s="57"/>
+      <c r="U127" s="57"/>
+      <c r="V127" s="57"/>
+      <c r="W127" s="81"/>
+      <c r="X127" s="83"/>
+      <c r="Y127" s="83"/>
+      <c r="Z127" s="81"/>
+      <c r="AA127" s="84"/>
+      <c r="AB127" s="84"/>
+      <c r="AC127" s="74"/>
+      <c r="AD127" s="84"/>
+      <c r="AE127" s="84"/>
+      <c r="AF127" s="84"/>
+      <c r="AG127" s="81"/>
+    </row>
+    <row r="128" spans="1:33">
+      <c r="A128" s="75"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="80"/>
+      <c r="F128" s="80"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="81"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="81"/>
+      <c r="K128" s="80"/>
+      <c r="L128" s="74"/>
+      <c r="M128" s="74"/>
+      <c r="N128" s="74"/>
+      <c r="O128" s="74"/>
+      <c r="P128" s="76"/>
+      <c r="Q128" s="76"/>
+      <c r="R128" s="81"/>
+      <c r="S128" s="81"/>
+      <c r="T128" s="57"/>
+      <c r="U128" s="57"/>
+      <c r="V128" s="57"/>
+      <c r="W128" s="81"/>
+      <c r="X128" s="83"/>
+      <c r="Y128" s="83"/>
+      <c r="Z128" s="81"/>
+      <c r="AA128" s="84"/>
+      <c r="AB128" s="84"/>
+      <c r="AC128" s="74"/>
+      <c r="AD128" s="84"/>
+      <c r="AE128" s="84"/>
+      <c r="AF128" s="84"/>
+      <c r="AG128" s="81"/>
+    </row>
+    <row r="129" spans="1:33">
+      <c r="A129" s="75"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="81"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="81"/>
+      <c r="K129" s="80"/>
+      <c r="L129" s="74"/>
+      <c r="M129" s="74"/>
+      <c r="N129" s="74"/>
+      <c r="O129" s="74"/>
+      <c r="P129" s="76"/>
+      <c r="Q129" s="76"/>
+      <c r="R129" s="81"/>
+      <c r="S129" s="81"/>
+      <c r="T129" s="57"/>
+      <c r="U129" s="57"/>
+      <c r="V129" s="57"/>
+      <c r="W129" s="81"/>
+      <c r="X129" s="83"/>
+      <c r="Y129" s="83"/>
+      <c r="Z129" s="81"/>
+      <c r="AA129" s="84"/>
+      <c r="AB129" s="84"/>
+      <c r="AC129" s="74"/>
+      <c r="AD129" s="84"/>
+      <c r="AE129" s="84"/>
+      <c r="AF129" s="84"/>
+      <c r="AG129" s="81"/>
+    </row>
+    <row r="130" spans="1:33">
+      <c r="A130" s="75"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="81"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="81"/>
+      <c r="K130" s="80"/>
+      <c r="L130" s="74"/>
+      <c r="M130" s="74"/>
+      <c r="N130" s="74"/>
+      <c r="O130" s="74"/>
+      <c r="P130" s="76"/>
+      <c r="Q130" s="76"/>
+      <c r="R130" s="81"/>
+      <c r="S130" s="81"/>
+      <c r="T130" s="57"/>
+      <c r="U130" s="57"/>
+      <c r="V130" s="57"/>
+      <c r="W130" s="81"/>
+      <c r="X130" s="83"/>
+      <c r="Y130" s="83"/>
+      <c r="Z130" s="81"/>
+      <c r="AA130" s="84"/>
+      <c r="AB130" s="84"/>
+      <c r="AC130" s="74"/>
+      <c r="AD130" s="84"/>
+      <c r="AE130" s="84"/>
+      <c r="AF130" s="84"/>
+      <c r="AG130" s="81"/>
+    </row>
+    <row r="131" spans="1:33">
+      <c r="A131" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" s="76"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="81"/>
+      <c r="I131" s="81"/>
+      <c r="J131" s="81"/>
+      <c r="K131" s="80"/>
+      <c r="L131" s="74"/>
+      <c r="M131" s="74"/>
+      <c r="N131" s="74"/>
+      <c r="O131" s="74"/>
+      <c r="P131" s="76"/>
+      <c r="Q131" s="76"/>
+      <c r="R131" s="81"/>
+      <c r="S131" s="81"/>
+      <c r="T131" s="57"/>
+      <c r="U131" s="57"/>
+      <c r="V131" s="57"/>
+      <c r="W131" s="81"/>
+      <c r="X131" s="83"/>
+      <c r="Y131" s="83"/>
+      <c r="Z131" s="81"/>
+      <c r="AA131" s="84"/>
+      <c r="AB131" s="84"/>
+      <c r="AC131" s="74"/>
+      <c r="AD131" s="84"/>
+      <c r="AE131" s="84"/>
+      <c r="AF131" s="84"/>
+      <c r="AG131" s="81"/>
+    </row>
+    <row r="132" spans="1:33">
+      <c r="A132" s="75"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="81"/>
+      <c r="I132" s="81"/>
+      <c r="J132" s="81"/>
+      <c r="K132" s="80"/>
+      <c r="L132" s="74"/>
+      <c r="M132" s="74"/>
+      <c r="N132" s="74"/>
+      <c r="O132" s="74"/>
+      <c r="P132" s="76"/>
+      <c r="Q132" s="76"/>
+      <c r="R132" s="81"/>
+      <c r="S132" s="81"/>
+      <c r="T132" s="57"/>
+      <c r="U132" s="57"/>
+      <c r="V132" s="57"/>
+      <c r="W132" s="81"/>
+      <c r="X132" s="83"/>
+      <c r="Y132" s="83"/>
+      <c r="Z132" s="81"/>
+      <c r="AA132" s="84"/>
+      <c r="AB132" s="84"/>
+      <c r="AC132" s="74"/>
+      <c r="AD132" s="84"/>
+      <c r="AE132" s="84"/>
+      <c r="AF132" s="84"/>
+      <c r="AG132" s="81"/>
+    </row>
+    <row r="133" spans="1:33">
+      <c r="A133" s="75"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="81"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="81"/>
+      <c r="K133" s="80"/>
+      <c r="L133" s="74"/>
+      <c r="M133" s="74"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="74"/>
+      <c r="P133" s="76"/>
+      <c r="Q133" s="76"/>
+      <c r="R133" s="81"/>
+      <c r="S133" s="81"/>
+      <c r="T133" s="57"/>
+      <c r="U133" s="57"/>
+      <c r="V133" s="57"/>
+      <c r="W133" s="81"/>
+      <c r="X133" s="83"/>
+      <c r="Y133" s="83"/>
+      <c r="Z133" s="81"/>
+      <c r="AA133" s="84"/>
+      <c r="AB133" s="84"/>
+      <c r="AC133" s="74"/>
+      <c r="AD133" s="84"/>
+      <c r="AE133" s="84"/>
+      <c r="AF133" s="84"/>
+      <c r="AG133" s="81"/>
+    </row>
+    <row r="134" spans="1:33">
+      <c r="A134" s="75"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="81"/>
+      <c r="I134" s="81"/>
+      <c r="J134" s="81"/>
+      <c r="K134" s="80"/>
+      <c r="L134" s="74"/>
+      <c r="M134" s="74"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="74"/>
+      <c r="P134" s="76"/>
+      <c r="Q134" s="76"/>
+      <c r="R134" s="81"/>
+      <c r="S134" s="81"/>
+      <c r="T134" s="57"/>
+      <c r="U134" s="57"/>
+      <c r="V134" s="57"/>
+      <c r="W134" s="81"/>
+      <c r="X134" s="83"/>
+      <c r="Y134" s="83"/>
+      <c r="Z134" s="81"/>
+      <c r="AA134" s="84"/>
+      <c r="AB134" s="84"/>
+      <c r="AC134" s="74"/>
+      <c r="AD134" s="84"/>
+      <c r="AE134" s="84"/>
+      <c r="AF134" s="84"/>
+      <c r="AG134" s="81"/>
+    </row>
+    <row r="135" spans="1:33">
+      <c r="A135" s="75"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="76"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="76"/>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="80"/>
+      <c r="L135" s="74"/>
+      <c r="M135" s="74"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="74"/>
+      <c r="P135" s="76"/>
+      <c r="Q135" s="76"/>
+      <c r="R135" s="81"/>
+      <c r="S135" s="81"/>
+      <c r="T135" s="57"/>
+      <c r="U135" s="57"/>
+      <c r="V135" s="57"/>
+      <c r="W135" s="81"/>
+      <c r="X135" s="83"/>
+      <c r="Y135" s="83"/>
+      <c r="Z135" s="81"/>
+      <c r="AA135" s="84"/>
+      <c r="AB135" s="84"/>
+      <c r="AC135" s="74"/>
+      <c r="AD135" s="84"/>
+      <c r="AE135" s="84"/>
+      <c r="AF135" s="84"/>
+      <c r="AG135" s="81"/>
+    </row>
+    <row r="136" spans="1:33">
+      <c r="A136" s="75"/>
+      <c r="B136" s="76"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="80"/>
+      <c r="F136" s="80"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="81"/>
+      <c r="I136" s="81"/>
+      <c r="J136" s="81"/>
+      <c r="K136" s="80"/>
+      <c r="L136" s="74"/>
+      <c r="M136" s="74"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="74"/>
+      <c r="P136" s="76"/>
+      <c r="Q136" s="76"/>
+      <c r="R136" s="81"/>
+      <c r="S136" s="81"/>
+      <c r="T136" s="57"/>
+      <c r="U136" s="57"/>
+      <c r="V136" s="57"/>
+      <c r="W136" s="81"/>
+      <c r="X136" s="83"/>
+      <c r="Y136" s="83"/>
+      <c r="Z136" s="81"/>
+      <c r="AA136" s="84"/>
+      <c r="AB136" s="84"/>
+      <c r="AC136" s="74"/>
+      <c r="AD136" s="84"/>
+      <c r="AE136" s="84"/>
+      <c r="AF136" s="84"/>
+      <c r="AG136" s="81"/>
+    </row>
+    <row r="137" spans="1:33">
+      <c r="A137" s="75"/>
+      <c r="B137" s="76"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="76"/>
+      <c r="E137" s="80"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="81"/>
+      <c r="I137" s="81"/>
+      <c r="J137" s="81"/>
+      <c r="K137" s="80"/>
+      <c r="L137" s="74"/>
+      <c r="M137" s="74"/>
+      <c r="N137" s="74"/>
+      <c r="O137" s="74"/>
+      <c r="P137" s="76"/>
+      <c r="Q137" s="76"/>
+      <c r="R137" s="81"/>
+      <c r="S137" s="81"/>
+      <c r="T137" s="57"/>
+      <c r="U137" s="57"/>
+      <c r="V137" s="57"/>
+      <c r="W137" s="81"/>
+      <c r="X137" s="83"/>
+      <c r="Y137" s="83"/>
+      <c r="Z137" s="81"/>
+      <c r="AA137" s="84"/>
+      <c r="AB137" s="84"/>
+      <c r="AC137" s="74"/>
+      <c r="AD137" s="84"/>
+      <c r="AE137" s="84"/>
+      <c r="AF137" s="84"/>
+      <c r="AG137" s="81"/>
+    </row>
+    <row r="138" spans="1:33">
+      <c r="A138" s="75"/>
+      <c r="B138" s="76"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="81"/>
+      <c r="I138" s="81"/>
+      <c r="J138" s="81"/>
+      <c r="K138" s="80"/>
+      <c r="L138" s="74"/>
+      <c r="M138" s="74"/>
+      <c r="N138" s="74"/>
+      <c r="O138" s="74"/>
+      <c r="P138" s="76"/>
+      <c r="Q138" s="76"/>
+      <c r="R138" s="81"/>
+      <c r="S138" s="81"/>
+      <c r="T138" s="57"/>
+      <c r="U138" s="57"/>
+      <c r="V138" s="57"/>
+      <c r="W138" s="81"/>
+      <c r="X138" s="83"/>
+      <c r="Y138" s="83"/>
+      <c r="Z138" s="81"/>
+      <c r="AA138" s="84"/>
+      <c r="AB138" s="84"/>
+      <c r="AC138" s="74"/>
+      <c r="AD138" s="84"/>
+      <c r="AE138" s="84"/>
+      <c r="AF138" s="84"/>
+      <c r="AG138" s="81"/>
+    </row>
+    <row r="139" spans="1:33">
+      <c r="A139" s="75"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="80"/>
+      <c r="F139" s="80"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="81"/>
+      <c r="I139" s="81"/>
+      <c r="J139" s="81"/>
+      <c r="K139" s="80"/>
+      <c r="L139" s="74"/>
+      <c r="M139" s="74"/>
+      <c r="N139" s="74"/>
+      <c r="O139" s="74"/>
+      <c r="P139" s="76"/>
+      <c r="Q139" s="76"/>
+      <c r="R139" s="81"/>
+      <c r="S139" s="81"/>
+      <c r="T139" s="57"/>
+      <c r="U139" s="57"/>
+      <c r="V139" s="57"/>
+      <c r="W139" s="81"/>
+      <c r="X139" s="83"/>
+      <c r="Y139" s="83"/>
+      <c r="Z139" s="81"/>
+      <c r="AA139" s="84"/>
+      <c r="AB139" s="84"/>
+      <c r="AC139" s="74"/>
+      <c r="AD139" s="84"/>
+      <c r="AE139" s="84"/>
+      <c r="AF139" s="84"/>
+      <c r="AG139" s="81"/>
+    </row>
+    <row r="140" spans="1:33">
+      <c r="A140" s="75"/>
+      <c r="B140" s="76"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="76"/>
+      <c r="E140" s="80"/>
+      <c r="F140" s="80"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="81"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="81"/>
+      <c r="K140" s="80"/>
+      <c r="L140" s="74"/>
+      <c r="M140" s="74"/>
+      <c r="N140" s="74"/>
+      <c r="O140" s="74"/>
+      <c r="P140" s="76"/>
+      <c r="Q140" s="76"/>
+      <c r="R140" s="81"/>
+      <c r="S140" s="81"/>
+      <c r="T140" s="57"/>
+      <c r="U140" s="57"/>
+      <c r="V140" s="57"/>
+      <c r="W140" s="81"/>
+      <c r="X140" s="83"/>
+      <c r="Y140" s="83"/>
+      <c r="Z140" s="81"/>
+      <c r="AA140" s="84"/>
+      <c r="AB140" s="84"/>
+      <c r="AC140" s="74"/>
+      <c r="AD140" s="84"/>
+      <c r="AE140" s="84"/>
+      <c r="AF140" s="84"/>
+      <c r="AG140" s="81"/>
+    </row>
+    <row r="141" spans="1:33">
+      <c r="A141" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B141" s="76"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="81"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="81"/>
+      <c r="K141" s="80"/>
+      <c r="L141" s="74"/>
+      <c r="M141" s="74"/>
+      <c r="N141" s="74"/>
+      <c r="O141" s="74"/>
+      <c r="P141" s="76"/>
+      <c r="Q141" s="76"/>
+      <c r="R141" s="81"/>
+      <c r="S141" s="81"/>
+      <c r="T141" s="57"/>
+      <c r="U141" s="57"/>
+      <c r="V141" s="57"/>
+      <c r="W141" s="81"/>
+      <c r="X141" s="83"/>
+      <c r="Y141" s="83"/>
+      <c r="Z141" s="81"/>
+      <c r="AA141" s="84"/>
+      <c r="AB141" s="84"/>
+      <c r="AC141" s="74"/>
+      <c r="AD141" s="84"/>
+      <c r="AE141" s="84"/>
+      <c r="AF141" s="84"/>
+      <c r="AG141" s="81"/>
+    </row>
+    <row r="142" spans="1:33">
+      <c r="A142" s="75"/>
+      <c r="B142" s="76"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="81"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="80"/>
+      <c r="L142" s="74"/>
+      <c r="M142" s="74"/>
+      <c r="N142" s="74"/>
+      <c r="O142" s="74"/>
+      <c r="P142" s="76"/>
+      <c r="Q142" s="76"/>
+      <c r="R142" s="81"/>
+      <c r="S142" s="81"/>
+      <c r="T142" s="57"/>
+      <c r="U142" s="57"/>
+      <c r="V142" s="57"/>
+      <c r="W142" s="81"/>
+      <c r="X142" s="83"/>
+      <c r="Y142" s="83"/>
+      <c r="Z142" s="81"/>
+      <c r="AA142" s="84"/>
+      <c r="AB142" s="84"/>
+      <c r="AC142" s="74"/>
+      <c r="AD142" s="84"/>
+      <c r="AE142" s="84"/>
+      <c r="AF142" s="84"/>
+      <c r="AG142" s="81"/>
+    </row>
+    <row r="143" spans="1:33">
+      <c r="A143" s="75"/>
+      <c r="B143" s="76"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="80"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
+      <c r="K143" s="80"/>
+      <c r="L143" s="74"/>
+      <c r="M143" s="74"/>
+      <c r="N143" s="74"/>
+      <c r="O143" s="74"/>
+      <c r="P143" s="76"/>
+      <c r="Q143" s="76"/>
+      <c r="R143" s="81"/>
+      <c r="S143" s="81"/>
+      <c r="T143" s="57"/>
+      <c r="U143" s="57"/>
+      <c r="V143" s="57"/>
+      <c r="W143" s="81"/>
+      <c r="X143" s="83"/>
+      <c r="Y143" s="83"/>
+      <c r="Z143" s="81"/>
+      <c r="AA143" s="84"/>
+      <c r="AB143" s="84"/>
+      <c r="AC143" s="74"/>
+      <c r="AD143" s="84"/>
+      <c r="AE143" s="84"/>
+      <c r="AF143" s="84"/>
+      <c r="AG143" s="81"/>
+    </row>
+    <row r="144" spans="1:33">
+      <c r="A144" s="75"/>
+      <c r="B144" s="76"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="76"/>
+      <c r="E144" s="80"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="76"/>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="81"/>
+      <c r="K144" s="80"/>
+      <c r="L144" s="74"/>
+      <c r="M144" s="74"/>
+      <c r="N144" s="74"/>
+      <c r="O144" s="74"/>
+      <c r="P144" s="76"/>
+      <c r="Q144" s="76"/>
+      <c r="R144" s="81"/>
+      <c r="S144" s="81"/>
+      <c r="T144" s="57"/>
+      <c r="U144" s="57"/>
+      <c r="V144" s="57"/>
+      <c r="W144" s="81"/>
+      <c r="X144" s="83"/>
+      <c r="Y144" s="83"/>
+      <c r="Z144" s="81"/>
+      <c r="AA144" s="84"/>
+      <c r="AB144" s="84"/>
+      <c r="AC144" s="74"/>
+      <c r="AD144" s="84"/>
+      <c r="AE144" s="84"/>
+      <c r="AF144" s="84"/>
+      <c r="AG144" s="81"/>
+    </row>
+    <row r="145" spans="1:33">
+      <c r="A145" s="75"/>
+      <c r="B145" s="76"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="76"/>
+      <c r="E145" s="80"/>
+      <c r="F145" s="80"/>
+      <c r="G145" s="76"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="80"/>
+      <c r="L145" s="74"/>
+      <c r="M145" s="74"/>
+      <c r="N145" s="74"/>
+      <c r="O145" s="74"/>
+      <c r="P145" s="76"/>
+      <c r="Q145" s="76"/>
+      <c r="R145" s="81"/>
+      <c r="S145" s="81"/>
+      <c r="T145" s="57"/>
+      <c r="U145" s="57"/>
+      <c r="V145" s="57"/>
+      <c r="W145" s="81"/>
+      <c r="X145" s="83"/>
+      <c r="Y145" s="83"/>
+      <c r="Z145" s="81"/>
+      <c r="AA145" s="84"/>
+      <c r="AB145" s="84"/>
+      <c r="AC145" s="74"/>
+      <c r="AD145" s="84"/>
+      <c r="AE145" s="84"/>
+      <c r="AF145" s="84"/>
+      <c r="AG145" s="81"/>
+    </row>
+    <row r="146" spans="1:33">
+      <c r="A146" s="75"/>
+      <c r="B146" s="76"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="76"/>
+      <c r="E146" s="80"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="76"/>
+      <c r="H146" s="81"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="81"/>
+      <c r="K146" s="80"/>
+      <c r="L146" s="74"/>
+      <c r="M146" s="74"/>
+      <c r="N146" s="74"/>
+      <c r="O146" s="74"/>
+      <c r="P146" s="76"/>
+      <c r="Q146" s="76"/>
+      <c r="R146" s="81"/>
+      <c r="S146" s="81"/>
+      <c r="T146" s="57"/>
+      <c r="U146" s="57"/>
+      <c r="V146" s="57"/>
+      <c r="W146" s="81"/>
+      <c r="X146" s="83"/>
+      <c r="Y146" s="83"/>
+      <c r="Z146" s="81"/>
+      <c r="AA146" s="84"/>
+      <c r="AB146" s="84"/>
+      <c r="AC146" s="74"/>
+      <c r="AD146" s="84"/>
+      <c r="AE146" s="84"/>
+      <c r="AF146" s="84"/>
+      <c r="AG146" s="81"/>
+    </row>
+    <row r="147" spans="1:33">
+      <c r="A147" s="75"/>
+      <c r="B147" s="76"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="80"/>
+      <c r="F147" s="80"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="81"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="81"/>
+      <c r="K147" s="80"/>
+      <c r="L147" s="74"/>
+      <c r="M147" s="74"/>
+      <c r="N147" s="74"/>
+      <c r="O147" s="74"/>
+      <c r="P147" s="76"/>
+      <c r="Q147" s="76"/>
+      <c r="R147" s="81"/>
+      <c r="S147" s="81"/>
+      <c r="T147" s="57"/>
+      <c r="U147" s="57"/>
+      <c r="V147" s="57"/>
+      <c r="W147" s="81"/>
+      <c r="X147" s="83"/>
+      <c r="Y147" s="83"/>
+      <c r="Z147" s="81"/>
+      <c r="AA147" s="84"/>
+      <c r="AB147" s="84"/>
+      <c r="AC147" s="74"/>
+      <c r="AD147" s="84"/>
+      <c r="AE147" s="84"/>
+      <c r="AF147" s="84"/>
+      <c r="AG147" s="81"/>
+    </row>
+    <row r="148" spans="1:33">
+      <c r="A148" s="75"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="80"/>
+      <c r="F148" s="80"/>
+      <c r="G148" s="76"/>
+      <c r="H148" s="81"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="81"/>
+      <c r="K148" s="80"/>
+      <c r="L148" s="74"/>
+      <c r="M148" s="74"/>
+      <c r="N148" s="74"/>
+      <c r="O148" s="74"/>
+      <c r="P148" s="76"/>
+      <c r="Q148" s="76"/>
+      <c r="R148" s="81"/>
+      <c r="S148" s="81"/>
+      <c r="T148" s="57"/>
+      <c r="U148" s="57"/>
+      <c r="V148" s="57"/>
+      <c r="W148" s="81"/>
+      <c r="X148" s="83"/>
+      <c r="Y148" s="83"/>
+      <c r="Z148" s="81"/>
+      <c r="AA148" s="84"/>
+      <c r="AB148" s="84"/>
+      <c r="AC148" s="74"/>
+      <c r="AD148" s="84"/>
+      <c r="AE148" s="84"/>
+      <c r="AF148" s="84"/>
+      <c r="AG148" s="81"/>
+    </row>
+    <row r="149" spans="1:33">
+      <c r="A149" s="75"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="76"/>
+      <c r="E149" s="80"/>
+      <c r="F149" s="80"/>
+      <c r="G149" s="76"/>
+      <c r="H149" s="81"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="81"/>
+      <c r="K149" s="80"/>
+      <c r="L149" s="74"/>
+      <c r="M149" s="74"/>
+      <c r="N149" s="74"/>
+      <c r="O149" s="74"/>
+      <c r="P149" s="76"/>
+      <c r="Q149" s="76"/>
+      <c r="R149" s="81"/>
+      <c r="S149" s="81"/>
+      <c r="T149" s="57"/>
+      <c r="U149" s="57"/>
+      <c r="V149" s="57"/>
+      <c r="W149" s="81"/>
+      <c r="X149" s="83"/>
+      <c r="Y149" s="83"/>
+      <c r="Z149" s="81"/>
+      <c r="AA149" s="84"/>
+      <c r="AB149" s="84"/>
+      <c r="AC149" s="74"/>
+      <c r="AD149" s="84"/>
+      <c r="AE149" s="84"/>
+      <c r="AF149" s="84"/>
+      <c r="AG149" s="81"/>
+    </row>
+    <row r="150" spans="1:33">
+      <c r="A150" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="76"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="76"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="76"/>
+      <c r="H150" s="81"/>
+      <c r="I150" s="81"/>
+      <c r="J150" s="81"/>
+      <c r="K150" s="80"/>
+      <c r="L150" s="74"/>
+      <c r="M150" s="74"/>
+      <c r="N150" s="74"/>
+      <c r="O150" s="74"/>
+      <c r="P150" s="76"/>
+      <c r="Q150" s="76"/>
+      <c r="R150" s="81"/>
+      <c r="S150" s="81"/>
+      <c r="T150" s="57"/>
+      <c r="U150" s="57"/>
+      <c r="V150" s="57"/>
+      <c r="W150" s="81"/>
+      <c r="X150" s="83"/>
+      <c r="Y150" s="83"/>
+      <c r="Z150" s="81"/>
+      <c r="AA150" s="84"/>
+      <c r="AB150" s="84"/>
+      <c r="AC150" s="74"/>
+      <c r="AD150" s="84"/>
+      <c r="AE150" s="84"/>
+      <c r="AF150" s="84"/>
+      <c r="AG150" s="81"/>
+    </row>
+    <row r="151" spans="1:33">
+      <c r="A151" s="75"/>
+      <c r="B151" s="76"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="80"/>
+      <c r="F151" s="80"/>
+      <c r="G151" s="76"/>
+      <c r="H151" s="81"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="81"/>
+      <c r="K151" s="80"/>
+      <c r="L151" s="74"/>
+      <c r="M151" s="74"/>
+      <c r="N151" s="74"/>
+      <c r="O151" s="74"/>
+      <c r="P151" s="76"/>
+      <c r="Q151" s="76"/>
+      <c r="R151" s="81"/>
+      <c r="S151" s="81"/>
+      <c r="T151" s="57"/>
+      <c r="U151" s="57"/>
+      <c r="V151" s="57"/>
+      <c r="W151" s="81"/>
+      <c r="X151" s="83"/>
+      <c r="Y151" s="83"/>
+      <c r="Z151" s="81"/>
+      <c r="AA151" s="84"/>
+      <c r="AB151" s="84"/>
+      <c r="AC151" s="74"/>
+      <c r="AD151" s="84"/>
+      <c r="AE151" s="84"/>
+      <c r="AF151" s="84"/>
+      <c r="AG151" s="81"/>
+    </row>
+    <row r="152" spans="1:33">
+      <c r="A152" s="75"/>
+      <c r="B152" s="76"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
+      <c r="E152" s="80"/>
+      <c r="F152" s="80"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="81"/>
+      <c r="I152" s="81"/>
+      <c r="J152" s="81"/>
+      <c r="K152" s="80"/>
+      <c r="L152" s="74"/>
+      <c r="M152" s="74"/>
+      <c r="N152" s="74"/>
+      <c r="O152" s="74"/>
+      <c r="P152" s="76"/>
+      <c r="Q152" s="76"/>
+      <c r="R152" s="81"/>
+      <c r="S152" s="81"/>
+      <c r="T152" s="57"/>
+      <c r="U152" s="57"/>
+      <c r="V152" s="57"/>
+      <c r="W152" s="81"/>
+      <c r="X152" s="83"/>
+      <c r="Y152" s="83"/>
+      <c r="Z152" s="81"/>
+      <c r="AA152" s="84"/>
+      <c r="AB152" s="84"/>
+      <c r="AC152" s="74"/>
+      <c r="AD152" s="84"/>
+      <c r="AE152" s="84"/>
+      <c r="AF152" s="84"/>
+      <c r="AG152" s="81"/>
+    </row>
+    <row r="153" spans="1:33">
+      <c r="A153" s="75"/>
+      <c r="B153" s="76"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="80"/>
+      <c r="F153" s="80"/>
+      <c r="G153" s="76"/>
+      <c r="H153" s="81"/>
+      <c r="I153" s="81"/>
+      <c r="J153" s="81"/>
+      <c r="K153" s="80"/>
+      <c r="L153" s="74"/>
+      <c r="M153" s="74"/>
+      <c r="N153" s="74"/>
+      <c r="O153" s="74"/>
+      <c r="P153" s="76"/>
+      <c r="Q153" s="76"/>
+      <c r="R153" s="81"/>
+      <c r="S153" s="81"/>
+      <c r="T153" s="57"/>
+      <c r="U153" s="57"/>
+      <c r="V153" s="57"/>
+      <c r="W153" s="81"/>
+      <c r="X153" s="83"/>
+      <c r="Y153" s="83"/>
+      <c r="Z153" s="81"/>
+      <c r="AA153" s="84"/>
+      <c r="AB153" s="84"/>
+      <c r="AC153" s="74"/>
+      <c r="AD153" s="84"/>
+      <c r="AE153" s="84"/>
+      <c r="AF153" s="84"/>
+      <c r="AG153" s="81"/>
+    </row>
+    <row r="154" spans="1:33">
+      <c r="A154" s="75"/>
+      <c r="B154" s="76"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="80"/>
+      <c r="G154" s="76"/>
+      <c r="H154" s="81"/>
+      <c r="I154" s="81"/>
+      <c r="J154" s="81"/>
+      <c r="K154" s="80"/>
+      <c r="L154" s="74"/>
+      <c r="M154" s="74"/>
+      <c r="N154" s="74"/>
+      <c r="O154" s="74"/>
+      <c r="P154" s="76"/>
+      <c r="Q154" s="76"/>
+      <c r="R154" s="81"/>
+      <c r="S154" s="81"/>
+      <c r="T154" s="57"/>
+      <c r="U154" s="57"/>
+      <c r="V154" s="57"/>
+      <c r="W154" s="81"/>
+      <c r="X154" s="83"/>
+      <c r="Y154" s="83"/>
+      <c r="Z154" s="81"/>
+      <c r="AA154" s="84"/>
+      <c r="AB154" s="84"/>
+      <c r="AC154" s="74"/>
+      <c r="AD154" s="84"/>
+      <c r="AE154" s="84"/>
+      <c r="AF154" s="84"/>
+      <c r="AG154" s="81"/>
+    </row>
+    <row r="155" spans="1:33">
+      <c r="A155" s="75"/>
+      <c r="B155" s="76"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="80"/>
+      <c r="F155" s="80"/>
+      <c r="G155" s="76"/>
+      <c r="H155" s="81"/>
+      <c r="I155" s="81"/>
+      <c r="J155" s="81"/>
+      <c r="K155" s="80"/>
+      <c r="L155" s="74"/>
+      <c r="M155" s="74"/>
+      <c r="N155" s="74"/>
+      <c r="O155" s="74"/>
+      <c r="P155" s="76"/>
+      <c r="Q155" s="76"/>
+      <c r="R155" s="81"/>
+      <c r="S155" s="81"/>
+      <c r="T155" s="57"/>
+      <c r="U155" s="57"/>
+      <c r="V155" s="57"/>
+      <c r="W155" s="81"/>
+      <c r="X155" s="83"/>
+      <c r="Y155" s="83"/>
+      <c r="Z155" s="81"/>
+      <c r="AA155" s="84"/>
+      <c r="AB155" s="84"/>
+      <c r="AC155" s="74"/>
+      <c r="AD155" s="84"/>
+      <c r="AE155" s="84"/>
+      <c r="AF155" s="84"/>
+      <c r="AG155" s="81"/>
+    </row>
+    <row r="156" spans="1:33">
+      <c r="A156" s="75"/>
+      <c r="B156" s="76"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="76"/>
+      <c r="E156" s="80"/>
+      <c r="F156" s="80"/>
+      <c r="G156" s="76"/>
+      <c r="H156" s="81"/>
+      <c r="I156" s="81"/>
+      <c r="J156" s="81"/>
+      <c r="K156" s="80"/>
+      <c r="L156" s="74"/>
+      <c r="M156" s="74"/>
+      <c r="N156" s="74"/>
+      <c r="O156" s="74"/>
+      <c r="P156" s="76"/>
+      <c r="Q156" s="76"/>
+      <c r="R156" s="81"/>
+      <c r="S156" s="81"/>
+      <c r="T156" s="57"/>
+      <c r="U156" s="57"/>
+      <c r="V156" s="57"/>
+      <c r="W156" s="81"/>
+      <c r="X156" s="83"/>
+      <c r="Y156" s="83"/>
+      <c r="Z156" s="81"/>
+      <c r="AA156" s="84"/>
+      <c r="AB156" s="84"/>
+      <c r="AC156" s="74"/>
+      <c r="AD156" s="84"/>
+      <c r="AE156" s="84"/>
+      <c r="AF156" s="84"/>
+      <c r="AG156" s="81"/>
+    </row>
+    <row r="157" spans="1:33">
+      <c r="A157" s="75"/>
+      <c r="B157" s="76"/>
+      <c r="C157" s="76"/>
+      <c r="D157" s="76"/>
+      <c r="E157" s="80"/>
+      <c r="F157" s="80"/>
+      <c r="G157" s="76"/>
+      <c r="H157" s="81"/>
+      <c r="I157" s="81"/>
+      <c r="J157" s="81"/>
+      <c r="K157" s="80"/>
+      <c r="L157" s="74"/>
+      <c r="M157" s="74"/>
+      <c r="N157" s="74"/>
+      <c r="O157" s="74"/>
+      <c r="P157" s="76"/>
+      <c r="Q157" s="76"/>
+      <c r="R157" s="81"/>
+      <c r="S157" s="81"/>
+      <c r="T157" s="57"/>
+      <c r="U157" s="57"/>
+      <c r="V157" s="57"/>
+      <c r="W157" s="81"/>
+      <c r="X157" s="83"/>
+      <c r="Y157" s="83"/>
+      <c r="Z157" s="81"/>
+      <c r="AA157" s="84"/>
+      <c r="AB157" s="84"/>
+      <c r="AC157" s="74"/>
+      <c r="AD157" s="84"/>
+      <c r="AE157" s="84"/>
+      <c r="AF157" s="84"/>
+      <c r="AG157" s="81"/>
+    </row>
+    <row r="158" spans="1:33">
+      <c r="A158" s="75"/>
+      <c r="B158" s="76"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="80"/>
+      <c r="F158" s="80"/>
+      <c r="G158" s="76"/>
+      <c r="H158" s="81"/>
+      <c r="I158" s="81"/>
+      <c r="J158" s="81"/>
+      <c r="K158" s="80"/>
+      <c r="L158" s="74"/>
+      <c r="M158" s="74"/>
+      <c r="N158" s="74"/>
+      <c r="O158" s="74"/>
+      <c r="P158" s="76"/>
+      <c r="Q158" s="76"/>
+      <c r="R158" s="81"/>
+      <c r="S158" s="81"/>
+      <c r="T158" s="57"/>
+      <c r="U158" s="57"/>
+      <c r="V158" s="57"/>
+      <c r="W158" s="81"/>
+      <c r="X158" s="83"/>
+      <c r="Y158" s="83"/>
+      <c r="Z158" s="81"/>
+      <c r="AA158" s="84"/>
+      <c r="AB158" s="84"/>
+      <c r="AC158" s="74"/>
+      <c r="AD158" s="84"/>
+      <c r="AE158" s="84"/>
+      <c r="AF158" s="84"/>
+      <c r="AG158" s="81"/>
+    </row>
+    <row r="159" spans="1:33">
+      <c r="A159" s="75"/>
+      <c r="B159" s="76"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="76"/>
+      <c r="E159" s="80"/>
+      <c r="F159" s="80"/>
+      <c r="G159" s="76"/>
+      <c r="H159" s="81"/>
+      <c r="I159" s="81"/>
+      <c r="J159" s="81"/>
+      <c r="K159" s="80"/>
+      <c r="L159" s="74"/>
+      <c r="M159" s="74"/>
+      <c r="N159" s="74"/>
+      <c r="O159" s="74"/>
+      <c r="P159" s="76"/>
+      <c r="Q159" s="76"/>
+      <c r="R159" s="81"/>
+      <c r="S159" s="81"/>
+      <c r="T159" s="57"/>
+      <c r="U159" s="57"/>
+      <c r="V159" s="57"/>
+      <c r="W159" s="81"/>
+      <c r="X159" s="83"/>
+      <c r="Y159" s="83"/>
+      <c r="Z159" s="81"/>
+      <c r="AA159" s="84"/>
+      <c r="AB159" s="84"/>
+      <c r="AC159" s="74"/>
+      <c r="AD159" s="84"/>
+      <c r="AE159" s="84"/>
+      <c r="AF159" s="84"/>
+      <c r="AG159" s="81"/>
+    </row>
+    <row r="160" spans="1:33">
+      <c r="A160" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="76"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="80"/>
+      <c r="F160" s="80"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="81"/>
+      <c r="I160" s="81"/>
+      <c r="J160" s="81"/>
+      <c r="K160" s="80"/>
+      <c r="L160" s="74"/>
+      <c r="M160" s="74"/>
+      <c r="N160" s="74"/>
+      <c r="O160" s="74"/>
+      <c r="P160" s="76"/>
+      <c r="Q160" s="76"/>
+      <c r="R160" s="81"/>
+      <c r="S160" s="81"/>
+      <c r="T160" s="57"/>
+      <c r="U160" s="57"/>
+      <c r="V160" s="57"/>
+      <c r="W160" s="81"/>
+      <c r="X160" s="83"/>
+      <c r="Y160" s="83"/>
+      <c r="Z160" s="81"/>
+      <c r="AA160" s="84"/>
+      <c r="AB160" s="84"/>
+      <c r="AC160" s="74"/>
+      <c r="AD160" s="84"/>
+      <c r="AE160" s="84"/>
+      <c r="AF160" s="84"/>
+      <c r="AG160" s="81"/>
+    </row>
+    <row r="161" spans="1:33">
+      <c r="A161" s="75"/>
+      <c r="B161" s="76"/>
+      <c r="C161" s="76"/>
+      <c r="D161" s="76"/>
+      <c r="E161" s="80"/>
+      <c r="F161" s="80"/>
+      <c r="G161" s="76"/>
+      <c r="H161" s="81"/>
+      <c r="I161" s="81"/>
+      <c r="J161" s="81"/>
+      <c r="K161" s="80"/>
+      <c r="L161" s="74"/>
+      <c r="M161" s="74"/>
+      <c r="N161" s="74"/>
+      <c r="O161" s="74"/>
+      <c r="P161" s="76"/>
+      <c r="Q161" s="76"/>
+      <c r="R161" s="81"/>
+      <c r="S161" s="81"/>
+      <c r="T161" s="57"/>
+      <c r="U161" s="57"/>
+      <c r="V161" s="57"/>
+      <c r="W161" s="81"/>
+      <c r="X161" s="83"/>
+      <c r="Y161" s="83"/>
+      <c r="Z161" s="81"/>
+      <c r="AA161" s="84"/>
+      <c r="AB161" s="84"/>
+      <c r="AC161" s="74"/>
+      <c r="AD161" s="84"/>
+      <c r="AE161" s="84"/>
+      <c r="AF161" s="84"/>
+      <c r="AG161" s="81"/>
+    </row>
+    <row r="162" spans="1:33">
+      <c r="A162" s="75"/>
+      <c r="B162" s="76"/>
+      <c r="C162" s="76"/>
+      <c r="D162" s="76"/>
+      <c r="E162" s="80"/>
+      <c r="F162" s="80"/>
+      <c r="G162" s="76"/>
+      <c r="H162" s="81"/>
+      <c r="I162" s="81"/>
+      <c r="J162" s="81"/>
+      <c r="K162" s="80"/>
+      <c r="L162" s="74"/>
+      <c r="M162" s="74"/>
+      <c r="N162" s="74"/>
+      <c r="O162" s="74"/>
+      <c r="P162" s="76"/>
+      <c r="Q162" s="76"/>
+      <c r="R162" s="81"/>
+      <c r="S162" s="81"/>
+      <c r="T162" s="57"/>
+      <c r="U162" s="57"/>
+      <c r="V162" s="57"/>
+      <c r="W162" s="81"/>
+      <c r="X162" s="83"/>
+      <c r="Y162" s="83"/>
+      <c r="Z162" s="81"/>
+      <c r="AA162" s="84"/>
+      <c r="AB162" s="84"/>
+      <c r="AC162" s="74"/>
+      <c r="AD162" s="84"/>
+      <c r="AE162" s="84"/>
+      <c r="AF162" s="84"/>
+      <c r="AG162" s="81"/>
+    </row>
+    <row r="163" spans="1:33">
+      <c r="A163" s="75"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="76"/>
+      <c r="E163" s="80"/>
+      <c r="F163" s="80"/>
+      <c r="G163" s="76"/>
+      <c r="H163" s="81"/>
+      <c r="I163" s="81"/>
+      <c r="J163" s="81"/>
+      <c r="K163" s="80"/>
+      <c r="L163" s="74"/>
+      <c r="M163" s="74"/>
+      <c r="N163" s="74"/>
+      <c r="O163" s="74"/>
+      <c r="P163" s="76"/>
+      <c r="Q163" s="76"/>
+      <c r="R163" s="81"/>
+      <c r="S163" s="81"/>
+      <c r="T163" s="57"/>
+      <c r="U163" s="57"/>
+      <c r="V163" s="57"/>
+      <c r="W163" s="81"/>
+      <c r="X163" s="83"/>
+      <c r="Y163" s="83"/>
+      <c r="Z163" s="81"/>
+      <c r="AA163" s="84"/>
+      <c r="AB163" s="84"/>
+      <c r="AC163" s="74"/>
+      <c r="AD163" s="84"/>
+      <c r="AE163" s="84"/>
+      <c r="AF163" s="84"/>
+      <c r="AG163" s="81"/>
+    </row>
+    <row r="164" spans="1:33">
+      <c r="A164" s="75"/>
+      <c r="B164" s="76"/>
+      <c r="C164" s="76"/>
+      <c r="D164" s="76"/>
+      <c r="E164" s="80"/>
+      <c r="F164" s="80"/>
+      <c r="G164" s="76"/>
+      <c r="H164" s="81"/>
+      <c r="I164" s="81"/>
+      <c r="J164" s="81"/>
+      <c r="K164" s="80"/>
+      <c r="L164" s="74"/>
+      <c r="M164" s="74"/>
+      <c r="N164" s="74"/>
+      <c r="O164" s="74"/>
+      <c r="P164" s="76"/>
+      <c r="Q164" s="76"/>
+      <c r="R164" s="81"/>
+      <c r="S164" s="81"/>
+      <c r="T164" s="57"/>
+      <c r="U164" s="57"/>
+      <c r="V164" s="57"/>
+      <c r="W164" s="81"/>
+      <c r="X164" s="83"/>
+      <c r="Y164" s="83"/>
+      <c r="Z164" s="81"/>
+      <c r="AA164" s="84"/>
+      <c r="AB164" s="84"/>
+      <c r="AC164" s="74"/>
+      <c r="AD164" s="84"/>
+      <c r="AE164" s="84"/>
+      <c r="AF164" s="84"/>
+      <c r="AG164" s="81"/>
+    </row>
+    <row r="165" spans="1:33">
+      <c r="A165" s="75"/>
+      <c r="B165" s="76"/>
+      <c r="C165" s="76"/>
+      <c r="D165" s="76"/>
+      <c r="E165" s="80"/>
+      <c r="F165" s="80"/>
+      <c r="G165" s="76"/>
+      <c r="H165" s="81"/>
+      <c r="I165" s="81"/>
+      <c r="J165" s="81"/>
+      <c r="K165" s="80"/>
+      <c r="L165" s="74"/>
+      <c r="M165" s="74"/>
+      <c r="N165" s="74"/>
+      <c r="O165" s="74"/>
+      <c r="P165" s="76"/>
+      <c r="Q165" s="76"/>
+      <c r="R165" s="81"/>
+      <c r="S165" s="81"/>
+      <c r="T165" s="57"/>
+      <c r="U165" s="57"/>
+      <c r="V165" s="57"/>
+      <c r="W165" s="81"/>
+      <c r="X165" s="83"/>
+      <c r="Y165" s="83"/>
+      <c r="Z165" s="81"/>
+      <c r="AA165" s="84"/>
+      <c r="AB165" s="84"/>
+      <c r="AC165" s="74"/>
+      <c r="AD165" s="84"/>
+      <c r="AE165" s="84"/>
+      <c r="AF165" s="84"/>
+      <c r="AG165" s="81"/>
+    </row>
+    <row r="166" spans="1:33">
+      <c r="A166" s="75"/>
+      <c r="B166" s="76"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="76"/>
+      <c r="E166" s="80"/>
+      <c r="F166" s="80"/>
+      <c r="G166" s="76"/>
+      <c r="H166" s="81"/>
+      <c r="I166" s="81"/>
+      <c r="J166" s="81"/>
+      <c r="K166" s="80"/>
+      <c r="L166" s="74"/>
+      <c r="M166" s="74"/>
+      <c r="N166" s="74"/>
+      <c r="O166" s="74"/>
+      <c r="P166" s="76"/>
+      <c r="Q166" s="76"/>
+      <c r="R166" s="81"/>
+      <c r="S166" s="81"/>
+      <c r="T166" s="57"/>
+      <c r="U166" s="57"/>
+      <c r="V166" s="57"/>
+      <c r="W166" s="81"/>
+      <c r="X166" s="83"/>
+      <c r="Y166" s="83"/>
+      <c r="Z166" s="81"/>
+      <c r="AA166" s="84"/>
+      <c r="AB166" s="84"/>
+      <c r="AC166" s="74"/>
+      <c r="AD166" s="84"/>
+      <c r="AE166" s="84"/>
+      <c r="AF166" s="84"/>
+      <c r="AG166" s="81"/>
+    </row>
+    <row r="167" spans="1:33">
+      <c r="A167" s="75"/>
+      <c r="B167" s="76"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="76"/>
+      <c r="E167" s="80"/>
+      <c r="F167" s="80"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="81"/>
+      <c r="I167" s="81"/>
+      <c r="J167" s="81"/>
+      <c r="K167" s="80"/>
+      <c r="L167" s="74"/>
+      <c r="M167" s="74"/>
+      <c r="N167" s="74"/>
+      <c r="O167" s="74"/>
+      <c r="P167" s="76"/>
+      <c r="Q167" s="76"/>
+      <c r="R167" s="81"/>
+      <c r="S167" s="81"/>
+      <c r="T167" s="57"/>
+      <c r="U167" s="57"/>
+      <c r="V167" s="57"/>
+      <c r="W167" s="81"/>
+      <c r="X167" s="83"/>
+      <c r="Y167" s="83"/>
+      <c r="Z167" s="81"/>
+      <c r="AA167" s="84"/>
+      <c r="AB167" s="84"/>
+      <c r="AC167" s="74"/>
+      <c r="AD167" s="84"/>
+      <c r="AE167" s="84"/>
+      <c r="AF167" s="84"/>
+      <c r="AG167" s="81"/>
+    </row>
+    <row r="168" spans="1:33">
+      <c r="A168" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B168" s="76"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="76"/>
+      <c r="E168" s="80"/>
+      <c r="F168" s="80"/>
+      <c r="G168" s="76"/>
+      <c r="H168" s="81"/>
+      <c r="I168" s="81"/>
+      <c r="J168" s="81"/>
+      <c r="K168" s="80"/>
+      <c r="L168" s="74"/>
+      <c r="M168" s="74"/>
+      <c r="N168" s="74"/>
+      <c r="O168" s="74"/>
+      <c r="P168" s="76"/>
+      <c r="Q168" s="76"/>
+      <c r="R168" s="81"/>
+      <c r="S168" s="81"/>
+      <c r="T168" s="57"/>
+      <c r="U168" s="57"/>
+      <c r="V168" s="57"/>
+      <c r="W168" s="81"/>
+      <c r="X168" s="83"/>
+      <c r="Y168" s="83"/>
+      <c r="Z168" s="81"/>
+      <c r="AA168" s="84"/>
+      <c r="AB168" s="84"/>
+      <c r="AC168" s="74"/>
+      <c r="AD168" s="84"/>
+      <c r="AE168" s="84"/>
+      <c r="AF168" s="84"/>
+      <c r="AG168" s="81"/>
+    </row>
+    <row r="169" spans="1:33">
+      <c r="A169" s="75"/>
+      <c r="B169" s="76"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="76"/>
+      <c r="E169" s="80"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="76"/>
+      <c r="H169" s="81"/>
+      <c r="I169" s="81"/>
+      <c r="J169" s="81"/>
+      <c r="K169" s="80"/>
+      <c r="L169" s="74"/>
+      <c r="M169" s="74"/>
+      <c r="N169" s="74"/>
+      <c r="O169" s="74"/>
+      <c r="P169" s="76"/>
+      <c r="Q169" s="76"/>
+      <c r="R169" s="81"/>
+      <c r="S169" s="81"/>
+      <c r="T169" s="57"/>
+      <c r="U169" s="57"/>
+      <c r="V169" s="57"/>
+      <c r="W169" s="81"/>
+      <c r="X169" s="83"/>
+      <c r="Y169" s="83"/>
+      <c r="Z169" s="81"/>
+      <c r="AA169" s="84"/>
+      <c r="AB169" s="84"/>
+      <c r="AC169" s="74"/>
+      <c r="AD169" s="84"/>
+      <c r="AE169" s="84"/>
+      <c r="AF169" s="84"/>
+      <c r="AG169" s="81"/>
+    </row>
+    <row r="170" spans="1:33">
+      <c r="A170" s="75"/>
+      <c r="B170" s="76"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="76"/>
+      <c r="E170" s="80"/>
+      <c r="F170" s="80"/>
+      <c r="G170" s="76"/>
+      <c r="H170" s="81"/>
+      <c r="I170" s="81"/>
+      <c r="J170" s="81"/>
+      <c r="K170" s="80"/>
+      <c r="L170" s="74"/>
+      <c r="M170" s="74"/>
+      <c r="N170" s="74"/>
+      <c r="O170" s="74"/>
+      <c r="P170" s="76"/>
+      <c r="Q170" s="76"/>
+      <c r="R170" s="81"/>
+      <c r="S170" s="81"/>
+      <c r="T170" s="57"/>
+      <c r="U170" s="57"/>
+      <c r="V170" s="57"/>
+      <c r="W170" s="81"/>
+      <c r="X170" s="83"/>
+      <c r="Y170" s="83"/>
+      <c r="Z170" s="81"/>
+      <c r="AA170" s="84"/>
+      <c r="AB170" s="84"/>
+      <c r="AC170" s="74"/>
+      <c r="AD170" s="84"/>
+      <c r="AE170" s="84"/>
+      <c r="AF170" s="84"/>
+      <c r="AG170" s="81"/>
+    </row>
+    <row r="171" spans="1:33">
+      <c r="A171" s="75"/>
+      <c r="B171" s="76"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="76"/>
+      <c r="E171" s="80"/>
+      <c r="F171" s="80"/>
+      <c r="G171" s="76"/>
+      <c r="H171" s="81"/>
+      <c r="I171" s="81"/>
+      <c r="J171" s="81"/>
+      <c r="K171" s="80"/>
+      <c r="L171" s="74"/>
+      <c r="M171" s="74"/>
+      <c r="N171" s="74"/>
+      <c r="O171" s="74"/>
+      <c r="P171" s="76"/>
+      <c r="Q171" s="76"/>
+      <c r="R171" s="81"/>
+      <c r="S171" s="81"/>
+      <c r="T171" s="57"/>
+      <c r="U171" s="57"/>
+      <c r="V171" s="57"/>
+      <c r="W171" s="81"/>
+      <c r="X171" s="83"/>
+      <c r="Y171" s="83"/>
+      <c r="Z171" s="81"/>
+      <c r="AA171" s="84"/>
+      <c r="AB171" s="84"/>
+      <c r="AC171" s="74"/>
+      <c r="AD171" s="84"/>
+      <c r="AE171" s="84"/>
+      <c r="AF171" s="84"/>
+      <c r="AG171" s="81"/>
+    </row>
+    <row r="172" spans="1:33">
+      <c r="A172" s="75"/>
+      <c r="B172" s="76"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="76"/>
+      <c r="E172" s="80"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="76"/>
+      <c r="H172" s="81"/>
+      <c r="I172" s="81"/>
+      <c r="J172" s="81"/>
+      <c r="K172" s="80"/>
+      <c r="L172" s="74"/>
+      <c r="M172" s="74"/>
+      <c r="N172" s="74"/>
+      <c r="O172" s="74"/>
+      <c r="P172" s="76"/>
+      <c r="Q172" s="76"/>
+      <c r="R172" s="81"/>
+      <c r="S172" s="81"/>
+      <c r="T172" s="57"/>
+      <c r="U172" s="57"/>
+      <c r="V172" s="57"/>
+      <c r="W172" s="81"/>
+      <c r="X172" s="83"/>
+      <c r="Y172" s="83"/>
+      <c r="Z172" s="81"/>
+      <c r="AA172" s="84"/>
+      <c r="AB172" s="84"/>
+      <c r="AC172" s="74"/>
+      <c r="AD172" s="84"/>
+      <c r="AE172" s="84"/>
+      <c r="AF172" s="84"/>
+      <c r="AG172" s="81"/>
+    </row>
+    <row r="173" spans="1:33">
+      <c r="A173" s="75"/>
+      <c r="B173" s="76"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="81"/>
+      <c r="I173" s="81"/>
+      <c r="J173" s="81"/>
+      <c r="K173" s="80"/>
+      <c r="L173" s="74"/>
+      <c r="M173" s="74"/>
+      <c r="N173" s="74"/>
+      <c r="O173" s="74"/>
+      <c r="P173" s="76"/>
+      <c r="Q173" s="76"/>
+      <c r="R173" s="81"/>
+      <c r="S173" s="81"/>
+      <c r="T173" s="57"/>
+      <c r="U173" s="57"/>
+      <c r="V173" s="57"/>
+      <c r="W173" s="81"/>
+      <c r="X173" s="83"/>
+      <c r="Y173" s="83"/>
+      <c r="Z173" s="81"/>
+      <c r="AA173" s="84"/>
+      <c r="AB173" s="84"/>
+      <c r="AC173" s="74"/>
+      <c r="AD173" s="84"/>
+      <c r="AE173" s="84"/>
+      <c r="AF173" s="84"/>
+      <c r="AG173" s="81"/>
+    </row>
+    <row r="174" spans="1:33">
+      <c r="A174" s="75"/>
+      <c r="B174" s="76"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="76"/>
+      <c r="E174" s="80"/>
+      <c r="F174" s="80"/>
+      <c r="G174" s="76"/>
+      <c r="H174" s="81"/>
+      <c r="I174" s="81"/>
+      <c r="J174" s="81"/>
+      <c r="K174" s="80"/>
+      <c r="L174" s="74"/>
+      <c r="M174" s="74"/>
+      <c r="N174" s="74"/>
+      <c r="O174" s="74"/>
+      <c r="P174" s="76"/>
+      <c r="Q174" s="76"/>
+      <c r="R174" s="81"/>
+      <c r="S174" s="81"/>
+      <c r="T174" s="57"/>
+      <c r="U174" s="57"/>
+      <c r="V174" s="57"/>
+      <c r="W174" s="81"/>
+      <c r="X174" s="83"/>
+      <c r="Y174" s="83"/>
+      <c r="Z174" s="81"/>
+      <c r="AA174" s="84"/>
+      <c r="AB174" s="84"/>
+      <c r="AC174" s="74"/>
+      <c r="AD174" s="84"/>
+      <c r="AE174" s="84"/>
+      <c r="AF174" s="84"/>
+      <c r="AG174" s="81"/>
+    </row>
+    <row r="175" spans="1:33">
+      <c r="A175" s="75"/>
+      <c r="B175" s="76"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="76"/>
+      <c r="E175" s="80"/>
+      <c r="F175" s="80"/>
+      <c r="G175" s="76"/>
+      <c r="H175" s="81"/>
+      <c r="I175" s="81"/>
+      <c r="J175" s="81"/>
+      <c r="K175" s="80"/>
+      <c r="L175" s="74"/>
+      <c r="M175" s="74"/>
+      <c r="N175" s="74"/>
+      <c r="O175" s="74"/>
+      <c r="P175" s="76"/>
+      <c r="Q175" s="76"/>
+      <c r="R175" s="81"/>
+      <c r="S175" s="81"/>
+      <c r="T175" s="57"/>
+      <c r="U175" s="57"/>
+      <c r="V175" s="57"/>
+      <c r="W175" s="81"/>
+      <c r="X175" s="83"/>
+      <c r="Y175" s="83"/>
+      <c r="Z175" s="81"/>
+      <c r="AA175" s="84"/>
+      <c r="AB175" s="84"/>
+      <c r="AC175" s="74"/>
+      <c r="AD175" s="84"/>
+      <c r="AE175" s="84"/>
+      <c r="AF175" s="84"/>
+      <c r="AG175" s="81"/>
+    </row>
+    <row r="176" spans="1:33">
+      <c r="A176" s="75"/>
+      <c r="B176" s="76"/>
+      <c r="C176" s="76"/>
+      <c r="D176" s="76"/>
+      <c r="E176" s="80"/>
+      <c r="F176" s="80"/>
+      <c r="G176" s="76"/>
+      <c r="H176" s="81"/>
+      <c r="I176" s="81"/>
+      <c r="J176" s="81"/>
+      <c r="K176" s="80"/>
+      <c r="L176" s="74"/>
+      <c r="M176" s="74"/>
+      <c r="N176" s="74"/>
+      <c r="O176" s="74"/>
+      <c r="P176" s="76"/>
+      <c r="Q176" s="76"/>
+      <c r="R176" s="81"/>
+      <c r="S176" s="81"/>
+      <c r="T176" s="57"/>
+      <c r="U176" s="57"/>
+      <c r="V176" s="57"/>
+      <c r="W176" s="81"/>
+      <c r="X176" s="83"/>
+      <c r="Y176" s="83"/>
+      <c r="Z176" s="81"/>
+      <c r="AA176" s="84"/>
+      <c r="AB176" s="84"/>
+      <c r="AC176" s="74"/>
+      <c r="AD176" s="84"/>
+      <c r="AE176" s="84"/>
+      <c r="AF176" s="84"/>
+      <c r="AG176" s="81"/>
+    </row>
+    <row r="177" spans="1:33">
+      <c r="A177" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B177" s="76"/>
+      <c r="C177" s="76"/>
+      <c r="D177" s="76"/>
+      <c r="E177" s="80"/>
+      <c r="F177" s="80"/>
+      <c r="G177" s="76"/>
+      <c r="H177" s="81"/>
+      <c r="I177" s="81"/>
+      <c r="J177" s="81"/>
+      <c r="K177" s="80"/>
+      <c r="L177" s="74"/>
+      <c r="M177" s="74"/>
+      <c r="N177" s="74"/>
+      <c r="O177" s="74"/>
+      <c r="P177" s="76"/>
+      <c r="Q177" s="76"/>
+      <c r="R177" s="81"/>
+      <c r="S177" s="81"/>
+      <c r="T177" s="57"/>
+      <c r="U177" s="57"/>
+      <c r="V177" s="57"/>
+      <c r="W177" s="81"/>
+      <c r="X177" s="83"/>
+      <c r="Y177" s="83"/>
+      <c r="Z177" s="81"/>
+      <c r="AA177" s="84"/>
+      <c r="AB177" s="84"/>
+      <c r="AC177" s="74"/>
+      <c r="AD177" s="84"/>
+      <c r="AE177" s="84"/>
+      <c r="AF177" s="84"/>
+      <c r="AG177" s="81"/>
+    </row>
+    <row r="178" spans="1:33">
+      <c r="A178" s="75"/>
+      <c r="B178" s="76"/>
+      <c r="C178" s="76"/>
+      <c r="D178" s="76"/>
+      <c r="E178" s="80"/>
+      <c r="F178" s="80"/>
+      <c r="G178" s="76"/>
+      <c r="H178" s="81"/>
+      <c r="I178" s="81"/>
+      <c r="J178" s="81"/>
+      <c r="K178" s="80"/>
+      <c r="L178" s="74"/>
+      <c r="M178" s="74"/>
+      <c r="N178" s="74"/>
+      <c r="O178" s="74"/>
+      <c r="P178" s="76"/>
+      <c r="Q178" s="76"/>
+      <c r="R178" s="81"/>
+      <c r="S178" s="81"/>
+      <c r="T178" s="57"/>
+      <c r="U178" s="57"/>
+      <c r="V178" s="57"/>
+      <c r="W178" s="81"/>
+      <c r="X178" s="83"/>
+      <c r="Y178" s="83"/>
+      <c r="Z178" s="81"/>
+      <c r="AA178" s="84"/>
+      <c r="AB178" s="84"/>
+      <c r="AC178" s="74"/>
+      <c r="AD178" s="84"/>
+      <c r="AE178" s="84"/>
+      <c r="AF178" s="84"/>
+      <c r="AG178" s="81"/>
+    </row>
+    <row r="179" spans="1:33">
+      <c r="A179" s="75"/>
+      <c r="B179" s="76"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="76"/>
+      <c r="E179" s="80"/>
+      <c r="F179" s="80"/>
+      <c r="G179" s="76"/>
+      <c r="H179" s="81"/>
+      <c r="I179" s="81"/>
+      <c r="J179" s="81"/>
+      <c r="K179" s="80"/>
+      <c r="L179" s="74"/>
+      <c r="M179" s="74"/>
+      <c r="N179" s="74"/>
+      <c r="O179" s="74"/>
+      <c r="P179" s="76"/>
+      <c r="Q179" s="76"/>
+      <c r="R179" s="81"/>
+      <c r="S179" s="81"/>
+      <c r="T179" s="57"/>
+      <c r="U179" s="57"/>
+      <c r="V179" s="57"/>
+      <c r="W179" s="81"/>
+      <c r="X179" s="83"/>
+      <c r="Y179" s="83"/>
+      <c r="Z179" s="81"/>
+      <c r="AA179" s="84"/>
+      <c r="AB179" s="84"/>
+      <c r="AC179" s="74"/>
+      <c r="AD179" s="84"/>
+      <c r="AE179" s="84"/>
+      <c r="AF179" s="84"/>
+      <c r="AG179" s="81"/>
+    </row>
+    <row r="180" spans="1:33">
+      <c r="A180" s="75"/>
+      <c r="B180" s="76"/>
+      <c r="C180" s="76"/>
+      <c r="D180" s="76"/>
+      <c r="E180" s="80"/>
+      <c r="F180" s="80"/>
+      <c r="G180" s="76"/>
+      <c r="H180" s="81"/>
+      <c r="I180" s="81"/>
+      <c r="J180" s="81"/>
+      <c r="K180" s="80"/>
+      <c r="L180" s="74"/>
+      <c r="M180" s="74"/>
+      <c r="N180" s="74"/>
+      <c r="O180" s="74"/>
+      <c r="P180" s="76"/>
+      <c r="Q180" s="76"/>
+      <c r="R180" s="81"/>
+      <c r="S180" s="81"/>
+      <c r="T180" s="57"/>
+      <c r="U180" s="57"/>
+      <c r="V180" s="57"/>
+      <c r="W180" s="81"/>
+      <c r="X180" s="83"/>
+      <c r="Y180" s="83"/>
+      <c r="Z180" s="81"/>
+      <c r="AA180" s="84"/>
+      <c r="AB180" s="84"/>
+      <c r="AC180" s="74"/>
+      <c r="AD180" s="84"/>
+      <c r="AE180" s="84"/>
+      <c r="AF180" s="84"/>
+      <c r="AG180" s="81"/>
+    </row>
+    <row r="181" spans="1:33">
+      <c r="A181" s="75"/>
+      <c r="B181" s="76"/>
+      <c r="C181" s="76"/>
+      <c r="D181" s="76"/>
+      <c r="E181" s="80"/>
+      <c r="F181" s="80"/>
+      <c r="G181" s="76"/>
+      <c r="H181" s="81"/>
+      <c r="I181" s="81"/>
+      <c r="J181" s="81"/>
+      <c r="K181" s="80"/>
+      <c r="L181" s="74"/>
+      <c r="M181" s="74"/>
+      <c r="N181" s="74"/>
+      <c r="O181" s="74"/>
+      <c r="P181" s="76"/>
+      <c r="Q181" s="76"/>
+      <c r="R181" s="81"/>
+      <c r="S181" s="81"/>
+      <c r="T181" s="57"/>
+      <c r="U181" s="57"/>
+      <c r="V181" s="57"/>
+      <c r="W181" s="81"/>
+      <c r="X181" s="83"/>
+      <c r="Y181" s="83"/>
+      <c r="Z181" s="81"/>
+      <c r="AA181" s="84"/>
+      <c r="AB181" s="84"/>
+      <c r="AC181" s="74"/>
+      <c r="AD181" s="84"/>
+      <c r="AE181" s="84"/>
+      <c r="AF181" s="84"/>
+      <c r="AG181" s="81"/>
+    </row>
+    <row r="182" spans="1:33">
+      <c r="A182" s="75"/>
+      <c r="B182" s="76"/>
+      <c r="C182" s="76"/>
+      <c r="D182" s="76"/>
+      <c r="E182" s="80"/>
+      <c r="F182" s="80"/>
+      <c r="G182" s="76"/>
+      <c r="H182" s="81"/>
+      <c r="I182" s="81"/>
+      <c r="J182" s="81"/>
+      <c r="K182" s="80"/>
+      <c r="L182" s="74"/>
+      <c r="M182" s="74"/>
+      <c r="N182" s="74"/>
+      <c r="O182" s="74"/>
+      <c r="P182" s="76"/>
+      <c r="Q182" s="76"/>
+      <c r="R182" s="81"/>
+      <c r="S182" s="81"/>
+      <c r="T182" s="57"/>
+      <c r="U182" s="57"/>
+      <c r="V182" s="57"/>
+      <c r="W182" s="81"/>
+      <c r="X182" s="83"/>
+      <c r="Y182" s="83"/>
+      <c r="Z182" s="81"/>
+      <c r="AA182" s="84"/>
+      <c r="AB182" s="84"/>
+      <c r="AC182" s="74"/>
+      <c r="AD182" s="84"/>
+      <c r="AE182" s="84"/>
+      <c r="AF182" s="84"/>
+      <c r="AG182" s="81"/>
+    </row>
+    <row r="183" spans="1:33">
+      <c r="A183" s="75"/>
+      <c r="B183" s="76"/>
+      <c r="C183" s="76"/>
+      <c r="D183" s="76"/>
+      <c r="E183" s="80"/>
+      <c r="F183" s="80"/>
+      <c r="G183" s="76"/>
+      <c r="H183" s="81"/>
+      <c r="I183" s="81"/>
+      <c r="J183" s="81"/>
+      <c r="K183" s="80"/>
+      <c r="L183" s="74"/>
+      <c r="M183" s="74"/>
+      <c r="N183" s="74"/>
+      <c r="O183" s="74"/>
+      <c r="P183" s="76"/>
+      <c r="Q183" s="76"/>
+      <c r="R183" s="81"/>
+      <c r="S183" s="81"/>
+      <c r="T183" s="57"/>
+      <c r="U183" s="57"/>
+      <c r="V183" s="57"/>
+      <c r="W183" s="81"/>
+      <c r="X183" s="83"/>
+      <c r="Y183" s="83"/>
+      <c r="Z183" s="81"/>
+      <c r="AA183" s="84"/>
+      <c r="AB183" s="84"/>
+      <c r="AC183" s="74"/>
+      <c r="AD183" s="84"/>
+      <c r="AE183" s="84"/>
+      <c r="AF183" s="84"/>
+      <c r="AG183" s="81"/>
+    </row>
+    <row r="184" spans="1:33">
+      <c r="A184" s="75"/>
+      <c r="B184" s="76"/>
+      <c r="C184" s="76"/>
+      <c r="D184" s="76"/>
+      <c r="E184" s="80"/>
+      <c r="F184" s="80"/>
+      <c r="G184" s="76"/>
+      <c r="H184" s="81"/>
+      <c r="I184" s="81"/>
+      <c r="J184" s="81"/>
+      <c r="K184" s="80"/>
+      <c r="L184" s="74"/>
+      <c r="M184" s="74"/>
+      <c r="N184" s="74"/>
+      <c r="O184" s="74"/>
+      <c r="P184" s="76"/>
+      <c r="Q184" s="76"/>
+      <c r="R184" s="81"/>
+      <c r="S184" s="81"/>
+      <c r="T184" s="57"/>
+      <c r="U184" s="57"/>
+      <c r="V184" s="57"/>
+      <c r="W184" s="81"/>
+      <c r="X184" s="83"/>
+      <c r="Y184" s="83"/>
+      <c r="Z184" s="81"/>
+      <c r="AA184" s="84"/>
+      <c r="AB184" s="84"/>
+      <c r="AC184" s="74"/>
+      <c r="AD184" s="84"/>
+      <c r="AE184" s="84"/>
+      <c r="AF184" s="84"/>
+      <c r="AG184" s="81"/>
+    </row>
+    <row r="185" spans="1:33">
+      <c r="A185" s="75"/>
+      <c r="B185" s="76"/>
+      <c r="C185" s="76"/>
+      <c r="D185" s="76"/>
+      <c r="E185" s="80"/>
+      <c r="F185" s="80"/>
+      <c r="G185" s="76"/>
+      <c r="H185" s="81"/>
+      <c r="I185" s="81"/>
+      <c r="J185" s="81"/>
+      <c r="K185" s="80"/>
+      <c r="L185" s="74"/>
+      <c r="M185" s="74"/>
+      <c r="N185" s="74"/>
+      <c r="O185" s="74"/>
+      <c r="P185" s="76"/>
+      <c r="Q185" s="76"/>
+      <c r="R185" s="81"/>
+      <c r="S185" s="81"/>
+      <c r="T185" s="57"/>
+      <c r="U185" s="57"/>
+      <c r="V185" s="57"/>
+      <c r="W185" s="81"/>
+      <c r="X185" s="83"/>
+      <c r="Y185" s="83"/>
+      <c r="Z185" s="81"/>
+      <c r="AA185" s="84"/>
+      <c r="AB185" s="84"/>
+      <c r="AC185" s="74"/>
+      <c r="AD185" s="84"/>
+      <c r="AE185" s="84"/>
+      <c r="AF185" s="84"/>
+      <c r="AG185" s="81"/>
+    </row>
+    <row r="186" spans="1:33">
+      <c r="A186" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B186" s="76"/>
+      <c r="C186" s="76"/>
+      <c r="D186" s="76"/>
+      <c r="E186" s="80"/>
+      <c r="F186" s="80"/>
+      <c r="G186" s="76"/>
+      <c r="H186" s="81"/>
+      <c r="I186" s="81"/>
+      <c r="J186" s="81"/>
+      <c r="K186" s="80"/>
+      <c r="L186" s="74"/>
+      <c r="M186" s="74"/>
+      <c r="N186" s="74"/>
+      <c r="O186" s="74"/>
+      <c r="P186" s="76"/>
+      <c r="Q186" s="76"/>
+      <c r="R186" s="81"/>
+      <c r="S186" s="81"/>
+      <c r="T186" s="57"/>
+      <c r="U186" s="57"/>
+      <c r="V186" s="57"/>
+      <c r="W186" s="81"/>
+      <c r="X186" s="83"/>
+      <c r="Y186" s="83"/>
+      <c r="Z186" s="81"/>
+      <c r="AA186" s="84"/>
+      <c r="AB186" s="84"/>
+      <c r="AC186" s="74"/>
+      <c r="AD186" s="84"/>
+      <c r="AE186" s="84"/>
+      <c r="AF186" s="84"/>
+      <c r="AG186" s="81"/>
+    </row>
+    <row r="187" spans="1:33">
+      <c r="A187" s="75"/>
+      <c r="B187" s="76"/>
+      <c r="C187" s="76"/>
+      <c r="D187" s="76"/>
+      <c r="E187" s="80"/>
+      <c r="F187" s="80"/>
+      <c r="G187" s="76"/>
+      <c r="H187" s="81"/>
+      <c r="I187" s="81"/>
+      <c r="J187" s="81"/>
+      <c r="K187" s="80"/>
+      <c r="L187" s="74"/>
+      <c r="M187" s="74"/>
+      <c r="N187" s="74"/>
+      <c r="O187" s="74"/>
+      <c r="P187" s="76"/>
+      <c r="Q187" s="76"/>
+      <c r="R187" s="81"/>
+      <c r="S187" s="81"/>
+      <c r="T187" s="57"/>
+      <c r="U187" s="57"/>
+      <c r="V187" s="57"/>
+      <c r="W187" s="81"/>
+      <c r="X187" s="83"/>
+      <c r="Y187" s="83"/>
+      <c r="Z187" s="81"/>
+      <c r="AA187" s="84"/>
+      <c r="AB187" s="84"/>
+      <c r="AC187" s="74"/>
+      <c r="AD187" s="84"/>
+      <c r="AE187" s="84"/>
+      <c r="AF187" s="84"/>
+      <c r="AG187" s="81"/>
+    </row>
+    <row r="188" spans="1:33">
+      <c r="A188" s="75"/>
+      <c r="B188" s="76"/>
+      <c r="C188" s="76"/>
+      <c r="D188" s="76"/>
+      <c r="E188" s="80"/>
+      <c r="F188" s="80"/>
+      <c r="G188" s="76"/>
+      <c r="H188" s="81"/>
+      <c r="I188" s="81"/>
+      <c r="J188" s="81"/>
+      <c r="K188" s="80"/>
+      <c r="L188" s="74"/>
+      <c r="M188" s="74"/>
+      <c r="N188" s="74"/>
+      <c r="O188" s="74"/>
+      <c r="P188" s="76"/>
+      <c r="Q188" s="76"/>
+      <c r="R188" s="81"/>
+      <c r="S188" s="81"/>
+      <c r="T188" s="57"/>
+      <c r="U188" s="57"/>
+      <c r="V188" s="57"/>
+      <c r="W188" s="81"/>
+      <c r="X188" s="83"/>
+      <c r="Y188" s="83"/>
+      <c r="Z188" s="81"/>
+      <c r="AA188" s="84"/>
+      <c r="AB188" s="84"/>
+      <c r="AC188" s="74"/>
+      <c r="AD188" s="84"/>
+      <c r="AE188" s="84"/>
+      <c r="AF188" s="84"/>
+      <c r="AG188" s="81"/>
+    </row>
+    <row r="189" spans="1:33">
+      <c r="A189" s="75"/>
+      <c r="B189" s="76"/>
+      <c r="C189" s="76"/>
+      <c r="D189" s="76"/>
+      <c r="E189" s="80"/>
+      <c r="F189" s="80"/>
+      <c r="G189" s="76"/>
+      <c r="H189" s="81"/>
+      <c r="I189" s="81"/>
+      <c r="J189" s="81"/>
+      <c r="K189" s="80"/>
+      <c r="L189" s="74"/>
+      <c r="M189" s="74"/>
+      <c r="N189" s="74"/>
+      <c r="O189" s="74"/>
+      <c r="P189" s="76"/>
+      <c r="Q189" s="76"/>
+      <c r="R189" s="81"/>
+      <c r="S189" s="81"/>
+      <c r="T189" s="57"/>
+      <c r="U189" s="57"/>
+      <c r="V189" s="57"/>
+      <c r="W189" s="81"/>
+      <c r="X189" s="83"/>
+      <c r="Y189" s="83"/>
+      <c r="Z189" s="81"/>
+      <c r="AA189" s="84"/>
+      <c r="AB189" s="84"/>
+      <c r="AC189" s="74"/>
+      <c r="AD189" s="84"/>
+      <c r="AE189" s="84"/>
+      <c r="AF189" s="84"/>
+      <c r="AG189" s="81"/>
+    </row>
+    <row r="190" spans="1:33">
+      <c r="A190" s="75"/>
+      <c r="B190" s="76"/>
+      <c r="C190" s="76"/>
+      <c r="D190" s="76"/>
+      <c r="E190" s="80"/>
+      <c r="F190" s="80"/>
+      <c r="G190" s="76"/>
+      <c r="H190" s="81"/>
+      <c r="I190" s="81"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="80"/>
+      <c r="L190" s="74"/>
+      <c r="M190" s="74"/>
+      <c r="N190" s="74"/>
+      <c r="O190" s="74"/>
+      <c r="P190" s="76"/>
+      <c r="Q190" s="76"/>
+      <c r="R190" s="81"/>
+      <c r="S190" s="81"/>
+      <c r="T190" s="57"/>
+      <c r="U190" s="57"/>
+      <c r="V190" s="57"/>
+      <c r="W190" s="81"/>
+      <c r="X190" s="83"/>
+      <c r="Y190" s="83"/>
+      <c r="Z190" s="81"/>
+      <c r="AA190" s="84"/>
+      <c r="AB190" s="84"/>
+      <c r="AC190" s="74"/>
+      <c r="AD190" s="84"/>
+      <c r="AE190" s="84"/>
+      <c r="AF190" s="84"/>
+      <c r="AG190" s="81"/>
+    </row>
+    <row r="191" spans="1:33">
+      <c r="A191" s="75"/>
+      <c r="B191" s="76"/>
+      <c r="C191" s="76"/>
+      <c r="D191" s="76"/>
+      <c r="E191" s="80"/>
+      <c r="F191" s="80"/>
+      <c r="G191" s="76"/>
+      <c r="H191" s="81"/>
+      <c r="I191" s="81"/>
+      <c r="J191" s="81"/>
+      <c r="K191" s="80"/>
+      <c r="L191" s="74"/>
+      <c r="M191" s="74"/>
+      <c r="N191" s="74"/>
+      <c r="O191" s="74"/>
+      <c r="P191" s="76"/>
+      <c r="Q191" s="76"/>
+      <c r="R191" s="81"/>
+      <c r="S191" s="81"/>
+      <c r="T191" s="57"/>
+      <c r="U191" s="57"/>
+      <c r="V191" s="57"/>
+      <c r="W191" s="81"/>
+      <c r="X191" s="83"/>
+      <c r="Y191" s="83"/>
+      <c r="Z191" s="81"/>
+      <c r="AA191" s="84"/>
+      <c r="AB191" s="84"/>
+      <c r="AC191" s="74"/>
+      <c r="AD191" s="84"/>
+      <c r="AE191" s="84"/>
+      <c r="AF191" s="84"/>
+      <c r="AG191" s="81"/>
+    </row>
+    <row r="192" spans="1:33">
+      <c r="A192" s="75"/>
+      <c r="B192" s="76"/>
+      <c r="C192" s="76"/>
+      <c r="D192" s="76"/>
+      <c r="E192" s="80"/>
+      <c r="F192" s="80"/>
+      <c r="G192" s="76"/>
+      <c r="H192" s="81"/>
+      <c r="I192" s="81"/>
+      <c r="J192" s="81"/>
+      <c r="K192" s="80"/>
+      <c r="L192" s="74"/>
+      <c r="M192" s="74"/>
+      <c r="N192" s="74"/>
+      <c r="O192" s="74"/>
+      <c r="P192" s="76"/>
+      <c r="Q192" s="76"/>
+      <c r="R192" s="81"/>
+      <c r="S192" s="81"/>
+      <c r="T192" s="57"/>
+      <c r="U192" s="57"/>
+      <c r="V192" s="57"/>
+      <c r="W192" s="81"/>
+      <c r="X192" s="83"/>
+      <c r="Y192" s="83"/>
+      <c r="Z192" s="81"/>
+      <c r="AA192" s="84"/>
+      <c r="AB192" s="84"/>
+      <c r="AC192" s="74"/>
+      <c r="AD192" s="84"/>
+      <c r="AE192" s="84"/>
+      <c r="AF192" s="84"/>
+      <c r="AG192" s="81"/>
+    </row>
+    <row r="193" spans="1:33">
+      <c r="A193" s="75"/>
+      <c r="B193" s="76"/>
+      <c r="C193" s="76"/>
+      <c r="D193" s="76"/>
+      <c r="E193" s="80"/>
+      <c r="F193" s="80"/>
+      <c r="G193" s="76"/>
+      <c r="H193" s="81"/>
+      <c r="I193" s="81"/>
+      <c r="J193" s="81"/>
+      <c r="K193" s="80"/>
+      <c r="L193" s="74"/>
+      <c r="M193" s="74"/>
+      <c r="N193" s="74"/>
+      <c r="O193" s="74"/>
+      <c r="P193" s="76"/>
+      <c r="Q193" s="76"/>
+      <c r="R193" s="81"/>
+      <c r="S193" s="81"/>
+      <c r="T193" s="57"/>
+      <c r="U193" s="57"/>
+      <c r="V193" s="57"/>
+      <c r="W193" s="81"/>
+      <c r="X193" s="83"/>
+      <c r="Y193" s="83"/>
+      <c r="Z193" s="81"/>
+      <c r="AA193" s="84"/>
+      <c r="AB193" s="84"/>
+      <c r="AC193" s="74"/>
+      <c r="AD193" s="84"/>
+      <c r="AE193" s="84"/>
+      <c r="AF193" s="84"/>
+      <c r="AG193" s="81"/>
+    </row>
+    <row r="194" spans="1:33">
+      <c r="A194" s="75"/>
+      <c r="B194" s="76"/>
+      <c r="C194" s="76"/>
+      <c r="D194" s="76"/>
+      <c r="E194" s="80"/>
+      <c r="F194" s="80"/>
+      <c r="G194" s="76"/>
+      <c r="H194" s="81"/>
+      <c r="I194" s="81"/>
+      <c r="J194" s="81"/>
+      <c r="K194" s="80"/>
+      <c r="L194" s="74"/>
+      <c r="M194" s="74"/>
+      <c r="N194" s="74"/>
+      <c r="O194" s="74"/>
+      <c r="P194" s="76"/>
+      <c r="Q194" s="76"/>
+      <c r="R194" s="81"/>
+      <c r="S194" s="81"/>
+      <c r="T194" s="57"/>
+      <c r="U194" s="57"/>
+      <c r="V194" s="57"/>
+      <c r="W194" s="81"/>
+      <c r="X194" s="83"/>
+      <c r="Y194" s="83"/>
+      <c r="Z194" s="81"/>
+      <c r="AA194" s="84"/>
+      <c r="AB194" s="84"/>
+      <c r="AC194" s="74"/>
+      <c r="AD194" s="84"/>
+      <c r="AE194" s="84"/>
+      <c r="AF194" s="84"/>
+      <c r="AG194" s="81"/>
+    </row>
+    <row r="195" spans="1:33">
+      <c r="A195" s="75"/>
+      <c r="B195" s="76"/>
+      <c r="C195" s="76"/>
+      <c r="D195" s="76"/>
+      <c r="E195" s="80"/>
+      <c r="F195" s="80"/>
+      <c r="G195" s="76"/>
+      <c r="H195" s="81"/>
+      <c r="I195" s="81"/>
+      <c r="J195" s="81"/>
+      <c r="K195" s="80"/>
+      <c r="L195" s="74"/>
+      <c r="M195" s="74"/>
+      <c r="N195" s="74"/>
+      <c r="O195" s="74"/>
+      <c r="P195" s="76"/>
+      <c r="Q195" s="76"/>
+      <c r="R195" s="81"/>
+      <c r="S195" s="81"/>
+      <c r="T195" s="57"/>
+      <c r="U195" s="57"/>
+      <c r="V195" s="57"/>
+      <c r="W195" s="81"/>
+      <c r="X195" s="83"/>
+      <c r="Y195" s="83"/>
+      <c r="Z195" s="81"/>
+      <c r="AA195" s="84"/>
+      <c r="AB195" s="84"/>
+      <c r="AC195" s="74"/>
+      <c r="AD195" s="84"/>
+      <c r="AE195" s="84"/>
+      <c r="AF195" s="84"/>
+      <c r="AG195" s="81"/>
+    </row>
+    <row r="196" spans="1:33">
+      <c r="A196" s="75"/>
+      <c r="B196" s="76"/>
+      <c r="C196" s="76"/>
+      <c r="D196" s="76"/>
+      <c r="E196" s="80"/>
+      <c r="F196" s="80"/>
+      <c r="G196" s="76"/>
+      <c r="H196" s="81"/>
+      <c r="I196" s="81"/>
+      <c r="J196" s="81"/>
+      <c r="K196" s="80"/>
+      <c r="L196" s="74"/>
+      <c r="M196" s="74"/>
+      <c r="N196" s="74"/>
+      <c r="O196" s="74"/>
+      <c r="P196" s="76"/>
+      <c r="Q196" s="76"/>
+      <c r="R196" s="81"/>
+      <c r="S196" s="81"/>
+      <c r="T196" s="57"/>
+      <c r="U196" s="57"/>
+      <c r="V196" s="57"/>
+      <c r="W196" s="81"/>
+      <c r="X196" s="83"/>
+      <c r="Y196" s="83"/>
+      <c r="Z196" s="81"/>
+      <c r="AA196" s="84"/>
+      <c r="AB196" s="84"/>
+      <c r="AC196" s="74"/>
+      <c r="AD196" s="84"/>
+      <c r="AE196" s="84"/>
+      <c r="AF196" s="84"/>
+      <c r="AG196" s="81"/>
+    </row>
+    <row r="197" spans="1:33">
+      <c r="A197" s="75"/>
+      <c r="B197" s="76"/>
+      <c r="C197" s="76"/>
+      <c r="D197" s="76"/>
+      <c r="E197" s="80"/>
+      <c r="F197" s="80"/>
+      <c r="G197" s="76"/>
+      <c r="H197" s="81"/>
+      <c r="I197" s="81"/>
+      <c r="J197" s="81"/>
+      <c r="K197" s="80"/>
+      <c r="L197" s="74"/>
+      <c r="M197" s="74"/>
+      <c r="N197" s="74"/>
+      <c r="O197" s="74"/>
+      <c r="P197" s="76"/>
+      <c r="Q197" s="76"/>
+      <c r="R197" s="81"/>
+      <c r="S197" s="81"/>
+      <c r="T197" s="57"/>
+      <c r="U197" s="57"/>
+      <c r="V197" s="57"/>
+      <c r="W197" s="81"/>
+      <c r="X197" s="83"/>
+      <c r="Y197" s="83"/>
+      <c r="Z197" s="81"/>
+      <c r="AA197" s="84"/>
+      <c r="AB197" s="84"/>
+      <c r="AC197" s="74"/>
+      <c r="AD197" s="84"/>
+      <c r="AE197" s="84"/>
+      <c r="AF197" s="84"/>
+      <c r="AG197" s="81"/>
+    </row>
+    <row r="198" spans="1:33">
+      <c r="A198" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B198" s="76"/>
+      <c r="C198" s="76"/>
+      <c r="D198" s="76"/>
+      <c r="E198" s="80"/>
+      <c r="F198" s="80"/>
+      <c r="G198" s="76"/>
+      <c r="H198" s="81"/>
+      <c r="I198" s="81"/>
+      <c r="J198" s="81"/>
+      <c r="K198" s="80"/>
+      <c r="L198" s="74"/>
+      <c r="M198" s="74"/>
+      <c r="N198" s="74"/>
+      <c r="O198" s="74"/>
+      <c r="P198" s="76"/>
+      <c r="Q198" s="76"/>
+      <c r="R198" s="81"/>
+      <c r="S198" s="81"/>
+      <c r="T198" s="57"/>
+      <c r="U198" s="57"/>
+      <c r="V198" s="57"/>
+      <c r="W198" s="81"/>
+      <c r="X198" s="83"/>
+      <c r="Y198" s="83"/>
+      <c r="Z198" s="81"/>
+      <c r="AA198" s="84"/>
+      <c r="AB198" s="84"/>
+      <c r="AC198" s="74"/>
+      <c r="AD198" s="84"/>
+      <c r="AE198" s="84"/>
+      <c r="AF198" s="84"/>
+      <c r="AG198" s="81"/>
+    </row>
+    <row r="199" spans="1:33">
+      <c r="A199" s="75"/>
+      <c r="B199" s="76"/>
+      <c r="C199" s="76"/>
+      <c r="D199" s="76"/>
+      <c r="E199" s="80"/>
+      <c r="F199" s="80"/>
+      <c r="G199" s="76"/>
+      <c r="H199" s="81"/>
+      <c r="I199" s="81"/>
+      <c r="J199" s="81"/>
+      <c r="K199" s="80"/>
+      <c r="L199" s="74"/>
+      <c r="M199" s="74"/>
+      <c r="N199" s="74"/>
+      <c r="O199" s="74"/>
+      <c r="P199" s="76"/>
+      <c r="Q199" s="76"/>
+      <c r="R199" s="81"/>
+      <c r="S199" s="81"/>
+      <c r="T199" s="57"/>
+      <c r="U199" s="57"/>
+      <c r="V199" s="57"/>
+      <c r="W199" s="81"/>
+      <c r="X199" s="83"/>
+      <c r="Y199" s="83"/>
+      <c r="Z199" s="81"/>
+      <c r="AA199" s="84"/>
+      <c r="AB199" s="84"/>
+      <c r="AC199" s="74"/>
+      <c r="AD199" s="84"/>
+      <c r="AE199" s="84"/>
+      <c r="AF199" s="84"/>
+      <c r="AG199" s="81"/>
+    </row>
+    <row r="200" spans="1:33">
+      <c r="A200" s="75"/>
+      <c r="B200" s="76"/>
+      <c r="C200" s="76"/>
+      <c r="D200" s="76"/>
+      <c r="E200" s="80"/>
+      <c r="F200" s="80"/>
+      <c r="G200" s="76"/>
+      <c r="H200" s="81"/>
+      <c r="I200" s="81"/>
+      <c r="J200" s="81"/>
+      <c r="K200" s="80"/>
+      <c r="L200" s="74"/>
+      <c r="M200" s="74"/>
+      <c r="N200" s="74"/>
+      <c r="O200" s="74"/>
+      <c r="P200" s="76"/>
+      <c r="Q200" s="76"/>
+      <c r="R200" s="81"/>
+      <c r="S200" s="81"/>
+      <c r="T200" s="57"/>
+      <c r="U200" s="57"/>
+      <c r="V200" s="57"/>
+      <c r="W200" s="81"/>
+      <c r="X200" s="83"/>
+      <c r="Y200" s="83"/>
+      <c r="Z200" s="81"/>
+      <c r="AA200" s="84"/>
+      <c r="AB200" s="84"/>
+      <c r="AC200" s="74"/>
+      <c r="AD200" s="84"/>
+      <c r="AE200" s="84"/>
+      <c r="AF200" s="84"/>
+      <c r="AG200" s="81"/>
+    </row>
+    <row r="201" spans="1:33">
+      <c r="A201" s="75"/>
+      <c r="B201" s="76"/>
+      <c r="C201" s="76"/>
+      <c r="D201" s="76"/>
+      <c r="E201" s="80"/>
+      <c r="F201" s="80"/>
+      <c r="G201" s="76"/>
+      <c r="H201" s="81"/>
+      <c r="I201" s="81"/>
+      <c r="J201" s="81"/>
+      <c r="K201" s="80"/>
+      <c r="L201" s="74"/>
+      <c r="M201" s="74"/>
+      <c r="N201" s="74"/>
+      <c r="O201" s="74"/>
+      <c r="P201" s="76"/>
+      <c r="Q201" s="76"/>
+      <c r="R201" s="81"/>
+      <c r="S201" s="81"/>
+      <c r="T201" s="57"/>
+      <c r="U201" s="57"/>
+      <c r="V201" s="57"/>
+      <c r="W201" s="81"/>
+      <c r="X201" s="83"/>
+      <c r="Y201" s="83"/>
+      <c r="Z201" s="81"/>
+      <c r="AA201" s="84"/>
+      <c r="AB201" s="84"/>
+      <c r="AC201" s="74"/>
+      <c r="AD201" s="84"/>
+      <c r="AE201" s="84"/>
+      <c r="AF201" s="84"/>
+      <c r="AG201" s="81"/>
+    </row>
+    <row r="202" spans="1:33">
+      <c r="A202" s="75"/>
+      <c r="B202" s="76"/>
+      <c r="C202" s="76"/>
+      <c r="D202" s="76"/>
+      <c r="E202" s="80"/>
+      <c r="F202" s="80"/>
+      <c r="G202" s="76"/>
+      <c r="H202" s="81"/>
+      <c r="I202" s="81"/>
+      <c r="J202" s="81"/>
+      <c r="K202" s="80"/>
+      <c r="L202" s="74"/>
+      <c r="M202" s="74"/>
+      <c r="N202" s="74"/>
+      <c r="O202" s="74"/>
+      <c r="P202" s="76"/>
+      <c r="Q202" s="76"/>
+      <c r="R202" s="81"/>
+      <c r="S202" s="81"/>
+      <c r="T202" s="57"/>
+      <c r="U202" s="57"/>
+      <c r="V202" s="57"/>
+      <c r="W202" s="81"/>
+      <c r="X202" s="83"/>
+      <c r="Y202" s="83"/>
+      <c r="Z202" s="81"/>
+      <c r="AA202" s="84"/>
+      <c r="AB202" s="84"/>
+      <c r="AC202" s="74"/>
+      <c r="AD202" s="84"/>
+      <c r="AE202" s="84"/>
+      <c r="AF202" s="84"/>
+      <c r="AG202" s="81"/>
+    </row>
+    <row r="203" spans="1:33">
+      <c r="A203" s="75"/>
+      <c r="B203" s="76"/>
+      <c r="C203" s="76"/>
+      <c r="D203" s="76"/>
+      <c r="E203" s="80"/>
+      <c r="F203" s="80"/>
+      <c r="G203" s="76"/>
+      <c r="H203" s="81"/>
+      <c r="I203" s="81"/>
+      <c r="J203" s="81"/>
+      <c r="K203" s="80"/>
+      <c r="L203" s="74"/>
+      <c r="M203" s="74"/>
+      <c r="N203" s="74"/>
+      <c r="O203" s="74"/>
+      <c r="P203" s="76"/>
+      <c r="Q203" s="76"/>
+      <c r="R203" s="81"/>
+      <c r="S203" s="81"/>
+      <c r="T203" s="57"/>
+      <c r="U203" s="57"/>
+      <c r="V203" s="57"/>
+      <c r="W203" s="81"/>
+      <c r="X203" s="83"/>
+      <c r="Y203" s="83"/>
+      <c r="Z203" s="81"/>
+      <c r="AA203" s="84"/>
+      <c r="AB203" s="84"/>
+      <c r="AC203" s="74"/>
+      <c r="AD203" s="84"/>
+      <c r="AE203" s="84"/>
+      <c r="AF203" s="84"/>
+      <c r="AG203" s="81"/>
+    </row>
+    <row r="204" spans="1:33">
+      <c r="A204" s="75"/>
+      <c r="B204" s="76"/>
+      <c r="C204" s="76"/>
+      <c r="D204" s="76"/>
+      <c r="E204" s="80"/>
+      <c r="F204" s="80"/>
+      <c r="G204" s="76"/>
+      <c r="H204" s="81"/>
+      <c r="I204" s="81"/>
+      <c r="J204" s="81"/>
+      <c r="K204" s="80"/>
+      <c r="L204" s="74"/>
+      <c r="M204" s="74"/>
+      <c r="N204" s="74"/>
+      <c r="O204" s="74"/>
+      <c r="P204" s="76"/>
+      <c r="Q204" s="76"/>
+      <c r="R204" s="81"/>
+      <c r="S204" s="81"/>
+      <c r="T204" s="57"/>
+      <c r="U204" s="57"/>
+      <c r="V204" s="57"/>
+      <c r="W204" s="81"/>
+      <c r="X204" s="83"/>
+      <c r="Y204" s="83"/>
+      <c r="Z204" s="81"/>
+      <c r="AA204" s="84"/>
+      <c r="AB204" s="84"/>
+      <c r="AC204" s="74"/>
+      <c r="AD204" s="84"/>
+      <c r="AE204" s="84"/>
+      <c r="AF204" s="84"/>
+      <c r="AG204" s="81"/>
+    </row>
+    <row r="205" spans="1:33">
+      <c r="A205" s="75"/>
+      <c r="B205" s="76"/>
+      <c r="C205" s="76"/>
+      <c r="D205" s="76"/>
+      <c r="E205" s="80"/>
+      <c r="F205" s="80"/>
+      <c r="G205" s="76"/>
+      <c r="H205" s="81"/>
+      <c r="I205" s="81"/>
+      <c r="J205" s="81"/>
+      <c r="K205" s="80"/>
+      <c r="L205" s="74"/>
+      <c r="M205" s="74"/>
+      <c r="N205" s="74"/>
+      <c r="O205" s="74"/>
+      <c r="P205" s="76"/>
+      <c r="Q205" s="76"/>
+      <c r="R205" s="81"/>
+      <c r="S205" s="81"/>
+      <c r="T205" s="57"/>
+      <c r="U205" s="57"/>
+      <c r="V205" s="57"/>
+      <c r="W205" s="81"/>
+      <c r="X205" s="83"/>
+      <c r="Y205" s="83"/>
+      <c r="Z205" s="81"/>
+      <c r="AA205" s="84"/>
+      <c r="AB205" s="84"/>
+      <c r="AC205" s="74"/>
+      <c r="AD205" s="84"/>
+      <c r="AE205" s="84"/>
+      <c r="AF205" s="84"/>
+      <c r="AG205" s="81"/>
+    </row>
+    <row r="206" spans="1:33">
+      <c r="A206" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" s="76"/>
+      <c r="C206" s="76"/>
+      <c r="D206" s="76"/>
+      <c r="E206" s="80"/>
+      <c r="F206" s="80"/>
+      <c r="G206" s="76"/>
+      <c r="H206" s="81"/>
+      <c r="I206" s="81"/>
+      <c r="J206" s="81"/>
+      <c r="K206" s="80"/>
+      <c r="L206" s="74"/>
+      <c r="M206" s="74"/>
+      <c r="N206" s="74"/>
+      <c r="O206" s="74"/>
+      <c r="P206" s="76"/>
+      <c r="Q206" s="76"/>
+      <c r="R206" s="81"/>
+      <c r="S206" s="81"/>
+      <c r="T206" s="57"/>
+      <c r="U206" s="57"/>
+      <c r="V206" s="57"/>
+      <c r="W206" s="81"/>
+      <c r="X206" s="83"/>
+      <c r="Y206" s="83"/>
+      <c r="Z206" s="81"/>
+      <c r="AA206" s="84"/>
+      <c r="AB206" s="84"/>
+      <c r="AC206" s="74"/>
+      <c r="AD206" s="84"/>
+      <c r="AE206" s="84"/>
+      <c r="AF206" s="84"/>
+      <c r="AG206" s="81"/>
+    </row>
+    <row r="207" spans="1:33">
+      <c r="A207" s="75"/>
+      <c r="B207" s="76"/>
+      <c r="C207" s="76"/>
+      <c r="D207" s="76"/>
+      <c r="E207" s="80"/>
+      <c r="F207" s="80"/>
+      <c r="G207" s="76"/>
+      <c r="H207" s="81"/>
+      <c r="I207" s="81"/>
+      <c r="J207" s="81"/>
+      <c r="K207" s="80"/>
+      <c r="L207" s="74"/>
+      <c r="M207" s="74"/>
+      <c r="N207" s="74"/>
+      <c r="O207" s="74"/>
+      <c r="P207" s="76"/>
+      <c r="Q207" s="76"/>
+      <c r="R207" s="81"/>
+      <c r="S207" s="81"/>
+      <c r="T207" s="57"/>
+      <c r="U207" s="57"/>
+      <c r="V207" s="57"/>
+      <c r="W207" s="81"/>
+      <c r="X207" s="83"/>
+      <c r="Y207" s="83"/>
+      <c r="Z207" s="81"/>
+      <c r="AA207" s="84"/>
+      <c r="AB207" s="84"/>
+      <c r="AC207" s="74"/>
+      <c r="AD207" s="84"/>
+      <c r="AE207" s="84"/>
+      <c r="AF207" s="84"/>
+      <c r="AG207" s="81"/>
+    </row>
+    <row r="208" spans="1:33">
+      <c r="A208" s="75"/>
+      <c r="B208" s="76"/>
+      <c r="C208" s="76"/>
+      <c r="D208" s="76"/>
+      <c r="E208" s="80"/>
+      <c r="F208" s="80"/>
+      <c r="G208" s="76"/>
+      <c r="H208" s="81"/>
+      <c r="I208" s="81"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="80"/>
+      <c r="L208" s="74"/>
+      <c r="M208" s="74"/>
+      <c r="N208" s="74"/>
+      <c r="O208" s="74"/>
+      <c r="P208" s="76"/>
+      <c r="Q208" s="76"/>
+      <c r="R208" s="81"/>
+      <c r="S208" s="81"/>
+      <c r="T208" s="57"/>
+      <c r="U208" s="57"/>
+      <c r="V208" s="57"/>
+      <c r="W208" s="81"/>
+      <c r="X208" s="83"/>
+      <c r="Y208" s="83"/>
+      <c r="Z208" s="81"/>
+      <c r="AA208" s="84"/>
+      <c r="AB208" s="84"/>
+      <c r="AC208" s="74"/>
+      <c r="AD208" s="84"/>
+      <c r="AE208" s="84"/>
+      <c r="AF208" s="84"/>
+      <c r="AG208" s="81"/>
+    </row>
+    <row r="209" spans="1:33">
+      <c r="A209" s="75"/>
+      <c r="B209" s="76"/>
+      <c r="C209" s="76"/>
+      <c r="D209" s="76"/>
+      <c r="E209" s="80"/>
+      <c r="F209" s="80"/>
+      <c r="G209" s="76"/>
+      <c r="H209" s="81"/>
+      <c r="I209" s="81"/>
+      <c r="J209" s="81"/>
+      <c r="K209" s="80"/>
+      <c r="L209" s="74"/>
+      <c r="M209" s="74"/>
+      <c r="N209" s="74"/>
+      <c r="O209" s="74"/>
+      <c r="P209" s="76"/>
+      <c r="Q209" s="76"/>
+      <c r="R209" s="81"/>
+      <c r="S209" s="81"/>
+      <c r="T209" s="57"/>
+      <c r="U209" s="57"/>
+      <c r="V209" s="57"/>
+      <c r="W209" s="81"/>
+      <c r="X209" s="83"/>
+      <c r="Y209" s="83"/>
+      <c r="Z209" s="81"/>
+      <c r="AA209" s="84"/>
+      <c r="AB209" s="84"/>
+      <c r="AC209" s="74"/>
+      <c r="AD209" s="84"/>
+      <c r="AE209" s="84"/>
+      <c r="AF209" s="84"/>
+      <c r="AG209" s="81"/>
+    </row>
+    <row r="210" spans="1:33">
+      <c r="A210" s="75"/>
+      <c r="B210" s="76"/>
+      <c r="C210" s="76"/>
+      <c r="D210" s="76"/>
+      <c r="E210" s="80"/>
+      <c r="F210" s="80"/>
+      <c r="G210" s="76"/>
+      <c r="H210" s="81"/>
+      <c r="I210" s="81"/>
+      <c r="J210" s="81"/>
+      <c r="K210" s="80"/>
+      <c r="L210" s="74"/>
+      <c r="M210" s="74"/>
+      <c r="N210" s="74"/>
+      <c r="O210" s="74"/>
+      <c r="P210" s="76"/>
+      <c r="Q210" s="76"/>
+      <c r="R210" s="81"/>
+      <c r="S210" s="81"/>
+      <c r="T210" s="57"/>
+      <c r="U210" s="57"/>
+      <c r="V210" s="57"/>
+      <c r="W210" s="81"/>
+      <c r="X210" s="83"/>
+      <c r="Y210" s="83"/>
+      <c r="Z210" s="81"/>
+      <c r="AA210" s="84"/>
+      <c r="AB210" s="84"/>
+      <c r="AC210" s="74"/>
+      <c r="AD210" s="84"/>
+      <c r="AE210" s="84"/>
+      <c r="AF210" s="84"/>
+      <c r="AG210" s="81"/>
+    </row>
+    <row r="211" spans="1:33">
+      <c r="A211" s="75"/>
+      <c r="B211" s="76"/>
+      <c r="C211" s="76"/>
+      <c r="D211" s="76"/>
+      <c r="E211" s="80"/>
+      <c r="F211" s="80"/>
+      <c r="G211" s="76"/>
+      <c r="H211" s="81"/>
+      <c r="I211" s="81"/>
+      <c r="J211" s="81"/>
+      <c r="K211" s="80"/>
+      <c r="L211" s="74"/>
+      <c r="M211" s="74"/>
+      <c r="N211" s="74"/>
+      <c r="O211" s="74"/>
+      <c r="P211" s="76"/>
+      <c r="Q211" s="76"/>
+      <c r="R211" s="81"/>
+      <c r="S211" s="81"/>
+      <c r="T211" s="57"/>
+      <c r="U211" s="57"/>
+      <c r="V211" s="57"/>
+      <c r="W211" s="81"/>
+      <c r="X211" s="83"/>
+      <c r="Y211" s="83"/>
+      <c r="Z211" s="81"/>
+      <c r="AA211" s="84"/>
+      <c r="AB211" s="84"/>
+      <c r="AC211" s="74"/>
+      <c r="AD211" s="84"/>
+      <c r="AE211" s="84"/>
+      <c r="AF211" s="84"/>
+      <c r="AG211" s="81"/>
+    </row>
+    <row r="212" spans="1:33">
+      <c r="A212" s="75"/>
+      <c r="B212" s="76"/>
+      <c r="C212" s="76"/>
+      <c r="D212" s="76"/>
+      <c r="E212" s="80"/>
+      <c r="F212" s="80"/>
+      <c r="G212" s="76"/>
+      <c r="H212" s="81"/>
+      <c r="I212" s="81"/>
+      <c r="J212" s="81"/>
+      <c r="K212" s="80"/>
+      <c r="L212" s="74"/>
+      <c r="M212" s="74"/>
+      <c r="N212" s="74"/>
+      <c r="O212" s="74"/>
+      <c r="P212" s="76"/>
+      <c r="Q212" s="76"/>
+      <c r="R212" s="81"/>
+      <c r="S212" s="81"/>
+      <c r="T212" s="57"/>
+      <c r="U212" s="57"/>
+      <c r="V212" s="57"/>
+      <c r="W212" s="81"/>
+      <c r="X212" s="83"/>
+      <c r="Y212" s="83"/>
+      <c r="Z212" s="81"/>
+      <c r="AA212" s="84"/>
+      <c r="AB212" s="84"/>
+      <c r="AC212" s="74"/>
+      <c r="AD212" s="84"/>
+      <c r="AE212" s="84"/>
+      <c r="AF212" s="84"/>
+      <c r="AG212" s="81"/>
+    </row>
+    <row r="213" spans="1:33">
+      <c r="A213" s="75"/>
+      <c r="B213" s="76"/>
+      <c r="C213" s="76"/>
+      <c r="D213" s="76"/>
+      <c r="E213" s="80"/>
+      <c r="F213" s="80"/>
+      <c r="G213" s="76"/>
+      <c r="H213" s="81"/>
+      <c r="I213" s="81"/>
+      <c r="J213" s="81"/>
+      <c r="K213" s="80"/>
+      <c r="L213" s="74"/>
+      <c r="M213" s="74"/>
+      <c r="N213" s="74"/>
+      <c r="O213" s="74"/>
+      <c r="P213" s="76"/>
+      <c r="Q213" s="76"/>
+      <c r="R213" s="81"/>
+      <c r="S213" s="81"/>
+      <c r="T213" s="57"/>
+      <c r="U213" s="57"/>
+      <c r="V213" s="57"/>
+      <c r="W213" s="81"/>
+      <c r="X213" s="83"/>
+      <c r="Y213" s="83"/>
+      <c r="Z213" s="81"/>
+      <c r="AA213" s="84"/>
+      <c r="AB213" s="84"/>
+      <c r="AC213" s="74"/>
+      <c r="AD213" s="84"/>
+      <c r="AE213" s="84"/>
+      <c r="AF213" s="84"/>
+      <c r="AG213" s="81"/>
+    </row>
+    <row r="214" spans="1:33">
+      <c r="A214" s="75"/>
+      <c r="B214" s="76"/>
+      <c r="C214" s="76"/>
+      <c r="D214" s="76"/>
+      <c r="E214" s="80"/>
+      <c r="F214" s="80"/>
+      <c r="G214" s="76"/>
+      <c r="H214" s="81"/>
+      <c r="I214" s="81"/>
+      <c r="J214" s="81"/>
+      <c r="K214" s="80"/>
+      <c r="L214" s="74"/>
+      <c r="M214" s="74"/>
+      <c r="N214" s="74"/>
+      <c r="O214" s="74"/>
+      <c r="P214" s="76"/>
+      <c r="Q214" s="76"/>
+      <c r="R214" s="81"/>
+      <c r="S214" s="81"/>
+      <c r="T214" s="57"/>
+      <c r="U214" s="57"/>
+      <c r="V214" s="57"/>
+      <c r="W214" s="81"/>
+      <c r="X214" s="83"/>
+      <c r="Y214" s="83"/>
+      <c r="Z214" s="81"/>
+      <c r="AA214" s="84"/>
+      <c r="AB214" s="84"/>
+      <c r="AC214" s="74"/>
+      <c r="AD214" s="84"/>
+      <c r="AE214" s="84"/>
+      <c r="AF214" s="84"/>
+      <c r="AG214" s="81"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="85"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="85"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="85"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="85"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="85"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="A17:A30"/>
@@ -8720,6 +13226,21 @@
     <mergeCell ref="A56:A65"/>
     <mergeCell ref="A66:A75"/>
     <mergeCell ref="A76:A85"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="A95:A104"/>
+    <mergeCell ref="A105:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="A141:A149"/>
+    <mergeCell ref="A150:A159"/>
+    <mergeCell ref="A160:A167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="A177:A185"/>
+    <mergeCell ref="A186:A197"/>
+    <mergeCell ref="A198:A205"/>
+    <mergeCell ref="A206:A214"/>
+    <mergeCell ref="A215:A221"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C16"/>
@@ -8838,28 +13359,28 @@
         <v>11</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
@@ -8872,7 +13393,7 @@
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
       <c r="U1" s="14" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
@@ -8898,76 +13419,76 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="V2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="W2" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>75</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="Z2" s="42" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AA2" s="42" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB2" s="42" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AC2" s="42" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AD2" s="42" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AE2" s="42" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AF2" s="42" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AG2" s="42" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" s="25" customFormat="1" spans="1:33">
@@ -10089,46 +14610,46 @@
         <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -10144,7 +14665,7 @@
       <c r="AB1" s="16"/>
       <c r="AC1" s="16"/>
       <c r="AD1" s="16" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="AE1" s="16"/>
       <c r="AF1" s="16"/>
@@ -10171,70 +14692,70 @@
       <c r="N2" s="14"/>
       <c r="O2" s="6"/>
       <c r="P2" s="17" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="AE2" s="23" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -11671,13 +16192,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/行业/食品饮料/调味品/调味品.xlsx
+++ b/行业/食品饮料/调味品/调味品.xlsx
@@ -2296,11 +2296,11 @@
   <dimension ref="A1:BB245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/行业/食品饮料/调味品/调味品.xlsx
+++ b/行业/食品饮料/调味品/调味品.xlsx
@@ -2296,11 +2296,11 @@
   <dimension ref="A1:BB245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/行业/食品饮料/调味品/调味品.xlsx
+++ b/行业/食品饮料/调味品/调味品.xlsx
@@ -1473,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1708,9 +1708,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1721,9 +1718,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2302,11 +2296,11 @@
   <dimension ref="A1:BB246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2427,19 +2421,19 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AA1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AB1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="79" t="s">
+      <c r="AC1" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="79" t="s">
+      <c r="AD1" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="82" t="s">
+      <c r="AE1" s="81" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="27" t="s">
@@ -2460,10 +2454,10 @@
       <c r="AK1" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="86" t="s">
+      <c r="AL1" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="86" t="s">
+      <c r="AM1" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
@@ -2478,19 +2472,19 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="91" t="s">
+      <c r="AR1" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="91" t="s">
+      <c r="AS1" s="89" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="91" t="s">
+      <c r="AU1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="91" t="s">
+      <c r="AV1" s="89" t="s">
         <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
@@ -2539,27 +2533,27 @@
       <c r="AB2" s="29"/>
       <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
-      <c r="AE2" s="83"/>
+      <c r="AE2" s="82"/>
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
       <c r="AH2" s="29"/>
       <c r="AI2" s="29"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
-      <c r="AS2" s="91"/>
+      <c r="AS2" s="89"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
-      <c r="AY2" s="95" t="s">
+      <c r="AY2" s="93" t="s">
         <v>52</v>
       </c>
       <c r="AZ2" s="1" t="s">
@@ -2590,38 +2584,38 @@
       <c r="Q3" s="76"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="78"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="48"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="91"/>
+      <c r="AS3" s="89"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
-      <c r="AY3" s="95"/>
+      <c r="AY3" s="93"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
@@ -2712,16 +2706,16 @@
         <f>(资产表!C3-资产表!C4)/资产表!C4</f>
         <v>0.128139993008127</v>
       </c>
-      <c r="AA4" s="80">
+      <c r="AA4" s="79">
         <f>$AK$4/0.04*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>18.1322766493508</v>
       </c>
-      <c r="AB4" s="81">
+      <c r="AB4" s="80">
         <f>$AK$4*1.02/(0.04-0.02)*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>36.9898443646757</v>
       </c>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
       <c r="AE4" s="77">
         <f>利润表!$G3/$AL4</f>
         <v>1.14646769573995</v>
@@ -2744,32 +2738,32 @@
         <f>现金流量表!C3-现金流量表!D3</f>
         <v>5431503551.49</v>
       </c>
-      <c r="AL4" s="87">
+      <c r="AL4" s="85">
         <v>5560600544</v>
       </c>
-      <c r="AM4" s="88">
+      <c r="AM4" s="86">
         <v>5560600544</v>
       </c>
-      <c r="AN4" s="89" t="s">
+      <c r="AN4" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="AO4" s="92" t="s">
+      <c r="AO4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AP4" s="92"/>
+      <c r="AP4" s="90"/>
       <c r="AQ4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AR4" s="92" t="s">
+      <c r="AR4" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="AS4" s="92" t="s">
+      <c r="AS4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="AT4" s="92" t="s">
+      <c r="AT4" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="AU4" s="92" t="s">
+      <c r="AU4" s="90" t="s">
         <v>63</v>
       </c>
       <c r="AV4" s="1"/>
@@ -2860,16 +2854,16 @@
         <f>(资产表!C4-资产表!C5)/资产表!C5</f>
         <v>0.0216406881533577</v>
       </c>
-      <c r="AA5" s="80">
+      <c r="AA5" s="79">
         <f>$AK$5/0.04*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>7.7196532777476</v>
       </c>
-      <c r="AB5" s="80">
+      <c r="AB5" s="79">
         <f>$AK$5*1.02/(0.04-0.02)*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>15.7480926866051</v>
       </c>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
       <c r="AE5" s="77">
         <f>利润表!$G4/$AL5</f>
         <v>1.53041273192521</v>
@@ -2892,22 +2886,22 @@
         <f>现金流量表!C4-现金流量表!D4</f>
         <v>2312413659.09</v>
       </c>
-      <c r="AL5" s="90">
+      <c r="AL5" s="88">
         <v>4633833787</v>
       </c>
-      <c r="AM5" s="88">
+      <c r="AM5" s="86">
         <v>4633833787</v>
       </c>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="93"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
       <c r="AQ5" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="93"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="91"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -2996,16 +2990,16 @@
         <f>(资产表!C5-资产表!C6)/资产表!C6</f>
         <v>0.128805900053578</v>
       </c>
-      <c r="AA6" s="80">
+      <c r="AA6" s="79">
         <f>$AK$6/0.04*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>17.6691439654434</v>
       </c>
-      <c r="AB6" s="80">
+      <c r="AB6" s="79">
         <f>$AK$6*1.02/(0.04-0.02)*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>36.0450536895046</v>
       </c>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
       <c r="AE6" s="77">
         <f>利润表!$G5/$AL6</f>
         <v>1.782817741603</v>
@@ -3028,22 +3022,22 @@
         <f>现金流量表!C5-现金流量表!D5</f>
         <v>5292772664.79</v>
       </c>
-      <c r="AL6" s="90">
+      <c r="AL6" s="88">
         <v>4212576170</v>
       </c>
-      <c r="AM6" s="88">
+      <c r="AM6" s="86">
         <v>4212576170</v>
       </c>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="93"/>
-      <c r="AP6" s="93"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="91"/>
+      <c r="AP6" s="91"/>
       <c r="AQ6" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="93"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="91"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -3132,16 +3126,16 @@
         <f>(资产表!C6-资产表!C7)/资产表!C7</f>
         <v>0.193090148946536</v>
       </c>
-      <c r="AA7" s="80">
+      <c r="AA7" s="79">
         <f>$AK$7/0.04*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>20.1751261910583</v>
       </c>
-      <c r="AB7" s="80">
+      <c r="AB7" s="79">
         <f>$AK$7*1.02/(0.04-0.02)*(负债表!$D$3/资产表!$C$3)/$AL$4</f>
         <v>41.157257429759</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
       <c r="AE7" s="77">
         <f>利润表!$G6/$AL7</f>
         <v>2.26923091269927</v>
@@ -3164,22 +3158,22 @@
         <f>现金流量表!C6-现金流量表!D6</f>
         <v>6043436887.58</v>
       </c>
-      <c r="AL7" s="90">
+      <c r="AL7" s="88">
         <v>3240443208</v>
       </c>
-      <c r="AM7" s="88">
+      <c r="AM7" s="86">
         <v>3240443208</v>
       </c>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
       <c r="AQ7" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="93"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="91"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
@@ -3268,10 +3262,10 @@
         <f>(资产表!C7-资产表!C8)/资产表!C8</f>
         <v>0.228859589371038</v>
       </c>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
       <c r="AE8" s="77">
         <f>利润表!$G7/$AL8</f>
         <v>2.23873515954303</v>
@@ -3294,20 +3288,20 @@
         <f>现金流量表!C7-现金流量表!D7</f>
         <v>5984937402.29</v>
       </c>
-      <c r="AL8" s="90">
+      <c r="AL8" s="88">
         <v>2700369340</v>
       </c>
-      <c r="AM8" s="88">
+      <c r="AM8" s="86">
         <v>2700369340</v>
       </c>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
       <c r="AQ8" s="48"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="93"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="91"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
@@ -3396,10 +3390,10 @@
         <f>(资产表!C8-资产表!C9)/资产表!C9</f>
         <v>0.233090948876772</v>
       </c>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
       <c r="AE9" s="77">
         <f>利润表!$G8/$AL9</f>
         <v>1.81585155236209</v>
@@ -3422,22 +3416,22 @@
         <f>现金流量表!C8-现金流量表!D8</f>
         <v>5772317547.15</v>
       </c>
-      <c r="AL9" s="90">
+      <c r="AL9" s="88">
         <v>2700369340</v>
       </c>
-      <c r="AM9" s="88">
+      <c r="AM9" s="86">
         <v>2696886700</v>
       </c>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
       <c r="AQ9" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="93"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="91"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
@@ -3526,10 +3520,10 @@
         <f>(资产表!C9-资产表!C10)/资产表!C10</f>
         <v>0.213347154646541</v>
       </c>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
       <c r="AE10" s="77">
         <f>利润表!$G9/$AL10</f>
         <v>1.48941230383443</v>
@@ -3552,22 +3546,22 @@
         <f>现金流量表!C9-现金流量表!D9</f>
         <v>4458949661.01</v>
       </c>
-      <c r="AL10" s="90">
+      <c r="AL10" s="88">
         <v>2701206700</v>
       </c>
-      <c r="AM10" s="87">
+      <c r="AM10" s="85">
         <v>2696886700</v>
       </c>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
       <c r="AQ10" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="93"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="91"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
@@ -3656,10 +3650,10 @@
         <f>(资产表!C10-资产表!C11)/资产表!C11</f>
         <v>0.170950632459131</v>
       </c>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
       <c r="AE11" s="77">
         <f>利润表!$G10/$AL11</f>
         <v>1.22548969635565</v>
@@ -3682,22 +3676,22 @@
         <f>现金流量表!C10-现金流量表!D10</f>
         <v>3285983907.43</v>
       </c>
-      <c r="AL11" s="90">
+      <c r="AL11" s="88">
         <v>2704950700</v>
       </c>
-      <c r="AM11" s="90">
+      <c r="AM11" s="88">
         <v>271746700</v>
       </c>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
       <c r="AQ11" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="93"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="91"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
@@ -3786,10 +3780,10 @@
         <f>(资产表!C11-资产表!C12)/资产表!C12</f>
         <v>0.0452164356824559</v>
       </c>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
       <c r="AE12" s="77">
         <f>利润表!$G11/$AL12</f>
         <v>1.07845783776124</v>
@@ -3812,22 +3806,22 @@
         <f>现金流量表!C11-现金流量表!D11</f>
         <v>1450550439.21</v>
       </c>
-      <c r="AL12" s="90">
+      <c r="AL12" s="88">
         <v>2706246000</v>
       </c>
-      <c r="AM12" s="87">
+      <c r="AM12" s="85">
         <v>269460000</v>
       </c>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="93"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="91"/>
       <c r="AQ12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="93"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="91"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
@@ -3916,10 +3910,10 @@
         <f>(资产表!C12-资产表!C13)/资产表!C13</f>
         <v>0.636476167495483</v>
       </c>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
       <c r="AE13" s="77">
         <f>利润表!$G12/$AL13</f>
         <v>1.59959337732612</v>
@@ -3942,22 +3936,22 @@
         <f>现金流量表!C12-现金流量表!D12</f>
         <v>1857733403.88</v>
       </c>
-      <c r="AL13" s="90">
+      <c r="AL13" s="88">
         <v>1503580000</v>
       </c>
-      <c r="AM13" s="87">
+      <c r="AM13" s="85">
         <v>149700000</v>
       </c>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="93"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
       <c r="AQ13" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="93"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="91"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
@@ -4046,10 +4040,10 @@
         <f>(资产表!C13-资产表!C14)/资产表!C14</f>
         <v>0.100147047607915</v>
       </c>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
       <c r="AE14" s="77">
         <f>利润表!$G13/$AL14</f>
         <v>2.66688120317862</v>
@@ -4072,21 +4066,21 @@
         <f>现金流量表!C13-现金流量表!D13</f>
         <v>916531801.84</v>
       </c>
-      <c r="AL14" s="90">
+      <c r="AL14" s="88">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="AM14" s="90">
+      <c r="AM14" s="88">
         <v>0</v>
       </c>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
       <c r="AQ14" s="48"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="92"/>
-      <c r="AU14" s="93"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="91"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
@@ -4175,10 +4169,10 @@
         <f>(资产表!C14-资产表!C15)/资产表!C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
       <c r="AE15" s="77">
         <f>利润表!$G14/$AL15</f>
         <v>2.08588946300985</v>
@@ -4201,21 +4195,21 @@
         <f>现金流量表!C14-现金流量表!D14</f>
         <v>1699678033.11</v>
       </c>
-      <c r="AL15" s="90">
+      <c r="AL15" s="88">
         <f>71100*10000</f>
         <v>711000000</v>
       </c>
-      <c r="AM15" s="90">
+      <c r="AM15" s="88">
         <v>0</v>
       </c>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="93"/>
-      <c r="AP15" s="93"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="91"/>
+      <c r="AP15" s="91"/>
       <c r="AQ15" s="48"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="92"/>
-      <c r="AT15" s="92"/>
-      <c r="AU15" s="93"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="91"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
@@ -4286,10 +4280,10 @@
         <f>(资产表!C15-资产表!C16)/资产表!C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="85"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
       <c r="AE16" s="77" t="e">
         <f>利润表!$G15/$AL16</f>
         <v>#DIV/0!</v>
@@ -4300,16 +4294,16 @@
       <c r="AI16" s="48"/>
       <c r="AJ16" s="48"/>
       <c r="AK16" s="47"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="90"/>
-      <c r="AN16" s="89"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
+      <c r="AL16" s="88"/>
+      <c r="AM16" s="88"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="91"/>
       <c r="AQ16" s="48"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="92"/>
-      <c r="AU16" s="93"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="91"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
@@ -4388,16 +4382,16 @@
         <f>AVERAGE(AK4:AK15)</f>
         <v>3708900746.5725</v>
       </c>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="90"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="93"/>
+      <c r="AL17" s="88"/>
+      <c r="AM17" s="88"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="91"/>
       <c r="AQ17" s="48"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="92"/>
-      <c r="AT17" s="92"/>
-      <c r="AU17" s="93"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="91"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
@@ -4494,26 +4488,26 @@
       <c r="AI18" s="48"/>
       <c r="AJ18" s="48"/>
       <c r="AK18" s="47"/>
-      <c r="AL18" s="87">
+      <c r="AL18" s="85">
         <v>785375950</v>
       </c>
-      <c r="AM18" s="87">
+      <c r="AM18" s="85">
         <v>785375950</v>
       </c>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="94" t="s">
+      <c r="AO18" s="91"/>
+      <c r="AP18" s="92" t="s">
         <v>75</v>
       </c>
       <c r="AQ18" s="48"/>
-      <c r="AR18" s="92" t="s">
+      <c r="AR18" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="AS18" s="92" t="s">
+      <c r="AS18" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="AT18" s="92"/>
-      <c r="AU18" s="93"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="91"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
@@ -4604,20 +4598,20 @@
       <c r="AI19" s="48"/>
       <c r="AJ19" s="48"/>
       <c r="AK19" s="47"/>
-      <c r="AL19" s="87">
+      <c r="AL19" s="85">
         <v>785375950</v>
       </c>
-      <c r="AM19" s="87">
+      <c r="AM19" s="85">
         <v>785375950</v>
       </c>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="91"/>
       <c r="AQ19" s="48"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="92"/>
-      <c r="AU19" s="93"/>
+      <c r="AR19" s="91"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="91"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
@@ -4708,20 +4702,20 @@
       <c r="AI20" s="48"/>
       <c r="AJ20" s="48"/>
       <c r="AK20" s="47"/>
-      <c r="AL20" s="87">
+      <c r="AL20" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM20" s="87">
+      <c r="AM20" s="85">
         <v>796637194</v>
       </c>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
+      <c r="AO20" s="91"/>
+      <c r="AP20" s="91"/>
       <c r="AQ20" s="48"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="92"/>
-      <c r="AU20" s="93"/>
+      <c r="AR20" s="91"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="91"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
@@ -4812,20 +4806,20 @@
       <c r="AI21" s="48"/>
       <c r="AJ21" s="48"/>
       <c r="AK21" s="47"/>
-      <c r="AL21" s="87">
+      <c r="AL21" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM21" s="87">
+      <c r="AM21" s="85">
         <v>796637194</v>
       </c>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="93"/>
-      <c r="AP21" s="93"/>
+      <c r="AO21" s="91"/>
+      <c r="AP21" s="91"/>
       <c r="AQ21" s="48"/>
-      <c r="AR21" s="93"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="92"/>
-      <c r="AU21" s="93"/>
+      <c r="AR21" s="91"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="91"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
@@ -4916,20 +4910,20 @@
       <c r="AI22" s="48"/>
       <c r="AJ22" s="48"/>
       <c r="AK22" s="47"/>
-      <c r="AL22" s="87">
+      <c r="AL22" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM22" s="87">
+      <c r="AM22" s="85">
         <v>796637194</v>
       </c>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="93"/>
+      <c r="AO22" s="91"/>
+      <c r="AP22" s="91"/>
       <c r="AQ22" s="48"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="92"/>
-      <c r="AU22" s="93"/>
+      <c r="AR22" s="91"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="91"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
@@ -5020,20 +5014,20 @@
       <c r="AI23" s="48"/>
       <c r="AJ23" s="48"/>
       <c r="AK23" s="47"/>
-      <c r="AL23" s="87">
+      <c r="AL23" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM23" s="87">
+      <c r="AM23" s="85">
         <v>796637194</v>
       </c>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="93"/>
+      <c r="AO23" s="91"/>
+      <c r="AP23" s="91"/>
       <c r="AQ23" s="48"/>
-      <c r="AR23" s="93"/>
-      <c r="AS23" s="93"/>
-      <c r="AT23" s="92"/>
-      <c r="AU23" s="93"/>
+      <c r="AR23" s="91"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="91"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
@@ -5124,20 +5118,20 @@
       <c r="AI24" s="48"/>
       <c r="AJ24" s="48"/>
       <c r="AK24" s="47"/>
-      <c r="AL24" s="87">
+      <c r="AL24" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM24" s="87">
+      <c r="AM24" s="85">
         <v>796637194</v>
       </c>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="93"/>
+      <c r="AO24" s="91"/>
+      <c r="AP24" s="91"/>
       <c r="AQ24" s="48"/>
-      <c r="AR24" s="93"/>
-      <c r="AS24" s="93"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="93"/>
+      <c r="AR24" s="91"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="91"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
@@ -5228,20 +5222,20 @@
       <c r="AI25" s="48"/>
       <c r="AJ25" s="48"/>
       <c r="AK25" s="47"/>
-      <c r="AL25" s="87">
+      <c r="AL25" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM25" s="87">
+      <c r="AM25" s="85">
         <v>796637194</v>
       </c>
       <c r="AN25" s="2"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="93"/>
+      <c r="AO25" s="91"/>
+      <c r="AP25" s="91"/>
       <c r="AQ25" s="48"/>
-      <c r="AR25" s="93"/>
-      <c r="AS25" s="93"/>
-      <c r="AT25" s="92"/>
-      <c r="AU25" s="93"/>
+      <c r="AR25" s="91"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="91"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
@@ -5332,20 +5326,20 @@
       <c r="AI26" s="48"/>
       <c r="AJ26" s="48"/>
       <c r="AK26" s="47"/>
-      <c r="AL26" s="87">
+      <c r="AL26" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM26" s="87">
+      <c r="AM26" s="85">
         <v>796637194</v>
       </c>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="93"/>
-      <c r="AP26" s="93"/>
+      <c r="AO26" s="91"/>
+      <c r="AP26" s="91"/>
       <c r="AQ26" s="48"/>
-      <c r="AR26" s="93"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="92"/>
-      <c r="AU26" s="93"/>
+      <c r="AR26" s="91"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="91"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
@@ -5436,20 +5430,20 @@
       <c r="AI27" s="48"/>
       <c r="AJ27" s="48"/>
       <c r="AK27" s="47"/>
-      <c r="AL27" s="87">
+      <c r="AL27" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM27" s="87">
+      <c r="AM27" s="85">
         <v>796637194</v>
       </c>
       <c r="AN27" s="2"/>
-      <c r="AO27" s="93"/>
-      <c r="AP27" s="93"/>
+      <c r="AO27" s="91"/>
+      <c r="AP27" s="91"/>
       <c r="AQ27" s="48"/>
-      <c r="AR27" s="93"/>
-      <c r="AS27" s="93"/>
-      <c r="AT27" s="92"/>
-      <c r="AU27" s="93"/>
+      <c r="AR27" s="91"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="91"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
@@ -5540,20 +5534,20 @@
       <c r="AI28" s="48"/>
       <c r="AJ28" s="48"/>
       <c r="AK28" s="47"/>
-      <c r="AL28" s="87">
+      <c r="AL28" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM28" s="87">
+      <c r="AM28" s="85">
         <v>796637194</v>
       </c>
       <c r="AN28" s="2"/>
-      <c r="AO28" s="93"/>
-      <c r="AP28" s="93"/>
+      <c r="AO28" s="91"/>
+      <c r="AP28" s="91"/>
       <c r="AQ28" s="48"/>
-      <c r="AR28" s="93"/>
-      <c r="AS28" s="93"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="93"/>
+      <c r="AR28" s="91"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="91"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
@@ -5644,20 +5638,20 @@
       <c r="AI29" s="48"/>
       <c r="AJ29" s="48"/>
       <c r="AK29" s="47"/>
-      <c r="AL29" s="87">
+      <c r="AL29" s="85">
         <v>796637194</v>
       </c>
-      <c r="AM29" s="87">
+      <c r="AM29" s="85">
         <v>796637194</v>
       </c>
       <c r="AN29" s="2"/>
-      <c r="AO29" s="93"/>
-      <c r="AP29" s="93"/>
+      <c r="AO29" s="91"/>
+      <c r="AP29" s="91"/>
       <c r="AQ29" s="48"/>
-      <c r="AR29" s="93"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="92"/>
-      <c r="AU29" s="93"/>
+      <c r="AR29" s="91"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="91"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
@@ -5739,16 +5733,16 @@
       <c r="AI30" s="48"/>
       <c r="AJ30" s="48"/>
       <c r="AK30" s="47"/>
-      <c r="AL30" s="90"/>
-      <c r="AM30" s="90"/>
+      <c r="AL30" s="88"/>
+      <c r="AM30" s="88"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="93"/>
-      <c r="AP30" s="93"/>
+      <c r="AO30" s="91"/>
+      <c r="AP30" s="91"/>
       <c r="AQ30" s="48"/>
-      <c r="AR30" s="93"/>
-      <c r="AS30" s="93"/>
-      <c r="AT30" s="92"/>
-      <c r="AU30" s="93"/>
+      <c r="AR30" s="91"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="90"/>
+      <c r="AU30" s="91"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
@@ -5815,16 +5809,16 @@
       <c r="AI31" s="48"/>
       <c r="AJ31" s="48"/>
       <c r="AK31" s="47"/>
-      <c r="AL31" s="90"/>
-      <c r="AM31" s="90"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="88"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="93"/>
-      <c r="AP31" s="93"/>
+      <c r="AO31" s="91"/>
+      <c r="AP31" s="91"/>
       <c r="AQ31" s="48"/>
-      <c r="AR31" s="93"/>
-      <c r="AS31" s="93"/>
-      <c r="AT31" s="92"/>
-      <c r="AU31" s="93"/>
+      <c r="AR31" s="91"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="91"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
@@ -5921,24 +5915,24 @@
       <c r="AI32" s="48"/>
       <c r="AJ32" s="48"/>
       <c r="AK32" s="47"/>
-      <c r="AL32" s="90">
+      <c r="AL32" s="88">
         <v>1027821086</v>
       </c>
-      <c r="AM32" s="90">
+      <c r="AM32" s="88">
         <v>958538590</v>
       </c>
       <c r="AN32" s="2"/>
-      <c r="AO32" s="93"/>
-      <c r="AP32" s="93"/>
+      <c r="AO32" s="91"/>
+      <c r="AP32" s="91"/>
       <c r="AQ32" s="48"/>
-      <c r="AR32" s="92" t="s">
+      <c r="AR32" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="AS32" s="92" t="s">
+      <c r="AS32" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="AT32" s="92"/>
-      <c r="AU32" s="93"/>
+      <c r="AT32" s="90"/>
+      <c r="AU32" s="91"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
@@ -6029,20 +6023,20 @@
       <c r="AI33" s="48"/>
       <c r="AJ33" s="48"/>
       <c r="AK33" s="47"/>
-      <c r="AL33" s="90">
+      <c r="AL33" s="88">
         <v>965468590</v>
       </c>
-      <c r="AM33" s="90">
+      <c r="AM33" s="88">
         <v>958538590</v>
       </c>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="93"/>
-      <c r="AP33" s="93"/>
+      <c r="AO33" s="91"/>
+      <c r="AP33" s="91"/>
       <c r="AQ33" s="48"/>
-      <c r="AR33" s="93"/>
-      <c r="AS33" s="92"/>
-      <c r="AT33" s="92"/>
-      <c r="AU33" s="93"/>
+      <c r="AR33" s="91"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="90"/>
+      <c r="AU33" s="91"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
@@ -6133,20 +6127,20 @@
       <c r="AI34" s="48"/>
       <c r="AJ34" s="48"/>
       <c r="AK34" s="47"/>
-      <c r="AL34" s="90">
+      <c r="AL34" s="88">
         <v>798782158</v>
       </c>
-      <c r="AM34" s="90">
+      <c r="AM34" s="88">
         <v>794566246</v>
       </c>
       <c r="AN34" s="2"/>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="93"/>
+      <c r="AO34" s="91"/>
+      <c r="AP34" s="91"/>
       <c r="AQ34" s="48"/>
-      <c r="AR34" s="93"/>
-      <c r="AS34" s="92"/>
-      <c r="AT34" s="92"/>
-      <c r="AU34" s="93"/>
+      <c r="AR34" s="91"/>
+      <c r="AS34" s="90"/>
+      <c r="AT34" s="90"/>
+      <c r="AU34" s="91"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
@@ -6237,20 +6231,20 @@
       <c r="AI35" s="48"/>
       <c r="AJ35" s="48"/>
       <c r="AK35" s="47"/>
-      <c r="AL35" s="90">
+      <c r="AL35" s="88">
         <v>665675318</v>
       </c>
-      <c r="AM35" s="90">
+      <c r="AM35" s="88">
         <v>659771876</v>
       </c>
       <c r="AN35" s="2"/>
-      <c r="AO35" s="93"/>
-      <c r="AP35" s="93"/>
+      <c r="AO35" s="91"/>
+      <c r="AP35" s="91"/>
       <c r="AQ35" s="48"/>
-      <c r="AR35" s="93"/>
-      <c r="AS35" s="92"/>
-      <c r="AT35" s="92"/>
-      <c r="AU35" s="93"/>
+      <c r="AR35" s="91"/>
+      <c r="AS35" s="90"/>
+      <c r="AT35" s="90"/>
+      <c r="AU35" s="91"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
@@ -6341,20 +6335,20 @@
       <c r="AI36" s="48"/>
       <c r="AJ36" s="48"/>
       <c r="AK36" s="47"/>
-      <c r="AL36" s="90">
+      <c r="AL36" s="88">
         <v>465850722</v>
       </c>
-      <c r="AM36" s="90">
+      <c r="AM36" s="88">
         <v>459810506</v>
       </c>
       <c r="AN36" s="2"/>
-      <c r="AO36" s="93"/>
-      <c r="AP36" s="93"/>
+      <c r="AO36" s="91"/>
+      <c r="AP36" s="91"/>
       <c r="AQ36" s="48"/>
-      <c r="AR36" s="93"/>
-      <c r="AS36" s="92"/>
-      <c r="AT36" s="92"/>
-      <c r="AU36" s="93"/>
+      <c r="AR36" s="91"/>
+      <c r="AS36" s="90"/>
+      <c r="AT36" s="90"/>
+      <c r="AU36" s="91"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
@@ -6445,20 +6439,20 @@
       <c r="AI37" s="48"/>
       <c r="AJ37" s="48"/>
       <c r="AK37" s="47"/>
-      <c r="AL37" s="90">
+      <c r="AL37" s="88">
         <v>326202714</v>
       </c>
-      <c r="AM37" s="90">
+      <c r="AM37" s="88">
         <v>134964546</v>
       </c>
       <c r="AN37" s="2"/>
-      <c r="AO37" s="93"/>
-      <c r="AP37" s="93"/>
+      <c r="AO37" s="91"/>
+      <c r="AP37" s="91"/>
       <c r="AQ37" s="48"/>
-      <c r="AR37" s="93"/>
-      <c r="AS37" s="92"/>
-      <c r="AT37" s="92"/>
-      <c r="AU37" s="93"/>
+      <c r="AR37" s="91"/>
+      <c r="AS37" s="90"/>
+      <c r="AT37" s="90"/>
+      <c r="AU37" s="91"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
@@ -6549,20 +6543,20 @@
       <c r="AI38" s="48"/>
       <c r="AJ38" s="48"/>
       <c r="AK38" s="47"/>
-      <c r="AL38" s="90">
+      <c r="AL38" s="88">
         <v>325985200</v>
       </c>
-      <c r="AM38" s="90">
+      <c r="AM38" s="88">
         <v>133190272</v>
       </c>
       <c r="AN38" s="2"/>
-      <c r="AO38" s="93"/>
-      <c r="AP38" s="93"/>
+      <c r="AO38" s="91"/>
+      <c r="AP38" s="91"/>
       <c r="AQ38" s="48"/>
-      <c r="AR38" s="93"/>
-      <c r="AS38" s="92"/>
-      <c r="AT38" s="92"/>
-      <c r="AU38" s="93"/>
+      <c r="AR38" s="91"/>
+      <c r="AS38" s="90"/>
+      <c r="AT38" s="90"/>
+      <c r="AU38" s="91"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
@@ -6653,20 +6647,20 @@
       <c r="AI39" s="48"/>
       <c r="AJ39" s="48"/>
       <c r="AK39" s="47"/>
-      <c r="AL39" s="90">
+      <c r="AL39" s="88">
         <v>160000000</v>
       </c>
-      <c r="AM39" s="90">
+      <c r="AM39" s="88">
         <v>40000000</v>
       </c>
       <c r="AN39" s="2"/>
-      <c r="AO39" s="93"/>
-      <c r="AP39" s="93"/>
+      <c r="AO39" s="91"/>
+      <c r="AP39" s="91"/>
       <c r="AQ39" s="48"/>
-      <c r="AR39" s="93"/>
-      <c r="AS39" s="92"/>
-      <c r="AT39" s="92"/>
-      <c r="AU39" s="93"/>
+      <c r="AR39" s="91"/>
+      <c r="AS39" s="90"/>
+      <c r="AT39" s="90"/>
+      <c r="AU39" s="91"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
@@ -6757,20 +6751,20 @@
       <c r="AI40" s="48"/>
       <c r="AJ40" s="48"/>
       <c r="AK40" s="47"/>
-      <c r="AL40" s="90">
+      <c r="AL40" s="88">
         <v>120000000</v>
       </c>
-      <c r="AM40" s="90">
+      <c r="AM40" s="88">
         <v>0</v>
       </c>
       <c r="AN40" s="2"/>
-      <c r="AO40" s="93"/>
-      <c r="AP40" s="93"/>
+      <c r="AO40" s="91"/>
+      <c r="AP40" s="91"/>
       <c r="AQ40" s="48"/>
-      <c r="AR40" s="93"/>
-      <c r="AS40" s="92"/>
-      <c r="AT40" s="92"/>
-      <c r="AU40" s="93"/>
+      <c r="AR40" s="91"/>
+      <c r="AS40" s="90"/>
+      <c r="AT40" s="90"/>
+      <c r="AU40" s="91"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
@@ -6861,16 +6855,16 @@
       <c r="AI41" s="48"/>
       <c r="AJ41" s="48"/>
       <c r="AK41" s="47"/>
-      <c r="AL41" s="90"/>
-      <c r="AM41" s="90"/>
+      <c r="AL41" s="88"/>
+      <c r="AM41" s="88"/>
       <c r="AN41" s="2"/>
-      <c r="AO41" s="93"/>
-      <c r="AP41" s="93"/>
+      <c r="AO41" s="91"/>
+      <c r="AP41" s="91"/>
       <c r="AQ41" s="48"/>
-      <c r="AR41" s="93"/>
-      <c r="AS41" s="92"/>
-      <c r="AT41" s="92"/>
-      <c r="AU41" s="93"/>
+      <c r="AR41" s="91"/>
+      <c r="AS41" s="90"/>
+      <c r="AT41" s="90"/>
+      <c r="AU41" s="91"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
@@ -6961,16 +6955,16 @@
       <c r="AI42" s="48"/>
       <c r="AJ42" s="48"/>
       <c r="AK42" s="47"/>
-      <c r="AL42" s="90"/>
-      <c r="AM42" s="90"/>
+      <c r="AL42" s="88"/>
+      <c r="AM42" s="88"/>
       <c r="AN42" s="2"/>
-      <c r="AO42" s="93"/>
-      <c r="AP42" s="93"/>
+      <c r="AO42" s="91"/>
+      <c r="AP42" s="91"/>
       <c r="AQ42" s="48"/>
-      <c r="AR42" s="93"/>
-      <c r="AS42" s="92"/>
-      <c r="AT42" s="92"/>
-      <c r="AU42" s="93"/>
+      <c r="AR42" s="91"/>
+      <c r="AS42" s="90"/>
+      <c r="AT42" s="90"/>
+      <c r="AU42" s="91"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
@@ -7052,16 +7046,16 @@
       <c r="AI43" s="48"/>
       <c r="AJ43" s="48"/>
       <c r="AK43" s="47"/>
-      <c r="AL43" s="90"/>
-      <c r="AM43" s="90"/>
+      <c r="AL43" s="88"/>
+      <c r="AM43" s="88"/>
       <c r="AN43" s="2"/>
-      <c r="AO43" s="93"/>
-      <c r="AP43" s="93"/>
+      <c r="AO43" s="91"/>
+      <c r="AP43" s="91"/>
       <c r="AQ43" s="48"/>
-      <c r="AR43" s="93"/>
-      <c r="AS43" s="92"/>
-      <c r="AT43" s="92"/>
-      <c r="AU43" s="93"/>
+      <c r="AR43" s="91"/>
+      <c r="AS43" s="90"/>
+      <c r="AT43" s="90"/>
+      <c r="AU43" s="91"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
@@ -7143,16 +7137,16 @@
       <c r="AI44" s="48"/>
       <c r="AJ44" s="48"/>
       <c r="AK44" s="47"/>
-      <c r="AL44" s="90"/>
-      <c r="AM44" s="90"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
       <c r="AN44" s="2"/>
-      <c r="AO44" s="93"/>
-      <c r="AP44" s="93"/>
+      <c r="AO44" s="91"/>
+      <c r="AP44" s="91"/>
       <c r="AQ44" s="48"/>
-      <c r="AR44" s="93"/>
-      <c r="AS44" s="92"/>
-      <c r="AT44" s="92"/>
-      <c r="AU44" s="93"/>
+      <c r="AR44" s="91"/>
+      <c r="AS44" s="90"/>
+      <c r="AT44" s="90"/>
+      <c r="AU44" s="91"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
@@ -7219,16 +7213,16 @@
       <c r="AI45" s="48"/>
       <c r="AJ45" s="48"/>
       <c r="AK45" s="47"/>
-      <c r="AL45" s="90"/>
-      <c r="AM45" s="90"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="88"/>
       <c r="AN45" s="2"/>
-      <c r="AO45" s="93"/>
-      <c r="AP45" s="93"/>
+      <c r="AO45" s="91"/>
+      <c r="AP45" s="91"/>
       <c r="AQ45" s="48"/>
-      <c r="AR45" s="93"/>
-      <c r="AS45" s="92"/>
-      <c r="AT45" s="92"/>
-      <c r="AU45" s="93"/>
+      <c r="AR45" s="91"/>
+      <c r="AS45" s="90"/>
+      <c r="AT45" s="90"/>
+      <c r="AU45" s="91"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
@@ -7323,16 +7317,16 @@
       <c r="AI46" s="48"/>
       <c r="AJ46" s="48"/>
       <c r="AK46" s="47"/>
-      <c r="AL46" s="90"/>
-      <c r="AM46" s="90"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="88"/>
       <c r="AN46" s="2"/>
-      <c r="AO46" s="93"/>
-      <c r="AP46" s="93"/>
+      <c r="AO46" s="91"/>
+      <c r="AP46" s="91"/>
       <c r="AQ46" s="48"/>
-      <c r="AR46" s="93"/>
-      <c r="AS46" s="93"/>
-      <c r="AT46" s="92"/>
-      <c r="AU46" s="93"/>
+      <c r="AR46" s="91"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="90"/>
+      <c r="AU46" s="91"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
@@ -7423,16 +7417,16 @@
       <c r="AI47" s="48"/>
       <c r="AJ47" s="48"/>
       <c r="AK47" s="47"/>
-      <c r="AL47" s="90"/>
-      <c r="AM47" s="90"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="88"/>
       <c r="AN47" s="2"/>
-      <c r="AO47" s="93"/>
-      <c r="AP47" s="93"/>
+      <c r="AO47" s="91"/>
+      <c r="AP47" s="91"/>
       <c r="AQ47" s="48"/>
-      <c r="AR47" s="93"/>
-      <c r="AS47" s="93"/>
-      <c r="AT47" s="92"/>
-      <c r="AU47" s="93"/>
+      <c r="AR47" s="91"/>
+      <c r="AS47" s="91"/>
+      <c r="AT47" s="90"/>
+      <c r="AU47" s="91"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
@@ -7523,16 +7517,16 @@
       <c r="AI48" s="48"/>
       <c r="AJ48" s="48"/>
       <c r="AK48" s="47"/>
-      <c r="AL48" s="90"/>
-      <c r="AM48" s="90"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
       <c r="AN48" s="2"/>
-      <c r="AO48" s="93"/>
-      <c r="AP48" s="93"/>
+      <c r="AO48" s="91"/>
+      <c r="AP48" s="91"/>
       <c r="AQ48" s="48"/>
-      <c r="AR48" s="93"/>
-      <c r="AS48" s="93"/>
-      <c r="AT48" s="92"/>
-      <c r="AU48" s="93"/>
+      <c r="AR48" s="91"/>
+      <c r="AS48" s="91"/>
+      <c r="AT48" s="90"/>
+      <c r="AU48" s="91"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
@@ -7623,16 +7617,16 @@
       <c r="AI49" s="48"/>
       <c r="AJ49" s="48"/>
       <c r="AK49" s="47"/>
-      <c r="AL49" s="90"/>
-      <c r="AM49" s="90"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
       <c r="AN49" s="2"/>
-      <c r="AO49" s="93"/>
-      <c r="AP49" s="93"/>
+      <c r="AO49" s="91"/>
+      <c r="AP49" s="91"/>
       <c r="AQ49" s="48"/>
-      <c r="AR49" s="93"/>
-      <c r="AS49" s="93"/>
-      <c r="AT49" s="92"/>
-      <c r="AU49" s="93"/>
+      <c r="AR49" s="91"/>
+      <c r="AS49" s="91"/>
+      <c r="AT49" s="90"/>
+      <c r="AU49" s="91"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
@@ -7723,16 +7717,16 @@
       <c r="AI50" s="48"/>
       <c r="AJ50" s="48"/>
       <c r="AK50" s="47"/>
-      <c r="AL50" s="90"/>
-      <c r="AM50" s="90"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
       <c r="AN50" s="2"/>
-      <c r="AO50" s="93"/>
-      <c r="AP50" s="93"/>
+      <c r="AO50" s="91"/>
+      <c r="AP50" s="91"/>
       <c r="AQ50" s="48"/>
-      <c r="AR50" s="93"/>
-      <c r="AS50" s="93"/>
-      <c r="AT50" s="92"/>
-      <c r="AU50" s="93"/>
+      <c r="AR50" s="91"/>
+      <c r="AS50" s="91"/>
+      <c r="AT50" s="90"/>
+      <c r="AU50" s="91"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
@@ -7823,16 +7817,16 @@
       <c r="AI51" s="48"/>
       <c r="AJ51" s="48"/>
       <c r="AK51" s="47"/>
-      <c r="AL51" s="90"/>
-      <c r="AM51" s="90"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
       <c r="AN51" s="2"/>
-      <c r="AO51" s="93"/>
-      <c r="AP51" s="93"/>
+      <c r="AO51" s="91"/>
+      <c r="AP51" s="91"/>
       <c r="AQ51" s="48"/>
-      <c r="AR51" s="93"/>
-      <c r="AS51" s="93"/>
-      <c r="AT51" s="92"/>
-      <c r="AU51" s="93"/>
+      <c r="AR51" s="91"/>
+      <c r="AS51" s="91"/>
+      <c r="AT51" s="90"/>
+      <c r="AU51" s="91"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="2"/>
       <c r="AX51" s="2"/>
@@ -7923,16 +7917,16 @@
       <c r="AI52" s="48"/>
       <c r="AJ52" s="48"/>
       <c r="AK52" s="47"/>
-      <c r="AL52" s="90"/>
-      <c r="AM52" s="90"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
       <c r="AN52" s="2"/>
-      <c r="AO52" s="93"/>
-      <c r="AP52" s="93"/>
+      <c r="AO52" s="91"/>
+      <c r="AP52" s="91"/>
       <c r="AQ52" s="48"/>
-      <c r="AR52" s="93"/>
-      <c r="AS52" s="93"/>
-      <c r="AT52" s="92"/>
-      <c r="AU52" s="93"/>
+      <c r="AR52" s="91"/>
+      <c r="AS52" s="91"/>
+      <c r="AT52" s="90"/>
+      <c r="AU52" s="91"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
@@ -8023,16 +8017,16 @@
       <c r="AI53" s="48"/>
       <c r="AJ53" s="48"/>
       <c r="AK53" s="47"/>
-      <c r="AL53" s="90"/>
-      <c r="AM53" s="90"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
       <c r="AN53" s="2"/>
-      <c r="AO53" s="93"/>
-      <c r="AP53" s="93"/>
+      <c r="AO53" s="91"/>
+      <c r="AP53" s="91"/>
       <c r="AQ53" s="48"/>
-      <c r="AR53" s="93"/>
-      <c r="AS53" s="93"/>
-      <c r="AT53" s="92"/>
-      <c r="AU53" s="93"/>
+      <c r="AR53" s="91"/>
+      <c r="AS53" s="91"/>
+      <c r="AT53" s="90"/>
+      <c r="AU53" s="91"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
@@ -8123,16 +8117,16 @@
       <c r="AI54" s="48"/>
       <c r="AJ54" s="48"/>
       <c r="AK54" s="47"/>
-      <c r="AL54" s="90"/>
-      <c r="AM54" s="90"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
       <c r="AN54" s="2"/>
-      <c r="AO54" s="93"/>
-      <c r="AP54" s="93"/>
+      <c r="AO54" s="91"/>
+      <c r="AP54" s="91"/>
       <c r="AQ54" s="48"/>
-      <c r="AR54" s="93"/>
-      <c r="AS54" s="93"/>
-      <c r="AT54" s="92"/>
-      <c r="AU54" s="93"/>
+      <c r="AR54" s="91"/>
+      <c r="AS54" s="91"/>
+      <c r="AT54" s="90"/>
+      <c r="AU54" s="91"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
@@ -8220,16 +8214,16 @@
       <c r="AI55" s="48"/>
       <c r="AJ55" s="48"/>
       <c r="AK55" s="47"/>
-      <c r="AL55" s="90"/>
-      <c r="AM55" s="90"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
       <c r="AN55" s="2"/>
-      <c r="AO55" s="93"/>
-      <c r="AP55" s="93"/>
+      <c r="AO55" s="91"/>
+      <c r="AP55" s="91"/>
       <c r="AQ55" s="48"/>
-      <c r="AR55" s="93"/>
-      <c r="AS55" s="93"/>
-      <c r="AT55" s="92"/>
-      <c r="AU55" s="93"/>
+      <c r="AR55" s="91"/>
+      <c r="AS55" s="91"/>
+      <c r="AT55" s="90"/>
+      <c r="AU55" s="91"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
@@ -8317,16 +8311,16 @@
       <c r="AI56" s="48"/>
       <c r="AJ56" s="48"/>
       <c r="AK56" s="47"/>
-      <c r="AL56" s="90"/>
-      <c r="AM56" s="90"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
       <c r="AN56" s="2"/>
-      <c r="AO56" s="93"/>
-      <c r="AP56" s="93"/>
+      <c r="AO56" s="91"/>
+      <c r="AP56" s="91"/>
       <c r="AQ56" s="48"/>
-      <c r="AR56" s="93"/>
-      <c r="AS56" s="93"/>
-      <c r="AT56" s="92"/>
-      <c r="AU56" s="93"/>
+      <c r="AR56" s="91"/>
+      <c r="AS56" s="91"/>
+      <c r="AT56" s="90"/>
+      <c r="AU56" s="91"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
@@ -8399,16 +8393,16 @@
       <c r="AI57" s="48"/>
       <c r="AJ57" s="48"/>
       <c r="AK57" s="47"/>
-      <c r="AL57" s="90"/>
-      <c r="AM57" s="90"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
       <c r="AN57" s="2"/>
-      <c r="AO57" s="93"/>
-      <c r="AP57" s="93"/>
+      <c r="AO57" s="91"/>
+      <c r="AP57" s="91"/>
       <c r="AQ57" s="48"/>
-      <c r="AR57" s="93"/>
-      <c r="AS57" s="93"/>
-      <c r="AT57" s="92"/>
-      <c r="AU57" s="93"/>
+      <c r="AR57" s="91"/>
+      <c r="AS57" s="91"/>
+      <c r="AT57" s="90"/>
+      <c r="AU57" s="91"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="2"/>
       <c r="AX57" s="2"/>
@@ -8501,16 +8495,16 @@
       <c r="AI58" s="48"/>
       <c r="AJ58" s="48"/>
       <c r="AK58" s="47"/>
-      <c r="AL58" s="90"/>
-      <c r="AM58" s="90"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="88"/>
       <c r="AN58" s="2"/>
-      <c r="AO58" s="93"/>
-      <c r="AP58" s="93"/>
+      <c r="AO58" s="91"/>
+      <c r="AP58" s="91"/>
       <c r="AQ58" s="48"/>
-      <c r="AR58" s="93"/>
-      <c r="AS58" s="93"/>
-      <c r="AT58" s="92"/>
-      <c r="AU58" s="93"/>
+      <c r="AR58" s="91"/>
+      <c r="AS58" s="91"/>
+      <c r="AT58" s="90"/>
+      <c r="AU58" s="91"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
@@ -8601,16 +8595,16 @@
       <c r="AI59" s="48"/>
       <c r="AJ59" s="48"/>
       <c r="AK59" s="47"/>
-      <c r="AL59" s="90"/>
-      <c r="AM59" s="90"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="88"/>
       <c r="AN59" s="2"/>
-      <c r="AO59" s="93"/>
-      <c r="AP59" s="93"/>
+      <c r="AO59" s="91"/>
+      <c r="AP59" s="91"/>
       <c r="AQ59" s="48"/>
-      <c r="AR59" s="93"/>
-      <c r="AS59" s="93"/>
-      <c r="AT59" s="92"/>
-      <c r="AU59" s="93"/>
+      <c r="AR59" s="91"/>
+      <c r="AS59" s="91"/>
+      <c r="AT59" s="90"/>
+      <c r="AU59" s="91"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
@@ -8701,16 +8695,16 @@
       <c r="AI60" s="48"/>
       <c r="AJ60" s="48"/>
       <c r="AK60" s="47"/>
-      <c r="AL60" s="90"/>
-      <c r="AM60" s="90"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
       <c r="AN60" s="2"/>
-      <c r="AO60" s="93"/>
-      <c r="AP60" s="93"/>
+      <c r="AO60" s="91"/>
+      <c r="AP60" s="91"/>
       <c r="AQ60" s="48"/>
-      <c r="AR60" s="93"/>
-      <c r="AS60" s="93"/>
-      <c r="AT60" s="92"/>
-      <c r="AU60" s="93"/>
+      <c r="AR60" s="91"/>
+      <c r="AS60" s="91"/>
+      <c r="AT60" s="90"/>
+      <c r="AU60" s="91"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
@@ -8801,16 +8795,16 @@
       <c r="AI61" s="48"/>
       <c r="AJ61" s="48"/>
       <c r="AK61" s="47"/>
-      <c r="AL61" s="90"/>
-      <c r="AM61" s="90"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="88"/>
       <c r="AN61" s="2"/>
-      <c r="AO61" s="93"/>
-      <c r="AP61" s="93"/>
+      <c r="AO61" s="91"/>
+      <c r="AP61" s="91"/>
       <c r="AQ61" s="48"/>
-      <c r="AR61" s="93"/>
-      <c r="AS61" s="93"/>
-      <c r="AT61" s="92"/>
-      <c r="AU61" s="93"/>
+      <c r="AR61" s="91"/>
+      <c r="AS61" s="91"/>
+      <c r="AT61" s="90"/>
+      <c r="AU61" s="91"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
@@ -8901,16 +8895,16 @@
       <c r="AI62" s="48"/>
       <c r="AJ62" s="48"/>
       <c r="AK62" s="47"/>
-      <c r="AL62" s="90"/>
-      <c r="AM62" s="90"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
       <c r="AN62" s="2"/>
-      <c r="AO62" s="93"/>
-      <c r="AP62" s="93"/>
+      <c r="AO62" s="91"/>
+      <c r="AP62" s="91"/>
       <c r="AQ62" s="48"/>
-      <c r="AR62" s="93"/>
-      <c r="AS62" s="93"/>
-      <c r="AT62" s="92"/>
-      <c r="AU62" s="93"/>
+      <c r="AR62" s="91"/>
+      <c r="AS62" s="91"/>
+      <c r="AT62" s="90"/>
+      <c r="AU62" s="91"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
@@ -9001,16 +8995,16 @@
       <c r="AI63" s="48"/>
       <c r="AJ63" s="48"/>
       <c r="AK63" s="47"/>
-      <c r="AL63" s="90"/>
-      <c r="AM63" s="90"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="88"/>
       <c r="AN63" s="2"/>
-      <c r="AO63" s="93"/>
-      <c r="AP63" s="93"/>
+      <c r="AO63" s="91"/>
+      <c r="AP63" s="91"/>
       <c r="AQ63" s="48"/>
-      <c r="AR63" s="93"/>
-      <c r="AS63" s="93"/>
-      <c r="AT63" s="92"/>
-      <c r="AU63" s="93"/>
+      <c r="AR63" s="91"/>
+      <c r="AS63" s="91"/>
+      <c r="AT63" s="90"/>
+      <c r="AU63" s="91"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
@@ -9101,16 +9095,16 @@
       <c r="AI64" s="48"/>
       <c r="AJ64" s="48"/>
       <c r="AK64" s="47"/>
-      <c r="AL64" s="90"/>
-      <c r="AM64" s="90"/>
+      <c r="AL64" s="88"/>
+      <c r="AM64" s="88"/>
       <c r="AN64" s="2"/>
-      <c r="AO64" s="93"/>
-      <c r="AP64" s="93"/>
+      <c r="AO64" s="91"/>
+      <c r="AP64" s="91"/>
       <c r="AQ64" s="48"/>
-      <c r="AR64" s="93"/>
-      <c r="AS64" s="93"/>
-      <c r="AT64" s="92"/>
-      <c r="AU64" s="93"/>
+      <c r="AR64" s="91"/>
+      <c r="AS64" s="91"/>
+      <c r="AT64" s="90"/>
+      <c r="AU64" s="91"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
@@ -9201,16 +9195,16 @@
       <c r="AI65" s="48"/>
       <c r="AJ65" s="48"/>
       <c r="AK65" s="47"/>
-      <c r="AL65" s="90"/>
-      <c r="AM65" s="90"/>
+      <c r="AL65" s="88"/>
+      <c r="AM65" s="88"/>
       <c r="AN65" s="2"/>
-      <c r="AO65" s="93"/>
-      <c r="AP65" s="93"/>
+      <c r="AO65" s="91"/>
+      <c r="AP65" s="91"/>
       <c r="AQ65" s="48"/>
-      <c r="AR65" s="93"/>
-      <c r="AS65" s="93"/>
-      <c r="AT65" s="92"/>
-      <c r="AU65" s="93"/>
+      <c r="AR65" s="91"/>
+      <c r="AS65" s="91"/>
+      <c r="AT65" s="90"/>
+      <c r="AU65" s="91"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
@@ -9301,16 +9295,16 @@
       <c r="AI66" s="48"/>
       <c r="AJ66" s="48"/>
       <c r="AK66" s="47"/>
-      <c r="AL66" s="90"/>
-      <c r="AM66" s="90"/>
+      <c r="AL66" s="88"/>
+      <c r="AM66" s="88"/>
       <c r="AN66" s="2"/>
-      <c r="AO66" s="93"/>
-      <c r="AP66" s="93"/>
+      <c r="AO66" s="91"/>
+      <c r="AP66" s="91"/>
       <c r="AQ66" s="48"/>
-      <c r="AR66" s="93"/>
-      <c r="AS66" s="93"/>
-      <c r="AT66" s="92"/>
-      <c r="AU66" s="93"/>
+      <c r="AR66" s="91"/>
+      <c r="AS66" s="91"/>
+      <c r="AT66" s="90"/>
+      <c r="AU66" s="91"/>
       <c r="AV66" s="1"/>
       <c r="AW66" s="2"/>
       <c r="AX66" s="2"/>
@@ -9401,16 +9395,16 @@
       <c r="AI67" s="48"/>
       <c r="AJ67" s="48"/>
       <c r="AK67" s="47"/>
-      <c r="AL67" s="90"/>
-      <c r="AM67" s="90"/>
+      <c r="AL67" s="88"/>
+      <c r="AM67" s="88"/>
       <c r="AN67" s="2"/>
-      <c r="AO67" s="93"/>
-      <c r="AP67" s="93"/>
+      <c r="AO67" s="91"/>
+      <c r="AP67" s="91"/>
       <c r="AQ67" s="48"/>
-      <c r="AR67" s="93"/>
-      <c r="AS67" s="93"/>
-      <c r="AT67" s="92"/>
-      <c r="AU67" s="93"/>
+      <c r="AR67" s="91"/>
+      <c r="AS67" s="91"/>
+      <c r="AT67" s="90"/>
+      <c r="AU67" s="91"/>
       <c r="AV67" s="1"/>
       <c r="AW67" s="2"/>
       <c r="AX67" s="2"/>
@@ -9498,16 +9492,16 @@
       <c r="AI68" s="48"/>
       <c r="AJ68" s="48"/>
       <c r="AK68" s="47"/>
-      <c r="AL68" s="90"/>
-      <c r="AM68" s="90"/>
+      <c r="AL68" s="88"/>
+      <c r="AM68" s="88"/>
       <c r="AN68" s="2"/>
-      <c r="AO68" s="93"/>
-      <c r="AP68" s="93"/>
+      <c r="AO68" s="91"/>
+      <c r="AP68" s="91"/>
       <c r="AQ68" s="48"/>
-      <c r="AR68" s="94"/>
-      <c r="AS68" s="94"/>
-      <c r="AT68" s="92"/>
-      <c r="AU68" s="93"/>
+      <c r="AR68" s="92"/>
+      <c r="AS68" s="92"/>
+      <c r="AT68" s="90"/>
+      <c r="AU68" s="91"/>
       <c r="AV68" s="1"/>
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
@@ -9580,16 +9574,16 @@
       <c r="AI69" s="48"/>
       <c r="AJ69" s="48"/>
       <c r="AK69" s="47"/>
-      <c r="AL69" s="90"/>
-      <c r="AM69" s="90"/>
+      <c r="AL69" s="88"/>
+      <c r="AM69" s="88"/>
       <c r="AN69" s="2"/>
-      <c r="AO69" s="93"/>
-      <c r="AP69" s="93"/>
+      <c r="AO69" s="91"/>
+      <c r="AP69" s="91"/>
       <c r="AQ69" s="48"/>
-      <c r="AR69" s="94"/>
-      <c r="AS69" s="94"/>
-      <c r="AT69" s="92"/>
-      <c r="AU69" s="93"/>
+      <c r="AR69" s="92"/>
+      <c r="AS69" s="92"/>
+      <c r="AT69" s="90"/>
+      <c r="AU69" s="91"/>
       <c r="AV69" s="1"/>
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
@@ -9686,18 +9680,18 @@
       <c r="AI70" s="48"/>
       <c r="AJ70" s="48"/>
       <c r="AK70" s="47"/>
-      <c r="AL70" s="90">
+      <c r="AL70" s="88">
         <v>1036700000</v>
       </c>
-      <c r="AM70" s="90"/>
+      <c r="AM70" s="88"/>
       <c r="AN70" s="2"/>
-      <c r="AO70" s="93"/>
-      <c r="AP70" s="93"/>
+      <c r="AO70" s="91"/>
+      <c r="AP70" s="91"/>
       <c r="AQ70" s="48"/>
-      <c r="AR70" s="94"/>
-      <c r="AS70" s="94"/>
-      <c r="AT70" s="92"/>
-      <c r="AU70" s="93"/>
+      <c r="AR70" s="92"/>
+      <c r="AS70" s="92"/>
+      <c r="AT70" s="90"/>
+      <c r="AU70" s="91"/>
       <c r="AV70" s="1"/>
       <c r="AW70" s="2"/>
       <c r="AX70" s="2"/>
@@ -9788,18 +9782,18 @@
       <c r="AI71" s="48"/>
       <c r="AJ71" s="48"/>
       <c r="AK71" s="47"/>
-      <c r="AL71" s="90">
+      <c r="AL71" s="88">
         <v>1046900000</v>
       </c>
-      <c r="AM71" s="90"/>
+      <c r="AM71" s="88"/>
       <c r="AN71" s="2"/>
-      <c r="AO71" s="93"/>
-      <c r="AP71" s="93"/>
+      <c r="AO71" s="91"/>
+      <c r="AP71" s="91"/>
       <c r="AQ71" s="48"/>
-      <c r="AR71" s="94"/>
-      <c r="AS71" s="94"/>
-      <c r="AT71" s="92"/>
-      <c r="AU71" s="93"/>
+      <c r="AR71" s="92"/>
+      <c r="AS71" s="92"/>
+      <c r="AT71" s="90"/>
+      <c r="AU71" s="91"/>
       <c r="AV71" s="1"/>
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
@@ -9890,18 +9884,18 @@
       <c r="AI72" s="48"/>
       <c r="AJ72" s="48"/>
       <c r="AK72" s="47"/>
-      <c r="AL72" s="90">
+      <c r="AL72" s="88">
         <v>1046900000</v>
       </c>
-      <c r="AM72" s="90"/>
+      <c r="AM72" s="88"/>
       <c r="AN72" s="2"/>
-      <c r="AO72" s="93"/>
-      <c r="AP72" s="93"/>
+      <c r="AO72" s="91"/>
+      <c r="AP72" s="91"/>
       <c r="AQ72" s="48"/>
-      <c r="AR72" s="94"/>
-      <c r="AS72" s="94"/>
-      <c r="AT72" s="92"/>
-      <c r="AU72" s="93"/>
+      <c r="AR72" s="92"/>
+      <c r="AS72" s="92"/>
+      <c r="AT72" s="90"/>
+      <c r="AU72" s="91"/>
       <c r="AV72" s="1"/>
       <c r="AW72" s="2"/>
       <c r="AX72" s="2"/>
@@ -9992,16 +9986,16 @@
       <c r="AI73" s="48"/>
       <c r="AJ73" s="48"/>
       <c r="AK73" s="47"/>
-      <c r="AL73" s="90"/>
-      <c r="AM73" s="90"/>
+      <c r="AL73" s="88"/>
+      <c r="AM73" s="88"/>
       <c r="AN73" s="2"/>
-      <c r="AO73" s="93"/>
-      <c r="AP73" s="93"/>
+      <c r="AO73" s="91"/>
+      <c r="AP73" s="91"/>
       <c r="AQ73" s="48"/>
-      <c r="AR73" s="94"/>
-      <c r="AS73" s="94"/>
-      <c r="AT73" s="92"/>
-      <c r="AU73" s="93"/>
+      <c r="AR73" s="92"/>
+      <c r="AS73" s="92"/>
+      <c r="AT73" s="90"/>
+      <c r="AU73" s="91"/>
       <c r="AV73" s="1"/>
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
@@ -10092,16 +10086,16 @@
       <c r="AI74" s="48"/>
       <c r="AJ74" s="48"/>
       <c r="AK74" s="47"/>
-      <c r="AL74" s="90"/>
-      <c r="AM74" s="90"/>
+      <c r="AL74" s="88"/>
+      <c r="AM74" s="88"/>
       <c r="AN74" s="2"/>
-      <c r="AO74" s="93"/>
-      <c r="AP74" s="93"/>
+      <c r="AO74" s="91"/>
+      <c r="AP74" s="91"/>
       <c r="AQ74" s="48"/>
-      <c r="AR74" s="94"/>
-      <c r="AS74" s="94"/>
-      <c r="AT74" s="92"/>
-      <c r="AU74" s="93"/>
+      <c r="AR74" s="92"/>
+      <c r="AS74" s="92"/>
+      <c r="AT74" s="90"/>
+      <c r="AU74" s="91"/>
       <c r="AV74" s="1"/>
       <c r="AW74" s="2"/>
       <c r="AX74" s="2"/>
@@ -10192,16 +10186,16 @@
       <c r="AI75" s="48"/>
       <c r="AJ75" s="48"/>
       <c r="AK75" s="47"/>
-      <c r="AL75" s="90"/>
-      <c r="AM75" s="90"/>
+      <c r="AL75" s="88"/>
+      <c r="AM75" s="88"/>
       <c r="AN75" s="2"/>
-      <c r="AO75" s="93"/>
-      <c r="AP75" s="93"/>
+      <c r="AO75" s="91"/>
+      <c r="AP75" s="91"/>
       <c r="AQ75" s="48"/>
-      <c r="AR75" s="94"/>
-      <c r="AS75" s="94"/>
-      <c r="AT75" s="92"/>
-      <c r="AU75" s="93"/>
+      <c r="AR75" s="92"/>
+      <c r="AS75" s="92"/>
+      <c r="AT75" s="90"/>
+      <c r="AU75" s="91"/>
       <c r="AV75" s="1"/>
       <c r="AW75" s="2"/>
       <c r="AX75" s="2"/>
@@ -10292,16 +10286,16 @@
       <c r="AI76" s="48"/>
       <c r="AJ76" s="48"/>
       <c r="AK76" s="47"/>
-      <c r="AL76" s="90"/>
-      <c r="AM76" s="90"/>
+      <c r="AL76" s="88"/>
+      <c r="AM76" s="88"/>
       <c r="AN76" s="2"/>
-      <c r="AO76" s="93"/>
-      <c r="AP76" s="93"/>
+      <c r="AO76" s="91"/>
+      <c r="AP76" s="91"/>
       <c r="AQ76" s="48"/>
-      <c r="AR76" s="94"/>
-      <c r="AS76" s="94"/>
-      <c r="AT76" s="92"/>
-      <c r="AU76" s="93"/>
+      <c r="AR76" s="92"/>
+      <c r="AS76" s="92"/>
+      <c r="AT76" s="90"/>
+      <c r="AU76" s="91"/>
       <c r="AV76" s="1"/>
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
@@ -10392,16 +10386,16 @@
       <c r="AI77" s="48"/>
       <c r="AJ77" s="48"/>
       <c r="AK77" s="47"/>
-      <c r="AL77" s="90"/>
-      <c r="AM77" s="90"/>
+      <c r="AL77" s="88"/>
+      <c r="AM77" s="88"/>
       <c r="AN77" s="2"/>
-      <c r="AO77" s="93"/>
-      <c r="AP77" s="93"/>
+      <c r="AO77" s="91"/>
+      <c r="AP77" s="91"/>
       <c r="AQ77" s="48"/>
-      <c r="AR77" s="94"/>
-      <c r="AS77" s="94"/>
-      <c r="AT77" s="92"/>
-      <c r="AU77" s="93"/>
+      <c r="AR77" s="92"/>
+      <c r="AS77" s="92"/>
+      <c r="AT77" s="90"/>
+      <c r="AU77" s="91"/>
       <c r="AV77" s="1"/>
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
@@ -10492,16 +10486,16 @@
       <c r="AI78" s="48"/>
       <c r="AJ78" s="48"/>
       <c r="AK78" s="47"/>
-      <c r="AL78" s="90"/>
-      <c r="AM78" s="90"/>
+      <c r="AL78" s="88"/>
+      <c r="AM78" s="88"/>
       <c r="AN78" s="2"/>
-      <c r="AO78" s="93"/>
-      <c r="AP78" s="93"/>
+      <c r="AO78" s="91"/>
+      <c r="AP78" s="91"/>
       <c r="AQ78" s="48"/>
-      <c r="AR78" s="94"/>
-      <c r="AS78" s="94"/>
-      <c r="AT78" s="92"/>
-      <c r="AU78" s="93"/>
+      <c r="AR78" s="92"/>
+      <c r="AS78" s="92"/>
+      <c r="AT78" s="90"/>
+      <c r="AU78" s="91"/>
       <c r="AV78" s="1"/>
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
@@ -10592,16 +10586,16 @@
       <c r="AI79" s="48"/>
       <c r="AJ79" s="48"/>
       <c r="AK79" s="47"/>
-      <c r="AL79" s="90"/>
-      <c r="AM79" s="90"/>
+      <c r="AL79" s="88"/>
+      <c r="AM79" s="88"/>
       <c r="AN79" s="2"/>
-      <c r="AO79" s="93"/>
-      <c r="AP79" s="93"/>
+      <c r="AO79" s="91"/>
+      <c r="AP79" s="91"/>
       <c r="AQ79" s="48"/>
-      <c r="AR79" s="94"/>
-      <c r="AS79" s="94"/>
-      <c r="AT79" s="92"/>
-      <c r="AU79" s="93"/>
+      <c r="AR79" s="92"/>
+      <c r="AS79" s="92"/>
+      <c r="AT79" s="90"/>
+      <c r="AU79" s="91"/>
       <c r="AV79" s="1"/>
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
@@ -10677,16 +10671,16 @@
       <c r="AI80" s="48"/>
       <c r="AJ80" s="48"/>
       <c r="AK80" s="47"/>
-      <c r="AL80" s="96"/>
-      <c r="AM80" s="90"/>
+      <c r="AL80" s="94"/>
+      <c r="AM80" s="88"/>
       <c r="AN80" s="2"/>
-      <c r="AO80" s="93"/>
-      <c r="AP80" s="93"/>
+      <c r="AO80" s="91"/>
+      <c r="AP80" s="91"/>
       <c r="AQ80" s="48"/>
-      <c r="AR80" s="94"/>
-      <c r="AS80" s="94"/>
-      <c r="AT80" s="92"/>
-      <c r="AU80" s="93"/>
+      <c r="AR80" s="92"/>
+      <c r="AS80" s="92"/>
+      <c r="AT80" s="90"/>
+      <c r="AU80" s="91"/>
       <c r="AV80" s="1"/>
       <c r="AW80" s="2"/>
       <c r="AX80" s="2"/>
@@ -10783,20 +10777,20 @@
       <c r="AI81" s="48"/>
       <c r="AJ81" s="48"/>
       <c r="AK81" s="47"/>
-      <c r="AL81" s="96">
+      <c r="AL81" s="94">
         <v>1065493714</v>
       </c>
-      <c r="AM81" s="90">
+      <c r="AM81" s="88">
         <v>1059111534</v>
       </c>
       <c r="AN81" s="2"/>
-      <c r="AO81" s="93"/>
-      <c r="AP81" s="93"/>
+      <c r="AO81" s="91"/>
+      <c r="AP81" s="91"/>
       <c r="AQ81" s="48"/>
-      <c r="AR81" s="94"/>
-      <c r="AS81" s="94"/>
-      <c r="AT81" s="92"/>
-      <c r="AU81" s="93"/>
+      <c r="AR81" s="92"/>
+      <c r="AS81" s="92"/>
+      <c r="AT81" s="90"/>
+      <c r="AU81" s="91"/>
       <c r="AV81" s="1"/>
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
@@ -10887,20 +10881,20 @@
       <c r="AI82" s="48"/>
       <c r="AJ82" s="48"/>
       <c r="AK82" s="47"/>
-      <c r="AL82" s="90">
+      <c r="AL82" s="88">
         <v>763054090</v>
       </c>
-      <c r="AM82" s="90">
+      <c r="AM82" s="88">
         <v>754181690</v>
       </c>
       <c r="AN82" s="2"/>
-      <c r="AO82" s="93"/>
-      <c r="AP82" s="93"/>
+      <c r="AO82" s="91"/>
+      <c r="AP82" s="91"/>
       <c r="AQ82" s="48"/>
-      <c r="AR82" s="94"/>
-      <c r="AS82" s="94"/>
-      <c r="AT82" s="92"/>
-      <c r="AU82" s="93"/>
+      <c r="AR82" s="92"/>
+      <c r="AS82" s="92"/>
+      <c r="AT82" s="90"/>
+      <c r="AU82" s="91"/>
       <c r="AV82" s="1"/>
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
@@ -10991,20 +10985,20 @@
       <c r="AI83" s="48"/>
       <c r="AJ83" s="48"/>
       <c r="AK83" s="47"/>
-      <c r="AL83" s="90">
+      <c r="AL83" s="88">
         <v>754181690</v>
       </c>
-      <c r="AM83" s="90">
+      <c r="AM83" s="88">
         <v>185549690</v>
       </c>
       <c r="AN83" s="2"/>
-      <c r="AO83" s="93"/>
-      <c r="AP83" s="93"/>
+      <c r="AO83" s="91"/>
+      <c r="AP83" s="91"/>
       <c r="AQ83" s="48"/>
-      <c r="AR83" s="94"/>
-      <c r="AS83" s="94"/>
-      <c r="AT83" s="92"/>
-      <c r="AU83" s="93"/>
+      <c r="AR83" s="92"/>
+      <c r="AS83" s="92"/>
+      <c r="AT83" s="90"/>
+      <c r="AU83" s="91"/>
       <c r="AV83" s="1"/>
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
@@ -11095,20 +11089,20 @@
       <c r="AI84" s="48"/>
       <c r="AJ84" s="48"/>
       <c r="AK84" s="47"/>
-      <c r="AL84" s="90">
+      <c r="AL84" s="88">
         <v>630444441</v>
       </c>
-      <c r="AM84" s="90">
+      <c r="AM84" s="88">
         <v>125214750</v>
       </c>
       <c r="AN84" s="2"/>
-      <c r="AO84" s="93"/>
-      <c r="AP84" s="93"/>
+      <c r="AO84" s="91"/>
+      <c r="AP84" s="91"/>
       <c r="AQ84" s="48"/>
-      <c r="AR84" s="94"/>
-      <c r="AS84" s="94"/>
-      <c r="AT84" s="92"/>
-      <c r="AU84" s="93"/>
+      <c r="AR84" s="92"/>
+      <c r="AS84" s="92"/>
+      <c r="AT84" s="90"/>
+      <c r="AU84" s="91"/>
       <c r="AV84" s="1"/>
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
@@ -11199,19 +11193,19 @@
       <c r="AI85" s="48"/>
       <c r="AJ85" s="48"/>
       <c r="AK85" s="47"/>
-      <c r="AL85" s="90">
+      <c r="AL85" s="88">
         <f>41315.5*10000</f>
         <v>413155000</v>
       </c>
-      <c r="AM85" s="90"/>
+      <c r="AM85" s="88"/>
       <c r="AN85" s="2"/>
-      <c r="AO85" s="93"/>
-      <c r="AP85" s="93"/>
+      <c r="AO85" s="91"/>
+      <c r="AP85" s="91"/>
       <c r="AQ85" s="48"/>
-      <c r="AR85" s="94"/>
-      <c r="AS85" s="94"/>
-      <c r="AT85" s="92"/>
-      <c r="AU85" s="93"/>
+      <c r="AR85" s="92"/>
+      <c r="AS85" s="92"/>
+      <c r="AT85" s="90"/>
+      <c r="AU85" s="91"/>
       <c r="AV85" s="1"/>
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
@@ -11302,19 +11296,19 @@
       <c r="AI86" s="48"/>
       <c r="AJ86" s="48"/>
       <c r="AK86" s="47"/>
-      <c r="AL86" s="90">
+      <c r="AL86" s="88">
         <f>37183.5*10000</f>
         <v>371835000</v>
       </c>
-      <c r="AM86" s="90"/>
+      <c r="AM86" s="88"/>
       <c r="AN86" s="2"/>
-      <c r="AO86" s="93"/>
-      <c r="AP86" s="93"/>
+      <c r="AO86" s="91"/>
+      <c r="AP86" s="91"/>
       <c r="AQ86" s="48"/>
-      <c r="AR86" s="94"/>
-      <c r="AS86" s="94"/>
-      <c r="AT86" s="92"/>
-      <c r="AU86" s="93"/>
+      <c r="AR86" s="92"/>
+      <c r="AS86" s="92"/>
+      <c r="AT86" s="90"/>
+      <c r="AU86" s="91"/>
       <c r="AV86" s="1"/>
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
@@ -11405,16 +11399,16 @@
       <c r="AI87" s="48"/>
       <c r="AJ87" s="48"/>
       <c r="AK87" s="47"/>
-      <c r="AL87" s="90"/>
-      <c r="AM87" s="90"/>
+      <c r="AL87" s="88"/>
+      <c r="AM87" s="88"/>
       <c r="AN87" s="2"/>
-      <c r="AO87" s="93"/>
-      <c r="AP87" s="93"/>
+      <c r="AO87" s="91"/>
+      <c r="AP87" s="91"/>
       <c r="AQ87" s="48"/>
-      <c r="AR87" s="94"/>
-      <c r="AS87" s="94"/>
-      <c r="AT87" s="92"/>
-      <c r="AU87" s="93"/>
+      <c r="AR87" s="92"/>
+      <c r="AS87" s="92"/>
+      <c r="AT87" s="90"/>
+      <c r="AU87" s="91"/>
       <c r="AV87" s="1"/>
       <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
@@ -11505,16 +11499,16 @@
       <c r="AI88" s="48"/>
       <c r="AJ88" s="48"/>
       <c r="AK88" s="47"/>
-      <c r="AL88" s="90"/>
-      <c r="AM88" s="90"/>
+      <c r="AL88" s="88"/>
+      <c r="AM88" s="88"/>
       <c r="AN88" s="2"/>
-      <c r="AO88" s="93"/>
-      <c r="AP88" s="93"/>
+      <c r="AO88" s="91"/>
+      <c r="AP88" s="91"/>
       <c r="AQ88" s="48"/>
-      <c r="AR88" s="94"/>
-      <c r="AS88" s="94"/>
-      <c r="AT88" s="92"/>
-      <c r="AU88" s="93"/>
+      <c r="AR88" s="92"/>
+      <c r="AS88" s="92"/>
+      <c r="AT88" s="90"/>
+      <c r="AU88" s="91"/>
       <c r="AV88" s="1"/>
       <c r="AW88" s="2"/>
       <c r="AX88" s="2"/>
@@ -11596,16 +11590,16 @@
       <c r="AI89" s="48"/>
       <c r="AJ89" s="48"/>
       <c r="AK89" s="47"/>
-      <c r="AL89" s="90"/>
-      <c r="AM89" s="90"/>
+      <c r="AL89" s="88"/>
+      <c r="AM89" s="88"/>
       <c r="AN89" s="2"/>
-      <c r="AO89" s="93"/>
-      <c r="AP89" s="93"/>
+      <c r="AO89" s="91"/>
+      <c r="AP89" s="91"/>
       <c r="AQ89" s="48"/>
-      <c r="AR89" s="94"/>
-      <c r="AS89" s="94"/>
-      <c r="AT89" s="92"/>
-      <c r="AU89" s="93"/>
+      <c r="AR89" s="92"/>
+      <c r="AS89" s="92"/>
+      <c r="AT89" s="90"/>
+      <c r="AU89" s="91"/>
       <c r="AV89" s="1"/>
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
@@ -11687,16 +11681,16 @@
       <c r="AI90" s="48"/>
       <c r="AJ90" s="48"/>
       <c r="AK90" s="47"/>
-      <c r="AL90" s="90"/>
-      <c r="AM90" s="90"/>
+      <c r="AL90" s="88"/>
+      <c r="AM90" s="88"/>
       <c r="AN90" s="2"/>
-      <c r="AO90" s="93"/>
-      <c r="AP90" s="93"/>
+      <c r="AO90" s="91"/>
+      <c r="AP90" s="91"/>
       <c r="AQ90" s="48"/>
-      <c r="AR90" s="94"/>
-      <c r="AS90" s="94"/>
-      <c r="AT90" s="92"/>
-      <c r="AU90" s="93"/>
+      <c r="AR90" s="92"/>
+      <c r="AS90" s="92"/>
+      <c r="AT90" s="90"/>
+      <c r="AU90" s="91"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
@@ -11778,22 +11772,22 @@
       <c r="AI91" s="48"/>
       <c r="AJ91" s="48"/>
       <c r="AK91" s="47"/>
-      <c r="AL91" s="90">
+      <c r="AL91" s="88">
         <f>40001*10000</f>
         <v>400010000</v>
       </c>
-      <c r="AM91" s="90">
+      <c r="AM91" s="88">
         <f>15881*10000</f>
         <v>158810000</v>
       </c>
       <c r="AN91" s="2"/>
-      <c r="AO91" s="93"/>
-      <c r="AP91" s="93"/>
+      <c r="AO91" s="91"/>
+      <c r="AP91" s="91"/>
       <c r="AQ91" s="48"/>
-      <c r="AR91" s="94"/>
-      <c r="AS91" s="94"/>
-      <c r="AT91" s="92"/>
-      <c r="AU91" s="93"/>
+      <c r="AR91" s="92"/>
+      <c r="AS91" s="92"/>
+      <c r="AT91" s="90"/>
+      <c r="AU91" s="91"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
@@ -11860,22 +11854,22 @@
       <c r="AI92" s="48"/>
       <c r="AJ92" s="48"/>
       <c r="AK92" s="47"/>
-      <c r="AL92" s="90">
+      <c r="AL92" s="88">
         <f>40001*10000</f>
         <v>400010000</v>
       </c>
-      <c r="AM92" s="90">
+      <c r="AM92" s="88">
         <f>4001*10000</f>
         <v>40010000</v>
       </c>
       <c r="AN92" s="2"/>
-      <c r="AO92" s="93"/>
-      <c r="AP92" s="93"/>
+      <c r="AO92" s="91"/>
+      <c r="AP92" s="91"/>
       <c r="AQ92" s="48"/>
-      <c r="AR92" s="94"/>
-      <c r="AS92" s="94"/>
-      <c r="AT92" s="92"/>
-      <c r="AU92" s="93"/>
+      <c r="AR92" s="92"/>
+      <c r="AS92" s="92"/>
+      <c r="AT92" s="90"/>
+      <c r="AU92" s="91"/>
       <c r="AV92" s="1"/>
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
@@ -11972,22 +11966,22 @@
       <c r="AI93" s="48"/>
       <c r="AJ93" s="48"/>
       <c r="AK93" s="47"/>
-      <c r="AL93" s="90">
+      <c r="AL93" s="88">
         <f>36000*10000</f>
         <v>360000000</v>
       </c>
-      <c r="AM93" s="90">
+      <c r="AM93" s="88">
         <f>4001*10000</f>
         <v>40010000</v>
       </c>
       <c r="AN93" s="2"/>
-      <c r="AO93" s="93"/>
-      <c r="AP93" s="93"/>
+      <c r="AO93" s="91"/>
+      <c r="AP93" s="91"/>
       <c r="AQ93" s="48"/>
-      <c r="AR93" s="94"/>
-      <c r="AS93" s="94"/>
-      <c r="AT93" s="92"/>
-      <c r="AU93" s="93"/>
+      <c r="AR93" s="92"/>
+      <c r="AS93" s="92"/>
+      <c r="AT93" s="90"/>
+      <c r="AU93" s="91"/>
       <c r="AV93" s="1"/>
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
@@ -12078,16 +12072,16 @@
       <c r="AI94" s="48"/>
       <c r="AJ94" s="48"/>
       <c r="AK94" s="47"/>
-      <c r="AL94" s="90"/>
-      <c r="AM94" s="90"/>
+      <c r="AL94" s="88"/>
+      <c r="AM94" s="88"/>
       <c r="AN94" s="2"/>
-      <c r="AO94" s="93"/>
-      <c r="AP94" s="93"/>
+      <c r="AO94" s="91"/>
+      <c r="AP94" s="91"/>
       <c r="AQ94" s="48"/>
-      <c r="AR94" s="94"/>
-      <c r="AS94" s="94"/>
-      <c r="AT94" s="92"/>
-      <c r="AU94" s="93"/>
+      <c r="AR94" s="92"/>
+      <c r="AS94" s="92"/>
+      <c r="AT94" s="90"/>
+      <c r="AU94" s="91"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
@@ -12178,16 +12172,16 @@
       <c r="AI95" s="48"/>
       <c r="AJ95" s="48"/>
       <c r="AK95" s="47"/>
-      <c r="AL95" s="90"/>
-      <c r="AM95" s="90"/>
+      <c r="AL95" s="88"/>
+      <c r="AM95" s="88"/>
       <c r="AN95" s="2"/>
-      <c r="AO95" s="93"/>
-      <c r="AP95" s="93"/>
+      <c r="AO95" s="91"/>
+      <c r="AP95" s="91"/>
       <c r="AQ95" s="48"/>
-      <c r="AR95" s="94"/>
-      <c r="AS95" s="94"/>
-      <c r="AT95" s="92"/>
-      <c r="AU95" s="93"/>
+      <c r="AR95" s="92"/>
+      <c r="AS95" s="92"/>
+      <c r="AT95" s="90"/>
+      <c r="AU95" s="91"/>
       <c r="AV95" s="1"/>
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
@@ -12278,16 +12272,16 @@
       <c r="AI96" s="48"/>
       <c r="AJ96" s="48"/>
       <c r="AK96" s="47"/>
-      <c r="AL96" s="90"/>
-      <c r="AM96" s="90"/>
+      <c r="AL96" s="88"/>
+      <c r="AM96" s="88"/>
       <c r="AN96" s="2"/>
-      <c r="AO96" s="93"/>
-      <c r="AP96" s="93"/>
+      <c r="AO96" s="91"/>
+      <c r="AP96" s="91"/>
       <c r="AQ96" s="48"/>
-      <c r="AR96" s="94"/>
-      <c r="AS96" s="94"/>
-      <c r="AT96" s="92"/>
-      <c r="AU96" s="93"/>
+      <c r="AR96" s="92"/>
+      <c r="AS96" s="92"/>
+      <c r="AT96" s="90"/>
+      <c r="AU96" s="91"/>
       <c r="AV96" s="1"/>
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
@@ -12378,16 +12372,16 @@
       <c r="AI97" s="48"/>
       <c r="AJ97" s="48"/>
       <c r="AK97" s="47"/>
-      <c r="AL97" s="90"/>
-      <c r="AM97" s="90"/>
+      <c r="AL97" s="88"/>
+      <c r="AM97" s="88"/>
       <c r="AN97" s="2"/>
-      <c r="AO97" s="93"/>
-      <c r="AP97" s="93"/>
+      <c r="AO97" s="91"/>
+      <c r="AP97" s="91"/>
       <c r="AQ97" s="48"/>
-      <c r="AR97" s="94"/>
-      <c r="AS97" s="94"/>
-      <c r="AT97" s="92"/>
-      <c r="AU97" s="93"/>
+      <c r="AR97" s="92"/>
+      <c r="AS97" s="92"/>
+      <c r="AT97" s="90"/>
+      <c r="AU97" s="91"/>
       <c r="AV97" s="1"/>
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
@@ -12469,16 +12463,16 @@
       <c r="AI98" s="48"/>
       <c r="AJ98" s="48"/>
       <c r="AK98" s="47"/>
-      <c r="AL98" s="90"/>
-      <c r="AM98" s="90"/>
+      <c r="AL98" s="88"/>
+      <c r="AM98" s="88"/>
       <c r="AN98" s="2"/>
-      <c r="AO98" s="93"/>
-      <c r="AP98" s="93"/>
+      <c r="AO98" s="91"/>
+      <c r="AP98" s="91"/>
       <c r="AQ98" s="48"/>
-      <c r="AR98" s="94"/>
-      <c r="AS98" s="94"/>
-      <c r="AT98" s="92"/>
-      <c r="AU98" s="93"/>
+      <c r="AR98" s="92"/>
+      <c r="AS98" s="92"/>
+      <c r="AT98" s="90"/>
+      <c r="AU98" s="91"/>
       <c r="AV98" s="1"/>
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
@@ -12560,16 +12554,16 @@
       <c r="AI99" s="48"/>
       <c r="AJ99" s="48"/>
       <c r="AK99" s="47"/>
-      <c r="AL99" s="90"/>
-      <c r="AM99" s="90"/>
+      <c r="AL99" s="88"/>
+      <c r="AM99" s="88"/>
       <c r="AN99" s="2"/>
-      <c r="AO99" s="93"/>
-      <c r="AP99" s="93"/>
+      <c r="AO99" s="91"/>
+      <c r="AP99" s="91"/>
       <c r="AQ99" s="48"/>
-      <c r="AR99" s="94"/>
-      <c r="AS99" s="94"/>
-      <c r="AT99" s="92"/>
-      <c r="AU99" s="93"/>
+      <c r="AR99" s="92"/>
+      <c r="AS99" s="92"/>
+      <c r="AT99" s="90"/>
+      <c r="AU99" s="91"/>
       <c r="AV99" s="1"/>
       <c r="AW99" s="2"/>
       <c r="AX99" s="2"/>
@@ -12651,16 +12645,16 @@
       <c r="AI100" s="48"/>
       <c r="AJ100" s="48"/>
       <c r="AK100" s="47"/>
-      <c r="AL100" s="90"/>
-      <c r="AM100" s="90"/>
+      <c r="AL100" s="88"/>
+      <c r="AM100" s="88"/>
       <c r="AN100" s="2"/>
-      <c r="AO100" s="93"/>
-      <c r="AP100" s="93"/>
+      <c r="AO100" s="91"/>
+      <c r="AP100" s="91"/>
       <c r="AQ100" s="48"/>
-      <c r="AR100" s="94"/>
-      <c r="AS100" s="94"/>
-      <c r="AT100" s="92"/>
-      <c r="AU100" s="93"/>
+      <c r="AR100" s="92"/>
+      <c r="AS100" s="92"/>
+      <c r="AT100" s="90"/>
+      <c r="AU100" s="91"/>
       <c r="AV100" s="1"/>
       <c r="AW100" s="2"/>
       <c r="AX100" s="2"/>
@@ -12742,20 +12736,20 @@
       <c r="AI101" s="48"/>
       <c r="AJ101" s="48"/>
       <c r="AK101" s="47"/>
-      <c r="AL101" s="90">
+      <c r="AL101" s="88">
         <v>100000000</v>
       </c>
-      <c r="AM101" s="90">
+      <c r="AM101" s="88">
         <v>84644897</v>
       </c>
       <c r="AN101" s="2"/>
-      <c r="AO101" s="93"/>
-      <c r="AP101" s="93"/>
+      <c r="AO101" s="91"/>
+      <c r="AP101" s="91"/>
       <c r="AQ101" s="48"/>
-      <c r="AR101" s="94"/>
-      <c r="AS101" s="94"/>
-      <c r="AT101" s="92"/>
-      <c r="AU101" s="93"/>
+      <c r="AR101" s="92"/>
+      <c r="AS101" s="92"/>
+      <c r="AT101" s="90"/>
+      <c r="AU101" s="91"/>
       <c r="AV101" s="1"/>
       <c r="AW101" s="2"/>
       <c r="AX101" s="2"/>
@@ -12822,20 +12816,20 @@
       <c r="AI102" s="48"/>
       <c r="AJ102" s="48"/>
       <c r="AK102" s="47"/>
-      <c r="AL102" s="90">
+      <c r="AL102" s="88">
         <v>100000000</v>
       </c>
-      <c r="AM102" s="90">
+      <c r="AM102" s="88">
         <v>38688750</v>
       </c>
       <c r="AN102" s="2"/>
-      <c r="AO102" s="93"/>
-      <c r="AP102" s="93"/>
+      <c r="AO102" s="91"/>
+      <c r="AP102" s="91"/>
       <c r="AQ102" s="48"/>
-      <c r="AR102" s="94"/>
-      <c r="AS102" s="94"/>
-      <c r="AT102" s="92"/>
-      <c r="AU102" s="93"/>
+      <c r="AR102" s="92"/>
+      <c r="AS102" s="92"/>
+      <c r="AT102" s="90"/>
+      <c r="AU102" s="91"/>
       <c r="AV102" s="1"/>
       <c r="AW102" s="2"/>
       <c r="AX102" s="2"/>
@@ -12932,20 +12926,20 @@
       <c r="AI103" s="48"/>
       <c r="AJ103" s="48"/>
       <c r="AK103" s="47"/>
-      <c r="AL103" s="90">
+      <c r="AL103" s="88">
         <v>100000000</v>
       </c>
-      <c r="AM103" s="90">
+      <c r="AM103" s="88">
         <v>38688750</v>
       </c>
       <c r="AN103" s="2"/>
-      <c r="AO103" s="93"/>
-      <c r="AP103" s="93"/>
+      <c r="AO103" s="91"/>
+      <c r="AP103" s="91"/>
       <c r="AQ103" s="48"/>
-      <c r="AR103" s="94"/>
-      <c r="AS103" s="94"/>
-      <c r="AT103" s="92"/>
-      <c r="AU103" s="93"/>
+      <c r="AR103" s="92"/>
+      <c r="AS103" s="92"/>
+      <c r="AT103" s="90"/>
+      <c r="AU103" s="91"/>
       <c r="AV103" s="1"/>
       <c r="AW103" s="2"/>
       <c r="AX103" s="2"/>
@@ -13036,20 +13030,20 @@
       <c r="AI104" s="48"/>
       <c r="AJ104" s="48"/>
       <c r="AK104" s="47"/>
-      <c r="AL104" s="90">
+      <c r="AL104" s="88">
         <v>100000000</v>
       </c>
-      <c r="AM104" s="90">
+      <c r="AM104" s="88">
         <v>23710250</v>
       </c>
       <c r="AN104" s="2"/>
-      <c r="AO104" s="93"/>
-      <c r="AP104" s="93"/>
+      <c r="AO104" s="91"/>
+      <c r="AP104" s="91"/>
       <c r="AQ104" s="48"/>
-      <c r="AR104" s="94"/>
-      <c r="AS104" s="94"/>
-      <c r="AT104" s="92"/>
-      <c r="AU104" s="93"/>
+      <c r="AR104" s="92"/>
+      <c r="AS104" s="92"/>
+      <c r="AT104" s="90"/>
+      <c r="AU104" s="91"/>
       <c r="AV104" s="1"/>
       <c r="AW104" s="2"/>
       <c r="AX104" s="2"/>
@@ -13140,16 +13134,16 @@
       <c r="AI105" s="48"/>
       <c r="AJ105" s="48"/>
       <c r="AK105" s="47"/>
-      <c r="AL105" s="90"/>
-      <c r="AM105" s="90"/>
+      <c r="AL105" s="88"/>
+      <c r="AM105" s="88"/>
       <c r="AN105" s="2"/>
-      <c r="AO105" s="93"/>
-      <c r="AP105" s="93"/>
+      <c r="AO105" s="91"/>
+      <c r="AP105" s="91"/>
       <c r="AQ105" s="48"/>
-      <c r="AR105" s="94"/>
-      <c r="AS105" s="94"/>
-      <c r="AT105" s="92"/>
-      <c r="AU105" s="93"/>
+      <c r="AR105" s="92"/>
+      <c r="AS105" s="92"/>
+      <c r="AT105" s="90"/>
+      <c r="AU105" s="91"/>
       <c r="AV105" s="1"/>
       <c r="AW105" s="2"/>
       <c r="AX105" s="2"/>
@@ -13240,16 +13234,16 @@
       <c r="AI106" s="48"/>
       <c r="AJ106" s="48"/>
       <c r="AK106" s="47"/>
-      <c r="AL106" s="90"/>
-      <c r="AM106" s="90"/>
+      <c r="AL106" s="88"/>
+      <c r="AM106" s="88"/>
       <c r="AN106" s="2"/>
-      <c r="AO106" s="93"/>
-      <c r="AP106" s="93"/>
+      <c r="AO106" s="91"/>
+      <c r="AP106" s="91"/>
       <c r="AQ106" s="48"/>
-      <c r="AR106" s="94"/>
-      <c r="AS106" s="94"/>
-      <c r="AT106" s="92"/>
-      <c r="AU106" s="93"/>
+      <c r="AR106" s="92"/>
+      <c r="AS106" s="92"/>
+      <c r="AT106" s="90"/>
+      <c r="AU106" s="91"/>
       <c r="AV106" s="1"/>
       <c r="AW106" s="2"/>
       <c r="AX106" s="2"/>
@@ -13340,16 +13334,16 @@
       <c r="AI107" s="48"/>
       <c r="AJ107" s="48"/>
       <c r="AK107" s="47"/>
-      <c r="AL107" s="90"/>
-      <c r="AM107" s="90"/>
+      <c r="AL107" s="88"/>
+      <c r="AM107" s="88"/>
       <c r="AN107" s="2"/>
-      <c r="AO107" s="93"/>
-      <c r="AP107" s="93"/>
+      <c r="AO107" s="91"/>
+      <c r="AP107" s="91"/>
       <c r="AQ107" s="48"/>
-      <c r="AR107" s="94"/>
-      <c r="AS107" s="94"/>
-      <c r="AT107" s="92"/>
-      <c r="AU107" s="93"/>
+      <c r="AR107" s="92"/>
+      <c r="AS107" s="92"/>
+      <c r="AT107" s="90"/>
+      <c r="AU107" s="91"/>
       <c r="AV107" s="1"/>
       <c r="AW107" s="2"/>
       <c r="AX107" s="2"/>
@@ -13440,16 +13434,16 @@
       <c r="AI108" s="48"/>
       <c r="AJ108" s="48"/>
       <c r="AK108" s="47"/>
-      <c r="AL108" s="90"/>
-      <c r="AM108" s="90"/>
+      <c r="AL108" s="88"/>
+      <c r="AM108" s="88"/>
       <c r="AN108" s="2"/>
-      <c r="AO108" s="93"/>
-      <c r="AP108" s="93"/>
+      <c r="AO108" s="91"/>
+      <c r="AP108" s="91"/>
       <c r="AQ108" s="48"/>
-      <c r="AR108" s="94"/>
-      <c r="AS108" s="94"/>
-      <c r="AT108" s="92"/>
-      <c r="AU108" s="93"/>
+      <c r="AR108" s="92"/>
+      <c r="AS108" s="92"/>
+      <c r="AT108" s="90"/>
+      <c r="AU108" s="91"/>
       <c r="AV108" s="1"/>
       <c r="AW108" s="2"/>
       <c r="AX108" s="2"/>
@@ -13540,16 +13534,16 @@
       <c r="AI109" s="48"/>
       <c r="AJ109" s="48"/>
       <c r="AK109" s="47"/>
-      <c r="AL109" s="90"/>
-      <c r="AM109" s="90"/>
+      <c r="AL109" s="88"/>
+      <c r="AM109" s="88"/>
       <c r="AN109" s="2"/>
-      <c r="AO109" s="93"/>
-      <c r="AP109" s="93"/>
+      <c r="AO109" s="91"/>
+      <c r="AP109" s="91"/>
       <c r="AQ109" s="48"/>
-      <c r="AR109" s="94"/>
-      <c r="AS109" s="94"/>
-      <c r="AT109" s="92"/>
-      <c r="AU109" s="93"/>
+      <c r="AR109" s="92"/>
+      <c r="AS109" s="92"/>
+      <c r="AT109" s="90"/>
+      <c r="AU109" s="91"/>
       <c r="AV109" s="1"/>
       <c r="AW109" s="2"/>
       <c r="AX109" s="2"/>
@@ -13631,16 +13625,16 @@
       <c r="AI110" s="48"/>
       <c r="AJ110" s="48"/>
       <c r="AK110" s="47"/>
-      <c r="AL110" s="90"/>
-      <c r="AM110" s="90"/>
+      <c r="AL110" s="88"/>
+      <c r="AM110" s="88"/>
       <c r="AN110" s="2"/>
-      <c r="AO110" s="93"/>
-      <c r="AP110" s="93"/>
+      <c r="AO110" s="91"/>
+      <c r="AP110" s="91"/>
       <c r="AQ110" s="48"/>
-      <c r="AR110" s="94"/>
-      <c r="AS110" s="94"/>
-      <c r="AT110" s="92"/>
-      <c r="AU110" s="93"/>
+      <c r="AR110" s="92"/>
+      <c r="AS110" s="92"/>
+      <c r="AT110" s="90"/>
+      <c r="AU110" s="91"/>
       <c r="AV110" s="1"/>
       <c r="AW110" s="2"/>
       <c r="AX110" s="2"/>
@@ -13719,16 +13713,16 @@
       <c r="AI111" s="48"/>
       <c r="AJ111" s="48"/>
       <c r="AK111" s="47"/>
-      <c r="AL111" s="90"/>
-      <c r="AM111" s="90"/>
+      <c r="AL111" s="88"/>
+      <c r="AM111" s="88"/>
       <c r="AN111" s="2"/>
-      <c r="AO111" s="93"/>
-      <c r="AP111" s="93"/>
+      <c r="AO111" s="91"/>
+      <c r="AP111" s="91"/>
       <c r="AQ111" s="48"/>
-      <c r="AR111" s="93"/>
-      <c r="AS111" s="93"/>
-      <c r="AT111" s="92"/>
-      <c r="AU111" s="93"/>
+      <c r="AR111" s="91"/>
+      <c r="AS111" s="91"/>
+      <c r="AT111" s="90"/>
+      <c r="AU111" s="91"/>
       <c r="AV111" s="1"/>
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
@@ -13801,16 +13795,16 @@
       <c r="AI112" s="48"/>
       <c r="AJ112" s="48"/>
       <c r="AK112" s="47"/>
-      <c r="AL112" s="90"/>
-      <c r="AM112" s="90"/>
+      <c r="AL112" s="88"/>
+      <c r="AM112" s="88"/>
       <c r="AN112" s="2"/>
-      <c r="AO112" s="93"/>
-      <c r="AP112" s="93"/>
+      <c r="AO112" s="91"/>
+      <c r="AP112" s="91"/>
       <c r="AQ112" s="48"/>
-      <c r="AR112" s="93"/>
-      <c r="AS112" s="93"/>
-      <c r="AT112" s="92"/>
-      <c r="AU112" s="93"/>
+      <c r="AR112" s="91"/>
+      <c r="AS112" s="91"/>
+      <c r="AT112" s="90"/>
+      <c r="AU112" s="91"/>
       <c r="AV112" s="1"/>
       <c r="AW112" s="2"/>
       <c r="AX112" s="2"/>
@@ -13896,16 +13890,16 @@
       <c r="AI113" s="48"/>
       <c r="AJ113" s="48"/>
       <c r="AK113" s="47"/>
-      <c r="AL113" s="90"/>
-      <c r="AM113" s="90"/>
+      <c r="AL113" s="88"/>
+      <c r="AM113" s="88"/>
       <c r="AN113" s="2"/>
-      <c r="AO113" s="93"/>
-      <c r="AP113" s="93"/>
+      <c r="AO113" s="91"/>
+      <c r="AP113" s="91"/>
       <c r="AQ113" s="48"/>
-      <c r="AR113" s="93"/>
-      <c r="AS113" s="93"/>
-      <c r="AT113" s="92"/>
-      <c r="AU113" s="93"/>
+      <c r="AR113" s="91"/>
+      <c r="AS113" s="91"/>
+      <c r="AT113" s="90"/>
+      <c r="AU113" s="91"/>
       <c r="AV113" s="1"/>
       <c r="AW113" s="2"/>
       <c r="AX113" s="2"/>
@@ -13987,16 +13981,16 @@
       <c r="AI114" s="48"/>
       <c r="AJ114" s="48"/>
       <c r="AK114" s="47"/>
-      <c r="AL114" s="90"/>
-      <c r="AM114" s="90"/>
+      <c r="AL114" s="88"/>
+      <c r="AM114" s="88"/>
       <c r="AN114" s="2"/>
-      <c r="AO114" s="93"/>
-      <c r="AP114" s="93"/>
+      <c r="AO114" s="91"/>
+      <c r="AP114" s="91"/>
       <c r="AQ114" s="48"/>
-      <c r="AR114" s="93"/>
-      <c r="AS114" s="93"/>
-      <c r="AT114" s="92"/>
-      <c r="AU114" s="93"/>
+      <c r="AR114" s="91"/>
+      <c r="AS114" s="91"/>
+      <c r="AT114" s="90"/>
+      <c r="AU114" s="91"/>
       <c r="AV114" s="1"/>
       <c r="AW114" s="2"/>
       <c r="AX114" s="2"/>
@@ -14078,16 +14072,16 @@
       <c r="AI115" s="48"/>
       <c r="AJ115" s="48"/>
       <c r="AK115" s="47"/>
-      <c r="AL115" s="90"/>
-      <c r="AM115" s="90"/>
+      <c r="AL115" s="88"/>
+      <c r="AM115" s="88"/>
       <c r="AN115" s="2"/>
-      <c r="AO115" s="93"/>
-      <c r="AP115" s="93"/>
+      <c r="AO115" s="91"/>
+      <c r="AP115" s="91"/>
       <c r="AQ115" s="48"/>
-      <c r="AR115" s="93"/>
-      <c r="AS115" s="93"/>
-      <c r="AT115" s="92"/>
-      <c r="AU115" s="93"/>
+      <c r="AR115" s="91"/>
+      <c r="AS115" s="91"/>
+      <c r="AT115" s="90"/>
+      <c r="AU115" s="91"/>
       <c r="AV115" s="1"/>
       <c r="AW115" s="2"/>
       <c r="AX115" s="2"/>
@@ -14169,16 +14163,16 @@
       <c r="AI116" s="48"/>
       <c r="AJ116" s="48"/>
       <c r="AK116" s="47"/>
-      <c r="AL116" s="90"/>
-      <c r="AM116" s="90"/>
+      <c r="AL116" s="88"/>
+      <c r="AM116" s="88"/>
       <c r="AN116" s="2"/>
-      <c r="AO116" s="93"/>
-      <c r="AP116" s="93"/>
+      <c r="AO116" s="91"/>
+      <c r="AP116" s="91"/>
       <c r="AQ116" s="48"/>
-      <c r="AR116" s="93"/>
-      <c r="AS116" s="93"/>
-      <c r="AT116" s="92"/>
-      <c r="AU116" s="93"/>
+      <c r="AR116" s="91"/>
+      <c r="AS116" s="91"/>
+      <c r="AT116" s="90"/>
+      <c r="AU116" s="91"/>
       <c r="AV116" s="1"/>
       <c r="AW116" s="2"/>
       <c r="AX116" s="2"/>
@@ -14260,16 +14254,16 @@
       <c r="AI117" s="48"/>
       <c r="AJ117" s="48"/>
       <c r="AK117" s="47"/>
-      <c r="AL117" s="90"/>
-      <c r="AM117" s="90"/>
+      <c r="AL117" s="88"/>
+      <c r="AM117" s="88"/>
       <c r="AN117" s="2"/>
-      <c r="AO117" s="93"/>
-      <c r="AP117" s="93"/>
+      <c r="AO117" s="91"/>
+      <c r="AP117" s="91"/>
       <c r="AQ117" s="48"/>
-      <c r="AR117" s="93"/>
-      <c r="AS117" s="93"/>
-      <c r="AT117" s="92"/>
-      <c r="AU117" s="93"/>
+      <c r="AR117" s="91"/>
+      <c r="AS117" s="91"/>
+      <c r="AT117" s="90"/>
+      <c r="AU117" s="91"/>
       <c r="AV117" s="1"/>
       <c r="AW117" s="2"/>
       <c r="AX117" s="2"/>
@@ -14351,16 +14345,16 @@
       <c r="AI118" s="48"/>
       <c r="AJ118" s="48"/>
       <c r="AK118" s="47"/>
-      <c r="AL118" s="90"/>
-      <c r="AM118" s="90"/>
+      <c r="AL118" s="88"/>
+      <c r="AM118" s="88"/>
       <c r="AN118" s="2"/>
-      <c r="AO118" s="93"/>
-      <c r="AP118" s="93"/>
+      <c r="AO118" s="91"/>
+      <c r="AP118" s="91"/>
       <c r="AQ118" s="48"/>
-      <c r="AR118" s="93"/>
-      <c r="AS118" s="93"/>
-      <c r="AT118" s="92"/>
-      <c r="AU118" s="93"/>
+      <c r="AR118" s="91"/>
+      <c r="AS118" s="91"/>
+      <c r="AT118" s="90"/>
+      <c r="AU118" s="91"/>
       <c r="AV118" s="1"/>
       <c r="AW118" s="2"/>
       <c r="AX118" s="2"/>
@@ -14442,16 +14436,16 @@
       <c r="AI119" s="48"/>
       <c r="AJ119" s="48"/>
       <c r="AK119" s="47"/>
-      <c r="AL119" s="90"/>
-      <c r="AM119" s="90"/>
+      <c r="AL119" s="88"/>
+      <c r="AM119" s="88"/>
       <c r="AN119" s="2"/>
-      <c r="AO119" s="93"/>
-      <c r="AP119" s="93"/>
+      <c r="AO119" s="91"/>
+      <c r="AP119" s="91"/>
       <c r="AQ119" s="48"/>
-      <c r="AR119" s="93"/>
-      <c r="AS119" s="93"/>
-      <c r="AT119" s="92"/>
-      <c r="AU119" s="93"/>
+      <c r="AR119" s="91"/>
+      <c r="AS119" s="91"/>
+      <c r="AT119" s="90"/>
+      <c r="AU119" s="91"/>
       <c r="AV119" s="1"/>
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
@@ -14533,16 +14527,16 @@
       <c r="AI120" s="48"/>
       <c r="AJ120" s="48"/>
       <c r="AK120" s="47"/>
-      <c r="AL120" s="90"/>
-      <c r="AM120" s="90"/>
+      <c r="AL120" s="88"/>
+      <c r="AM120" s="88"/>
       <c r="AN120" s="2"/>
-      <c r="AO120" s="93"/>
-      <c r="AP120" s="93"/>
+      <c r="AO120" s="91"/>
+      <c r="AP120" s="91"/>
       <c r="AQ120" s="48"/>
-      <c r="AR120" s="93"/>
-      <c r="AS120" s="93"/>
-      <c r="AT120" s="92"/>
-      <c r="AU120" s="93"/>
+      <c r="AR120" s="91"/>
+      <c r="AS120" s="91"/>
+      <c r="AT120" s="90"/>
+      <c r="AU120" s="91"/>
       <c r="AV120" s="1"/>
       <c r="AW120" s="2"/>
       <c r="AX120" s="2"/>
@@ -14624,16 +14618,16 @@
       <c r="AI121" s="48"/>
       <c r="AJ121" s="48"/>
       <c r="AK121" s="47"/>
-      <c r="AL121" s="90"/>
-      <c r="AM121" s="90"/>
+      <c r="AL121" s="88"/>
+      <c r="AM121" s="88"/>
       <c r="AN121" s="2"/>
-      <c r="AO121" s="93"/>
-      <c r="AP121" s="93"/>
+      <c r="AO121" s="91"/>
+      <c r="AP121" s="91"/>
       <c r="AQ121" s="48"/>
-      <c r="AR121" s="93"/>
-      <c r="AS121" s="93"/>
-      <c r="AT121" s="92"/>
-      <c r="AU121" s="93"/>
+      <c r="AR121" s="91"/>
+      <c r="AS121" s="91"/>
+      <c r="AT121" s="90"/>
+      <c r="AU121" s="91"/>
       <c r="AV121" s="1"/>
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
@@ -14715,16 +14709,16 @@
       <c r="AI122" s="48"/>
       <c r="AJ122" s="48"/>
       <c r="AK122" s="47"/>
-      <c r="AL122" s="90"/>
-      <c r="AM122" s="90"/>
+      <c r="AL122" s="88"/>
+      <c r="AM122" s="88"/>
       <c r="AN122" s="2"/>
-      <c r="AO122" s="93"/>
-      <c r="AP122" s="93"/>
+      <c r="AO122" s="91"/>
+      <c r="AP122" s="91"/>
       <c r="AQ122" s="48"/>
-      <c r="AR122" s="93"/>
-      <c r="AS122" s="93"/>
-      <c r="AT122" s="92"/>
-      <c r="AU122" s="93"/>
+      <c r="AR122" s="91"/>
+      <c r="AS122" s="91"/>
+      <c r="AT122" s="90"/>
+      <c r="AU122" s="91"/>
       <c r="AV122" s="1"/>
       <c r="AW122" s="2"/>
       <c r="AX122" s="2"/>
@@ -14810,16 +14804,16 @@
       <c r="AI123" s="48"/>
       <c r="AJ123" s="48"/>
       <c r="AK123" s="47"/>
-      <c r="AL123" s="90"/>
-      <c r="AM123" s="90"/>
+      <c r="AL123" s="88"/>
+      <c r="AM123" s="88"/>
       <c r="AN123" s="2"/>
-      <c r="AO123" s="93"/>
-      <c r="AP123" s="93"/>
+      <c r="AO123" s="91"/>
+      <c r="AP123" s="91"/>
       <c r="AQ123" s="48"/>
-      <c r="AR123" s="93"/>
-      <c r="AS123" s="93"/>
-      <c r="AT123" s="92"/>
-      <c r="AU123" s="93"/>
+      <c r="AR123" s="91"/>
+      <c r="AS123" s="91"/>
+      <c r="AT123" s="90"/>
+      <c r="AU123" s="91"/>
       <c r="AV123" s="1"/>
       <c r="AW123" s="2"/>
       <c r="AX123" s="2"/>
@@ -14901,16 +14895,16 @@
       <c r="AI124" s="48"/>
       <c r="AJ124" s="48"/>
       <c r="AK124" s="47"/>
-      <c r="AL124" s="90"/>
-      <c r="AM124" s="90"/>
+      <c r="AL124" s="88"/>
+      <c r="AM124" s="88"/>
       <c r="AN124" s="2"/>
-      <c r="AO124" s="93"/>
-      <c r="AP124" s="93"/>
+      <c r="AO124" s="91"/>
+      <c r="AP124" s="91"/>
       <c r="AQ124" s="48"/>
-      <c r="AR124" s="93"/>
-      <c r="AS124" s="93"/>
-      <c r="AT124" s="92"/>
-      <c r="AU124" s="93"/>
+      <c r="AR124" s="91"/>
+      <c r="AS124" s="91"/>
+      <c r="AT124" s="90"/>
+      <c r="AU124" s="91"/>
       <c r="AV124" s="1"/>
       <c r="AW124" s="2"/>
       <c r="AX124" s="2"/>
@@ -14992,16 +14986,16 @@
       <c r="AI125" s="48"/>
       <c r="AJ125" s="48"/>
       <c r="AK125" s="47"/>
-      <c r="AL125" s="90"/>
-      <c r="AM125" s="90"/>
+      <c r="AL125" s="88"/>
+      <c r="AM125" s="88"/>
       <c r="AN125" s="2"/>
-      <c r="AO125" s="93"/>
-      <c r="AP125" s="93"/>
+      <c r="AO125" s="91"/>
+      <c r="AP125" s="91"/>
       <c r="AQ125" s="48"/>
-      <c r="AR125" s="93"/>
-      <c r="AS125" s="93"/>
-      <c r="AT125" s="92"/>
-      <c r="AU125" s="93"/>
+      <c r="AR125" s="91"/>
+      <c r="AS125" s="91"/>
+      <c r="AT125" s="90"/>
+      <c r="AU125" s="91"/>
       <c r="AV125" s="1"/>
       <c r="AW125" s="2"/>
       <c r="AX125" s="2"/>
@@ -15083,16 +15077,16 @@
       <c r="AI126" s="48"/>
       <c r="AJ126" s="48"/>
       <c r="AK126" s="47"/>
-      <c r="AL126" s="90"/>
-      <c r="AM126" s="90"/>
+      <c r="AL126" s="88"/>
+      <c r="AM126" s="88"/>
       <c r="AN126" s="2"/>
-      <c r="AO126" s="93"/>
-      <c r="AP126" s="93"/>
+      <c r="AO126" s="91"/>
+      <c r="AP126" s="91"/>
       <c r="AQ126" s="48"/>
-      <c r="AR126" s="93"/>
-      <c r="AS126" s="93"/>
-      <c r="AT126" s="92"/>
-      <c r="AU126" s="93"/>
+      <c r="AR126" s="91"/>
+      <c r="AS126" s="91"/>
+      <c r="AT126" s="90"/>
+      <c r="AU126" s="91"/>
       <c r="AV126" s="1"/>
       <c r="AW126" s="2"/>
       <c r="AX126" s="2"/>
@@ -15174,16 +15168,16 @@
       <c r="AI127" s="48"/>
       <c r="AJ127" s="48"/>
       <c r="AK127" s="47"/>
-      <c r="AL127" s="90"/>
-      <c r="AM127" s="90"/>
+      <c r="AL127" s="88"/>
+      <c r="AM127" s="88"/>
       <c r="AN127" s="2"/>
-      <c r="AO127" s="93"/>
-      <c r="AP127" s="93"/>
+      <c r="AO127" s="91"/>
+      <c r="AP127" s="91"/>
       <c r="AQ127" s="48"/>
-      <c r="AR127" s="93"/>
-      <c r="AS127" s="93"/>
-      <c r="AT127" s="92"/>
-      <c r="AU127" s="93"/>
+      <c r="AR127" s="91"/>
+      <c r="AS127" s="91"/>
+      <c r="AT127" s="90"/>
+      <c r="AU127" s="91"/>
       <c r="AV127" s="1"/>
       <c r="AW127" s="2"/>
       <c r="AX127" s="2"/>
@@ -15265,16 +15259,16 @@
       <c r="AI128" s="48"/>
       <c r="AJ128" s="48"/>
       <c r="AK128" s="47"/>
-      <c r="AL128" s="90"/>
-      <c r="AM128" s="90"/>
+      <c r="AL128" s="88"/>
+      <c r="AM128" s="88"/>
       <c r="AN128" s="2"/>
-      <c r="AO128" s="93"/>
-      <c r="AP128" s="93"/>
+      <c r="AO128" s="91"/>
+      <c r="AP128" s="91"/>
       <c r="AQ128" s="48"/>
-      <c r="AR128" s="93"/>
-      <c r="AS128" s="93"/>
-      <c r="AT128" s="92"/>
-      <c r="AU128" s="93"/>
+      <c r="AR128" s="91"/>
+      <c r="AS128" s="91"/>
+      <c r="AT128" s="90"/>
+      <c r="AU128" s="91"/>
       <c r="AV128" s="1"/>
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
@@ -15356,16 +15350,16 @@
       <c r="AI129" s="48"/>
       <c r="AJ129" s="48"/>
       <c r="AK129" s="47"/>
-      <c r="AL129" s="90"/>
-      <c r="AM129" s="90"/>
+      <c r="AL129" s="88"/>
+      <c r="AM129" s="88"/>
       <c r="AN129" s="2"/>
-      <c r="AO129" s="93"/>
-      <c r="AP129" s="93"/>
+      <c r="AO129" s="91"/>
+      <c r="AP129" s="91"/>
       <c r="AQ129" s="48"/>
-      <c r="AR129" s="93"/>
-      <c r="AS129" s="93"/>
-      <c r="AT129" s="92"/>
-      <c r="AU129" s="93"/>
+      <c r="AR129" s="91"/>
+      <c r="AS129" s="91"/>
+      <c r="AT129" s="90"/>
+      <c r="AU129" s="91"/>
       <c r="AV129" s="1"/>
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
@@ -15447,16 +15441,16 @@
       <c r="AI130" s="48"/>
       <c r="AJ130" s="48"/>
       <c r="AK130" s="47"/>
-      <c r="AL130" s="90"/>
-      <c r="AM130" s="90"/>
+      <c r="AL130" s="88"/>
+      <c r="AM130" s="88"/>
       <c r="AN130" s="2"/>
-      <c r="AO130" s="93"/>
-      <c r="AP130" s="93"/>
+      <c r="AO130" s="91"/>
+      <c r="AP130" s="91"/>
       <c r="AQ130" s="48"/>
-      <c r="AR130" s="93"/>
-      <c r="AS130" s="93"/>
-      <c r="AT130" s="92"/>
-      <c r="AU130" s="93"/>
+      <c r="AR130" s="91"/>
+      <c r="AS130" s="91"/>
+      <c r="AT130" s="90"/>
+      <c r="AU130" s="91"/>
       <c r="AV130" s="1"/>
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
@@ -15542,16 +15536,16 @@
       <c r="AI131" s="48"/>
       <c r="AJ131" s="48"/>
       <c r="AK131" s="47"/>
-      <c r="AL131" s="90"/>
-      <c r="AM131" s="90"/>
+      <c r="AL131" s="88"/>
+      <c r="AM131" s="88"/>
       <c r="AN131" s="2"/>
-      <c r="AO131" s="93"/>
-      <c r="AP131" s="93"/>
+      <c r="AO131" s="91"/>
+      <c r="AP131" s="91"/>
       <c r="AQ131" s="48"/>
-      <c r="AR131" s="93"/>
-      <c r="AS131" s="93"/>
-      <c r="AT131" s="92"/>
-      <c r="AU131" s="93"/>
+      <c r="AR131" s="91"/>
+      <c r="AS131" s="91"/>
+      <c r="AT131" s="90"/>
+      <c r="AU131" s="91"/>
       <c r="AV131" s="1"/>
       <c r="AW131" s="2"/>
       <c r="AX131" s="2"/>
@@ -15633,16 +15627,16 @@
       <c r="AI132" s="48"/>
       <c r="AJ132" s="48"/>
       <c r="AK132" s="47"/>
-      <c r="AL132" s="90"/>
-      <c r="AM132" s="90"/>
+      <c r="AL132" s="88"/>
+      <c r="AM132" s="88"/>
       <c r="AN132" s="2"/>
-      <c r="AO132" s="93"/>
-      <c r="AP132" s="93"/>
+      <c r="AO132" s="91"/>
+      <c r="AP132" s="91"/>
       <c r="AQ132" s="48"/>
-      <c r="AR132" s="93"/>
-      <c r="AS132" s="93"/>
-      <c r="AT132" s="92"/>
-      <c r="AU132" s="93"/>
+      <c r="AR132" s="91"/>
+      <c r="AS132" s="91"/>
+      <c r="AT132" s="90"/>
+      <c r="AU132" s="91"/>
       <c r="AV132" s="1"/>
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
@@ -15724,16 +15718,16 @@
       <c r="AI133" s="48"/>
       <c r="AJ133" s="48"/>
       <c r="AK133" s="47"/>
-      <c r="AL133" s="90"/>
-      <c r="AM133" s="90"/>
+      <c r="AL133" s="88"/>
+      <c r="AM133" s="88"/>
       <c r="AN133" s="2"/>
-      <c r="AO133" s="93"/>
-      <c r="AP133" s="93"/>
+      <c r="AO133" s="91"/>
+      <c r="AP133" s="91"/>
       <c r="AQ133" s="48"/>
-      <c r="AR133" s="93"/>
-      <c r="AS133" s="93"/>
-      <c r="AT133" s="92"/>
-      <c r="AU133" s="93"/>
+      <c r="AR133" s="91"/>
+      <c r="AS133" s="91"/>
+      <c r="AT133" s="90"/>
+      <c r="AU133" s="91"/>
       <c r="AV133" s="1"/>
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
@@ -15815,16 +15809,16 @@
       <c r="AI134" s="48"/>
       <c r="AJ134" s="48"/>
       <c r="AK134" s="47"/>
-      <c r="AL134" s="90"/>
-      <c r="AM134" s="90"/>
+      <c r="AL134" s="88"/>
+      <c r="AM134" s="88"/>
       <c r="AN134" s="2"/>
-      <c r="AO134" s="93"/>
-      <c r="AP134" s="93"/>
+      <c r="AO134" s="91"/>
+      <c r="AP134" s="91"/>
       <c r="AQ134" s="48"/>
-      <c r="AR134" s="93"/>
-      <c r="AS134" s="93"/>
-      <c r="AT134" s="92"/>
-      <c r="AU134" s="93"/>
+      <c r="AR134" s="91"/>
+      <c r="AS134" s="91"/>
+      <c r="AT134" s="90"/>
+      <c r="AU134" s="91"/>
       <c r="AV134" s="1"/>
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
@@ -15906,16 +15900,16 @@
       <c r="AI135" s="48"/>
       <c r="AJ135" s="48"/>
       <c r="AK135" s="47"/>
-      <c r="AL135" s="90"/>
-      <c r="AM135" s="90"/>
+      <c r="AL135" s="88"/>
+      <c r="AM135" s="88"/>
       <c r="AN135" s="2"/>
-      <c r="AO135" s="93"/>
-      <c r="AP135" s="93"/>
+      <c r="AO135" s="91"/>
+      <c r="AP135" s="91"/>
       <c r="AQ135" s="48"/>
-      <c r="AR135" s="93"/>
-      <c r="AS135" s="93"/>
-      <c r="AT135" s="92"/>
-      <c r="AU135" s="93"/>
+      <c r="AR135" s="91"/>
+      <c r="AS135" s="91"/>
+      <c r="AT135" s="90"/>
+      <c r="AU135" s="91"/>
       <c r="AV135" s="1"/>
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
@@ -15997,16 +15991,16 @@
       <c r="AI136" s="48"/>
       <c r="AJ136" s="48"/>
       <c r="AK136" s="47"/>
-      <c r="AL136" s="90"/>
-      <c r="AM136" s="90"/>
+      <c r="AL136" s="88"/>
+      <c r="AM136" s="88"/>
       <c r="AN136" s="2"/>
-      <c r="AO136" s="93"/>
-      <c r="AP136" s="93"/>
+      <c r="AO136" s="91"/>
+      <c r="AP136" s="91"/>
       <c r="AQ136" s="48"/>
-      <c r="AR136" s="93"/>
-      <c r="AS136" s="93"/>
-      <c r="AT136" s="92"/>
-      <c r="AU136" s="93"/>
+      <c r="AR136" s="91"/>
+      <c r="AS136" s="91"/>
+      <c r="AT136" s="90"/>
+      <c r="AU136" s="91"/>
       <c r="AV136" s="1"/>
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
@@ -16088,16 +16082,16 @@
       <c r="AI137" s="48"/>
       <c r="AJ137" s="48"/>
       <c r="AK137" s="47"/>
-      <c r="AL137" s="90"/>
-      <c r="AM137" s="90"/>
+      <c r="AL137" s="88"/>
+      <c r="AM137" s="88"/>
       <c r="AN137" s="2"/>
-      <c r="AO137" s="93"/>
-      <c r="AP137" s="93"/>
+      <c r="AO137" s="91"/>
+      <c r="AP137" s="91"/>
       <c r="AQ137" s="48"/>
-      <c r="AR137" s="93"/>
-      <c r="AS137" s="93"/>
-      <c r="AT137" s="92"/>
-      <c r="AU137" s="93"/>
+      <c r="AR137" s="91"/>
+      <c r="AS137" s="91"/>
+      <c r="AT137" s="90"/>
+      <c r="AU137" s="91"/>
       <c r="AV137" s="1"/>
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
@@ -16179,16 +16173,16 @@
       <c r="AI138" s="48"/>
       <c r="AJ138" s="48"/>
       <c r="AK138" s="47"/>
-      <c r="AL138" s="90"/>
-      <c r="AM138" s="90"/>
+      <c r="AL138" s="88"/>
+      <c r="AM138" s="88"/>
       <c r="AN138" s="2"/>
-      <c r="AO138" s="93"/>
-      <c r="AP138" s="93"/>
+      <c r="AO138" s="91"/>
+      <c r="AP138" s="91"/>
       <c r="AQ138" s="48"/>
-      <c r="AR138" s="93"/>
-      <c r="AS138" s="93"/>
-      <c r="AT138" s="92"/>
-      <c r="AU138" s="93"/>
+      <c r="AR138" s="91"/>
+      <c r="AS138" s="91"/>
+      <c r="AT138" s="90"/>
+      <c r="AU138" s="91"/>
       <c r="AV138" s="1"/>
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
@@ -16274,16 +16268,16 @@
       <c r="AI139" s="48"/>
       <c r="AJ139" s="48"/>
       <c r="AK139" s="47"/>
-      <c r="AL139" s="90"/>
-      <c r="AM139" s="90"/>
+      <c r="AL139" s="88"/>
+      <c r="AM139" s="88"/>
       <c r="AN139" s="2"/>
-      <c r="AO139" s="93"/>
-      <c r="AP139" s="93"/>
+      <c r="AO139" s="91"/>
+      <c r="AP139" s="91"/>
       <c r="AQ139" s="48"/>
-      <c r="AR139" s="93"/>
-      <c r="AS139" s="93"/>
-      <c r="AT139" s="92"/>
-      <c r="AU139" s="93"/>
+      <c r="AR139" s="91"/>
+      <c r="AS139" s="91"/>
+      <c r="AT139" s="90"/>
+      <c r="AU139" s="91"/>
       <c r="AV139" s="1"/>
       <c r="AW139" s="2"/>
       <c r="AX139" s="2"/>
@@ -16365,16 +16359,16 @@
       <c r="AI140" s="48"/>
       <c r="AJ140" s="48"/>
       <c r="AK140" s="47"/>
-      <c r="AL140" s="90"/>
-      <c r="AM140" s="90"/>
+      <c r="AL140" s="88"/>
+      <c r="AM140" s="88"/>
       <c r="AN140" s="2"/>
-      <c r="AO140" s="93"/>
-      <c r="AP140" s="93"/>
+      <c r="AO140" s="91"/>
+      <c r="AP140" s="91"/>
       <c r="AQ140" s="48"/>
-      <c r="AR140" s="93"/>
-      <c r="AS140" s="93"/>
-      <c r="AT140" s="92"/>
-      <c r="AU140" s="93"/>
+      <c r="AR140" s="91"/>
+      <c r="AS140" s="91"/>
+      <c r="AT140" s="90"/>
+      <c r="AU140" s="91"/>
       <c r="AV140" s="1"/>
       <c r="AW140" s="2"/>
       <c r="AX140" s="2"/>
@@ -16456,16 +16450,16 @@
       <c r="AI141" s="48"/>
       <c r="AJ141" s="48"/>
       <c r="AK141" s="47"/>
-      <c r="AL141" s="90"/>
-      <c r="AM141" s="90"/>
+      <c r="AL141" s="88"/>
+      <c r="AM141" s="88"/>
       <c r="AN141" s="2"/>
-      <c r="AO141" s="93"/>
-      <c r="AP141" s="93"/>
+      <c r="AO141" s="91"/>
+      <c r="AP141" s="91"/>
       <c r="AQ141" s="48"/>
-      <c r="AR141" s="93"/>
-      <c r="AS141" s="93"/>
-      <c r="AT141" s="92"/>
-      <c r="AU141" s="93"/>
+      <c r="AR141" s="91"/>
+      <c r="AS141" s="91"/>
+      <c r="AT141" s="90"/>
+      <c r="AU141" s="91"/>
       <c r="AV141" s="1"/>
       <c r="AW141" s="2"/>
       <c r="AX141" s="2"/>
@@ -16547,16 +16541,16 @@
       <c r="AI142" s="48"/>
       <c r="AJ142" s="48"/>
       <c r="AK142" s="47"/>
-      <c r="AL142" s="90"/>
-      <c r="AM142" s="90"/>
+      <c r="AL142" s="88"/>
+      <c r="AM142" s="88"/>
       <c r="AN142" s="2"/>
-      <c r="AO142" s="93"/>
-      <c r="AP142" s="93"/>
+      <c r="AO142" s="91"/>
+      <c r="AP142" s="91"/>
       <c r="AQ142" s="48"/>
-      <c r="AR142" s="93"/>
-      <c r="AS142" s="93"/>
-      <c r="AT142" s="92"/>
-      <c r="AU142" s="93"/>
+      <c r="AR142" s="91"/>
+      <c r="AS142" s="91"/>
+      <c r="AT142" s="90"/>
+      <c r="AU142" s="91"/>
       <c r="AV142" s="1"/>
       <c r="AW142" s="2"/>
       <c r="AX142" s="2"/>
@@ -16638,16 +16632,16 @@
       <c r="AI143" s="48"/>
       <c r="AJ143" s="48"/>
       <c r="AK143" s="47"/>
-      <c r="AL143" s="90"/>
-      <c r="AM143" s="90"/>
+      <c r="AL143" s="88"/>
+      <c r="AM143" s="88"/>
       <c r="AN143" s="2"/>
-      <c r="AO143" s="93"/>
-      <c r="AP143" s="93"/>
+      <c r="AO143" s="91"/>
+      <c r="AP143" s="91"/>
       <c r="AQ143" s="48"/>
-      <c r="AR143" s="93"/>
-      <c r="AS143" s="93"/>
-      <c r="AT143" s="92"/>
-      <c r="AU143" s="93"/>
+      <c r="AR143" s="91"/>
+      <c r="AS143" s="91"/>
+      <c r="AT143" s="90"/>
+      <c r="AU143" s="91"/>
       <c r="AV143" s="1"/>
       <c r="AW143" s="2"/>
       <c r="AX143" s="2"/>
@@ -16729,16 +16723,16 @@
       <c r="AI144" s="48"/>
       <c r="AJ144" s="48"/>
       <c r="AK144" s="47"/>
-      <c r="AL144" s="90"/>
-      <c r="AM144" s="90"/>
+      <c r="AL144" s="88"/>
+      <c r="AM144" s="88"/>
       <c r="AN144" s="2"/>
-      <c r="AO144" s="93"/>
-      <c r="AP144" s="93"/>
+      <c r="AO144" s="91"/>
+      <c r="AP144" s="91"/>
       <c r="AQ144" s="48"/>
-      <c r="AR144" s="93"/>
-      <c r="AS144" s="93"/>
-      <c r="AT144" s="92"/>
-      <c r="AU144" s="93"/>
+      <c r="AR144" s="91"/>
+      <c r="AS144" s="91"/>
+      <c r="AT144" s="90"/>
+      <c r="AU144" s="91"/>
       <c r="AV144" s="1"/>
       <c r="AW144" s="2"/>
       <c r="AX144" s="2"/>
@@ -16820,16 +16814,16 @@
       <c r="AI145" s="48"/>
       <c r="AJ145" s="48"/>
       <c r="AK145" s="47"/>
-      <c r="AL145" s="90"/>
-      <c r="AM145" s="90"/>
+      <c r="AL145" s="88"/>
+      <c r="AM145" s="88"/>
       <c r="AN145" s="2"/>
-      <c r="AO145" s="93"/>
-      <c r="AP145" s="93"/>
+      <c r="AO145" s="91"/>
+      <c r="AP145" s="91"/>
       <c r="AQ145" s="48"/>
-      <c r="AR145" s="93"/>
-      <c r="AS145" s="93"/>
-      <c r="AT145" s="92"/>
-      <c r="AU145" s="93"/>
+      <c r="AR145" s="91"/>
+      <c r="AS145" s="91"/>
+      <c r="AT145" s="90"/>
+      <c r="AU145" s="91"/>
       <c r="AV145" s="1"/>
       <c r="AW145" s="2"/>
       <c r="AX145" s="2"/>
@@ -16911,16 +16905,16 @@
       <c r="AI146" s="48"/>
       <c r="AJ146" s="48"/>
       <c r="AK146" s="47"/>
-      <c r="AL146" s="90"/>
-      <c r="AM146" s="90"/>
+      <c r="AL146" s="88"/>
+      <c r="AM146" s="88"/>
       <c r="AN146" s="2"/>
-      <c r="AO146" s="93"/>
-      <c r="AP146" s="93"/>
+      <c r="AO146" s="91"/>
+      <c r="AP146" s="91"/>
       <c r="AQ146" s="48"/>
-      <c r="AR146" s="93"/>
-      <c r="AS146" s="93"/>
-      <c r="AT146" s="92"/>
-      <c r="AU146" s="93"/>
+      <c r="AR146" s="91"/>
+      <c r="AS146" s="91"/>
+      <c r="AT146" s="90"/>
+      <c r="AU146" s="91"/>
       <c r="AV146" s="1"/>
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
@@ -17002,16 +16996,16 @@
       <c r="AI147" s="48"/>
       <c r="AJ147" s="48"/>
       <c r="AK147" s="47"/>
-      <c r="AL147" s="90"/>
-      <c r="AM147" s="90"/>
+      <c r="AL147" s="88"/>
+      <c r="AM147" s="88"/>
       <c r="AN147" s="2"/>
-      <c r="AO147" s="93"/>
-      <c r="AP147" s="93"/>
+      <c r="AO147" s="91"/>
+      <c r="AP147" s="91"/>
       <c r="AQ147" s="48"/>
-      <c r="AR147" s="93"/>
-      <c r="AS147" s="93"/>
-      <c r="AT147" s="92"/>
-      <c r="AU147" s="93"/>
+      <c r="AR147" s="91"/>
+      <c r="AS147" s="91"/>
+      <c r="AT147" s="90"/>
+      <c r="AU147" s="91"/>
       <c r="AV147" s="1"/>
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
@@ -17093,16 +17087,16 @@
       <c r="AI148" s="48"/>
       <c r="AJ148" s="48"/>
       <c r="AK148" s="47"/>
-      <c r="AL148" s="90"/>
-      <c r="AM148" s="90"/>
+      <c r="AL148" s="88"/>
+      <c r="AM148" s="88"/>
       <c r="AN148" s="2"/>
-      <c r="AO148" s="93"/>
-      <c r="AP148" s="93"/>
+      <c r="AO148" s="91"/>
+      <c r="AP148" s="91"/>
       <c r="AQ148" s="48"/>
-      <c r="AR148" s="93"/>
-      <c r="AS148" s="93"/>
-      <c r="AT148" s="92"/>
-      <c r="AU148" s="93"/>
+      <c r="AR148" s="91"/>
+      <c r="AS148" s="91"/>
+      <c r="AT148" s="90"/>
+      <c r="AU148" s="91"/>
       <c r="AV148" s="1"/>
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
@@ -17188,16 +17182,16 @@
       <c r="AI149" s="48"/>
       <c r="AJ149" s="48"/>
       <c r="AK149" s="47"/>
-      <c r="AL149" s="90"/>
-      <c r="AM149" s="90"/>
+      <c r="AL149" s="88"/>
+      <c r="AM149" s="88"/>
       <c r="AN149" s="2"/>
-      <c r="AO149" s="93"/>
-      <c r="AP149" s="93"/>
+      <c r="AO149" s="91"/>
+      <c r="AP149" s="91"/>
       <c r="AQ149" s="48"/>
-      <c r="AR149" s="93"/>
-      <c r="AS149" s="93"/>
-      <c r="AT149" s="92"/>
-      <c r="AU149" s="93"/>
+      <c r="AR149" s="91"/>
+      <c r="AS149" s="91"/>
+      <c r="AT149" s="90"/>
+      <c r="AU149" s="91"/>
       <c r="AV149" s="1"/>
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
@@ -17279,16 +17273,16 @@
       <c r="AI150" s="48"/>
       <c r="AJ150" s="48"/>
       <c r="AK150" s="47"/>
-      <c r="AL150" s="90"/>
-      <c r="AM150" s="90"/>
+      <c r="AL150" s="88"/>
+      <c r="AM150" s="88"/>
       <c r="AN150" s="2"/>
-      <c r="AO150" s="93"/>
-      <c r="AP150" s="93"/>
+      <c r="AO150" s="91"/>
+      <c r="AP150" s="91"/>
       <c r="AQ150" s="48"/>
-      <c r="AR150" s="93"/>
-      <c r="AS150" s="93"/>
-      <c r="AT150" s="92"/>
-      <c r="AU150" s="93"/>
+      <c r="AR150" s="91"/>
+      <c r="AS150" s="91"/>
+      <c r="AT150" s="90"/>
+      <c r="AU150" s="91"/>
       <c r="AV150" s="1"/>
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
@@ -17370,16 +17364,16 @@
       <c r="AI151" s="48"/>
       <c r="AJ151" s="48"/>
       <c r="AK151" s="47"/>
-      <c r="AL151" s="90"/>
-      <c r="AM151" s="90"/>
+      <c r="AL151" s="88"/>
+      <c r="AM151" s="88"/>
       <c r="AN151" s="2"/>
-      <c r="AO151" s="93"/>
-      <c r="AP151" s="93"/>
+      <c r="AO151" s="91"/>
+      <c r="AP151" s="91"/>
       <c r="AQ151" s="48"/>
-      <c r="AR151" s="93"/>
-      <c r="AS151" s="93"/>
-      <c r="AT151" s="92"/>
-      <c r="AU151" s="93"/>
+      <c r="AR151" s="91"/>
+      <c r="AS151" s="91"/>
+      <c r="AT151" s="90"/>
+      <c r="AU151" s="91"/>
       <c r="AV151" s="1"/>
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
@@ -17461,16 +17455,16 @@
       <c r="AI152" s="48"/>
       <c r="AJ152" s="48"/>
       <c r="AK152" s="47"/>
-      <c r="AL152" s="90"/>
-      <c r="AM152" s="90"/>
+      <c r="AL152" s="88"/>
+      <c r="AM152" s="88"/>
       <c r="AN152" s="2"/>
-      <c r="AO152" s="93"/>
-      <c r="AP152" s="93"/>
+      <c r="AO152" s="91"/>
+      <c r="AP152" s="91"/>
       <c r="AQ152" s="48"/>
-      <c r="AR152" s="93"/>
-      <c r="AS152" s="93"/>
-      <c r="AT152" s="92"/>
-      <c r="AU152" s="93"/>
+      <c r="AR152" s="91"/>
+      <c r="AS152" s="91"/>
+      <c r="AT152" s="90"/>
+      <c r="AU152" s="91"/>
       <c r="AV152" s="1"/>
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
@@ -17552,16 +17546,16 @@
       <c r="AI153" s="48"/>
       <c r="AJ153" s="48"/>
       <c r="AK153" s="47"/>
-      <c r="AL153" s="90"/>
-      <c r="AM153" s="90"/>
+      <c r="AL153" s="88"/>
+      <c r="AM153" s="88"/>
       <c r="AN153" s="2"/>
-      <c r="AO153" s="93"/>
-      <c r="AP153" s="93"/>
+      <c r="AO153" s="91"/>
+      <c r="AP153" s="91"/>
       <c r="AQ153" s="48"/>
-      <c r="AR153" s="93"/>
-      <c r="AS153" s="93"/>
-      <c r="AT153" s="92"/>
-      <c r="AU153" s="93"/>
+      <c r="AR153" s="91"/>
+      <c r="AS153" s="91"/>
+      <c r="AT153" s="90"/>
+      <c r="AU153" s="91"/>
       <c r="AV153" s="1"/>
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
@@ -17643,16 +17637,16 @@
       <c r="AI154" s="48"/>
       <c r="AJ154" s="48"/>
       <c r="AK154" s="47"/>
-      <c r="AL154" s="90"/>
-      <c r="AM154" s="90"/>
+      <c r="AL154" s="88"/>
+      <c r="AM154" s="88"/>
       <c r="AN154" s="2"/>
-      <c r="AO154" s="93"/>
-      <c r="AP154" s="93"/>
+      <c r="AO154" s="91"/>
+      <c r="AP154" s="91"/>
       <c r="AQ154" s="48"/>
-      <c r="AR154" s="93"/>
-      <c r="AS154" s="93"/>
-      <c r="AT154" s="92"/>
-      <c r="AU154" s="93"/>
+      <c r="AR154" s="91"/>
+      <c r="AS154" s="91"/>
+      <c r="AT154" s="90"/>
+      <c r="AU154" s="91"/>
       <c r="AV154" s="1"/>
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
@@ -17734,16 +17728,16 @@
       <c r="AI155" s="48"/>
       <c r="AJ155" s="48"/>
       <c r="AK155" s="47"/>
-      <c r="AL155" s="90"/>
-      <c r="AM155" s="90"/>
+      <c r="AL155" s="88"/>
+      <c r="AM155" s="88"/>
       <c r="AN155" s="2"/>
-      <c r="AO155" s="93"/>
-      <c r="AP155" s="93"/>
+      <c r="AO155" s="91"/>
+      <c r="AP155" s="91"/>
       <c r="AQ155" s="48"/>
-      <c r="AR155" s="93"/>
-      <c r="AS155" s="93"/>
-      <c r="AT155" s="92"/>
-      <c r="AU155" s="93"/>
+      <c r="AR155" s="91"/>
+      <c r="AS155" s="91"/>
+      <c r="AT155" s="90"/>
+      <c r="AU155" s="91"/>
       <c r="AV155" s="1"/>
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
@@ -17825,16 +17819,16 @@
       <c r="AI156" s="48"/>
       <c r="AJ156" s="48"/>
       <c r="AK156" s="47"/>
-      <c r="AL156" s="90"/>
-      <c r="AM156" s="90"/>
+      <c r="AL156" s="88"/>
+      <c r="AM156" s="88"/>
       <c r="AN156" s="2"/>
-      <c r="AO156" s="93"/>
-      <c r="AP156" s="93"/>
+      <c r="AO156" s="91"/>
+      <c r="AP156" s="91"/>
       <c r="AQ156" s="48"/>
-      <c r="AR156" s="93"/>
-      <c r="AS156" s="93"/>
-      <c r="AT156" s="92"/>
-      <c r="AU156" s="93"/>
+      <c r="AR156" s="91"/>
+      <c r="AS156" s="91"/>
+      <c r="AT156" s="90"/>
+      <c r="AU156" s="91"/>
       <c r="AV156" s="1"/>
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
@@ -17916,16 +17910,16 @@
       <c r="AI157" s="48"/>
       <c r="AJ157" s="48"/>
       <c r="AK157" s="47"/>
-      <c r="AL157" s="90"/>
-      <c r="AM157" s="90"/>
+      <c r="AL157" s="88"/>
+      <c r="AM157" s="88"/>
       <c r="AN157" s="2"/>
-      <c r="AO157" s="93"/>
-      <c r="AP157" s="93"/>
+      <c r="AO157" s="91"/>
+      <c r="AP157" s="91"/>
       <c r="AQ157" s="48"/>
-      <c r="AR157" s="93"/>
-      <c r="AS157" s="93"/>
-      <c r="AT157" s="92"/>
-      <c r="AU157" s="93"/>
+      <c r="AR157" s="91"/>
+      <c r="AS157" s="91"/>
+      <c r="AT157" s="90"/>
+      <c r="AU157" s="91"/>
       <c r="AV157" s="1"/>
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
@@ -18009,16 +18003,16 @@
       <c r="AI158" s="48"/>
       <c r="AJ158" s="48"/>
       <c r="AK158" s="47"/>
-      <c r="AL158" s="90"/>
-      <c r="AM158" s="90"/>
+      <c r="AL158" s="88"/>
+      <c r="AM158" s="88"/>
       <c r="AN158" s="2"/>
-      <c r="AO158" s="93"/>
-      <c r="AP158" s="93"/>
+      <c r="AO158" s="91"/>
+      <c r="AP158" s="91"/>
       <c r="AQ158" s="48"/>
-      <c r="AR158" s="93"/>
-      <c r="AS158" s="93"/>
-      <c r="AT158" s="92"/>
-      <c r="AU158" s="93"/>
+      <c r="AR158" s="91"/>
+      <c r="AS158" s="91"/>
+      <c r="AT158" s="90"/>
+      <c r="AU158" s="91"/>
       <c r="AV158" s="1"/>
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
@@ -18100,16 +18094,16 @@
       <c r="AI159" s="48"/>
       <c r="AJ159" s="48"/>
       <c r="AK159" s="47"/>
-      <c r="AL159" s="90"/>
-      <c r="AM159" s="90"/>
+      <c r="AL159" s="88"/>
+      <c r="AM159" s="88"/>
       <c r="AN159" s="2"/>
-      <c r="AO159" s="93"/>
-      <c r="AP159" s="93"/>
+      <c r="AO159" s="91"/>
+      <c r="AP159" s="91"/>
       <c r="AQ159" s="48"/>
-      <c r="AR159" s="93"/>
-      <c r="AS159" s="93"/>
-      <c r="AT159" s="92"/>
-      <c r="AU159" s="93"/>
+      <c r="AR159" s="91"/>
+      <c r="AS159" s="91"/>
+      <c r="AT159" s="90"/>
+      <c r="AU159" s="91"/>
       <c r="AV159" s="1"/>
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
@@ -18191,16 +18185,16 @@
       <c r="AI160" s="48"/>
       <c r="AJ160" s="48"/>
       <c r="AK160" s="47"/>
-      <c r="AL160" s="90"/>
-      <c r="AM160" s="90"/>
+      <c r="AL160" s="88"/>
+      <c r="AM160" s="88"/>
       <c r="AN160" s="2"/>
-      <c r="AO160" s="93"/>
-      <c r="AP160" s="93"/>
+      <c r="AO160" s="91"/>
+      <c r="AP160" s="91"/>
       <c r="AQ160" s="48"/>
-      <c r="AR160" s="93"/>
-      <c r="AS160" s="93"/>
-      <c r="AT160" s="92"/>
-      <c r="AU160" s="93"/>
+      <c r="AR160" s="91"/>
+      <c r="AS160" s="91"/>
+      <c r="AT160" s="90"/>
+      <c r="AU160" s="91"/>
       <c r="AV160" s="1"/>
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
@@ -18282,16 +18276,16 @@
       <c r="AI161" s="48"/>
       <c r="AJ161" s="48"/>
       <c r="AK161" s="47"/>
-      <c r="AL161" s="90"/>
-      <c r="AM161" s="90"/>
+      <c r="AL161" s="88"/>
+      <c r="AM161" s="88"/>
       <c r="AN161" s="2"/>
-      <c r="AO161" s="93"/>
-      <c r="AP161" s="93"/>
+      <c r="AO161" s="91"/>
+      <c r="AP161" s="91"/>
       <c r="AQ161" s="48"/>
-      <c r="AR161" s="93"/>
-      <c r="AS161" s="93"/>
-      <c r="AT161" s="92"/>
-      <c r="AU161" s="93"/>
+      <c r="AR161" s="91"/>
+      <c r="AS161" s="91"/>
+      <c r="AT161" s="90"/>
+      <c r="AU161" s="91"/>
       <c r="AV161" s="1"/>
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
@@ -18373,16 +18367,16 @@
       <c r="AI162" s="48"/>
       <c r="AJ162" s="48"/>
       <c r="AK162" s="47"/>
-      <c r="AL162" s="90"/>
-      <c r="AM162" s="90"/>
+      <c r="AL162" s="88"/>
+      <c r="AM162" s="88"/>
       <c r="AN162" s="2"/>
-      <c r="AO162" s="93"/>
-      <c r="AP162" s="93"/>
+      <c r="AO162" s="91"/>
+      <c r="AP162" s="91"/>
       <c r="AQ162" s="48"/>
-      <c r="AR162" s="93"/>
-      <c r="AS162" s="93"/>
-      <c r="AT162" s="92"/>
-      <c r="AU162" s="93"/>
+      <c r="AR162" s="91"/>
+      <c r="AS162" s="91"/>
+      <c r="AT162" s="90"/>
+      <c r="AU162" s="91"/>
       <c r="AV162" s="1"/>
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
@@ -18464,16 +18458,16 @@
       <c r="AI163" s="48"/>
       <c r="AJ163" s="48"/>
       <c r="AK163" s="47"/>
-      <c r="AL163" s="90"/>
-      <c r="AM163" s="90"/>
+      <c r="AL163" s="88"/>
+      <c r="AM163" s="88"/>
       <c r="AN163" s="2"/>
-      <c r="AO163" s="93"/>
-      <c r="AP163" s="93"/>
+      <c r="AO163" s="91"/>
+      <c r="AP163" s="91"/>
       <c r="AQ163" s="48"/>
-      <c r="AR163" s="93"/>
-      <c r="AS163" s="93"/>
-      <c r="AT163" s="92"/>
-      <c r="AU163" s="93"/>
+      <c r="AR163" s="91"/>
+      <c r="AS163" s="91"/>
+      <c r="AT163" s="90"/>
+      <c r="AU163" s="91"/>
       <c r="AV163" s="1"/>
       <c r="AW163" s="2"/>
       <c r="AX163" s="2"/>
@@ -18555,16 +18549,16 @@
       <c r="AI164" s="48"/>
       <c r="AJ164" s="48"/>
       <c r="AK164" s="47"/>
-      <c r="AL164" s="90"/>
-      <c r="AM164" s="90"/>
+      <c r="AL164" s="88"/>
+      <c r="AM164" s="88"/>
       <c r="AN164" s="2"/>
-      <c r="AO164" s="93"/>
-      <c r="AP164" s="93"/>
+      <c r="AO164" s="91"/>
+      <c r="AP164" s="91"/>
       <c r="AQ164" s="48"/>
-      <c r="AR164" s="93"/>
-      <c r="AS164" s="93"/>
-      <c r="AT164" s="92"/>
-      <c r="AU164" s="93"/>
+      <c r="AR164" s="91"/>
+      <c r="AS164" s="91"/>
+      <c r="AT164" s="90"/>
+      <c r="AU164" s="91"/>
       <c r="AV164" s="1"/>
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
@@ -18646,16 +18640,16 @@
       <c r="AI165" s="48"/>
       <c r="AJ165" s="48"/>
       <c r="AK165" s="47"/>
-      <c r="AL165" s="90"/>
-      <c r="AM165" s="90"/>
+      <c r="AL165" s="88"/>
+      <c r="AM165" s="88"/>
       <c r="AN165" s="2"/>
-      <c r="AO165" s="93"/>
-      <c r="AP165" s="93"/>
+      <c r="AO165" s="91"/>
+      <c r="AP165" s="91"/>
       <c r="AQ165" s="48"/>
-      <c r="AR165" s="93"/>
-      <c r="AS165" s="93"/>
-      <c r="AT165" s="92"/>
-      <c r="AU165" s="93"/>
+      <c r="AR165" s="91"/>
+      <c r="AS165" s="91"/>
+      <c r="AT165" s="90"/>
+      <c r="AU165" s="91"/>
       <c r="AV165" s="1"/>
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
@@ -18737,16 +18731,16 @@
       <c r="AI166" s="48"/>
       <c r="AJ166" s="48"/>
       <c r="AK166" s="47"/>
-      <c r="AL166" s="90"/>
-      <c r="AM166" s="90"/>
+      <c r="AL166" s="88"/>
+      <c r="AM166" s="88"/>
       <c r="AN166" s="2"/>
-      <c r="AO166" s="93"/>
-      <c r="AP166" s="93"/>
+      <c r="AO166" s="91"/>
+      <c r="AP166" s="91"/>
       <c r="AQ166" s="48"/>
-      <c r="AR166" s="93"/>
-      <c r="AS166" s="93"/>
-      <c r="AT166" s="92"/>
-      <c r="AU166" s="93"/>
+      <c r="AR166" s="91"/>
+      <c r="AS166" s="91"/>
+      <c r="AT166" s="90"/>
+      <c r="AU166" s="91"/>
       <c r="AV166" s="1"/>
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
@@ -18828,16 +18822,16 @@
       <c r="AI167" s="48"/>
       <c r="AJ167" s="48"/>
       <c r="AK167" s="47"/>
-      <c r="AL167" s="90"/>
-      <c r="AM167" s="90"/>
+      <c r="AL167" s="88"/>
+      <c r="AM167" s="88"/>
       <c r="AN167" s="2"/>
-      <c r="AO167" s="93"/>
-      <c r="AP167" s="93"/>
+      <c r="AO167" s="91"/>
+      <c r="AP167" s="91"/>
       <c r="AQ167" s="48"/>
-      <c r="AR167" s="93"/>
-      <c r="AS167" s="93"/>
-      <c r="AT167" s="92"/>
-      <c r="AU167" s="93"/>
+      <c r="AR167" s="91"/>
+      <c r="AS167" s="91"/>
+      <c r="AT167" s="90"/>
+      <c r="AU167" s="91"/>
       <c r="AV167" s="1"/>
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
@@ -18929,16 +18923,16 @@
       <c r="AI168" s="48"/>
       <c r="AJ168" s="48"/>
       <c r="AK168" s="47"/>
-      <c r="AL168" s="90"/>
-      <c r="AM168" s="90"/>
+      <c r="AL168" s="88"/>
+      <c r="AM168" s="88"/>
       <c r="AN168" s="2"/>
-      <c r="AO168" s="93"/>
-      <c r="AP168" s="93"/>
+      <c r="AO168" s="91"/>
+      <c r="AP168" s="91"/>
       <c r="AQ168" s="48"/>
-      <c r="AR168" s="93"/>
-      <c r="AS168" s="93"/>
-      <c r="AT168" s="92"/>
-      <c r="AU168" s="93"/>
+      <c r="AR168" s="91"/>
+      <c r="AS168" s="91"/>
+      <c r="AT168" s="90"/>
+      <c r="AU168" s="91"/>
       <c r="AV168" s="1"/>
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
@@ -19026,16 +19020,16 @@
       <c r="AI169" s="48"/>
       <c r="AJ169" s="48"/>
       <c r="AK169" s="47"/>
-      <c r="AL169" s="90"/>
-      <c r="AM169" s="90"/>
+      <c r="AL169" s="88"/>
+      <c r="AM169" s="88"/>
       <c r="AN169" s="2"/>
-      <c r="AO169" s="93"/>
-      <c r="AP169" s="93"/>
+      <c r="AO169" s="91"/>
+      <c r="AP169" s="91"/>
       <c r="AQ169" s="48"/>
-      <c r="AR169" s="93"/>
-      <c r="AS169" s="93"/>
-      <c r="AT169" s="92"/>
-      <c r="AU169" s="93"/>
+      <c r="AR169" s="91"/>
+      <c r="AS169" s="91"/>
+      <c r="AT169" s="90"/>
+      <c r="AU169" s="91"/>
       <c r="AV169" s="1"/>
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
@@ -19123,16 +19117,16 @@
       <c r="AI170" s="48"/>
       <c r="AJ170" s="48"/>
       <c r="AK170" s="47"/>
-      <c r="AL170" s="90"/>
-      <c r="AM170" s="90"/>
+      <c r="AL170" s="88"/>
+      <c r="AM170" s="88"/>
       <c r="AN170" s="2"/>
-      <c r="AO170" s="93"/>
-      <c r="AP170" s="93"/>
+      <c r="AO170" s="91"/>
+      <c r="AP170" s="91"/>
       <c r="AQ170" s="48"/>
-      <c r="AR170" s="93"/>
-      <c r="AS170" s="93"/>
-      <c r="AT170" s="92"/>
-      <c r="AU170" s="93"/>
+      <c r="AR170" s="91"/>
+      <c r="AS170" s="91"/>
+      <c r="AT170" s="90"/>
+      <c r="AU170" s="91"/>
       <c r="AV170" s="1"/>
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
@@ -19220,16 +19214,16 @@
       <c r="AI171" s="48"/>
       <c r="AJ171" s="48"/>
       <c r="AK171" s="47"/>
-      <c r="AL171" s="90"/>
-      <c r="AM171" s="90"/>
+      <c r="AL171" s="88"/>
+      <c r="AM171" s="88"/>
       <c r="AN171" s="2"/>
-      <c r="AO171" s="93"/>
-      <c r="AP171" s="93"/>
+      <c r="AO171" s="91"/>
+      <c r="AP171" s="91"/>
       <c r="AQ171" s="48"/>
-      <c r="AR171" s="93"/>
-      <c r="AS171" s="93"/>
-      <c r="AT171" s="92"/>
-      <c r="AU171" s="93"/>
+      <c r="AR171" s="91"/>
+      <c r="AS171" s="91"/>
+      <c r="AT171" s="90"/>
+      <c r="AU171" s="91"/>
       <c r="AV171" s="1"/>
       <c r="AW171" s="2"/>
       <c r="AX171" s="2"/>
@@ -19317,16 +19311,16 @@
       <c r="AI172" s="48"/>
       <c r="AJ172" s="48"/>
       <c r="AK172" s="47"/>
-      <c r="AL172" s="90"/>
-      <c r="AM172" s="90"/>
+      <c r="AL172" s="88"/>
+      <c r="AM172" s="88"/>
       <c r="AN172" s="2"/>
-      <c r="AO172" s="93"/>
-      <c r="AP172" s="93"/>
+      <c r="AO172" s="91"/>
+      <c r="AP172" s="91"/>
       <c r="AQ172" s="48"/>
-      <c r="AR172" s="93"/>
-      <c r="AS172" s="93"/>
-      <c r="AT172" s="92"/>
-      <c r="AU172" s="93"/>
+      <c r="AR172" s="91"/>
+      <c r="AS172" s="91"/>
+      <c r="AT172" s="90"/>
+      <c r="AU172" s="91"/>
       <c r="AV172" s="1"/>
       <c r="AW172" s="2"/>
       <c r="AX172" s="2"/>
@@ -19414,16 +19408,16 @@
       <c r="AI173" s="48"/>
       <c r="AJ173" s="48"/>
       <c r="AK173" s="47"/>
-      <c r="AL173" s="90"/>
-      <c r="AM173" s="90"/>
+      <c r="AL173" s="88"/>
+      <c r="AM173" s="88"/>
       <c r="AN173" s="2"/>
-      <c r="AO173" s="93"/>
-      <c r="AP173" s="93"/>
+      <c r="AO173" s="91"/>
+      <c r="AP173" s="91"/>
       <c r="AQ173" s="48"/>
-      <c r="AR173" s="93"/>
-      <c r="AS173" s="93"/>
-      <c r="AT173" s="92"/>
-      <c r="AU173" s="93"/>
+      <c r="AR173" s="91"/>
+      <c r="AS173" s="91"/>
+      <c r="AT173" s="90"/>
+      <c r="AU173" s="91"/>
       <c r="AV173" s="1"/>
       <c r="AW173" s="2"/>
       <c r="AX173" s="2"/>
@@ -19511,16 +19505,16 @@
       <c r="AI174" s="48"/>
       <c r="AJ174" s="48"/>
       <c r="AK174" s="47"/>
-      <c r="AL174" s="90"/>
-      <c r="AM174" s="90"/>
+      <c r="AL174" s="88"/>
+      <c r="AM174" s="88"/>
       <c r="AN174" s="2"/>
-      <c r="AO174" s="93"/>
-      <c r="AP174" s="93"/>
+      <c r="AO174" s="91"/>
+      <c r="AP174" s="91"/>
       <c r="AQ174" s="48"/>
-      <c r="AR174" s="93"/>
-      <c r="AS174" s="93"/>
-      <c r="AT174" s="92"/>
-      <c r="AU174" s="93"/>
+      <c r="AR174" s="91"/>
+      <c r="AS174" s="91"/>
+      <c r="AT174" s="90"/>
+      <c r="AU174" s="91"/>
       <c r="AV174" s="1"/>
       <c r="AW174" s="2"/>
       <c r="AX174" s="2"/>
@@ -19608,16 +19602,16 @@
       <c r="AI175" s="48"/>
       <c r="AJ175" s="48"/>
       <c r="AK175" s="47"/>
-      <c r="AL175" s="90"/>
-      <c r="AM175" s="90"/>
+      <c r="AL175" s="88"/>
+      <c r="AM175" s="88"/>
       <c r="AN175" s="2"/>
-      <c r="AO175" s="93"/>
-      <c r="AP175" s="93"/>
+      <c r="AO175" s="91"/>
+      <c r="AP175" s="91"/>
       <c r="AQ175" s="48"/>
-      <c r="AR175" s="93"/>
-      <c r="AS175" s="93"/>
-      <c r="AT175" s="92"/>
-      <c r="AU175" s="93"/>
+      <c r="AR175" s="91"/>
+      <c r="AS175" s="91"/>
+      <c r="AT175" s="90"/>
+      <c r="AU175" s="91"/>
       <c r="AV175" s="1"/>
       <c r="AW175" s="2"/>
       <c r="AX175" s="2"/>
@@ -19705,16 +19699,16 @@
       <c r="AI176" s="48"/>
       <c r="AJ176" s="48"/>
       <c r="AK176" s="47"/>
-      <c r="AL176" s="90"/>
-      <c r="AM176" s="90"/>
+      <c r="AL176" s="88"/>
+      <c r="AM176" s="88"/>
       <c r="AN176" s="2"/>
-      <c r="AO176" s="93"/>
-      <c r="AP176" s="93"/>
+      <c r="AO176" s="91"/>
+      <c r="AP176" s="91"/>
       <c r="AQ176" s="48"/>
-      <c r="AR176" s="93"/>
-      <c r="AS176" s="93"/>
-      <c r="AT176" s="92"/>
-      <c r="AU176" s="93"/>
+      <c r="AR176" s="91"/>
+      <c r="AS176" s="91"/>
+      <c r="AT176" s="90"/>
+      <c r="AU176" s="91"/>
       <c r="AV176" s="1"/>
       <c r="AW176" s="2"/>
       <c r="AX176" s="2"/>
@@ -19802,16 +19796,16 @@
       <c r="AI177" s="48"/>
       <c r="AJ177" s="48"/>
       <c r="AK177" s="47"/>
-      <c r="AL177" s="90"/>
-      <c r="AM177" s="90"/>
+      <c r="AL177" s="88"/>
+      <c r="AM177" s="88"/>
       <c r="AN177" s="2"/>
-      <c r="AO177" s="93"/>
-      <c r="AP177" s="93"/>
+      <c r="AO177" s="91"/>
+      <c r="AP177" s="91"/>
       <c r="AQ177" s="48"/>
-      <c r="AR177" s="93"/>
-      <c r="AS177" s="93"/>
-      <c r="AT177" s="92"/>
-      <c r="AU177" s="93"/>
+      <c r="AR177" s="91"/>
+      <c r="AS177" s="91"/>
+      <c r="AT177" s="90"/>
+      <c r="AU177" s="91"/>
       <c r="AV177" s="1"/>
       <c r="AW177" s="2"/>
       <c r="AX177" s="2"/>
@@ -19899,16 +19893,16 @@
       <c r="AI178" s="48"/>
       <c r="AJ178" s="48"/>
       <c r="AK178" s="47"/>
-      <c r="AL178" s="90"/>
-      <c r="AM178" s="90"/>
+      <c r="AL178" s="88"/>
+      <c r="AM178" s="88"/>
       <c r="AN178" s="2"/>
-      <c r="AO178" s="93"/>
-      <c r="AP178" s="93"/>
+      <c r="AO178" s="91"/>
+      <c r="AP178" s="91"/>
       <c r="AQ178" s="48"/>
-      <c r="AR178" s="93"/>
-      <c r="AS178" s="93"/>
-      <c r="AT178" s="92"/>
-      <c r="AU178" s="93"/>
+      <c r="AR178" s="91"/>
+      <c r="AS178" s="91"/>
+      <c r="AT178" s="90"/>
+      <c r="AU178" s="91"/>
       <c r="AV178" s="1"/>
       <c r="AW178" s="2"/>
       <c r="AX178" s="2"/>
@@ -19981,16 +19975,16 @@
       <c r="AI179" s="48"/>
       <c r="AJ179" s="48"/>
       <c r="AK179" s="47"/>
-      <c r="AL179" s="90"/>
-      <c r="AM179" s="90"/>
+      <c r="AL179" s="88"/>
+      <c r="AM179" s="88"/>
       <c r="AN179" s="2"/>
-      <c r="AO179" s="93"/>
-      <c r="AP179" s="93"/>
+      <c r="AO179" s="91"/>
+      <c r="AP179" s="91"/>
       <c r="AQ179" s="48"/>
-      <c r="AR179" s="93"/>
-      <c r="AS179" s="93"/>
-      <c r="AT179" s="92"/>
-      <c r="AU179" s="93"/>
+      <c r="AR179" s="91"/>
+      <c r="AS179" s="91"/>
+      <c r="AT179" s="90"/>
+      <c r="AU179" s="91"/>
       <c r="AV179" s="1"/>
       <c r="AW179" s="2"/>
       <c r="AX179" s="2"/>
@@ -20082,16 +20076,16 @@
       <c r="AI180" s="48"/>
       <c r="AJ180" s="48"/>
       <c r="AK180" s="47"/>
-      <c r="AL180" s="90"/>
-      <c r="AM180" s="90"/>
+      <c r="AL180" s="88"/>
+      <c r="AM180" s="88"/>
       <c r="AN180" s="2"/>
-      <c r="AO180" s="93"/>
-      <c r="AP180" s="93"/>
+      <c r="AO180" s="91"/>
+      <c r="AP180" s="91"/>
       <c r="AQ180" s="48"/>
-      <c r="AR180" s="93"/>
-      <c r="AS180" s="93"/>
-      <c r="AT180" s="92"/>
-      <c r="AU180" s="93"/>
+      <c r="AR180" s="91"/>
+      <c r="AS180" s="91"/>
+      <c r="AT180" s="90"/>
+      <c r="AU180" s="91"/>
       <c r="AV180" s="1"/>
       <c r="AW180" s="2"/>
       <c r="AX180" s="2"/>
@@ -20179,16 +20173,16 @@
       <c r="AI181" s="48"/>
       <c r="AJ181" s="48"/>
       <c r="AK181" s="47"/>
-      <c r="AL181" s="90"/>
-      <c r="AM181" s="90"/>
+      <c r="AL181" s="88"/>
+      <c r="AM181" s="88"/>
       <c r="AN181" s="2"/>
-      <c r="AO181" s="93"/>
-      <c r="AP181" s="93"/>
+      <c r="AO181" s="91"/>
+      <c r="AP181" s="91"/>
       <c r="AQ181" s="48"/>
-      <c r="AR181" s="93"/>
-      <c r="AS181" s="93"/>
-      <c r="AT181" s="92"/>
-      <c r="AU181" s="93"/>
+      <c r="AR181" s="91"/>
+      <c r="AS181" s="91"/>
+      <c r="AT181" s="90"/>
+      <c r="AU181" s="91"/>
       <c r="AV181" s="1"/>
       <c r="AW181" s="2"/>
       <c r="AX181" s="2"/>
@@ -20276,16 +20270,16 @@
       <c r="AI182" s="48"/>
       <c r="AJ182" s="48"/>
       <c r="AK182" s="47"/>
-      <c r="AL182" s="90"/>
-      <c r="AM182" s="90"/>
+      <c r="AL182" s="88"/>
+      <c r="AM182" s="88"/>
       <c r="AN182" s="2"/>
-      <c r="AO182" s="93"/>
-      <c r="AP182" s="93"/>
+      <c r="AO182" s="91"/>
+      <c r="AP182" s="91"/>
       <c r="AQ182" s="48"/>
-      <c r="AR182" s="93"/>
-      <c r="AS182" s="93"/>
-      <c r="AT182" s="92"/>
-      <c r="AU182" s="93"/>
+      <c r="AR182" s="91"/>
+      <c r="AS182" s="91"/>
+      <c r="AT182" s="90"/>
+      <c r="AU182" s="91"/>
       <c r="AV182" s="1"/>
       <c r="AW182" s="2"/>
       <c r="AX182" s="2"/>
@@ -20373,16 +20367,16 @@
       <c r="AI183" s="48"/>
       <c r="AJ183" s="48"/>
       <c r="AK183" s="47"/>
-      <c r="AL183" s="90"/>
-      <c r="AM183" s="90"/>
+      <c r="AL183" s="88"/>
+      <c r="AM183" s="88"/>
       <c r="AN183" s="2"/>
-      <c r="AO183" s="93"/>
-      <c r="AP183" s="93"/>
+      <c r="AO183" s="91"/>
+      <c r="AP183" s="91"/>
       <c r="AQ183" s="48"/>
-      <c r="AR183" s="93"/>
-      <c r="AS183" s="93"/>
-      <c r="AT183" s="92"/>
-      <c r="AU183" s="93"/>
+      <c r="AR183" s="91"/>
+      <c r="AS183" s="91"/>
+      <c r="AT183" s="90"/>
+      <c r="AU183" s="91"/>
       <c r="AV183" s="1"/>
       <c r="AW183" s="2"/>
       <c r="AX183" s="2"/>
@@ -20470,16 +20464,16 @@
       <c r="AI184" s="48"/>
       <c r="AJ184" s="48"/>
       <c r="AK184" s="47"/>
-      <c r="AL184" s="90"/>
-      <c r="AM184" s="90"/>
+      <c r="AL184" s="88"/>
+      <c r="AM184" s="88"/>
       <c r="AN184" s="2"/>
-      <c r="AO184" s="93"/>
-      <c r="AP184" s="93"/>
+      <c r="AO184" s="91"/>
+      <c r="AP184" s="91"/>
       <c r="AQ184" s="48"/>
-      <c r="AR184" s="93"/>
-      <c r="AS184" s="93"/>
-      <c r="AT184" s="92"/>
-      <c r="AU184" s="93"/>
+      <c r="AR184" s="91"/>
+      <c r="AS184" s="91"/>
+      <c r="AT184" s="90"/>
+      <c r="AU184" s="91"/>
       <c r="AV184" s="1"/>
       <c r="AW184" s="2"/>
       <c r="AX184" s="2"/>
@@ -20567,16 +20561,16 @@
       <c r="AI185" s="48"/>
       <c r="AJ185" s="48"/>
       <c r="AK185" s="47"/>
-      <c r="AL185" s="90"/>
-      <c r="AM185" s="90"/>
+      <c r="AL185" s="88"/>
+      <c r="AM185" s="88"/>
       <c r="AN185" s="2"/>
-      <c r="AO185" s="93"/>
-      <c r="AP185" s="93"/>
+      <c r="AO185" s="91"/>
+      <c r="AP185" s="91"/>
       <c r="AQ185" s="48"/>
-      <c r="AR185" s="93"/>
-      <c r="AS185" s="93"/>
-      <c r="AT185" s="92"/>
-      <c r="AU185" s="93"/>
+      <c r="AR185" s="91"/>
+      <c r="AS185" s="91"/>
+      <c r="AT185" s="90"/>
+      <c r="AU185" s="91"/>
       <c r="AV185" s="1"/>
       <c r="AW185" s="2"/>
       <c r="AX185" s="2"/>
@@ -20664,16 +20658,16 @@
       <c r="AI186" s="48"/>
       <c r="AJ186" s="48"/>
       <c r="AK186" s="47"/>
-      <c r="AL186" s="90"/>
-      <c r="AM186" s="90"/>
+      <c r="AL186" s="88"/>
+      <c r="AM186" s="88"/>
       <c r="AN186" s="2"/>
-      <c r="AO186" s="93"/>
-      <c r="AP186" s="93"/>
+      <c r="AO186" s="91"/>
+      <c r="AP186" s="91"/>
       <c r="AQ186" s="48"/>
-      <c r="AR186" s="93"/>
-      <c r="AS186" s="93"/>
-      <c r="AT186" s="92"/>
-      <c r="AU186" s="93"/>
+      <c r="AR186" s="91"/>
+      <c r="AS186" s="91"/>
+      <c r="AT186" s="90"/>
+      <c r="AU186" s="91"/>
       <c r="AV186" s="1"/>
       <c r="AW186" s="2"/>
       <c r="AX186" s="2"/>
@@ -20761,16 +20755,16 @@
       <c r="AI187" s="48"/>
       <c r="AJ187" s="48"/>
       <c r="AK187" s="47"/>
-      <c r="AL187" s="90"/>
-      <c r="AM187" s="90"/>
+      <c r="AL187" s="88"/>
+      <c r="AM187" s="88"/>
       <c r="AN187" s="2"/>
-      <c r="AO187" s="93"/>
-      <c r="AP187" s="93"/>
+      <c r="AO187" s="91"/>
+      <c r="AP187" s="91"/>
       <c r="AQ187" s="48"/>
-      <c r="AR187" s="93"/>
-      <c r="AS187" s="93"/>
-      <c r="AT187" s="92"/>
-      <c r="AU187" s="93"/>
+      <c r="AR187" s="91"/>
+      <c r="AS187" s="91"/>
+      <c r="AT187" s="90"/>
+      <c r="AU187" s="91"/>
       <c r="AV187" s="1"/>
       <c r="AW187" s="2"/>
       <c r="AX187" s="2"/>
@@ -20858,16 +20852,16 @@
       <c r="AI188" s="48"/>
       <c r="AJ188" s="48"/>
       <c r="AK188" s="47"/>
-      <c r="AL188" s="90"/>
-      <c r="AM188" s="90"/>
+      <c r="AL188" s="88"/>
+      <c r="AM188" s="88"/>
       <c r="AN188" s="2"/>
-      <c r="AO188" s="93"/>
-      <c r="AP188" s="93"/>
+      <c r="AO188" s="91"/>
+      <c r="AP188" s="91"/>
       <c r="AQ188" s="48"/>
-      <c r="AR188" s="93"/>
-      <c r="AS188" s="93"/>
-      <c r="AT188" s="92"/>
-      <c r="AU188" s="93"/>
+      <c r="AR188" s="91"/>
+      <c r="AS188" s="91"/>
+      <c r="AT188" s="90"/>
+      <c r="AU188" s="91"/>
       <c r="AV188" s="1"/>
       <c r="AW188" s="2"/>
       <c r="AX188" s="2"/>
@@ -20955,16 +20949,16 @@
       <c r="AI189" s="48"/>
       <c r="AJ189" s="48"/>
       <c r="AK189" s="47"/>
-      <c r="AL189" s="90"/>
-      <c r="AM189" s="90"/>
+      <c r="AL189" s="88"/>
+      <c r="AM189" s="88"/>
       <c r="AN189" s="2"/>
-      <c r="AO189" s="93"/>
-      <c r="AP189" s="93"/>
+      <c r="AO189" s="91"/>
+      <c r="AP189" s="91"/>
       <c r="AQ189" s="48"/>
-      <c r="AR189" s="93"/>
-      <c r="AS189" s="93"/>
-      <c r="AT189" s="92"/>
-      <c r="AU189" s="93"/>
+      <c r="AR189" s="91"/>
+      <c r="AS189" s="91"/>
+      <c r="AT189" s="90"/>
+      <c r="AU189" s="91"/>
       <c r="AV189" s="1"/>
       <c r="AW189" s="2"/>
       <c r="AX189" s="2"/>
@@ -21052,16 +21046,16 @@
       <c r="AI190" s="48"/>
       <c r="AJ190" s="48"/>
       <c r="AK190" s="47"/>
-      <c r="AL190" s="90"/>
-      <c r="AM190" s="90"/>
+      <c r="AL190" s="88"/>
+      <c r="AM190" s="88"/>
       <c r="AN190" s="2"/>
-      <c r="AO190" s="93"/>
-      <c r="AP190" s="93"/>
+      <c r="AO190" s="91"/>
+      <c r="AP190" s="91"/>
       <c r="AQ190" s="48"/>
-      <c r="AR190" s="93"/>
-      <c r="AS190" s="93"/>
-      <c r="AT190" s="92"/>
-      <c r="AU190" s="93"/>
+      <c r="AR190" s="91"/>
+      <c r="AS190" s="91"/>
+      <c r="AT190" s="90"/>
+      <c r="AU190" s="91"/>
       <c r="AV190" s="1"/>
       <c r="AW190" s="2"/>
       <c r="AX190" s="2"/>
@@ -21134,16 +21128,16 @@
       <c r="AI191" s="48"/>
       <c r="AJ191" s="48"/>
       <c r="AK191" s="47"/>
-      <c r="AL191" s="90"/>
-      <c r="AM191" s="90"/>
+      <c r="AL191" s="88"/>
+      <c r="AM191" s="88"/>
       <c r="AN191" s="2"/>
-      <c r="AO191" s="93"/>
-      <c r="AP191" s="93"/>
+      <c r="AO191" s="91"/>
+      <c r="AP191" s="91"/>
       <c r="AQ191" s="48"/>
-      <c r="AR191" s="93"/>
-      <c r="AS191" s="93"/>
-      <c r="AT191" s="92"/>
-      <c r="AU191" s="93"/>
+      <c r="AR191" s="91"/>
+      <c r="AS191" s="91"/>
+      <c r="AT191" s="90"/>
+      <c r="AU191" s="91"/>
       <c r="AV191" s="1"/>
       <c r="AW191" s="2"/>
       <c r="AX191" s="2"/>
@@ -21235,16 +21229,16 @@
       <c r="AI192" s="48"/>
       <c r="AJ192" s="48"/>
       <c r="AK192" s="47"/>
-      <c r="AL192" s="90"/>
-      <c r="AM192" s="90"/>
+      <c r="AL192" s="88"/>
+      <c r="AM192" s="88"/>
       <c r="AN192" s="2"/>
-      <c r="AO192" s="93"/>
-      <c r="AP192" s="93"/>
+      <c r="AO192" s="91"/>
+      <c r="AP192" s="91"/>
       <c r="AQ192" s="48"/>
-      <c r="AR192" s="93"/>
-      <c r="AS192" s="93"/>
-      <c r="AT192" s="92"/>
-      <c r="AU192" s="93"/>
+      <c r="AR192" s="91"/>
+      <c r="AS192" s="91"/>
+      <c r="AT192" s="90"/>
+      <c r="AU192" s="91"/>
       <c r="AV192" s="1"/>
       <c r="AW192" s="2"/>
       <c r="AX192" s="2"/>
@@ -21332,16 +21326,16 @@
       <c r="AI193" s="48"/>
       <c r="AJ193" s="48"/>
       <c r="AK193" s="47"/>
-      <c r="AL193" s="90"/>
-      <c r="AM193" s="90"/>
+      <c r="AL193" s="88"/>
+      <c r="AM193" s="88"/>
       <c r="AN193" s="2"/>
-      <c r="AO193" s="93"/>
-      <c r="AP193" s="93"/>
+      <c r="AO193" s="91"/>
+      <c r="AP193" s="91"/>
       <c r="AQ193" s="48"/>
-      <c r="AR193" s="93"/>
-      <c r="AS193" s="93"/>
-      <c r="AT193" s="92"/>
-      <c r="AU193" s="93"/>
+      <c r="AR193" s="91"/>
+      <c r="AS193" s="91"/>
+      <c r="AT193" s="90"/>
+      <c r="AU193" s="91"/>
       <c r="AV193" s="1"/>
       <c r="AW193" s="2"/>
       <c r="AX193" s="2"/>
@@ -21429,16 +21423,16 @@
       <c r="AI194" s="48"/>
       <c r="AJ194" s="48"/>
       <c r="AK194" s="47"/>
-      <c r="AL194" s="90"/>
-      <c r="AM194" s="90"/>
+      <c r="AL194" s="88"/>
+      <c r="AM194" s="88"/>
       <c r="AN194" s="2"/>
-      <c r="AO194" s="93"/>
-      <c r="AP194" s="93"/>
+      <c r="AO194" s="91"/>
+      <c r="AP194" s="91"/>
       <c r="AQ194" s="48"/>
-      <c r="AR194" s="93"/>
-      <c r="AS194" s="93"/>
-      <c r="AT194" s="92"/>
-      <c r="AU194" s="93"/>
+      <c r="AR194" s="91"/>
+      <c r="AS194" s="91"/>
+      <c r="AT194" s="90"/>
+      <c r="AU194" s="91"/>
       <c r="AV194" s="1"/>
       <c r="AW194" s="2"/>
       <c r="AX194" s="2"/>
@@ -21526,16 +21520,16 @@
       <c r="AI195" s="48"/>
       <c r="AJ195" s="48"/>
       <c r="AK195" s="47"/>
-      <c r="AL195" s="90"/>
-      <c r="AM195" s="90"/>
+      <c r="AL195" s="88"/>
+      <c r="AM195" s="88"/>
       <c r="AN195" s="2"/>
-      <c r="AO195" s="93"/>
-      <c r="AP195" s="93"/>
+      <c r="AO195" s="91"/>
+      <c r="AP195" s="91"/>
       <c r="AQ195" s="48"/>
-      <c r="AR195" s="93"/>
-      <c r="AS195" s="93"/>
-      <c r="AT195" s="92"/>
-      <c r="AU195" s="93"/>
+      <c r="AR195" s="91"/>
+      <c r="AS195" s="91"/>
+      <c r="AT195" s="90"/>
+      <c r="AU195" s="91"/>
       <c r="AV195" s="1"/>
       <c r="AW195" s="2"/>
       <c r="AX195" s="2"/>
@@ -21623,16 +21617,16 @@
       <c r="AI196" s="48"/>
       <c r="AJ196" s="48"/>
       <c r="AK196" s="47"/>
-      <c r="AL196" s="90"/>
-      <c r="AM196" s="90"/>
+      <c r="AL196" s="88"/>
+      <c r="AM196" s="88"/>
       <c r="AN196" s="2"/>
-      <c r="AO196" s="93"/>
-      <c r="AP196" s="93"/>
+      <c r="AO196" s="91"/>
+      <c r="AP196" s="91"/>
       <c r="AQ196" s="48"/>
-      <c r="AR196" s="93"/>
-      <c r="AS196" s="93"/>
-      <c r="AT196" s="92"/>
-      <c r="AU196" s="93"/>
+      <c r="AR196" s="91"/>
+      <c r="AS196" s="91"/>
+      <c r="AT196" s="90"/>
+      <c r="AU196" s="91"/>
       <c r="AV196" s="1"/>
       <c r="AW196" s="2"/>
       <c r="AX196" s="2"/>
@@ -21720,16 +21714,16 @@
       <c r="AI197" s="48"/>
       <c r="AJ197" s="48"/>
       <c r="AK197" s="47"/>
-      <c r="AL197" s="90"/>
-      <c r="AM197" s="90"/>
+      <c r="AL197" s="88"/>
+      <c r="AM197" s="88"/>
       <c r="AN197" s="2"/>
-      <c r="AO197" s="93"/>
-      <c r="AP197" s="93"/>
+      <c r="AO197" s="91"/>
+      <c r="AP197" s="91"/>
       <c r="AQ197" s="48"/>
-      <c r="AR197" s="93"/>
-      <c r="AS197" s="93"/>
-      <c r="AT197" s="92"/>
-      <c r="AU197" s="93"/>
+      <c r="AR197" s="91"/>
+      <c r="AS197" s="91"/>
+      <c r="AT197" s="90"/>
+      <c r="AU197" s="91"/>
       <c r="AV197" s="1"/>
       <c r="AW197" s="2"/>
       <c r="AX197" s="2"/>
@@ -21817,16 +21811,16 @@
       <c r="AI198" s="48"/>
       <c r="AJ198" s="48"/>
       <c r="AK198" s="47"/>
-      <c r="AL198" s="90"/>
-      <c r="AM198" s="90"/>
+      <c r="AL198" s="88"/>
+      <c r="AM198" s="88"/>
       <c r="AN198" s="2"/>
-      <c r="AO198" s="93"/>
-      <c r="AP198" s="93"/>
+      <c r="AO198" s="91"/>
+      <c r="AP198" s="91"/>
       <c r="AQ198" s="48"/>
-      <c r="AR198" s="93"/>
-      <c r="AS198" s="93"/>
-      <c r="AT198" s="92"/>
-      <c r="AU198" s="93"/>
+      <c r="AR198" s="91"/>
+      <c r="AS198" s="91"/>
+      <c r="AT198" s="90"/>
+      <c r="AU198" s="91"/>
       <c r="AV198" s="1"/>
       <c r="AW198" s="2"/>
       <c r="AX198" s="2"/>
@@ -21914,16 +21908,16 @@
       <c r="AI199" s="48"/>
       <c r="AJ199" s="48"/>
       <c r="AK199" s="47"/>
-      <c r="AL199" s="90"/>
-      <c r="AM199" s="90"/>
+      <c r="AL199" s="88"/>
+      <c r="AM199" s="88"/>
       <c r="AN199" s="2"/>
-      <c r="AO199" s="93"/>
-      <c r="AP199" s="93"/>
+      <c r="AO199" s="91"/>
+      <c r="AP199" s="91"/>
       <c r="AQ199" s="48"/>
-      <c r="AR199" s="93"/>
-      <c r="AS199" s="93"/>
-      <c r="AT199" s="92"/>
-      <c r="AU199" s="93"/>
+      <c r="AR199" s="91"/>
+      <c r="AS199" s="91"/>
+      <c r="AT199" s="90"/>
+      <c r="AU199" s="91"/>
       <c r="AV199" s="1"/>
       <c r="AW199" s="2"/>
       <c r="AX199" s="2"/>
@@ -22011,16 +22005,16 @@
       <c r="AI200" s="48"/>
       <c r="AJ200" s="48"/>
       <c r="AK200" s="47"/>
-      <c r="AL200" s="90"/>
-      <c r="AM200" s="90"/>
+      <c r="AL200" s="88"/>
+      <c r="AM200" s="88"/>
       <c r="AN200" s="2"/>
-      <c r="AO200" s="93"/>
-      <c r="AP200" s="93"/>
+      <c r="AO200" s="91"/>
+      <c r="AP200" s="91"/>
       <c r="AQ200" s="48"/>
-      <c r="AR200" s="93"/>
-      <c r="AS200" s="93"/>
-      <c r="AT200" s="92"/>
-      <c r="AU200" s="93"/>
+      <c r="AR200" s="91"/>
+      <c r="AS200" s="91"/>
+      <c r="AT200" s="90"/>
+      <c r="AU200" s="91"/>
       <c r="AV200" s="1"/>
       <c r="AW200" s="2"/>
       <c r="AX200" s="2"/>
@@ -22093,16 +22087,16 @@
       <c r="AI201" s="48"/>
       <c r="AJ201" s="48"/>
       <c r="AK201" s="47"/>
-      <c r="AL201" s="90"/>
-      <c r="AM201" s="90"/>
+      <c r="AL201" s="88"/>
+      <c r="AM201" s="88"/>
       <c r="AN201" s="2"/>
-      <c r="AO201" s="93"/>
-      <c r="AP201" s="93"/>
+      <c r="AO201" s="91"/>
+      <c r="AP201" s="91"/>
       <c r="AQ201" s="48"/>
-      <c r="AR201" s="93"/>
-      <c r="AS201" s="93"/>
-      <c r="AT201" s="92"/>
-      <c r="AU201" s="93"/>
+      <c r="AR201" s="91"/>
+      <c r="AS201" s="91"/>
+      <c r="AT201" s="90"/>
+      <c r="AU201" s="91"/>
       <c r="AV201" s="1"/>
       <c r="AW201" s="2"/>
       <c r="AX201" s="2"/>
@@ -22125,12 +22119,12 @@
       <c r="I202" s="2"/>
       <c r="J202" s="1"/>
       <c r="K202" s="2"/>
-      <c r="L202" s="97"/>
-      <c r="M202" s="98"/>
-      <c r="N202" s="98"/>
-      <c r="O202" s="98"/>
-      <c r="P202" s="98"/>
-      <c r="Q202" s="98"/>
+      <c r="L202" s="95"/>
+      <c r="M202" s="96"/>
+      <c r="N202" s="96"/>
+      <c r="O202" s="96"/>
+      <c r="P202" s="96"/>
+      <c r="Q202" s="96"/>
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
@@ -22151,16 +22145,16 @@
       <c r="AI202" s="48"/>
       <c r="AJ202" s="48"/>
       <c r="AK202" s="47"/>
-      <c r="AL202" s="99"/>
-      <c r="AM202" s="99"/>
+      <c r="AL202" s="97"/>
+      <c r="AM202" s="97"/>
       <c r="AN202" s="2"/>
-      <c r="AO202" s="93"/>
-      <c r="AP202" s="93"/>
+      <c r="AO202" s="91"/>
+      <c r="AP202" s="91"/>
       <c r="AQ202" s="48"/>
-      <c r="AR202" s="93"/>
-      <c r="AS202" s="93"/>
-      <c r="AT202" s="92"/>
-      <c r="AU202" s="93"/>
+      <c r="AR202" s="91"/>
+      <c r="AS202" s="91"/>
+      <c r="AT202" s="90"/>
+      <c r="AU202" s="91"/>
       <c r="AV202" s="1"/>
       <c r="AW202" s="2"/>
       <c r="AX202" s="2"/>
@@ -22181,12 +22175,12 @@
       <c r="I203" s="2"/>
       <c r="J203" s="1"/>
       <c r="K203" s="2"/>
-      <c r="L203" s="97"/>
-      <c r="M203" s="98"/>
-      <c r="N203" s="98"/>
-      <c r="O203" s="98"/>
-      <c r="P203" s="98"/>
-      <c r="Q203" s="98"/>
+      <c r="L203" s="95"/>
+      <c r="M203" s="96"/>
+      <c r="N203" s="96"/>
+      <c r="O203" s="96"/>
+      <c r="P203" s="96"/>
+      <c r="Q203" s="96"/>
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
@@ -22207,16 +22201,16 @@
       <c r="AI203" s="48"/>
       <c r="AJ203" s="48"/>
       <c r="AK203" s="47"/>
-      <c r="AL203" s="99"/>
-      <c r="AM203" s="99"/>
+      <c r="AL203" s="97"/>
+      <c r="AM203" s="97"/>
       <c r="AN203" s="2"/>
-      <c r="AO203" s="93"/>
-      <c r="AP203" s="93"/>
+      <c r="AO203" s="91"/>
+      <c r="AP203" s="91"/>
       <c r="AQ203" s="48"/>
-      <c r="AR203" s="93"/>
-      <c r="AS203" s="93"/>
-      <c r="AT203" s="92"/>
-      <c r="AU203" s="93"/>
+      <c r="AR203" s="91"/>
+      <c r="AS203" s="91"/>
+      <c r="AT203" s="90"/>
+      <c r="AU203" s="91"/>
       <c r="AV203" s="1"/>
       <c r="AW203" s="2"/>
       <c r="AX203" s="2"/>
@@ -22237,12 +22231,12 @@
       <c r="I204" s="2"/>
       <c r="J204" s="1"/>
       <c r="K204" s="2"/>
-      <c r="L204" s="97"/>
-      <c r="M204" s="98"/>
-      <c r="N204" s="98"/>
-      <c r="O204" s="98"/>
-      <c r="P204" s="98"/>
-      <c r="Q204" s="98"/>
+      <c r="L204" s="95"/>
+      <c r="M204" s="96"/>
+      <c r="N204" s="96"/>
+      <c r="O204" s="96"/>
+      <c r="P204" s="96"/>
+      <c r="Q204" s="96"/>
       <c r="R204" s="2"/>
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
@@ -22263,16 +22257,16 @@
       <c r="AI204" s="48"/>
       <c r="AJ204" s="48"/>
       <c r="AK204" s="47"/>
-      <c r="AL204" s="99"/>
-      <c r="AM204" s="99"/>
+      <c r="AL204" s="97"/>
+      <c r="AM204" s="97"/>
       <c r="AN204" s="2"/>
-      <c r="AO204" s="93"/>
-      <c r="AP204" s="93"/>
+      <c r="AO204" s="91"/>
+      <c r="AP204" s="91"/>
       <c r="AQ204" s="48"/>
-      <c r="AR204" s="93"/>
-      <c r="AS204" s="93"/>
-      <c r="AT204" s="92"/>
-      <c r="AU204" s="93"/>
+      <c r="AR204" s="91"/>
+      <c r="AS204" s="91"/>
+      <c r="AT204" s="90"/>
+      <c r="AU204" s="91"/>
       <c r="AV204" s="1"/>
       <c r="AW204" s="2"/>
       <c r="AX204" s="2"/>
@@ -22293,12 +22287,12 @@
       <c r="I205" s="2"/>
       <c r="J205" s="1"/>
       <c r="K205" s="2"/>
-      <c r="L205" s="97"/>
-      <c r="M205" s="98"/>
-      <c r="N205" s="98"/>
-      <c r="O205" s="98"/>
-      <c r="P205" s="98"/>
-      <c r="Q205" s="98"/>
+      <c r="L205" s="95"/>
+      <c r="M205" s="96"/>
+      <c r="N205" s="96"/>
+      <c r="O205" s="96"/>
+      <c r="P205" s="96"/>
+      <c r="Q205" s="96"/>
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
@@ -22319,16 +22313,16 @@
       <c r="AI205" s="48"/>
       <c r="AJ205" s="48"/>
       <c r="AK205" s="47"/>
-      <c r="AL205" s="99"/>
-      <c r="AM205" s="99"/>
+      <c r="AL205" s="97"/>
+      <c r="AM205" s="97"/>
       <c r="AN205" s="2"/>
-      <c r="AO205" s="93"/>
-      <c r="AP205" s="93"/>
+      <c r="AO205" s="91"/>
+      <c r="AP205" s="91"/>
       <c r="AQ205" s="48"/>
-      <c r="AR205" s="93"/>
-      <c r="AS205" s="93"/>
-      <c r="AT205" s="92"/>
-      <c r="AU205" s="93"/>
+      <c r="AR205" s="91"/>
+      <c r="AS205" s="91"/>
+      <c r="AT205" s="90"/>
+      <c r="AU205" s="91"/>
       <c r="AV205" s="1"/>
       <c r="AW205" s="2"/>
       <c r="AX205" s="2"/>
@@ -22349,12 +22343,12 @@
       <c r="I206" s="2"/>
       <c r="J206" s="1"/>
       <c r="K206" s="2"/>
-      <c r="L206" s="97"/>
-      <c r="M206" s="98"/>
-      <c r="N206" s="98"/>
-      <c r="O206" s="98"/>
-      <c r="P206" s="98"/>
-      <c r="Q206" s="98"/>
+      <c r="L206" s="95"/>
+      <c r="M206" s="96"/>
+      <c r="N206" s="96"/>
+      <c r="O206" s="96"/>
+      <c r="P206" s="96"/>
+      <c r="Q206" s="96"/>
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
@@ -22375,16 +22369,16 @@
       <c r="AI206" s="48"/>
       <c r="AJ206" s="48"/>
       <c r="AK206" s="47"/>
-      <c r="AL206" s="99"/>
-      <c r="AM206" s="99"/>
+      <c r="AL206" s="97"/>
+      <c r="AM206" s="97"/>
       <c r="AN206" s="2"/>
-      <c r="AO206" s="93"/>
-      <c r="AP206" s="93"/>
+      <c r="AO206" s="91"/>
+      <c r="AP206" s="91"/>
       <c r="AQ206" s="48"/>
-      <c r="AR206" s="93"/>
-      <c r="AS206" s="93"/>
-      <c r="AT206" s="92"/>
-      <c r="AU206" s="93"/>
+      <c r="AR206" s="91"/>
+      <c r="AS206" s="91"/>
+      <c r="AT206" s="90"/>
+      <c r="AU206" s="91"/>
       <c r="AV206" s="1"/>
       <c r="AW206" s="2"/>
       <c r="AX206" s="2"/>
@@ -22405,12 +22399,12 @@
       <c r="I207" s="2"/>
       <c r="J207" s="1"/>
       <c r="K207" s="2"/>
-      <c r="L207" s="97"/>
-      <c r="M207" s="98"/>
-      <c r="N207" s="98"/>
-      <c r="O207" s="98"/>
-      <c r="P207" s="98"/>
-      <c r="Q207" s="98"/>
+      <c r="L207" s="95"/>
+      <c r="M207" s="96"/>
+      <c r="N207" s="96"/>
+      <c r="O207" s="96"/>
+      <c r="P207" s="96"/>
+      <c r="Q207" s="96"/>
       <c r="R207" s="2"/>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
@@ -22431,16 +22425,16 @@
       <c r="AI207" s="48"/>
       <c r="AJ207" s="48"/>
       <c r="AK207" s="47"/>
-      <c r="AL207" s="99"/>
-      <c r="AM207" s="99"/>
+      <c r="AL207" s="97"/>
+      <c r="AM207" s="97"/>
       <c r="AN207" s="2"/>
-      <c r="AO207" s="93"/>
-      <c r="AP207" s="93"/>
+      <c r="AO207" s="91"/>
+      <c r="AP207" s="91"/>
       <c r="AQ207" s="48"/>
-      <c r="AR207" s="93"/>
-      <c r="AS207" s="93"/>
-      <c r="AT207" s="92"/>
-      <c r="AU207" s="93"/>
+      <c r="AR207" s="91"/>
+      <c r="AS207" s="91"/>
+      <c r="AT207" s="90"/>
+      <c r="AU207" s="91"/>
       <c r="AV207" s="1"/>
       <c r="AW207" s="2"/>
       <c r="AX207" s="2"/>
@@ -22461,12 +22455,12 @@
       <c r="I208" s="2"/>
       <c r="J208" s="1"/>
       <c r="K208" s="2"/>
-      <c r="L208" s="97"/>
-      <c r="M208" s="98"/>
-      <c r="N208" s="98"/>
-      <c r="O208" s="98"/>
-      <c r="P208" s="98"/>
-      <c r="Q208" s="98"/>
+      <c r="L208" s="95"/>
+      <c r="M208" s="96"/>
+      <c r="N208" s="96"/>
+      <c r="O208" s="96"/>
+      <c r="P208" s="96"/>
+      <c r="Q208" s="96"/>
       <c r="R208" s="2"/>
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
@@ -22487,16 +22481,16 @@
       <c r="AI208" s="48"/>
       <c r="AJ208" s="48"/>
       <c r="AK208" s="47"/>
-      <c r="AL208" s="99"/>
-      <c r="AM208" s="99"/>
+      <c r="AL208" s="97"/>
+      <c r="AM208" s="97"/>
       <c r="AN208" s="2"/>
-      <c r="AO208" s="93"/>
-      <c r="AP208" s="93"/>
+      <c r="AO208" s="91"/>
+      <c r="AP208" s="91"/>
       <c r="AQ208" s="48"/>
-      <c r="AR208" s="93"/>
-      <c r="AS208" s="93"/>
-      <c r="AT208" s="92"/>
-      <c r="AU208" s="93"/>
+      <c r="AR208" s="91"/>
+      <c r="AS208" s="91"/>
+      <c r="AT208" s="90"/>
+      <c r="AU208" s="91"/>
       <c r="AV208" s="1"/>
       <c r="AW208" s="2"/>
       <c r="AX208" s="2"/>
@@ -22517,12 +22511,12 @@
       <c r="I209" s="2"/>
       <c r="J209" s="1"/>
       <c r="K209" s="2"/>
-      <c r="L209" s="97"/>
-      <c r="M209" s="98"/>
-      <c r="N209" s="98"/>
-      <c r="O209" s="98"/>
-      <c r="P209" s="98"/>
-      <c r="Q209" s="98"/>
+      <c r="L209" s="95"/>
+      <c r="M209" s="96"/>
+      <c r="N209" s="96"/>
+      <c r="O209" s="96"/>
+      <c r="P209" s="96"/>
+      <c r="Q209" s="96"/>
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
@@ -22543,16 +22537,16 @@
       <c r="AI209" s="48"/>
       <c r="AJ209" s="48"/>
       <c r="AK209" s="47"/>
-      <c r="AL209" s="99"/>
-      <c r="AM209" s="99"/>
+      <c r="AL209" s="97"/>
+      <c r="AM209" s="97"/>
       <c r="AN209" s="2"/>
-      <c r="AO209" s="93"/>
-      <c r="AP209" s="93"/>
+      <c r="AO209" s="91"/>
+      <c r="AP209" s="91"/>
       <c r="AQ209" s="48"/>
-      <c r="AR209" s="93"/>
-      <c r="AS209" s="93"/>
-      <c r="AT209" s="92"/>
-      <c r="AU209" s="93"/>
+      <c r="AR209" s="91"/>
+      <c r="AS209" s="91"/>
+      <c r="AT209" s="90"/>
+      <c r="AU209" s="91"/>
       <c r="AV209" s="1"/>
       <c r="AW209" s="2"/>
       <c r="AX209" s="2"/>
@@ -22573,12 +22567,12 @@
       <c r="I210" s="2"/>
       <c r="J210" s="1"/>
       <c r="K210" s="2"/>
-      <c r="L210" s="97"/>
-      <c r="M210" s="98"/>
-      <c r="N210" s="98"/>
-      <c r="O210" s="98"/>
-      <c r="P210" s="98"/>
-      <c r="Q210" s="98"/>
+      <c r="L210" s="95"/>
+      <c r="M210" s="96"/>
+      <c r="N210" s="96"/>
+      <c r="O210" s="96"/>
+      <c r="P210" s="96"/>
+      <c r="Q210" s="96"/>
       <c r="R210" s="2"/>
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
@@ -22599,16 +22593,16 @@
       <c r="AI210" s="48"/>
       <c r="AJ210" s="48"/>
       <c r="AK210" s="47"/>
-      <c r="AL210" s="99"/>
-      <c r="AM210" s="99"/>
+      <c r="AL210" s="97"/>
+      <c r="AM210" s="97"/>
       <c r="AN210" s="2"/>
-      <c r="AO210" s="93"/>
-      <c r="AP210" s="93"/>
+      <c r="AO210" s="91"/>
+      <c r="AP210" s="91"/>
       <c r="AQ210" s="48"/>
-      <c r="AR210" s="93"/>
-      <c r="AS210" s="93"/>
-      <c r="AT210" s="92"/>
-      <c r="AU210" s="93"/>
+      <c r="AR210" s="91"/>
+      <c r="AS210" s="91"/>
+      <c r="AT210" s="90"/>
+      <c r="AU210" s="91"/>
       <c r="AV210" s="1"/>
       <c r="AW210" s="2"/>
       <c r="AX210" s="2"/>
@@ -22631,12 +22625,12 @@
       <c r="I211" s="2"/>
       <c r="J211" s="1"/>
       <c r="K211" s="2"/>
-      <c r="L211" s="97"/>
-      <c r="M211" s="98"/>
-      <c r="N211" s="98"/>
-      <c r="O211" s="98"/>
-      <c r="P211" s="98"/>
-      <c r="Q211" s="98"/>
+      <c r="L211" s="95"/>
+      <c r="M211" s="96"/>
+      <c r="N211" s="96"/>
+      <c r="O211" s="96"/>
+      <c r="P211" s="96"/>
+      <c r="Q211" s="96"/>
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
@@ -22657,16 +22651,16 @@
       <c r="AI211" s="48"/>
       <c r="AJ211" s="48"/>
       <c r="AK211" s="47"/>
-      <c r="AL211" s="99"/>
-      <c r="AM211" s="99"/>
+      <c r="AL211" s="97"/>
+      <c r="AM211" s="97"/>
       <c r="AN211" s="2"/>
-      <c r="AO211" s="93"/>
-      <c r="AP211" s="93"/>
+      <c r="AO211" s="91"/>
+      <c r="AP211" s="91"/>
       <c r="AQ211" s="48"/>
-      <c r="AR211" s="93"/>
-      <c r="AS211" s="93"/>
-      <c r="AT211" s="92"/>
-      <c r="AU211" s="93"/>
+      <c r="AR211" s="91"/>
+      <c r="AS211" s="91"/>
+      <c r="AT211" s="90"/>
+      <c r="AU211" s="91"/>
       <c r="AV211" s="1"/>
       <c r="AW211" s="2"/>
       <c r="AX211" s="2"/>
@@ -22687,12 +22681,12 @@
       <c r="I212" s="2"/>
       <c r="J212" s="1"/>
       <c r="K212" s="2"/>
-      <c r="L212" s="97"/>
-      <c r="M212" s="98"/>
-      <c r="N212" s="98"/>
-      <c r="O212" s="98"/>
-      <c r="P212" s="98"/>
-      <c r="Q212" s="98"/>
+      <c r="L212" s="95"/>
+      <c r="M212" s="96"/>
+      <c r="N212" s="96"/>
+      <c r="O212" s="96"/>
+      <c r="P212" s="96"/>
+      <c r="Q212" s="96"/>
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
@@ -22713,16 +22707,16 @@
       <c r="AI212" s="48"/>
       <c r="AJ212" s="48"/>
       <c r="AK212" s="47"/>
-      <c r="AL212" s="99"/>
-      <c r="AM212" s="99"/>
+      <c r="AL212" s="97"/>
+      <c r="AM212" s="97"/>
       <c r="AN212" s="2"/>
-      <c r="AO212" s="93"/>
-      <c r="AP212" s="93"/>
+      <c r="AO212" s="91"/>
+      <c r="AP212" s="91"/>
       <c r="AQ212" s="48"/>
-      <c r="AR212" s="93"/>
-      <c r="AS212" s="93"/>
-      <c r="AT212" s="92"/>
-      <c r="AU212" s="93"/>
+      <c r="AR212" s="91"/>
+      <c r="AS212" s="91"/>
+      <c r="AT212" s="90"/>
+      <c r="AU212" s="91"/>
       <c r="AV212" s="1"/>
       <c r="AW212" s="2"/>
       <c r="AX212" s="2"/>
@@ -22743,12 +22737,12 @@
       <c r="I213" s="2"/>
       <c r="J213" s="1"/>
       <c r="K213" s="2"/>
-      <c r="L213" s="97"/>
-      <c r="M213" s="98"/>
-      <c r="N213" s="98"/>
-      <c r="O213" s="98"/>
-      <c r="P213" s="98"/>
-      <c r="Q213" s="98"/>
+      <c r="L213" s="95"/>
+      <c r="M213" s="96"/>
+      <c r="N213" s="96"/>
+      <c r="O213" s="96"/>
+      <c r="P213" s="96"/>
+      <c r="Q213" s="96"/>
       <c r="R213" s="2"/>
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
@@ -22769,16 +22763,16 @@
       <c r="AI213" s="48"/>
       <c r="AJ213" s="48"/>
       <c r="AK213" s="47"/>
-      <c r="AL213" s="99"/>
-      <c r="AM213" s="99"/>
+      <c r="AL213" s="97"/>
+      <c r="AM213" s="97"/>
       <c r="AN213" s="2"/>
-      <c r="AO213" s="93"/>
-      <c r="AP213" s="93"/>
+      <c r="AO213" s="91"/>
+      <c r="AP213" s="91"/>
       <c r="AQ213" s="48"/>
-      <c r="AR213" s="93"/>
-      <c r="AS213" s="93"/>
-      <c r="AT213" s="92"/>
-      <c r="AU213" s="93"/>
+      <c r="AR213" s="91"/>
+      <c r="AS213" s="91"/>
+      <c r="AT213" s="90"/>
+      <c r="AU213" s="91"/>
       <c r="AV213" s="1"/>
       <c r="AW213" s="2"/>
       <c r="AX213" s="2"/>
@@ -22799,12 +22793,12 @@
       <c r="I214" s="2"/>
       <c r="J214" s="1"/>
       <c r="K214" s="2"/>
-      <c r="L214" s="97"/>
-      <c r="M214" s="98"/>
-      <c r="N214" s="98"/>
-      <c r="O214" s="98"/>
-      <c r="P214" s="98"/>
-      <c r="Q214" s="98"/>
+      <c r="L214" s="95"/>
+      <c r="M214" s="96"/>
+      <c r="N214" s="96"/>
+      <c r="O214" s="96"/>
+      <c r="P214" s="96"/>
+      <c r="Q214" s="96"/>
       <c r="R214" s="2"/>
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
@@ -22825,16 +22819,16 @@
       <c r="AI214" s="48"/>
       <c r="AJ214" s="48"/>
       <c r="AK214" s="47"/>
-      <c r="AL214" s="99"/>
-      <c r="AM214" s="99"/>
+      <c r="AL214" s="97"/>
+      <c r="AM214" s="97"/>
       <c r="AN214" s="2"/>
-      <c r="AO214" s="93"/>
-      <c r="AP214" s="93"/>
+      <c r="AO214" s="91"/>
+      <c r="AP214" s="91"/>
       <c r="AQ214" s="48"/>
-      <c r="AR214" s="93"/>
-      <c r="AS214" s="93"/>
-      <c r="AT214" s="92"/>
-      <c r="AU214" s="93"/>
+      <c r="AR214" s="91"/>
+      <c r="AS214" s="91"/>
+      <c r="AT214" s="90"/>
+      <c r="AU214" s="91"/>
       <c r="AV214" s="1"/>
       <c r="AW214" s="2"/>
       <c r="AX214" s="2"/>
@@ -22855,12 +22849,12 @@
       <c r="I215" s="2"/>
       <c r="J215" s="1"/>
       <c r="K215" s="2"/>
-      <c r="L215" s="97"/>
-      <c r="M215" s="98"/>
-      <c r="N215" s="98"/>
-      <c r="O215" s="98"/>
-      <c r="P215" s="98"/>
-      <c r="Q215" s="98"/>
+      <c r="L215" s="95"/>
+      <c r="M215" s="96"/>
+      <c r="N215" s="96"/>
+      <c r="O215" s="96"/>
+      <c r="P215" s="96"/>
+      <c r="Q215" s="96"/>
       <c r="R215" s="2"/>
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
@@ -22881,16 +22875,16 @@
       <c r="AI215" s="48"/>
       <c r="AJ215" s="48"/>
       <c r="AK215" s="47"/>
-      <c r="AL215" s="99"/>
-      <c r="AM215" s="99"/>
+      <c r="AL215" s="97"/>
+      <c r="AM215" s="97"/>
       <c r="AN215" s="2"/>
-      <c r="AO215" s="93"/>
-      <c r="AP215" s="93"/>
+      <c r="AO215" s="91"/>
+      <c r="AP215" s="91"/>
       <c r="AQ215" s="48"/>
-      <c r="AR215" s="93"/>
-      <c r="AS215" s="93"/>
-      <c r="AT215" s="92"/>
-      <c r="AU215" s="93"/>
+      <c r="AR215" s="91"/>
+      <c r="AS215" s="91"/>
+      <c r="AT215" s="90"/>
+      <c r="AU215" s="91"/>
       <c r="AV215" s="1"/>
       <c r="AW215" s="2"/>
       <c r="AX215" s="2"/>
@@ -22911,12 +22905,12 @@
       <c r="I216" s="2"/>
       <c r="J216" s="1"/>
       <c r="K216" s="2"/>
-      <c r="L216" s="97"/>
-      <c r="M216" s="98"/>
-      <c r="N216" s="98"/>
-      <c r="O216" s="98"/>
-      <c r="P216" s="98"/>
-      <c r="Q216" s="98"/>
+      <c r="L216" s="95"/>
+      <c r="M216" s="96"/>
+      <c r="N216" s="96"/>
+      <c r="O216" s="96"/>
+      <c r="P216" s="96"/>
+      <c r="Q216" s="96"/>
       <c r="R216" s="2"/>
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
@@ -22937,16 +22931,16 @@
       <c r="AI216" s="48"/>
       <c r="AJ216" s="48"/>
       <c r="AK216" s="47"/>
-      <c r="AL216" s="99"/>
-      <c r="AM216" s="99"/>
+      <c r="AL216" s="97"/>
+      <c r="AM216" s="97"/>
       <c r="AN216" s="2"/>
-      <c r="AO216" s="93"/>
-      <c r="AP216" s="93"/>
+      <c r="AO216" s="91"/>
+      <c r="AP216" s="91"/>
       <c r="AQ216" s="48"/>
-      <c r="AR216" s="93"/>
-      <c r="AS216" s="93"/>
-      <c r="AT216" s="92"/>
-      <c r="AU216" s="93"/>
+      <c r="AR216" s="91"/>
+      <c r="AS216" s="91"/>
+      <c r="AT216" s="90"/>
+      <c r="AU216" s="91"/>
       <c r="AV216" s="1"/>
       <c r="AW216" s="2"/>
       <c r="AX216" s="2"/>
@@ -22967,12 +22961,12 @@
       <c r="I217" s="2"/>
       <c r="J217" s="1"/>
       <c r="K217" s="2"/>
-      <c r="L217" s="97"/>
-      <c r="M217" s="98"/>
-      <c r="N217" s="98"/>
-      <c r="O217" s="98"/>
-      <c r="P217" s="98"/>
-      <c r="Q217" s="98"/>
+      <c r="L217" s="95"/>
+      <c r="M217" s="96"/>
+      <c r="N217" s="96"/>
+      <c r="O217" s="96"/>
+      <c r="P217" s="96"/>
+      <c r="Q217" s="96"/>
       <c r="R217" s="2"/>
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
@@ -22993,16 +22987,16 @@
       <c r="AI217" s="48"/>
       <c r="AJ217" s="48"/>
       <c r="AK217" s="47"/>
-      <c r="AL217" s="99"/>
-      <c r="AM217" s="99"/>
+      <c r="AL217" s="97"/>
+      <c r="AM217" s="97"/>
       <c r="AN217" s="2"/>
-      <c r="AO217" s="93"/>
-      <c r="AP217" s="93"/>
+      <c r="AO217" s="91"/>
+      <c r="AP217" s="91"/>
       <c r="AQ217" s="48"/>
-      <c r="AR217" s="93"/>
-      <c r="AS217" s="93"/>
-      <c r="AT217" s="92"/>
-      <c r="AU217" s="93"/>
+      <c r="AR217" s="91"/>
+      <c r="AS217" s="91"/>
+      <c r="AT217" s="90"/>
+      <c r="AU217" s="91"/>
       <c r="AV217" s="1"/>
       <c r="AW217" s="2"/>
       <c r="AX217" s="2"/>
@@ -23023,12 +23017,12 @@
       <c r="I218" s="2"/>
       <c r="J218" s="1"/>
       <c r="K218" s="2"/>
-      <c r="L218" s="97"/>
-      <c r="M218" s="98"/>
-      <c r="N218" s="98"/>
-      <c r="O218" s="98"/>
-      <c r="P218" s="98"/>
-      <c r="Q218" s="98"/>
+      <c r="L218" s="95"/>
+      <c r="M218" s="96"/>
+      <c r="N218" s="96"/>
+      <c r="O218" s="96"/>
+      <c r="P218" s="96"/>
+      <c r="Q218" s="96"/>
       <c r="R218" s="2"/>
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
@@ -23049,16 +23043,16 @@
       <c r="AI218" s="48"/>
       <c r="AJ218" s="48"/>
       <c r="AK218" s="47"/>
-      <c r="AL218" s="99"/>
-      <c r="AM218" s="99"/>
+      <c r="AL218" s="97"/>
+      <c r="AM218" s="97"/>
       <c r="AN218" s="2"/>
-      <c r="AO218" s="93"/>
-      <c r="AP218" s="93"/>
+      <c r="AO218" s="91"/>
+      <c r="AP218" s="91"/>
       <c r="AQ218" s="48"/>
-      <c r="AR218" s="93"/>
-      <c r="AS218" s="93"/>
-      <c r="AT218" s="92"/>
-      <c r="AU218" s="93"/>
+      <c r="AR218" s="91"/>
+      <c r="AS218" s="91"/>
+      <c r="AT218" s="90"/>
+      <c r="AU218" s="91"/>
       <c r="AV218" s="1"/>
       <c r="AW218" s="2"/>
       <c r="AX218" s="2"/>
@@ -23079,12 +23073,12 @@
       <c r="I219" s="2"/>
       <c r="J219" s="1"/>
       <c r="K219" s="2"/>
-      <c r="L219" s="97"/>
-      <c r="M219" s="98"/>
-      <c r="N219" s="98"/>
-      <c r="O219" s="98"/>
-      <c r="P219" s="98"/>
-      <c r="Q219" s="98"/>
+      <c r="L219" s="95"/>
+      <c r="M219" s="96"/>
+      <c r="N219" s="96"/>
+      <c r="O219" s="96"/>
+      <c r="P219" s="96"/>
+      <c r="Q219" s="96"/>
       <c r="R219" s="2"/>
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
@@ -23105,16 +23099,16 @@
       <c r="AI219" s="48"/>
       <c r="AJ219" s="48"/>
       <c r="AK219" s="47"/>
-      <c r="AL219" s="99"/>
-      <c r="AM219" s="99"/>
+      <c r="AL219" s="97"/>
+      <c r="AM219" s="97"/>
       <c r="AN219" s="2"/>
-      <c r="AO219" s="93"/>
-      <c r="AP219" s="93"/>
+      <c r="AO219" s="91"/>
+      <c r="AP219" s="91"/>
       <c r="AQ219" s="48"/>
-      <c r="AR219" s="93"/>
-      <c r="AS219" s="93"/>
-      <c r="AT219" s="92"/>
-      <c r="AU219" s="93"/>
+      <c r="AR219" s="91"/>
+      <c r="AS219" s="91"/>
+      <c r="AT219" s="90"/>
+      <c r="AU219" s="91"/>
       <c r="AV219" s="1"/>
       <c r="AW219" s="2"/>
       <c r="AX219" s="2"/>
@@ -23135,12 +23129,12 @@
       <c r="I220" s="2"/>
       <c r="J220" s="1"/>
       <c r="K220" s="2"/>
-      <c r="L220" s="97"/>
-      <c r="M220" s="98"/>
-      <c r="N220" s="98"/>
-      <c r="O220" s="98"/>
-      <c r="P220" s="98"/>
-      <c r="Q220" s="98"/>
+      <c r="L220" s="95"/>
+      <c r="M220" s="96"/>
+      <c r="N220" s="96"/>
+      <c r="O220" s="96"/>
+      <c r="P220" s="96"/>
+      <c r="Q220" s="96"/>
       <c r="R220" s="2"/>
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
@@ -23161,16 +23155,16 @@
       <c r="AI220" s="48"/>
       <c r="AJ220" s="48"/>
       <c r="AK220" s="47"/>
-      <c r="AL220" s="99"/>
-      <c r="AM220" s="99"/>
+      <c r="AL220" s="97"/>
+      <c r="AM220" s="97"/>
       <c r="AN220" s="2"/>
-      <c r="AO220" s="93"/>
-      <c r="AP220" s="93"/>
+      <c r="AO220" s="91"/>
+      <c r="AP220" s="91"/>
       <c r="AQ220" s="48"/>
-      <c r="AR220" s="93"/>
-      <c r="AS220" s="93"/>
-      <c r="AT220" s="92"/>
-      <c r="AU220" s="93"/>
+      <c r="AR220" s="91"/>
+      <c r="AS220" s="91"/>
+      <c r="AT220" s="90"/>
+      <c r="AU220" s="91"/>
       <c r="AV220" s="1"/>
       <c r="AW220" s="2"/>
       <c r="AX220" s="2"/>
@@ -23191,12 +23185,12 @@
       <c r="I221" s="2"/>
       <c r="J221" s="1"/>
       <c r="K221" s="2"/>
-      <c r="L221" s="97"/>
-      <c r="M221" s="98"/>
-      <c r="N221" s="98"/>
-      <c r="O221" s="98"/>
-      <c r="P221" s="98"/>
-      <c r="Q221" s="98"/>
+      <c r="L221" s="95"/>
+      <c r="M221" s="96"/>
+      <c r="N221" s="96"/>
+      <c r="O221" s="96"/>
+      <c r="P221" s="96"/>
+      <c r="Q221" s="96"/>
       <c r="R221" s="2"/>
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
@@ -23217,16 +23211,16 @@
       <c r="AI221" s="48"/>
       <c r="AJ221" s="48"/>
       <c r="AK221" s="47"/>
-      <c r="AL221" s="99"/>
-      <c r="AM221" s="99"/>
+      <c r="AL221" s="97"/>
+      <c r="AM221" s="97"/>
       <c r="AN221" s="2"/>
-      <c r="AO221" s="93"/>
-      <c r="AP221" s="93"/>
+      <c r="AO221" s="91"/>
+      <c r="AP221" s="91"/>
       <c r="AQ221" s="48"/>
-      <c r="AR221" s="93"/>
-      <c r="AS221" s="93"/>
-      <c r="AT221" s="92"/>
-      <c r="AU221" s="93"/>
+      <c r="AR221" s="91"/>
+      <c r="AS221" s="91"/>
+      <c r="AT221" s="90"/>
+      <c r="AU221" s="91"/>
       <c r="AV221" s="1"/>
       <c r="AW221" s="2"/>
       <c r="AX221" s="2"/>
@@ -23247,12 +23241,12 @@
       <c r="I222" s="2"/>
       <c r="J222" s="1"/>
       <c r="K222" s="2"/>
-      <c r="L222" s="97"/>
-      <c r="M222" s="98"/>
-      <c r="N222" s="98"/>
-      <c r="O222" s="98"/>
-      <c r="P222" s="98"/>
-      <c r="Q222" s="98"/>
+      <c r="L222" s="95"/>
+      <c r="M222" s="96"/>
+      <c r="N222" s="96"/>
+      <c r="O222" s="96"/>
+      <c r="P222" s="96"/>
+      <c r="Q222" s="96"/>
       <c r="R222" s="2"/>
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
@@ -23273,16 +23267,16 @@
       <c r="AI222" s="48"/>
       <c r="AJ222" s="48"/>
       <c r="AK222" s="47"/>
-      <c r="AL222" s="99"/>
-      <c r="AM222" s="99"/>
+      <c r="AL222" s="97"/>
+      <c r="AM222" s="97"/>
       <c r="AN222" s="2"/>
-      <c r="AO222" s="93"/>
-      <c r="AP222" s="93"/>
+      <c r="AO222" s="91"/>
+      <c r="AP222" s="91"/>
       <c r="AQ222" s="48"/>
-      <c r="AR222" s="93"/>
-      <c r="AS222" s="93"/>
-      <c r="AT222" s="92"/>
-      <c r="AU222" s="93"/>
+      <c r="AR222" s="91"/>
+      <c r="AS222" s="91"/>
+      <c r="AT222" s="90"/>
+      <c r="AU222" s="91"/>
       <c r="AV222" s="1"/>
       <c r="AW222" s="2"/>
       <c r="AX222" s="2"/>
@@ -23305,12 +23299,12 @@
       <c r="I223" s="2"/>
       <c r="J223" s="1"/>
       <c r="K223" s="2"/>
-      <c r="L223" s="97"/>
-      <c r="M223" s="98"/>
-      <c r="N223" s="98"/>
-      <c r="O223" s="98"/>
-      <c r="P223" s="98"/>
-      <c r="Q223" s="98"/>
+      <c r="L223" s="95"/>
+      <c r="M223" s="96"/>
+      <c r="N223" s="96"/>
+      <c r="O223" s="96"/>
+      <c r="P223" s="96"/>
+      <c r="Q223" s="96"/>
       <c r="R223" s="2"/>
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
@@ -23331,16 +23325,16 @@
       <c r="AI223" s="48"/>
       <c r="AJ223" s="48"/>
       <c r="AK223" s="47"/>
-      <c r="AL223" s="99"/>
-      <c r="AM223" s="99"/>
+      <c r="AL223" s="97"/>
+      <c r="AM223" s="97"/>
       <c r="AN223" s="2"/>
-      <c r="AO223" s="93"/>
-      <c r="AP223" s="93"/>
+      <c r="AO223" s="91"/>
+      <c r="AP223" s="91"/>
       <c r="AQ223" s="48"/>
-      <c r="AR223" s="93"/>
-      <c r="AS223" s="93"/>
-      <c r="AT223" s="92"/>
-      <c r="AU223" s="93"/>
+      <c r="AR223" s="91"/>
+      <c r="AS223" s="91"/>
+      <c r="AT223" s="90"/>
+      <c r="AU223" s="91"/>
       <c r="AV223" s="1"/>
       <c r="AW223" s="2"/>
       <c r="AX223" s="2"/>
@@ -23361,12 +23355,12 @@
       <c r="I224" s="2"/>
       <c r="J224" s="1"/>
       <c r="K224" s="2"/>
-      <c r="L224" s="97"/>
-      <c r="M224" s="98"/>
-      <c r="N224" s="98"/>
-      <c r="O224" s="98"/>
-      <c r="P224" s="98"/>
-      <c r="Q224" s="98"/>
+      <c r="L224" s="95"/>
+      <c r="M224" s="96"/>
+      <c r="N224" s="96"/>
+      <c r="O224" s="96"/>
+      <c r="P224" s="96"/>
+      <c r="Q224" s="96"/>
       <c r="R224" s="2"/>
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
@@ -23387,16 +23381,16 @@
       <c r="AI224" s="48"/>
       <c r="AJ224" s="48"/>
       <c r="AK224" s="47"/>
-      <c r="AL224" s="99"/>
-      <c r="AM224" s="99"/>
+      <c r="AL224" s="97"/>
+      <c r="AM224" s="97"/>
       <c r="AN224" s="2"/>
-      <c r="AO224" s="93"/>
-      <c r="AP224" s="93"/>
+      <c r="AO224" s="91"/>
+      <c r="AP224" s="91"/>
       <c r="AQ224" s="48"/>
-      <c r="AR224" s="93"/>
-      <c r="AS224" s="93"/>
-      <c r="AT224" s="92"/>
-      <c r="AU224" s="93"/>
+      <c r="AR224" s="91"/>
+      <c r="AS224" s="91"/>
+      <c r="AT224" s="90"/>
+      <c r="AU224" s="91"/>
       <c r="AV224" s="1"/>
       <c r="AW224" s="2"/>
       <c r="AX224" s="2"/>
@@ -23417,12 +23411,12 @@
       <c r="I225" s="2"/>
       <c r="J225" s="1"/>
       <c r="K225" s="2"/>
-      <c r="L225" s="97"/>
-      <c r="M225" s="98"/>
-      <c r="N225" s="98"/>
-      <c r="O225" s="98"/>
-      <c r="P225" s="98"/>
-      <c r="Q225" s="98"/>
+      <c r="L225" s="95"/>
+      <c r="M225" s="96"/>
+      <c r="N225" s="96"/>
+      <c r="O225" s="96"/>
+      <c r="P225" s="96"/>
+      <c r="Q225" s="96"/>
       <c r="R225" s="2"/>
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
@@ -23443,16 +23437,16 @@
       <c r="AI225" s="48"/>
       <c r="AJ225" s="48"/>
       <c r="AK225" s="47"/>
-      <c r="AL225" s="99"/>
-      <c r="AM225" s="99"/>
+      <c r="AL225" s="97"/>
+      <c r="AM225" s="97"/>
       <c r="AN225" s="2"/>
-      <c r="AO225" s="93"/>
-      <c r="AP225" s="93"/>
+      <c r="AO225" s="91"/>
+      <c r="AP225" s="91"/>
       <c r="AQ225" s="48"/>
-      <c r="AR225" s="93"/>
-      <c r="AS225" s="93"/>
-      <c r="AT225" s="92"/>
-      <c r="AU225" s="93"/>
+      <c r="AR225" s="91"/>
+      <c r="AS225" s="91"/>
+      <c r="AT225" s="90"/>
+      <c r="AU225" s="91"/>
       <c r="AV225" s="1"/>
       <c r="AW225" s="2"/>
       <c r="AX225" s="2"/>
@@ -23473,12 +23467,12 @@
       <c r="I226" s="2"/>
       <c r="J226" s="1"/>
       <c r="K226" s="2"/>
-      <c r="L226" s="97"/>
-      <c r="M226" s="98"/>
-      <c r="N226" s="98"/>
-      <c r="O226" s="98"/>
-      <c r="P226" s="98"/>
-      <c r="Q226" s="98"/>
+      <c r="L226" s="95"/>
+      <c r="M226" s="96"/>
+      <c r="N226" s="96"/>
+      <c r="O226" s="96"/>
+      <c r="P226" s="96"/>
+      <c r="Q226" s="96"/>
       <c r="R226" s="2"/>
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
@@ -23499,16 +23493,16 @@
       <c r="AI226" s="48"/>
       <c r="AJ226" s="48"/>
       <c r="AK226" s="47"/>
-      <c r="AL226" s="99"/>
-      <c r="AM226" s="99"/>
+      <c r="AL226" s="97"/>
+      <c r="AM226" s="97"/>
       <c r="AN226" s="2"/>
-      <c r="AO226" s="93"/>
-      <c r="AP226" s="93"/>
+      <c r="AO226" s="91"/>
+      <c r="AP226" s="91"/>
       <c r="AQ226" s="48"/>
-      <c r="AR226" s="93"/>
-      <c r="AS226" s="93"/>
-      <c r="AT226" s="92"/>
-      <c r="AU226" s="93"/>
+      <c r="AR226" s="91"/>
+      <c r="AS226" s="91"/>
+      <c r="AT226" s="90"/>
+      <c r="AU226" s="91"/>
       <c r="AV226" s="1"/>
       <c r="AW226" s="2"/>
       <c r="AX226" s="2"/>
@@ -23529,12 +23523,12 @@
       <c r="I227" s="2"/>
       <c r="J227" s="1"/>
       <c r="K227" s="2"/>
-      <c r="L227" s="97"/>
-      <c r="M227" s="98"/>
-      <c r="N227" s="98"/>
-      <c r="O227" s="98"/>
-      <c r="P227" s="98"/>
-      <c r="Q227" s="98"/>
+      <c r="L227" s="95"/>
+      <c r="M227" s="96"/>
+      <c r="N227" s="96"/>
+      <c r="O227" s="96"/>
+      <c r="P227" s="96"/>
+      <c r="Q227" s="96"/>
       <c r="R227" s="2"/>
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
@@ -23555,16 +23549,16 @@
       <c r="AI227" s="48"/>
       <c r="AJ227" s="48"/>
       <c r="AK227" s="47"/>
-      <c r="AL227" s="99"/>
-      <c r="AM227" s="99"/>
+      <c r="AL227" s="97"/>
+      <c r="AM227" s="97"/>
       <c r="AN227" s="2"/>
-      <c r="AO227" s="93"/>
-      <c r="AP227" s="93"/>
+      <c r="AO227" s="91"/>
+      <c r="AP227" s="91"/>
       <c r="AQ227" s="48"/>
-      <c r="AR227" s="93"/>
-      <c r="AS227" s="93"/>
-      <c r="AT227" s="92"/>
-      <c r="AU227" s="93"/>
+      <c r="AR227" s="91"/>
+      <c r="AS227" s="91"/>
+      <c r="AT227" s="90"/>
+      <c r="AU227" s="91"/>
       <c r="AV227" s="1"/>
       <c r="AW227" s="2"/>
       <c r="AX227" s="2"/>
@@ -23585,12 +23579,12 @@
       <c r="I228" s="2"/>
       <c r="J228" s="1"/>
       <c r="K228" s="2"/>
-      <c r="L228" s="97"/>
-      <c r="M228" s="98"/>
-      <c r="N228" s="98"/>
-      <c r="O228" s="98"/>
-      <c r="P228" s="98"/>
-      <c r="Q228" s="98"/>
+      <c r="L228" s="95"/>
+      <c r="M228" s="96"/>
+      <c r="N228" s="96"/>
+      <c r="O228" s="96"/>
+      <c r="P228" s="96"/>
+      <c r="Q228" s="96"/>
       <c r="R228" s="2"/>
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
@@ -23611,16 +23605,16 @@
       <c r="AI228" s="48"/>
       <c r="AJ228" s="48"/>
       <c r="AK228" s="47"/>
-      <c r="AL228" s="99"/>
-      <c r="AM228" s="99"/>
+      <c r="AL228" s="97"/>
+      <c r="AM228" s="97"/>
       <c r="AN228" s="2"/>
-      <c r="AO228" s="93"/>
-      <c r="AP228" s="93"/>
+      <c r="AO228" s="91"/>
+      <c r="AP228" s="91"/>
       <c r="AQ228" s="48"/>
-      <c r="AR228" s="93"/>
-      <c r="AS228" s="93"/>
-      <c r="AT228" s="92"/>
-      <c r="AU228" s="93"/>
+      <c r="AR228" s="91"/>
+      <c r="AS228" s="91"/>
+      <c r="AT228" s="90"/>
+      <c r="AU228" s="91"/>
       <c r="AV228" s="1"/>
       <c r="AW228" s="2"/>
       <c r="AX228" s="2"/>
@@ -23641,12 +23635,12 @@
       <c r="I229" s="2"/>
       <c r="J229" s="1"/>
       <c r="K229" s="2"/>
-      <c r="L229" s="97"/>
-      <c r="M229" s="98"/>
-      <c r="N229" s="98"/>
-      <c r="O229" s="98"/>
-      <c r="P229" s="98"/>
-      <c r="Q229" s="98"/>
+      <c r="L229" s="95"/>
+      <c r="M229" s="96"/>
+      <c r="N229" s="96"/>
+      <c r="O229" s="96"/>
+      <c r="P229" s="96"/>
+      <c r="Q229" s="96"/>
       <c r="R229" s="2"/>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
@@ -23667,16 +23661,16 @@
       <c r="AI229" s="48"/>
       <c r="AJ229" s="48"/>
       <c r="AK229" s="47"/>
-      <c r="AL229" s="99"/>
-      <c r="AM229" s="99"/>
+      <c r="AL229" s="97"/>
+      <c r="AM229" s="97"/>
       <c r="AN229" s="2"/>
-      <c r="AO229" s="93"/>
-      <c r="AP229" s="93"/>
+      <c r="AO229" s="91"/>
+      <c r="AP229" s="91"/>
       <c r="AQ229" s="48"/>
-      <c r="AR229" s="93"/>
-      <c r="AS229" s="93"/>
-      <c r="AT229" s="92"/>
-      <c r="AU229" s="93"/>
+      <c r="AR229" s="91"/>
+      <c r="AS229" s="91"/>
+      <c r="AT229" s="90"/>
+      <c r="AU229" s="91"/>
       <c r="AV229" s="1"/>
       <c r="AW229" s="2"/>
       <c r="AX229" s="2"/>
@@ -23697,12 +23691,12 @@
       <c r="I230" s="2"/>
       <c r="J230" s="1"/>
       <c r="K230" s="2"/>
-      <c r="L230" s="97"/>
-      <c r="M230" s="98"/>
-      <c r="N230" s="98"/>
-      <c r="O230" s="98"/>
-      <c r="P230" s="98"/>
-      <c r="Q230" s="98"/>
+      <c r="L230" s="95"/>
+      <c r="M230" s="96"/>
+      <c r="N230" s="96"/>
+      <c r="O230" s="96"/>
+      <c r="P230" s="96"/>
+      <c r="Q230" s="96"/>
       <c r="R230" s="2"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
@@ -23723,16 +23717,16 @@
       <c r="AI230" s="48"/>
       <c r="AJ230" s="48"/>
       <c r="AK230" s="47"/>
-      <c r="AL230" s="99"/>
-      <c r="AM230" s="99"/>
+      <c r="AL230" s="97"/>
+      <c r="AM230" s="97"/>
       <c r="AN230" s="2"/>
-      <c r="AO230" s="93"/>
-      <c r="AP230" s="93"/>
+      <c r="AO230" s="91"/>
+      <c r="AP230" s="91"/>
       <c r="AQ230" s="48"/>
-      <c r="AR230" s="93"/>
-      <c r="AS230" s="93"/>
-      <c r="AT230" s="92"/>
-      <c r="AU230" s="93"/>
+      <c r="AR230" s="91"/>
+      <c r="AS230" s="91"/>
+      <c r="AT230" s="90"/>
+      <c r="AU230" s="91"/>
       <c r="AV230" s="1"/>
       <c r="AW230" s="2"/>
       <c r="AX230" s="2"/>
@@ -23755,12 +23749,12 @@
       <c r="I231" s="2"/>
       <c r="J231" s="1"/>
       <c r="K231" s="2"/>
-      <c r="L231" s="97"/>
-      <c r="M231" s="98"/>
-      <c r="N231" s="98"/>
-      <c r="O231" s="98"/>
-      <c r="P231" s="98"/>
-      <c r="Q231" s="98"/>
+      <c r="L231" s="95"/>
+      <c r="M231" s="96"/>
+      <c r="N231" s="96"/>
+      <c r="O231" s="96"/>
+      <c r="P231" s="96"/>
+      <c r="Q231" s="96"/>
       <c r="R231" s="2"/>
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
@@ -23781,16 +23775,16 @@
       <c r="AI231" s="48"/>
       <c r="AJ231" s="48"/>
       <c r="AK231" s="47"/>
-      <c r="AL231" s="99"/>
-      <c r="AM231" s="99"/>
+      <c r="AL231" s="97"/>
+      <c r="AM231" s="97"/>
       <c r="AN231" s="2"/>
-      <c r="AO231" s="93"/>
-      <c r="AP231" s="93"/>
+      <c r="AO231" s="91"/>
+      <c r="AP231" s="91"/>
       <c r="AQ231" s="48"/>
-      <c r="AR231" s="93"/>
-      <c r="AS231" s="93"/>
-      <c r="AT231" s="92"/>
-      <c r="AU231" s="93"/>
+      <c r="AR231" s="91"/>
+      <c r="AS231" s="91"/>
+      <c r="AT231" s="90"/>
+      <c r="AU231" s="91"/>
       <c r="AV231" s="1"/>
       <c r="AW231" s="2"/>
       <c r="AX231" s="2"/>
@@ -23811,12 +23805,12 @@
       <c r="I232" s="2"/>
       <c r="J232" s="1"/>
       <c r="K232" s="2"/>
-      <c r="L232" s="97"/>
-      <c r="M232" s="98"/>
-      <c r="N232" s="98"/>
-      <c r="O232" s="98"/>
-      <c r="P232" s="98"/>
-      <c r="Q232" s="98"/>
+      <c r="L232" s="95"/>
+      <c r="M232" s="96"/>
+      <c r="N232" s="96"/>
+      <c r="O232" s="96"/>
+      <c r="P232" s="96"/>
+      <c r="Q232" s="96"/>
       <c r="R232" s="2"/>
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
@@ -23837,16 +23831,16 @@
       <c r="AI232" s="48"/>
       <c r="AJ232" s="48"/>
       <c r="AK232" s="47"/>
-      <c r="AL232" s="99"/>
-      <c r="AM232" s="99"/>
+      <c r="AL232" s="97"/>
+      <c r="AM232" s="97"/>
       <c r="AN232" s="2"/>
-      <c r="AO232" s="93"/>
-      <c r="AP232" s="93"/>
+      <c r="AO232" s="91"/>
+      <c r="AP232" s="91"/>
       <c r="AQ232" s="48"/>
-      <c r="AR232" s="93"/>
-      <c r="AS232" s="93"/>
-      <c r="AT232" s="92"/>
-      <c r="AU232" s="93"/>
+      <c r="AR232" s="91"/>
+      <c r="AS232" s="91"/>
+      <c r="AT232" s="90"/>
+      <c r="AU232" s="91"/>
       <c r="AV232" s="1"/>
       <c r="AW232" s="2"/>
       <c r="AX232" s="2"/>
@@ -23867,12 +23861,12 @@
       <c r="I233" s="2"/>
       <c r="J233" s="1"/>
       <c r="K233" s="2"/>
-      <c r="L233" s="97"/>
-      <c r="M233" s="98"/>
-      <c r="N233" s="98"/>
-      <c r="O233" s="98"/>
-      <c r="P233" s="98"/>
-      <c r="Q233" s="98"/>
+      <c r="L233" s="95"/>
+      <c r="M233" s="96"/>
+      <c r="N233" s="96"/>
+      <c r="O233" s="96"/>
+      <c r="P233" s="96"/>
+      <c r="Q233" s="96"/>
       <c r="R233" s="2"/>
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
@@ -23893,16 +23887,16 @@
       <c r="AI233" s="48"/>
       <c r="AJ233" s="48"/>
       <c r="AK233" s="47"/>
-      <c r="AL233" s="99"/>
-      <c r="AM233" s="99"/>
+      <c r="AL233" s="97"/>
+      <c r="AM233" s="97"/>
       <c r="AN233" s="2"/>
-      <c r="AO233" s="93"/>
-      <c r="AP233" s="93"/>
+      <c r="AO233" s="91"/>
+      <c r="AP233" s="91"/>
       <c r="AQ233" s="48"/>
-      <c r="AR233" s="93"/>
-      <c r="AS233" s="93"/>
-      <c r="AT233" s="92"/>
-      <c r="AU233" s="93"/>
+      <c r="AR233" s="91"/>
+      <c r="AS233" s="91"/>
+      <c r="AT233" s="90"/>
+      <c r="AU233" s="91"/>
       <c r="AV233" s="1"/>
       <c r="AW233" s="2"/>
       <c r="AX233" s="2"/>
@@ -23923,12 +23917,12 @@
       <c r="I234" s="2"/>
       <c r="J234" s="1"/>
       <c r="K234" s="2"/>
-      <c r="L234" s="97"/>
-      <c r="M234" s="98"/>
-      <c r="N234" s="98"/>
-      <c r="O234" s="98"/>
-      <c r="P234" s="98"/>
-      <c r="Q234" s="98"/>
+      <c r="L234" s="95"/>
+      <c r="M234" s="96"/>
+      <c r="N234" s="96"/>
+      <c r="O234" s="96"/>
+      <c r="P234" s="96"/>
+      <c r="Q234" s="96"/>
       <c r="R234" s="2"/>
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
@@ -23949,16 +23943,16 @@
       <c r="AI234" s="48"/>
       <c r="AJ234" s="48"/>
       <c r="AK234" s="47"/>
-      <c r="AL234" s="99"/>
-      <c r="AM234" s="99"/>
+      <c r="AL234" s="97"/>
+      <c r="AM234" s="97"/>
       <c r="AN234" s="2"/>
-      <c r="AO234" s="93"/>
-      <c r="AP234" s="93"/>
+      <c r="AO234" s="91"/>
+      <c r="AP234" s="91"/>
       <c r="AQ234" s="48"/>
-      <c r="AR234" s="93"/>
-      <c r="AS234" s="93"/>
-      <c r="AT234" s="92"/>
-      <c r="AU234" s="93"/>
+      <c r="AR234" s="91"/>
+      <c r="AS234" s="91"/>
+      <c r="AT234" s="90"/>
+      <c r="AU234" s="91"/>
       <c r="AV234" s="1"/>
       <c r="AW234" s="2"/>
       <c r="AX234" s="2"/>
@@ -23979,12 +23973,12 @@
       <c r="I235" s="2"/>
       <c r="J235" s="1"/>
       <c r="K235" s="2"/>
-      <c r="L235" s="97"/>
-      <c r="M235" s="98"/>
-      <c r="N235" s="98"/>
-      <c r="O235" s="98"/>
-      <c r="P235" s="98"/>
-      <c r="Q235" s="98"/>
+      <c r="L235" s="95"/>
+      <c r="M235" s="96"/>
+      <c r="N235" s="96"/>
+      <c r="O235" s="96"/>
+      <c r="P235" s="96"/>
+      <c r="Q235" s="96"/>
       <c r="R235" s="2"/>
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
@@ -24005,16 +23999,16 @@
       <c r="AI235" s="48"/>
       <c r="AJ235" s="48"/>
       <c r="AK235" s="47"/>
-      <c r="AL235" s="99"/>
-      <c r="AM235" s="99"/>
+      <c r="AL235" s="97"/>
+      <c r="AM235" s="97"/>
       <c r="AN235" s="2"/>
-      <c r="AO235" s="93"/>
-      <c r="AP235" s="93"/>
+      <c r="AO235" s="91"/>
+      <c r="AP235" s="91"/>
       <c r="AQ235" s="48"/>
-      <c r="AR235" s="93"/>
-      <c r="AS235" s="93"/>
-      <c r="AT235" s="92"/>
-      <c r="AU235" s="93"/>
+      <c r="AR235" s="91"/>
+      <c r="AS235" s="91"/>
+      <c r="AT235" s="90"/>
+      <c r="AU235" s="91"/>
       <c r="AV235" s="1"/>
       <c r="AW235" s="2"/>
       <c r="AX235" s="2"/>
@@ -24035,12 +24029,12 @@
       <c r="I236" s="2"/>
       <c r="J236" s="1"/>
       <c r="K236" s="2"/>
-      <c r="L236" s="97"/>
-      <c r="M236" s="98"/>
-      <c r="N236" s="98"/>
-      <c r="O236" s="98"/>
-      <c r="P236" s="98"/>
-      <c r="Q236" s="98"/>
+      <c r="L236" s="95"/>
+      <c r="M236" s="96"/>
+      <c r="N236" s="96"/>
+      <c r="O236" s="96"/>
+      <c r="P236" s="96"/>
+      <c r="Q236" s="96"/>
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
@@ -24061,16 +24055,16 @@
       <c r="AI236" s="48"/>
       <c r="AJ236" s="48"/>
       <c r="AK236" s="47"/>
-      <c r="AL236" s="99"/>
-      <c r="AM236" s="99"/>
+      <c r="AL236" s="97"/>
+      <c r="AM236" s="97"/>
       <c r="AN236" s="2"/>
-      <c r="AO236" s="93"/>
-      <c r="AP236" s="93"/>
+      <c r="AO236" s="91"/>
+      <c r="AP236" s="91"/>
       <c r="AQ236" s="48"/>
-      <c r="AR236" s="93"/>
-      <c r="AS236" s="93"/>
-      <c r="AT236" s="92"/>
-      <c r="AU236" s="93"/>
+      <c r="AR236" s="91"/>
+      <c r="AS236" s="91"/>
+      <c r="AT236" s="90"/>
+      <c r="AU236" s="91"/>
       <c r="AV236" s="1"/>
       <c r="AW236" s="2"/>
       <c r="AX236" s="2"/>
@@ -24091,12 +24085,12 @@
       <c r="I237" s="2"/>
       <c r="J237" s="1"/>
       <c r="K237" s="2"/>
-      <c r="L237" s="97"/>
-      <c r="M237" s="98"/>
-      <c r="N237" s="98"/>
-      <c r="O237" s="98"/>
-      <c r="P237" s="98"/>
-      <c r="Q237" s="98"/>
+      <c r="L237" s="95"/>
+      <c r="M237" s="96"/>
+      <c r="N237" s="96"/>
+      <c r="O237" s="96"/>
+      <c r="P237" s="96"/>
+      <c r="Q237" s="96"/>
       <c r="R237" s="2"/>
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
@@ -24117,16 +24111,16 @@
       <c r="AI237" s="48"/>
       <c r="AJ237" s="48"/>
       <c r="AK237" s="47"/>
-      <c r="AL237" s="99"/>
-      <c r="AM237" s="99"/>
+      <c r="AL237" s="97"/>
+      <c r="AM237" s="97"/>
       <c r="AN237" s="2"/>
-      <c r="AO237" s="93"/>
-      <c r="AP237" s="93"/>
+      <c r="AO237" s="91"/>
+      <c r="AP237" s="91"/>
       <c r="AQ237" s="48"/>
-      <c r="AR237" s="93"/>
-      <c r="AS237" s="93"/>
-      <c r="AT237" s="92"/>
-      <c r="AU237" s="93"/>
+      <c r="AR237" s="91"/>
+      <c r="AS237" s="91"/>
+      <c r="AT237" s="90"/>
+      <c r="AU237" s="91"/>
       <c r="AV237" s="1"/>
       <c r="AW237" s="2"/>
       <c r="AX237" s="2"/>
@@ -24147,12 +24141,12 @@
       <c r="I238" s="2"/>
       <c r="J238" s="1"/>
       <c r="K238" s="2"/>
-      <c r="L238" s="97"/>
-      <c r="M238" s="98"/>
-      <c r="N238" s="98"/>
-      <c r="O238" s="98"/>
-      <c r="P238" s="98"/>
-      <c r="Q238" s="98"/>
+      <c r="L238" s="95"/>
+      <c r="M238" s="96"/>
+      <c r="N238" s="96"/>
+      <c r="O238" s="96"/>
+      <c r="P238" s="96"/>
+      <c r="Q238" s="96"/>
       <c r="R238" s="2"/>
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
@@ -24173,16 +24167,16 @@
       <c r="AI238" s="48"/>
       <c r="AJ238" s="48"/>
       <c r="AK238" s="47"/>
-      <c r="AL238" s="99"/>
-      <c r="AM238" s="99"/>
+      <c r="AL238" s="97"/>
+      <c r="AM238" s="97"/>
       <c r="AN238" s="2"/>
-      <c r="AO238" s="93"/>
-      <c r="AP238" s="93"/>
+      <c r="AO238" s="91"/>
+      <c r="AP238" s="91"/>
       <c r="AQ238" s="48"/>
-      <c r="AR238" s="93"/>
-      <c r="AS238" s="93"/>
-      <c r="AT238" s="92"/>
-      <c r="AU238" s="93"/>
+      <c r="AR238" s="91"/>
+      <c r="AS238" s="91"/>
+      <c r="AT238" s="90"/>
+      <c r="AU238" s="91"/>
       <c r="AV238" s="1"/>
       <c r="AW238" s="2"/>
       <c r="AX238" s="2"/>
@@ -24203,12 +24197,12 @@
       <c r="I239" s="2"/>
       <c r="J239" s="1"/>
       <c r="K239" s="2"/>
-      <c r="L239" s="97"/>
-      <c r="M239" s="98"/>
-      <c r="N239" s="98"/>
-      <c r="O239" s="98"/>
-      <c r="P239" s="98"/>
-      <c r="Q239" s="98"/>
+      <c r="L239" s="95"/>
+      <c r="M239" s="96"/>
+      <c r="N239" s="96"/>
+      <c r="O239" s="96"/>
+      <c r="P239" s="96"/>
+      <c r="Q239" s="96"/>
       <c r="R239" s="2"/>
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
@@ -24229,16 +24223,16 @@
       <c r="AI239" s="48"/>
       <c r="AJ239" s="48"/>
       <c r="AK239" s="47"/>
-      <c r="AL239" s="99"/>
-      <c r="AM239" s="99"/>
+      <c r="AL239" s="97"/>
+      <c r="AM239" s="97"/>
       <c r="AN239" s="2"/>
-      <c r="AO239" s="93"/>
-      <c r="AP239" s="93"/>
+      <c r="AO239" s="91"/>
+      <c r="AP239" s="91"/>
       <c r="AQ239" s="48"/>
-      <c r="AR239" s="93"/>
-      <c r="AS239" s="93"/>
-      <c r="AT239" s="92"/>
-      <c r="AU239" s="93"/>
+      <c r="AR239" s="91"/>
+      <c r="AS239" s="91"/>
+      <c r="AT239" s="90"/>
+      <c r="AU239" s="91"/>
       <c r="AV239" s="1"/>
       <c r="AW239" s="2"/>
       <c r="AX239" s="2"/>
@@ -24261,12 +24255,12 @@
       <c r="I240" s="2"/>
       <c r="J240" s="1"/>
       <c r="K240" s="2"/>
-      <c r="L240" s="97"/>
-      <c r="M240" s="98"/>
-      <c r="N240" s="98"/>
-      <c r="O240" s="98"/>
-      <c r="P240" s="98"/>
-      <c r="Q240" s="98"/>
+      <c r="L240" s="95"/>
+      <c r="M240" s="96"/>
+      <c r="N240" s="96"/>
+      <c r="O240" s="96"/>
+      <c r="P240" s="96"/>
+      <c r="Q240" s="96"/>
       <c r="R240" s="2"/>
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
@@ -24287,16 +24281,16 @@
       <c r="AI240" s="48"/>
       <c r="AJ240" s="48"/>
       <c r="AK240" s="47"/>
-      <c r="AL240" s="99"/>
-      <c r="AM240" s="99"/>
+      <c r="AL240" s="97"/>
+      <c r="AM240" s="97"/>
       <c r="AN240" s="2"/>
-      <c r="AO240" s="93"/>
-      <c r="AP240" s="93"/>
+      <c r="AO240" s="91"/>
+      <c r="AP240" s="91"/>
       <c r="AQ240" s="48"/>
-      <c r="AR240" s="93"/>
-      <c r="AS240" s="93"/>
-      <c r="AT240" s="92"/>
-      <c r="AU240" s="93"/>
+      <c r="AR240" s="91"/>
+      <c r="AS240" s="91"/>
+      <c r="AT240" s="90"/>
+      <c r="AU240" s="91"/>
       <c r="AV240" s="1"/>
       <c r="AW240" s="2"/>
       <c r="AX240" s="2"/>
@@ -24317,12 +24311,12 @@
       <c r="I241" s="2"/>
       <c r="J241" s="1"/>
       <c r="K241" s="2"/>
-      <c r="L241" s="97"/>
-      <c r="M241" s="98"/>
-      <c r="N241" s="98"/>
-      <c r="O241" s="98"/>
-      <c r="P241" s="98"/>
-      <c r="Q241" s="98"/>
+      <c r="L241" s="95"/>
+      <c r="M241" s="96"/>
+      <c r="N241" s="96"/>
+      <c r="O241" s="96"/>
+      <c r="P241" s="96"/>
+      <c r="Q241" s="96"/>
       <c r="R241" s="2"/>
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
@@ -24343,16 +24337,16 @@
       <c r="AI241" s="48"/>
       <c r="AJ241" s="48"/>
       <c r="AK241" s="47"/>
-      <c r="AL241" s="99"/>
-      <c r="AM241" s="99"/>
+      <c r="AL241" s="97"/>
+      <c r="AM241" s="97"/>
       <c r="AN241" s="2"/>
-      <c r="AO241" s="93"/>
-      <c r="AP241" s="93"/>
+      <c r="AO241" s="91"/>
+      <c r="AP241" s="91"/>
       <c r="AQ241" s="48"/>
-      <c r="AR241" s="93"/>
-      <c r="AS241" s="93"/>
-      <c r="AT241" s="92"/>
-      <c r="AU241" s="93"/>
+      <c r="AR241" s="91"/>
+      <c r="AS241" s="91"/>
+      <c r="AT241" s="90"/>
+      <c r="AU241" s="91"/>
       <c r="AV241" s="1"/>
       <c r="AW241" s="2"/>
       <c r="AX241" s="2"/>
@@ -24373,12 +24367,12 @@
       <c r="I242" s="2"/>
       <c r="J242" s="1"/>
       <c r="K242" s="2"/>
-      <c r="L242" s="97"/>
-      <c r="M242" s="98"/>
-      <c r="N242" s="98"/>
-      <c r="O242" s="98"/>
-      <c r="P242" s="98"/>
-      <c r="Q242" s="98"/>
+      <c r="L242" s="95"/>
+      <c r="M242" s="96"/>
+      <c r="N242" s="96"/>
+      <c r="O242" s="96"/>
+      <c r="P242" s="96"/>
+      <c r="Q242" s="96"/>
       <c r="R242" s="2"/>
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
@@ -24399,16 +24393,16 @@
       <c r="AI242" s="48"/>
       <c r="AJ242" s="48"/>
       <c r="AK242" s="47"/>
-      <c r="AL242" s="99"/>
-      <c r="AM242" s="99"/>
+      <c r="AL242" s="97"/>
+      <c r="AM242" s="97"/>
       <c r="AN242" s="2"/>
-      <c r="AO242" s="93"/>
-      <c r="AP242" s="93"/>
+      <c r="AO242" s="91"/>
+      <c r="AP242" s="91"/>
       <c r="AQ242" s="48"/>
-      <c r="AR242" s="93"/>
-      <c r="AS242" s="93"/>
-      <c r="AT242" s="92"/>
-      <c r="AU242" s="93"/>
+      <c r="AR242" s="91"/>
+      <c r="AS242" s="91"/>
+      <c r="AT242" s="90"/>
+      <c r="AU242" s="91"/>
       <c r="AV242" s="1"/>
       <c r="AW242" s="2"/>
       <c r="AX242" s="2"/>
@@ -24429,12 +24423,12 @@
       <c r="I243" s="2"/>
       <c r="J243" s="1"/>
       <c r="K243" s="2"/>
-      <c r="L243" s="97"/>
-      <c r="M243" s="98"/>
-      <c r="N243" s="98"/>
-      <c r="O243" s="98"/>
-      <c r="P243" s="98"/>
-      <c r="Q243" s="98"/>
+      <c r="L243" s="95"/>
+      <c r="M243" s="96"/>
+      <c r="N243" s="96"/>
+      <c r="O243" s="96"/>
+      <c r="P243" s="96"/>
+      <c r="Q243" s="96"/>
       <c r="R243" s="2"/>
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
@@ -24455,16 +24449,16 @@
       <c r="AI243" s="48"/>
       <c r="AJ243" s="48"/>
       <c r="AK243" s="47"/>
-      <c r="AL243" s="99"/>
-      <c r="AM243" s="99"/>
+      <c r="AL243" s="97"/>
+      <c r="AM243" s="97"/>
       <c r="AN243" s="2"/>
-      <c r="AO243" s="93"/>
-      <c r="AP243" s="93"/>
+      <c r="AO243" s="91"/>
+      <c r="AP243" s="91"/>
       <c r="AQ243" s="48"/>
-      <c r="AR243" s="93"/>
-      <c r="AS243" s="93"/>
-      <c r="AT243" s="92"/>
-      <c r="AU243" s="93"/>
+      <c r="AR243" s="91"/>
+      <c r="AS243" s="91"/>
+      <c r="AT243" s="90"/>
+      <c r="AU243" s="91"/>
       <c r="AV243" s="1"/>
       <c r="AW243" s="2"/>
       <c r="AX243" s="2"/>
@@ -24485,12 +24479,12 @@
       <c r="I244" s="2"/>
       <c r="J244" s="1"/>
       <c r="K244" s="2"/>
-      <c r="L244" s="97"/>
-      <c r="M244" s="98"/>
-      <c r="N244" s="98"/>
-      <c r="O244" s="98"/>
-      <c r="P244" s="98"/>
-      <c r="Q244" s="98"/>
+      <c r="L244" s="95"/>
+      <c r="M244" s="96"/>
+      <c r="N244" s="96"/>
+      <c r="O244" s="96"/>
+      <c r="P244" s="96"/>
+      <c r="Q244" s="96"/>
       <c r="R244" s="2"/>
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
@@ -24511,16 +24505,16 @@
       <c r="AI244" s="48"/>
       <c r="AJ244" s="48"/>
       <c r="AK244" s="47"/>
-      <c r="AL244" s="99"/>
-      <c r="AM244" s="99"/>
+      <c r="AL244" s="97"/>
+      <c r="AM244" s="97"/>
       <c r="AN244" s="2"/>
-      <c r="AO244" s="93"/>
-      <c r="AP244" s="93"/>
+      <c r="AO244" s="91"/>
+      <c r="AP244" s="91"/>
       <c r="AQ244" s="48"/>
-      <c r="AR244" s="93"/>
-      <c r="AS244" s="93"/>
-      <c r="AT244" s="92"/>
-      <c r="AU244" s="93"/>
+      <c r="AR244" s="91"/>
+      <c r="AS244" s="91"/>
+      <c r="AT244" s="90"/>
+      <c r="AU244" s="91"/>
       <c r="AV244" s="1"/>
       <c r="AW244" s="2"/>
       <c r="AX244" s="2"/>
@@ -24541,12 +24535,12 @@
       <c r="I245" s="2"/>
       <c r="J245" s="1"/>
       <c r="K245" s="2"/>
-      <c r="L245" s="97"/>
-      <c r="M245" s="98"/>
-      <c r="N245" s="98"/>
-      <c r="O245" s="98"/>
-      <c r="P245" s="98"/>
-      <c r="Q245" s="98"/>
+      <c r="L245" s="95"/>
+      <c r="M245" s="96"/>
+      <c r="N245" s="96"/>
+      <c r="O245" s="96"/>
+      <c r="P245" s="96"/>
+      <c r="Q245" s="96"/>
       <c r="R245" s="2"/>
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
@@ -24567,14 +24561,14 @@
       <c r="AI245" s="48"/>
       <c r="AJ245" s="48"/>
       <c r="AK245" s="47"/>
-      <c r="AL245" s="99"/>
-      <c r="AM245" s="99"/>
+      <c r="AL245" s="97"/>
+      <c r="AM245" s="97"/>
       <c r="AN245" s="2"/>
-      <c r="AO245" s="93"/>
-      <c r="AP245" s="93"/>
+      <c r="AO245" s="91"/>
+      <c r="AP245" s="91"/>
       <c r="AQ245" s="48"/>
-      <c r="AR245" s="93"/>
-      <c r="AS245" s="93"/>
+      <c r="AR245" s="91"/>
+      <c r="AS245" s="91"/>
       <c r="AT245" s="2"/>
       <c r="AU245" s="2"/>
       <c r="AV245" s="2"/>
@@ -24597,12 +24591,12 @@
       <c r="I246" s="2"/>
       <c r="J246" s="1"/>
       <c r="K246" s="2"/>
-      <c r="L246" s="97"/>
-      <c r="M246" s="98"/>
-      <c r="N246" s="98"/>
-      <c r="O246" s="98"/>
-      <c r="P246" s="98"/>
-      <c r="Q246" s="98"/>
+      <c r="L246" s="95"/>
+      <c r="M246" s="96"/>
+      <c r="N246" s="96"/>
+      <c r="O246" s="96"/>
+      <c r="P246" s="96"/>
+      <c r="Q246" s="96"/>
       <c r="R246" s="2"/>
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
@@ -24623,14 +24617,14 @@
       <c r="AI246" s="48"/>
       <c r="AJ246" s="48"/>
       <c r="AK246" s="47"/>
-      <c r="AL246" s="99"/>
-      <c r="AM246" s="99"/>
+      <c r="AL246" s="97"/>
+      <c r="AM246" s="97"/>
       <c r="AN246" s="2"/>
-      <c r="AO246" s="93"/>
-      <c r="AP246" s="93"/>
+      <c r="AO246" s="91"/>
+      <c r="AP246" s="91"/>
       <c r="AQ246" s="48"/>
-      <c r="AR246" s="93"/>
-      <c r="AS246" s="93"/>
+      <c r="AR246" s="91"/>
+      <c r="AS246" s="91"/>
       <c r="AT246" s="2"/>
       <c r="AU246" s="2"/>
       <c r="AV246" s="2"/>
@@ -24785,7 +24779,7 @@
   <dimension ref="A1:AL245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -34426,7 +34420,7 @@
   <dimension ref="A1:AH245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -43244,7 +43238,7 @@
   <dimension ref="A1:AO245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -54796,7 +54790,7 @@
   <dimension ref="A1:N245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
